--- a/presupuesto/PRESUPUESTO_CURSO_EDIF_PRIM_2018.xlsx
+++ b/presupuesto/PRESUPUESTO_CURSO_EDIF_PRIM_2018.xlsx
@@ -5,26 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\proyecto edificios\proyecto-CI6501\presupuesto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador.DESKTOP-HAFAICN\Desktop\proyecto-CI6501\presupuesto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415865A8-649D-4110-BE7E-7CAE275E093B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D06B1B-82D9-4221-B0B8-D1CEDFE8A94C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Presupuesto Original" sheetId="1" r:id="rId1"/>
     <sheet name="GG" sheetId="2" r:id="rId2"/>
     <sheet name="Personal CD" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="866">
   <si>
     <t>ITEMIZACION DEL PRESUPUESTO</t>
   </si>
@@ -2613,17 +2607,36 @@
   </si>
   <si>
     <t>Se hizo proporcional a cantiadad de trabajadores de CD</t>
+  </si>
+  <si>
+    <t>GASTOS DE ADMINISTRACIÓN CENTRAL</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Celulares</t>
+  </si>
+  <si>
+    <t>gra</t>
+  </si>
+  <si>
+    <t>GASTOS AGUA (MES PROMEDIO)</t>
+  </si>
+  <si>
+    <t>GASTOS ELECTRICIDAD (MES PROMEDIO)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2815,6 +2828,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -2884,7 +2903,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -3627,11 +3646,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4064,39 +4093,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="11"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="11"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4118,9 +4114,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4142,9 +4135,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4218,7 +4208,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
@@ -4247,7 +4236,6 @@
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
@@ -4299,8 +4287,70 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="11"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="11"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4387,7 +4437,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4454,7 +4504,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4648,7 +4698,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CL"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4685,7 +4735,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="746759488"/>
@@ -4764,7 +4814,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CL"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4802,7 +4852,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="279484656"/>
@@ -4850,7 +4900,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CL"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5424,13 +5474,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>4857</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>541694</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>176548</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>484544</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52723</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5453,8 +5503,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6596157" y="50800"/>
-          <a:ext cx="7295777" cy="3249948"/>
+          <a:off x="4586382" y="12700"/>
+          <a:ext cx="6147062" cy="2992773"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5508,7 +5558,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5812,34 +5862,34 @@
       <selection pane="bottomLeft" activeCell="E488" sqref="E488"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="48.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5" style="1" customWidth="1"/>
     <col min="12" max="1025" width="9.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+    <row r="1" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
@@ -5850,7 +5900,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13" t="s">
@@ -5861,7 +5911,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="18" t="s">
         <v>3</v>
@@ -5869,10 +5919,10 @@
       <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="152" t="s">
+      <c r="D4" s="219" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="153" t="s">
+      <c r="E4" s="220" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="20" t="s">
@@ -5882,12 +5932,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="21"/>
       <c r="C5" s="22"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="153"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="220"/>
       <c r="F5" s="23" t="s">
         <v>9</v>
       </c>
@@ -5895,7 +5945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="24" t="s">
         <v>11</v>
@@ -5908,7 +5958,7 @@
       <c r="F6" s="26"/>
       <c r="G6" s="28"/>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="29" t="s">
         <v>13</v>
@@ -5925,7 +5975,7 @@
       <c r="F7" s="33"/>
       <c r="G7" s="34"/>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8" s="29" t="s">
         <v>16</v>
@@ -5938,7 +5988,7 @@
       <c r="F8" s="33"/>
       <c r="G8" s="34"/>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="36" t="s">
         <v>18</v>
@@ -5955,7 +6005,7 @@
       <c r="F9" s="40"/>
       <c r="G9" s="41"/>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="36" t="s">
         <v>21</v>
@@ -5972,7 +6022,7 @@
       <c r="F10" s="40"/>
       <c r="G10" s="41"/>
     </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="36" t="s">
         <v>23</v>
@@ -5989,7 +6039,7 @@
       <c r="F11" s="40"/>
       <c r="G11" s="41"/>
     </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="36" t="s">
         <v>25</v>
@@ -6006,7 +6056,7 @@
       <c r="F12" s="40"/>
       <c r="G12" s="41"/>
     </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="36" t="s">
         <v>27</v>
@@ -6023,7 +6073,7 @@
       <c r="F13" s="40"/>
       <c r="G13" s="41"/>
     </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="29" t="s">
         <v>29</v>
@@ -6036,7 +6086,7 @@
       <c r="F14" s="33"/>
       <c r="G14" s="34"/>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="36" t="s">
         <v>31</v>
@@ -6053,7 +6103,7 @@
       <c r="F15" s="40"/>
       <c r="G15" s="41"/>
     </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="36" t="s">
         <v>34</v>
@@ -6070,7 +6120,7 @@
       <c r="F16" s="40"/>
       <c r="G16" s="41"/>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="36" t="s">
         <v>36</v>
@@ -6087,7 +6137,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="41"/>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="36" t="s">
         <v>38</v>
@@ -6104,7 +6154,7 @@
       <c r="F18" s="40"/>
       <c r="G18" s="41"/>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" s="36" t="s">
         <v>40</v>
@@ -6121,7 +6171,7 @@
       <c r="F19" s="40"/>
       <c r="G19" s="41"/>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="36" t="s">
         <v>42</v>
@@ -6138,7 +6188,7 @@
       <c r="F20" s="40"/>
       <c r="G20" s="41"/>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="36" t="s">
         <v>44</v>
@@ -6155,7 +6205,7 @@
       <c r="F21" s="40"/>
       <c r="G21" s="41"/>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
       <c r="B22" s="36" t="s">
         <v>46</v>
@@ -6172,7 +6222,7 @@
       <c r="F22" s="40"/>
       <c r="G22" s="41"/>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="36" t="s">
         <v>48</v>
@@ -6189,7 +6239,7 @@
       <c r="F23" s="40"/>
       <c r="G23" s="41"/>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="42" t="s">
         <v>50</v>
@@ -6206,7 +6256,7 @@
       <c r="F24" s="46"/>
       <c r="G24" s="47"/>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
       <c r="B25" s="42" t="s">
         <v>52</v>
@@ -6223,7 +6273,7 @@
       <c r="F25" s="46"/>
       <c r="G25" s="47"/>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" s="42" t="s">
         <v>54</v>
@@ -6240,7 +6290,7 @@
       <c r="F26" s="46"/>
       <c r="G26" s="47"/>
     </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
       <c r="B27" s="48"/>
       <c r="C27" s="49"/>
@@ -6249,18 +6299,18 @@
       <c r="F27" s="52"/>
       <c r="G27" s="53"/>
     </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
-      <c r="B28" s="148" t="s">
+      <c r="B28" s="221" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="148"/>
+      <c r="C28" s="221"/>
       <c r="D28" s="26"/>
       <c r="E28" s="27"/>
       <c r="F28" s="26"/>
       <c r="G28" s="28"/>
     </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="B29" s="54" t="s">
         <v>57</v>
@@ -6273,7 +6323,7 @@
       <c r="F29" s="55"/>
       <c r="G29" s="57"/>
     </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
       <c r="B30" s="58" t="s">
         <v>59</v>
@@ -6290,7 +6340,7 @@
       <c r="F30" s="60"/>
       <c r="G30" s="61"/>
     </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
       <c r="B31" s="58" t="s">
         <v>61</v>
@@ -6307,7 +6357,7 @@
       <c r="F31" s="60"/>
       <c r="G31" s="61"/>
     </row>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
       <c r="B32" s="29" t="s">
         <v>63</v>
@@ -6320,7 +6370,7 @@
       <c r="F32" s="33"/>
       <c r="G32" s="34"/>
     </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
       <c r="B33" s="58" t="s">
         <v>65</v>
@@ -6337,7 +6387,7 @@
       <c r="F33" s="60"/>
       <c r="G33" s="61"/>
     </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="65"/>
       <c r="C34" s="66" t="s">
@@ -6351,7 +6401,7 @@
       <c r="F34" s="67"/>
       <c r="G34" s="69"/>
     </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17"/>
       <c r="B35" s="65"/>
       <c r="C35" s="66" t="s">
@@ -6364,7 +6414,7 @@
       <c r="F35" s="67"/>
       <c r="G35" s="69"/>
     </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
       <c r="B36" s="58" t="s">
         <v>70</v>
@@ -6385,7 +6435,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
       <c r="B37" s="70"/>
       <c r="C37" s="66" t="s">
@@ -6398,7 +6448,7 @@
       <c r="F37" s="67"/>
       <c r="G37" s="69"/>
     </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
       <c r="B38" s="70"/>
       <c r="C38" s="66" t="s">
@@ -6411,7 +6461,7 @@
       <c r="F38" s="67"/>
       <c r="G38" s="69"/>
     </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="58" t="s">
         <v>74</v>
@@ -6432,7 +6482,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
       <c r="B40" s="70"/>
       <c r="C40" s="66" t="s">
@@ -6445,7 +6495,7 @@
       <c r="F40" s="67"/>
       <c r="G40" s="69"/>
     </row>
-    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
       <c r="B41" s="70"/>
       <c r="C41" s="66" t="s">
@@ -6458,7 +6508,7 @@
       <c r="F41" s="67"/>
       <c r="G41" s="69"/>
     </row>
-    <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
       <c r="B42" s="58" t="s">
         <v>78</v>
@@ -6479,7 +6529,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
       <c r="B43" s="70"/>
       <c r="C43" s="66" t="s">
@@ -6492,7 +6542,7 @@
       <c r="F43" s="67"/>
       <c r="G43" s="69"/>
     </row>
-    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
       <c r="B44" s="70"/>
       <c r="C44" s="66" t="s">
@@ -6505,7 +6555,7 @@
       <c r="F44" s="67"/>
       <c r="G44" s="69"/>
     </row>
-    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
       <c r="B45" s="29" t="s">
         <v>82</v>
@@ -6518,7 +6568,7 @@
       <c r="F45" s="33"/>
       <c r="G45" s="34"/>
     </row>
-    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
       <c r="B46" s="58" t="s">
         <v>84</v>
@@ -6539,7 +6589,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17"/>
       <c r="B47" s="70"/>
       <c r="C47" s="66" t="s">
@@ -6552,7 +6602,7 @@
       <c r="F47" s="67"/>
       <c r="G47" s="69"/>
     </row>
-    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17"/>
       <c r="B48" s="70"/>
       <c r="C48" s="66" t="s">
@@ -6565,7 +6615,7 @@
       <c r="F48" s="67"/>
       <c r="G48" s="69"/>
     </row>
-    <row r="49" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17"/>
       <c r="B49" s="58" t="s">
         <v>88</v>
@@ -6578,7 +6628,7 @@
       <c r="F49" s="60"/>
       <c r="G49" s="61"/>
     </row>
-    <row r="50" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
       <c r="B50" s="73" t="s">
         <v>90</v>
@@ -6596,7 +6646,7 @@
       <c r="F50" s="75"/>
       <c r="G50" s="77"/>
     </row>
-    <row r="51" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17"/>
       <c r="B51" s="78"/>
       <c r="C51" s="66" t="s">
@@ -6609,7 +6659,7 @@
       <c r="F51" s="67"/>
       <c r="G51" s="69"/>
     </row>
-    <row r="52" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17"/>
       <c r="B52" s="78"/>
       <c r="C52" s="66" t="s">
@@ -6622,7 +6672,7 @@
       <c r="F52" s="67"/>
       <c r="G52" s="69"/>
     </row>
-    <row r="53" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17"/>
       <c r="B53" s="73" t="s">
         <v>94</v>
@@ -6643,7 +6693,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17"/>
       <c r="B54" s="78"/>
       <c r="C54" s="66" t="s">
@@ -6656,7 +6706,7 @@
       <c r="F54" s="67"/>
       <c r="G54" s="69"/>
     </row>
-    <row r="55" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17"/>
       <c r="B55" s="78"/>
       <c r="C55" s="66" t="s">
@@ -6669,7 +6719,7 @@
       <c r="F55" s="67"/>
       <c r="G55" s="69"/>
     </row>
-    <row r="56" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
       <c r="B56" s="73" t="s">
         <v>98</v>
@@ -6690,7 +6740,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
       <c r="B57" s="78"/>
       <c r="C57" s="66" t="s">
@@ -6703,7 +6753,7 @@
       <c r="F57" s="67"/>
       <c r="G57" s="69"/>
     </row>
-    <row r="58" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17"/>
       <c r="B58" s="78"/>
       <c r="C58" s="66" t="s">
@@ -6716,7 +6766,7 @@
       <c r="F58" s="67"/>
       <c r="G58" s="69"/>
     </row>
-    <row r="59" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17"/>
       <c r="B59" s="73" t="s">
         <v>102</v>
@@ -6737,7 +6787,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17"/>
       <c r="B60" s="78"/>
       <c r="C60" s="80" t="s">
@@ -6750,7 +6800,7 @@
       <c r="F60" s="67"/>
       <c r="G60" s="69"/>
     </row>
-    <row r="61" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="17"/>
       <c r="B61" s="78"/>
       <c r="C61" s="80" t="s">
@@ -6763,7 +6813,7 @@
       <c r="F61" s="67"/>
       <c r="G61" s="69"/>
     </row>
-    <row r="62" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="17"/>
       <c r="B62" s="58" t="s">
         <v>106</v>
@@ -6776,7 +6826,7 @@
       <c r="F62" s="60"/>
       <c r="G62" s="61"/>
     </row>
-    <row r="63" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="17"/>
       <c r="B63" s="73" t="s">
         <v>107</v>
@@ -6798,7 +6848,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="81"/>
       <c r="B64" s="78"/>
       <c r="C64" s="80" t="s">
@@ -6829,7 +6879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="81"/>
       <c r="B65" s="78"/>
       <c r="C65" s="80" t="s">
@@ -6852,7 +6902,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="73" t="s">
         <v>112</v>
       </c>
@@ -6881,7 +6931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="78"/>
       <c r="C67" s="66" t="s">
         <v>114</v>
@@ -6906,7 +6956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="78"/>
       <c r="C68" s="66" t="s">
         <v>115</v>
@@ -6931,7 +6981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="73" t="s">
         <v>116</v>
       </c>
@@ -6962,7 +7012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="78"/>
       <c r="C70" s="84" t="s">
         <v>118</v>
@@ -6972,7 +7022,7 @@
       <c r="F70" s="67"/>
       <c r="G70" s="69"/>
     </row>
-    <row r="71" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="78"/>
       <c r="C71" s="66" t="s">
         <v>119</v>
@@ -6993,7 +7043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="78"/>
       <c r="C72" s="66" t="s">
         <v>120</v>
@@ -7014,7 +7064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="78"/>
       <c r="C73" s="84" t="s">
         <v>121</v>
@@ -7024,7 +7074,7 @@
       <c r="F73" s="67"/>
       <c r="G73" s="69"/>
     </row>
-    <row r="74" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="78"/>
       <c r="C74" s="66" t="s">
         <v>122</v>
@@ -7042,7 +7092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="78"/>
       <c r="C75" s="66" t="s">
         <v>123</v>
@@ -7056,7 +7106,7 @@
       <c r="F75" s="67"/>
       <c r="G75" s="69"/>
     </row>
-    <row r="76" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="78"/>
       <c r="C76" s="84" t="s">
         <v>124</v>
@@ -7066,7 +7116,7 @@
       <c r="F76" s="67"/>
       <c r="G76" s="69"/>
     </row>
-    <row r="77" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="78"/>
       <c r="C77" s="66" t="s">
         <v>125</v>
@@ -7080,7 +7130,7 @@
       <c r="F77" s="67"/>
       <c r="G77" s="69"/>
     </row>
-    <row r="78" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="78"/>
       <c r="C78" s="66" t="s">
         <v>126</v>
@@ -7094,7 +7144,7 @@
       <c r="F78" s="67"/>
       <c r="G78" s="69"/>
     </row>
-    <row r="79" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="78"/>
       <c r="C79" s="84" t="s">
         <v>127</v>
@@ -7104,7 +7154,7 @@
       <c r="F79" s="67"/>
       <c r="G79" s="69"/>
     </row>
-    <row r="80" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="78"/>
       <c r="C80" s="66" t="s">
         <v>128</v>
@@ -7118,7 +7168,7 @@
       <c r="F80" s="67"/>
       <c r="G80" s="69"/>
     </row>
-    <row r="81" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="78"/>
       <c r="C81" s="66" t="s">
         <v>129</v>
@@ -7132,7 +7182,7 @@
       <c r="F81" s="67"/>
       <c r="G81" s="69"/>
     </row>
-    <row r="82" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="78"/>
       <c r="C82" s="84" t="s">
         <v>130</v>
@@ -7142,7 +7192,7 @@
       <c r="F82" s="67"/>
       <c r="G82" s="69"/>
     </row>
-    <row r="83" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="78"/>
       <c r="C83" s="66" t="s">
         <v>131</v>
@@ -7156,7 +7206,7 @@
       <c r="F83" s="67"/>
       <c r="G83" s="69"/>
     </row>
-    <row r="84" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="78"/>
       <c r="C84" s="66" t="s">
         <v>132</v>
@@ -7170,7 +7220,7 @@
       <c r="F84" s="67"/>
       <c r="G84" s="69"/>
     </row>
-    <row r="85" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="73" t="s">
         <v>133</v>
       </c>
@@ -7190,7 +7240,7 @@
       </c>
       <c r="G85" s="77"/>
     </row>
-    <row r="86" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="78"/>
       <c r="C86" s="84" t="s">
         <v>121</v>
@@ -7200,7 +7250,7 @@
       <c r="F86" s="67"/>
       <c r="G86" s="69"/>
     </row>
-    <row r="87" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="78"/>
       <c r="C87" s="66" t="s">
         <v>135</v>
@@ -7214,7 +7264,7 @@
       <c r="F87" s="67"/>
       <c r="G87" s="69"/>
     </row>
-    <row r="88" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="78"/>
       <c r="C88" s="66" t="s">
         <v>136</v>
@@ -7228,7 +7278,7 @@
       <c r="F88" s="67"/>
       <c r="G88" s="69"/>
     </row>
-    <row r="89" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="78"/>
       <c r="C89" s="84" t="s">
         <v>130</v>
@@ -7238,7 +7288,7 @@
       <c r="F89" s="67"/>
       <c r="G89" s="69"/>
     </row>
-    <row r="90" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="78"/>
       <c r="C90" s="66" t="s">
         <v>137</v>
@@ -7252,7 +7302,7 @@
       <c r="F90" s="67"/>
       <c r="G90" s="69"/>
     </row>
-    <row r="91" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="78"/>
       <c r="C91" s="66" t="s">
         <v>138</v>
@@ -7266,7 +7316,7 @@
       <c r="F91" s="67"/>
       <c r="G91" s="69"/>
     </row>
-    <row r="92" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="73" t="s">
         <v>139</v>
       </c>
@@ -7286,7 +7336,7 @@
       </c>
       <c r="G92" s="77"/>
     </row>
-    <row r="93" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="78"/>
       <c r="C93" s="84" t="s">
         <v>118</v>
@@ -7296,7 +7346,7 @@
       <c r="F93" s="67"/>
       <c r="G93" s="69"/>
     </row>
-    <row r="94" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="78"/>
       <c r="C94" s="66" t="s">
         <v>141</v>
@@ -7310,7 +7360,7 @@
       <c r="F94" s="67"/>
       <c r="G94" s="69"/>
     </row>
-    <row r="95" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="78"/>
       <c r="C95" s="66" t="s">
         <v>142</v>
@@ -7324,7 +7374,7 @@
       <c r="F95" s="67"/>
       <c r="G95" s="69"/>
     </row>
-    <row r="96" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="78"/>
       <c r="C96" s="84" t="s">
         <v>121</v>
@@ -7334,7 +7384,7 @@
       <c r="F96" s="67"/>
       <c r="G96" s="69"/>
     </row>
-    <row r="97" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="78"/>
       <c r="C97" s="66" t="s">
         <v>143</v>
@@ -7348,7 +7398,7 @@
       <c r="F97" s="67"/>
       <c r="G97" s="69"/>
     </row>
-    <row r="98" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="78"/>
       <c r="C98" s="66" t="s">
         <v>144</v>
@@ -7362,7 +7412,7 @@
       <c r="F98" s="67"/>
       <c r="G98" s="69"/>
     </row>
-    <row r="99" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="78"/>
       <c r="C99" s="84" t="s">
         <v>124</v>
@@ -7372,7 +7422,7 @@
       <c r="F99" s="67"/>
       <c r="G99" s="69"/>
     </row>
-    <row r="100" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="78"/>
       <c r="C100" s="66" t="s">
         <v>145</v>
@@ -7386,7 +7436,7 @@
       <c r="F100" s="67"/>
       <c r="G100" s="69"/>
     </row>
-    <row r="101" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="78"/>
       <c r="C101" s="66" t="s">
         <v>146</v>
@@ -7400,7 +7450,7 @@
       <c r="F101" s="67"/>
       <c r="G101" s="69"/>
     </row>
-    <row r="102" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="78"/>
       <c r="C102" s="84" t="s">
         <v>127</v>
@@ -7410,7 +7460,7 @@
       <c r="F102" s="67"/>
       <c r="G102" s="69"/>
     </row>
-    <row r="103" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="78"/>
       <c r="C103" s="66" t="s">
         <v>147</v>
@@ -7424,7 +7474,7 @@
       <c r="F103" s="67"/>
       <c r="G103" s="69"/>
     </row>
-    <row r="104" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="78"/>
       <c r="C104" s="66" t="s">
         <v>148</v>
@@ -7438,7 +7488,7 @@
       <c r="F104" s="67"/>
       <c r="G104" s="69"/>
     </row>
-    <row r="105" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="78"/>
       <c r="C105" s="84" t="s">
         <v>130</v>
@@ -7448,7 +7498,7 @@
       <c r="F105" s="67"/>
       <c r="G105" s="69"/>
     </row>
-    <row r="106" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="78"/>
       <c r="C106" s="66" t="s">
         <v>149</v>
@@ -7462,7 +7512,7 @@
       <c r="F106" s="67"/>
       <c r="G106" s="69"/>
     </row>
-    <row r="107" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="78"/>
       <c r="C107" s="66" t="s">
         <v>150</v>
@@ -7476,7 +7526,7 @@
       <c r="F107" s="67"/>
       <c r="G107" s="69"/>
     </row>
-    <row r="108" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="78"/>
       <c r="C108" s="84" t="s">
         <v>151</v>
@@ -7486,7 +7536,7 @@
       <c r="F108" s="67"/>
       <c r="G108" s="69"/>
     </row>
-    <row r="109" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="78"/>
       <c r="C109" s="66" t="s">
         <v>152</v>
@@ -7500,7 +7550,7 @@
       <c r="F109" s="67"/>
       <c r="G109" s="69"/>
     </row>
-    <row r="110" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="78"/>
       <c r="C110" s="66" t="s">
         <v>153</v>
@@ -7514,7 +7564,7 @@
       <c r="F110" s="67"/>
       <c r="G110" s="69"/>
     </row>
-    <row r="111" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="73" t="s">
         <v>154</v>
       </c>
@@ -7534,7 +7584,7 @@
       </c>
       <c r="G111" s="77"/>
     </row>
-    <row r="112" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="78"/>
       <c r="C112" s="84" t="s">
         <v>118</v>
@@ -7544,7 +7594,7 @@
       <c r="F112" s="67"/>
       <c r="G112" s="69"/>
     </row>
-    <row r="113" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="78"/>
       <c r="C113" s="66" t="s">
         <v>156</v>
@@ -7558,7 +7608,7 @@
       <c r="F113" s="67"/>
       <c r="G113" s="69"/>
     </row>
-    <row r="114" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="78"/>
       <c r="C114" s="66" t="s">
         <v>157</v>
@@ -7572,7 +7622,7 @@
       <c r="F114" s="67"/>
       <c r="G114" s="69"/>
     </row>
-    <row r="115" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="78"/>
       <c r="C115" s="84" t="s">
         <v>121</v>
@@ -7582,7 +7632,7 @@
       <c r="F115" s="67"/>
       <c r="G115" s="69"/>
     </row>
-    <row r="116" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="78"/>
       <c r="C116" s="66" t="s">
         <v>158</v>
@@ -7596,7 +7646,7 @@
       <c r="F116" s="67"/>
       <c r="G116" s="69"/>
     </row>
-    <row r="117" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="78"/>
       <c r="C117" s="66" t="s">
         <v>159</v>
@@ -7610,7 +7660,7 @@
       <c r="F117" s="67"/>
       <c r="G117" s="69"/>
     </row>
-    <row r="118" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="78"/>
       <c r="C118" s="84" t="s">
         <v>124</v>
@@ -7620,7 +7670,7 @@
       <c r="F118" s="67"/>
       <c r="G118" s="69"/>
     </row>
-    <row r="119" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="78"/>
       <c r="C119" s="66" t="s">
         <v>160</v>
@@ -7634,7 +7684,7 @@
       <c r="F119" s="67"/>
       <c r="G119" s="69"/>
     </row>
-    <row r="120" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="78"/>
       <c r="C120" s="66" t="s">
         <v>161</v>
@@ -7648,7 +7698,7 @@
       <c r="F120" s="67"/>
       <c r="G120" s="69"/>
     </row>
-    <row r="121" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="78"/>
       <c r="C121" s="84" t="s">
         <v>127</v>
@@ -7658,7 +7708,7 @@
       <c r="F121" s="67"/>
       <c r="G121" s="69"/>
     </row>
-    <row r="122" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="78"/>
       <c r="C122" s="66" t="s">
         <v>162</v>
@@ -7672,7 +7722,7 @@
       <c r="F122" s="67"/>
       <c r="G122" s="69"/>
     </row>
-    <row r="123" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="78"/>
       <c r="C123" s="66" t="s">
         <v>163</v>
@@ -7686,7 +7736,7 @@
       <c r="F123" s="67"/>
       <c r="G123" s="69"/>
     </row>
-    <row r="124" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="78"/>
       <c r="C124" s="84" t="s">
         <v>130</v>
@@ -7696,7 +7746,7 @@
       <c r="F124" s="67"/>
       <c r="G124" s="69"/>
     </row>
-    <row r="125" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="78"/>
       <c r="C125" s="66" t="s">
         <v>164</v>
@@ -7710,7 +7760,7 @@
       <c r="F125" s="67"/>
       <c r="G125" s="69"/>
     </row>
-    <row r="126" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="78"/>
       <c r="C126" s="66" t="s">
         <v>165</v>
@@ -7724,7 +7774,7 @@
       <c r="F126" s="67"/>
       <c r="G126" s="69"/>
     </row>
-    <row r="127" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="78"/>
       <c r="C127" s="84" t="s">
         <v>151</v>
@@ -7736,7 +7786,7 @@
       <c r="F127" s="67"/>
       <c r="G127" s="69"/>
     </row>
-    <row r="128" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="78"/>
       <c r="C128" s="66" t="s">
         <v>166</v>
@@ -7750,7 +7800,7 @@
       <c r="F128" s="67"/>
       <c r="G128" s="69"/>
     </row>
-    <row r="129" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="78"/>
       <c r="C129" s="66" t="s">
         <v>167</v>
@@ -7764,7 +7814,7 @@
       <c r="F129" s="67"/>
       <c r="G129" s="69"/>
     </row>
-    <row r="130" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="73" t="s">
         <v>168</v>
       </c>
@@ -7786,11 +7836,11 @@
       </c>
       <c r="I130" s="83"/>
     </row>
-    <row r="131" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="149" t="s">
+    <row r="131" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="222" t="s">
         <v>170</v>
       </c>
-      <c r="C131" s="149"/>
+      <c r="C131" s="222"/>
       <c r="D131" s="82" t="s">
         <v>109</v>
       </c>
@@ -7800,11 +7850,11 @@
       <c r="F131" s="67"/>
       <c r="G131" s="69"/>
     </row>
-    <row r="132" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="149" t="s">
+    <row r="132" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="222" t="s">
         <v>171</v>
       </c>
-      <c r="C132" s="149"/>
+      <c r="C132" s="222"/>
       <c r="D132" s="82" t="s">
         <v>109</v>
       </c>
@@ -7814,7 +7864,7 @@
       <c r="F132" s="67"/>
       <c r="G132" s="69"/>
     </row>
-    <row r="133" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="73" t="s">
         <v>172</v>
       </c>
@@ -7834,7 +7884,7 @@
       </c>
       <c r="G133" s="77"/>
     </row>
-    <row r="134" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="86"/>
       <c r="C134" s="84" t="s">
         <v>118</v>
@@ -7844,7 +7894,7 @@
       <c r="F134" s="67"/>
       <c r="G134" s="69"/>
     </row>
-    <row r="135" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="86"/>
       <c r="C135" s="66" t="s">
         <v>174</v>
@@ -7858,7 +7908,7 @@
       <c r="F135" s="67"/>
       <c r="G135" s="69"/>
     </row>
-    <row r="136" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="86"/>
       <c r="C136" s="66" t="s">
         <v>175</v>
@@ -7872,7 +7922,7 @@
       <c r="F136" s="67"/>
       <c r="G136" s="69"/>
     </row>
-    <row r="137" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="86"/>
       <c r="C137" s="87" t="s">
         <v>121</v>
@@ -7882,7 +7932,7 @@
       <c r="F137" s="67"/>
       <c r="G137" s="69"/>
     </row>
-    <row r="138" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="86"/>
       <c r="C138" s="66" t="s">
         <v>176</v>
@@ -7896,7 +7946,7 @@
       <c r="F138" s="67"/>
       <c r="G138" s="69"/>
     </row>
-    <row r="139" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="86"/>
       <c r="C139" s="66" t="s">
         <v>177</v>
@@ -7910,7 +7960,7 @@
       <c r="F139" s="67"/>
       <c r="G139" s="69"/>
     </row>
-    <row r="140" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="86"/>
       <c r="C140" s="84" t="s">
         <v>124</v>
@@ -7920,7 +7970,7 @@
       <c r="F140" s="67"/>
       <c r="G140" s="69"/>
     </row>
-    <row r="141" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="86"/>
       <c r="C141" s="66" t="s">
         <v>178</v>
@@ -7934,7 +7984,7 @@
       <c r="F141" s="67"/>
       <c r="G141" s="69"/>
     </row>
-    <row r="142" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="86"/>
       <c r="C142" s="66" t="s">
         <v>179</v>
@@ -7948,7 +7998,7 @@
       <c r="F142" s="67"/>
       <c r="G142" s="69"/>
     </row>
-    <row r="143" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="86"/>
       <c r="C143" s="84" t="s">
         <v>127</v>
@@ -7958,7 +8008,7 @@
       <c r="F143" s="67"/>
       <c r="G143" s="69"/>
     </row>
-    <row r="144" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="86"/>
       <c r="C144" s="66" t="s">
         <v>180</v>
@@ -7972,7 +8022,7 @@
       <c r="F144" s="67"/>
       <c r="G144" s="69"/>
     </row>
-    <row r="145" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="86"/>
       <c r="C145" s="66" t="s">
         <v>181</v>
@@ -7986,7 +8036,7 @@
       <c r="F145" s="67"/>
       <c r="G145" s="69"/>
     </row>
-    <row r="146" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="86"/>
       <c r="C146" s="84" t="s">
         <v>130</v>
@@ -7996,7 +8046,7 @@
       <c r="F146" s="67"/>
       <c r="G146" s="69"/>
     </row>
-    <row r="147" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="86"/>
       <c r="C147" s="66" t="s">
         <v>182</v>
@@ -8010,7 +8060,7 @@
       <c r="F147" s="67"/>
       <c r="G147" s="69"/>
     </row>
-    <row r="148" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="86"/>
       <c r="C148" s="66" t="s">
         <v>183</v>
@@ -8024,7 +8074,7 @@
       <c r="F148" s="67"/>
       <c r="G148" s="69"/>
     </row>
-    <row r="149" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="58" t="s">
         <v>184</v>
       </c>
@@ -8036,7 +8086,7 @@
       <c r="F149" s="60"/>
       <c r="G149" s="61"/>
     </row>
-    <row r="150" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="73"/>
       <c r="C150" s="74" t="s">
         <v>186</v>
@@ -8051,7 +8101,7 @@
       <c r="F150" s="75"/>
       <c r="G150" s="77"/>
     </row>
-    <row r="151" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="78"/>
       <c r="C151" s="66" t="s">
         <v>187</v>
@@ -8065,7 +8115,7 @@
       <c r="F151" s="67"/>
       <c r="G151" s="69"/>
     </row>
-    <row r="152" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="78"/>
       <c r="C152" s="66" t="s">
         <v>188</v>
@@ -8079,7 +8129,7 @@
       <c r="F152" s="67"/>
       <c r="G152" s="69"/>
     </row>
-    <row r="153" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="73"/>
       <c r="C153" s="74" t="s">
         <v>185</v>
@@ -8097,7 +8147,7 @@
       </c>
       <c r="G153" s="77"/>
     </row>
-    <row r="154" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="78"/>
       <c r="C154" s="66" t="s">
         <v>189</v>
@@ -8110,11 +8160,11 @@
       </c>
       <c r="F154" s="67"/>
       <c r="G154" s="69"/>
-      <c r="I154" s="150" t="s">
+      <c r="I154" s="223" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="78"/>
       <c r="C155" s="66" t="s">
         <v>191</v>
@@ -8127,9 +8177,9 @@
       </c>
       <c r="F155" s="67"/>
       <c r="G155" s="69"/>
-      <c r="I155" s="150"/>
-    </row>
-    <row r="156" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I155" s="223"/>
+    </row>
+    <row r="156" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="78"/>
       <c r="C156" s="66" t="s">
         <v>192</v>
@@ -8142,9 +8192,9 @@
       </c>
       <c r="F156" s="67"/>
       <c r="G156" s="69"/>
-      <c r="I156" s="150"/>
-    </row>
-    <row r="157" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I156" s="223"/>
+    </row>
+    <row r="157" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="78"/>
       <c r="C157" s="66" t="s">
         <v>193</v>
@@ -8157,9 +8207,9 @@
       </c>
       <c r="F157" s="67"/>
       <c r="G157" s="69"/>
-      <c r="I157" s="150"/>
-    </row>
-    <row r="158" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I157" s="223"/>
+    </row>
+    <row r="158" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="78"/>
       <c r="C158" s="66" t="s">
         <v>194</v>
@@ -8172,9 +8222,9 @@
       </c>
       <c r="F158" s="67"/>
       <c r="G158" s="69"/>
-      <c r="I158" s="150"/>
-    </row>
-    <row r="159" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I158" s="223"/>
+    </row>
+    <row r="159" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="29" t="s">
         <v>195</v>
       </c>
@@ -8186,7 +8236,7 @@
       <c r="F159" s="33"/>
       <c r="G159" s="34"/>
     </row>
-    <row r="160" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="58" t="s">
         <v>197</v>
       </c>
@@ -8202,7 +8252,7 @@
       <c r="F160" s="61"/>
       <c r="G160" s="61"/>
     </row>
-    <row r="161" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="78"/>
       <c r="C161" s="66" t="s">
         <v>199</v>
@@ -8214,7 +8264,7 @@
       <c r="F161" s="67"/>
       <c r="G161" s="69"/>
     </row>
-    <row r="162" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="78"/>
       <c r="C162" s="66" t="s">
         <v>200</v>
@@ -8226,7 +8276,7 @@
       <c r="F162" s="67"/>
       <c r="G162" s="69"/>
     </row>
-    <row r="163" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="58" t="s">
         <v>201</v>
       </c>
@@ -8246,7 +8296,7 @@
       </c>
       <c r="G163" s="61"/>
     </row>
-    <row r="164" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="78"/>
       <c r="C164" s="84" t="s">
         <v>118</v>
@@ -8256,7 +8306,7 @@
       <c r="F164" s="67"/>
       <c r="G164" s="69"/>
     </row>
-    <row r="165" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="78"/>
       <c r="C165" s="66" t="s">
         <v>203</v>
@@ -8270,7 +8320,7 @@
       <c r="F165" s="67"/>
       <c r="G165" s="69"/>
     </row>
-    <row r="166" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="78"/>
       <c r="C166" s="66" t="s">
         <v>204</v>
@@ -8284,7 +8334,7 @@
       <c r="F166" s="67"/>
       <c r="G166" s="69"/>
     </row>
-    <row r="167" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="78"/>
       <c r="C167" s="84" t="s">
         <v>121</v>
@@ -8294,7 +8344,7 @@
       <c r="F167" s="67"/>
       <c r="G167" s="69"/>
     </row>
-    <row r="168" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="78"/>
       <c r="C168" s="66" t="s">
         <v>205</v>
@@ -8308,7 +8358,7 @@
       <c r="F168" s="67"/>
       <c r="G168" s="69"/>
     </row>
-    <row r="169" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="78"/>
       <c r="C169" s="66" t="s">
         <v>206</v>
@@ -8322,7 +8372,7 @@
       <c r="F169" s="67"/>
       <c r="G169" s="69"/>
     </row>
-    <row r="170" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="78"/>
       <c r="C170" s="84" t="s">
         <v>124</v>
@@ -8332,7 +8382,7 @@
       <c r="F170" s="67"/>
       <c r="G170" s="69"/>
     </row>
-    <row r="171" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="78"/>
       <c r="C171" s="66" t="s">
         <v>207</v>
@@ -8346,7 +8396,7 @@
       <c r="F171" s="67"/>
       <c r="G171" s="69"/>
     </row>
-    <row r="172" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="78"/>
       <c r="C172" s="66" t="s">
         <v>208</v>
@@ -8360,7 +8410,7 @@
       <c r="F172" s="67"/>
       <c r="G172" s="69"/>
     </row>
-    <row r="173" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="78"/>
       <c r="C173" s="84" t="s">
         <v>127</v>
@@ -8370,7 +8420,7 @@
       <c r="F173" s="67"/>
       <c r="G173" s="69"/>
     </row>
-    <row r="174" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="78"/>
       <c r="C174" s="66" t="s">
         <v>209</v>
@@ -8384,7 +8434,7 @@
       <c r="F174" s="67"/>
       <c r="G174" s="69"/>
     </row>
-    <row r="175" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="78"/>
       <c r="C175" s="66" t="s">
         <v>210</v>
@@ -8398,7 +8448,7 @@
       <c r="F175" s="67"/>
       <c r="G175" s="69"/>
     </row>
-    <row r="176" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="78"/>
       <c r="C176" s="84" t="s">
         <v>130</v>
@@ -8408,7 +8458,7 @@
       <c r="F176" s="67"/>
       <c r="G176" s="69"/>
     </row>
-    <row r="177" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="78"/>
       <c r="C177" s="66" t="s">
         <v>211</v>
@@ -8422,7 +8472,7 @@
       <c r="F177" s="67"/>
       <c r="G177" s="69"/>
     </row>
-    <row r="178" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="78"/>
       <c r="C178" s="66" t="s">
         <v>212</v>
@@ -8436,7 +8486,7 @@
       <c r="F178" s="67"/>
       <c r="G178" s="69"/>
     </row>
-    <row r="179" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="78"/>
       <c r="C179" s="84" t="s">
         <v>151</v>
@@ -8446,7 +8496,7 @@
       <c r="F179" s="67"/>
       <c r="G179" s="69"/>
     </row>
-    <row r="180" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="78"/>
       <c r="C180" s="66" t="s">
         <v>213</v>
@@ -8460,7 +8510,7 @@
       <c r="F180" s="67"/>
       <c r="G180" s="69"/>
     </row>
-    <row r="181" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="78"/>
       <c r="C181" s="66" t="s">
         <v>214</v>
@@ -8474,7 +8524,7 @@
       <c r="F181" s="67"/>
       <c r="G181" s="69"/>
     </row>
-    <row r="182" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="58" t="s">
         <v>215</v>
       </c>
@@ -8494,7 +8544,7 @@
       </c>
       <c r="G182" s="61"/>
     </row>
-    <row r="183" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="78"/>
       <c r="C183" s="84" t="s">
         <v>118</v>
@@ -8504,7 +8554,7 @@
       <c r="F183" s="67"/>
       <c r="G183" s="69"/>
     </row>
-    <row r="184" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="78"/>
       <c r="C184" s="66" t="s">
         <v>217</v>
@@ -8518,7 +8568,7 @@
       <c r="F184" s="67"/>
       <c r="G184" s="69"/>
     </row>
-    <row r="185" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="78"/>
       <c r="C185" s="66" t="s">
         <v>218</v>
@@ -8532,7 +8582,7 @@
       <c r="F185" s="67"/>
       <c r="G185" s="69"/>
     </row>
-    <row r="186" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="78"/>
       <c r="C186" s="84" t="s">
         <v>121</v>
@@ -8542,7 +8592,7 @@
       <c r="F186" s="67"/>
       <c r="G186" s="69"/>
     </row>
-    <row r="187" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="78"/>
       <c r="C187" s="66" t="s">
         <v>219</v>
@@ -8556,7 +8606,7 @@
       <c r="F187" s="67"/>
       <c r="G187" s="69"/>
     </row>
-    <row r="188" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="78"/>
       <c r="C188" s="66" t="s">
         <v>220</v>
@@ -8570,7 +8620,7 @@
       <c r="F188" s="67"/>
       <c r="G188" s="69"/>
     </row>
-    <row r="189" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="78"/>
       <c r="C189" s="84" t="s">
         <v>124</v>
@@ -8580,7 +8630,7 @@
       <c r="F189" s="67"/>
       <c r="G189" s="69"/>
     </row>
-    <row r="190" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="78"/>
       <c r="C190" s="66" t="s">
         <v>221</v>
@@ -8594,7 +8644,7 @@
       <c r="F190" s="67"/>
       <c r="G190" s="69"/>
     </row>
-    <row r="191" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="78"/>
       <c r="C191" s="66" t="s">
         <v>222</v>
@@ -8608,7 +8658,7 @@
       <c r="F191" s="67"/>
       <c r="G191" s="69"/>
     </row>
-    <row r="192" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="78"/>
       <c r="C192" s="84" t="s">
         <v>127</v>
@@ -8618,7 +8668,7 @@
       <c r="F192" s="67"/>
       <c r="G192" s="69"/>
     </row>
-    <row r="193" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="78"/>
       <c r="C193" s="66" t="s">
         <v>223</v>
@@ -8632,7 +8682,7 @@
       <c r="F193" s="67"/>
       <c r="G193" s="69"/>
     </row>
-    <row r="194" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="78"/>
       <c r="C194" s="66" t="s">
         <v>224</v>
@@ -8646,7 +8696,7 @@
       <c r="F194" s="67"/>
       <c r="G194" s="69"/>
     </row>
-    <row r="195" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="78"/>
       <c r="C195" s="84" t="s">
         <v>130</v>
@@ -8656,7 +8706,7 @@
       <c r="F195" s="67"/>
       <c r="G195" s="69"/>
     </row>
-    <row r="196" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="78"/>
       <c r="C196" s="66" t="s">
         <v>225</v>
@@ -8670,7 +8720,7 @@
       <c r="F196" s="67"/>
       <c r="G196" s="69"/>
     </row>
-    <row r="197" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="78"/>
       <c r="C197" s="66" t="s">
         <v>226</v>
@@ -8684,7 +8734,7 @@
       <c r="F197" s="67"/>
       <c r="G197" s="69"/>
     </row>
-    <row r="198" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="78"/>
       <c r="C198" s="84" t="s">
         <v>151</v>
@@ -8694,7 +8744,7 @@
       <c r="F198" s="67"/>
       <c r="G198" s="69"/>
     </row>
-    <row r="199" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="78"/>
       <c r="C199" s="66" t="s">
         <v>227</v>
@@ -8708,7 +8758,7 @@
       <c r="F199" s="67"/>
       <c r="G199" s="69"/>
     </row>
-    <row r="200" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="78"/>
       <c r="C200" s="66" t="s">
         <v>228</v>
@@ -8722,7 +8772,7 @@
       <c r="F200" s="67"/>
       <c r="G200" s="69"/>
     </row>
-    <row r="201" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="58" t="s">
         <v>229</v>
       </c>
@@ -8742,7 +8792,7 @@
       </c>
       <c r="G201" s="61"/>
     </row>
-    <row r="202" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="78"/>
       <c r="C202" s="84" t="s">
         <v>118</v>
@@ -8752,7 +8802,7 @@
       <c r="F202" s="67"/>
       <c r="G202" s="69"/>
     </row>
-    <row r="203" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="78"/>
       <c r="C203" s="66" t="s">
         <v>231</v>
@@ -8766,7 +8816,7 @@
       <c r="F203" s="67"/>
       <c r="G203" s="69"/>
     </row>
-    <row r="204" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="78"/>
       <c r="C204" s="66" t="s">
         <v>232</v>
@@ -8780,7 +8830,7 @@
       <c r="F204" s="67"/>
       <c r="G204" s="69"/>
     </row>
-    <row r="205" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="78"/>
       <c r="C205" s="84" t="s">
         <v>121</v>
@@ -8790,7 +8840,7 @@
       <c r="F205" s="67"/>
       <c r="G205" s="69"/>
     </row>
-    <row r="206" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="78"/>
       <c r="C206" s="66" t="s">
         <v>233</v>
@@ -8804,7 +8854,7 @@
       <c r="F206" s="67"/>
       <c r="G206" s="69"/>
     </row>
-    <row r="207" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="78"/>
       <c r="C207" s="66" t="s">
         <v>234</v>
@@ -8818,7 +8868,7 @@
       <c r="F207" s="67"/>
       <c r="G207" s="69"/>
     </row>
-    <row r="208" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="78"/>
       <c r="C208" s="84" t="s">
         <v>124</v>
@@ -8828,7 +8878,7 @@
       <c r="F208" s="67"/>
       <c r="G208" s="69"/>
     </row>
-    <row r="209" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="78"/>
       <c r="C209" s="66" t="s">
         <v>235</v>
@@ -8842,7 +8892,7 @@
       <c r="F209" s="67"/>
       <c r="G209" s="69"/>
     </row>
-    <row r="210" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="78"/>
       <c r="C210" s="66" t="s">
         <v>236</v>
@@ -8856,7 +8906,7 @@
       <c r="F210" s="67"/>
       <c r="G210" s="69"/>
     </row>
-    <row r="211" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="78"/>
       <c r="C211" s="84" t="s">
         <v>127</v>
@@ -8866,7 +8916,7 @@
       <c r="F211" s="67"/>
       <c r="G211" s="69"/>
     </row>
-    <row r="212" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="78"/>
       <c r="C212" s="66" t="s">
         <v>237</v>
@@ -8880,7 +8930,7 @@
       <c r="F212" s="67"/>
       <c r="G212" s="69"/>
     </row>
-    <row r="213" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="78"/>
       <c r="C213" s="66" t="s">
         <v>238</v>
@@ -8894,7 +8944,7 @@
       <c r="F213" s="67"/>
       <c r="G213" s="69"/>
     </row>
-    <row r="214" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="78"/>
       <c r="C214" s="84" t="s">
         <v>130</v>
@@ -8904,7 +8954,7 @@
       <c r="F214" s="67"/>
       <c r="G214" s="69"/>
     </row>
-    <row r="215" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="78"/>
       <c r="C215" s="66" t="s">
         <v>239</v>
@@ -8918,7 +8968,7 @@
       <c r="F215" s="67"/>
       <c r="G215" s="69"/>
     </row>
-    <row r="216" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="78"/>
       <c r="C216" s="66" t="s">
         <v>240</v>
@@ -8932,7 +8982,7 @@
       <c r="F216" s="67"/>
       <c r="G216" s="69"/>
     </row>
-    <row r="217" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="78"/>
       <c r="C217" s="84" t="s">
         <v>151</v>
@@ -8942,7 +8992,7 @@
       <c r="F217" s="67"/>
       <c r="G217" s="69"/>
     </row>
-    <row r="218" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="78"/>
       <c r="C218" s="66" t="s">
         <v>241</v>
@@ -8956,7 +9006,7 @@
       <c r="F218" s="67"/>
       <c r="G218" s="69"/>
     </row>
-    <row r="219" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="78"/>
       <c r="C219" s="66" t="s">
         <v>242</v>
@@ -8970,7 +9020,7 @@
       <c r="F219" s="67"/>
       <c r="G219" s="69"/>
     </row>
-    <row r="220" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="58" t="s">
         <v>243</v>
       </c>
@@ -8990,7 +9040,7 @@
       </c>
       <c r="G220" s="61"/>
     </row>
-    <row r="221" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="78"/>
       <c r="C221" s="84" t="s">
         <v>118</v>
@@ -9000,7 +9050,7 @@
       <c r="F221" s="67"/>
       <c r="G221" s="69"/>
     </row>
-    <row r="222" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="78"/>
       <c r="C222" s="66" t="s">
         <v>245</v>
@@ -9014,7 +9064,7 @@
       <c r="F222" s="67"/>
       <c r="G222" s="69"/>
     </row>
-    <row r="223" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="78"/>
       <c r="C223" s="66" t="s">
         <v>246</v>
@@ -9028,7 +9078,7 @@
       <c r="F223" s="67"/>
       <c r="G223" s="69"/>
     </row>
-    <row r="224" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="78"/>
       <c r="C224" s="84" t="s">
         <v>121</v>
@@ -9038,7 +9088,7 @@
       <c r="F224" s="67"/>
       <c r="G224" s="69"/>
     </row>
-    <row r="225" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="78"/>
       <c r="C225" s="66" t="s">
         <v>247</v>
@@ -9052,7 +9102,7 @@
       <c r="F225" s="67"/>
       <c r="G225" s="69"/>
     </row>
-    <row r="226" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="78"/>
       <c r="C226" s="66" t="s">
         <v>248</v>
@@ -9066,7 +9116,7 @@
       <c r="F226" s="67"/>
       <c r="G226" s="69"/>
     </row>
-    <row r="227" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="78"/>
       <c r="C227" s="84" t="s">
         <v>124</v>
@@ -9076,7 +9126,7 @@
       <c r="F227" s="67"/>
       <c r="G227" s="69"/>
     </row>
-    <row r="228" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="78"/>
       <c r="C228" s="66" t="s">
         <v>249</v>
@@ -9090,7 +9140,7 @@
       <c r="F228" s="67"/>
       <c r="G228" s="69"/>
     </row>
-    <row r="229" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="78"/>
       <c r="C229" s="66" t="s">
         <v>250</v>
@@ -9104,7 +9154,7 @@
       <c r="F229" s="67"/>
       <c r="G229" s="69"/>
     </row>
-    <row r="230" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="78"/>
       <c r="C230" s="84" t="s">
         <v>127</v>
@@ -9114,7 +9164,7 @@
       <c r="F230" s="67"/>
       <c r="G230" s="69"/>
     </row>
-    <row r="231" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="78"/>
       <c r="C231" s="66" t="s">
         <v>251</v>
@@ -9128,7 +9178,7 @@
       <c r="F231" s="67"/>
       <c r="G231" s="69"/>
     </row>
-    <row r="232" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="78"/>
       <c r="C232" s="66" t="s">
         <v>252</v>
@@ -9142,7 +9192,7 @@
       <c r="F232" s="67"/>
       <c r="G232" s="69"/>
     </row>
-    <row r="233" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="78"/>
       <c r="C233" s="84" t="s">
         <v>130</v>
@@ -9152,7 +9202,7 @@
       <c r="F233" s="67"/>
       <c r="G233" s="69"/>
     </row>
-    <row r="234" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="78"/>
       <c r="C234" s="66" t="s">
         <v>253</v>
@@ -9166,7 +9216,7 @@
       <c r="F234" s="67"/>
       <c r="G234" s="69"/>
     </row>
-    <row r="235" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="78"/>
       <c r="C235" s="66" t="s">
         <v>254</v>
@@ -9180,7 +9230,7 @@
       <c r="F235" s="67"/>
       <c r="G235" s="69"/>
     </row>
-    <row r="236" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="78"/>
       <c r="C236" s="84" t="s">
         <v>151</v>
@@ -9190,7 +9240,7 @@
       <c r="F236" s="67"/>
       <c r="G236" s="69"/>
     </row>
-    <row r="237" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="78"/>
       <c r="C237" s="66" t="s">
         <v>255</v>
@@ -9204,7 +9254,7 @@
       <c r="F237" s="67"/>
       <c r="G237" s="69"/>
     </row>
-    <row r="238" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="78"/>
       <c r="C238" s="66" t="s">
         <v>256</v>
@@ -9218,7 +9268,7 @@
       <c r="F238" s="67"/>
       <c r="G238" s="69"/>
     </row>
-    <row r="239" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="29" t="s">
         <v>257</v>
       </c>
@@ -9230,7 +9280,7 @@
       <c r="F239" s="33"/>
       <c r="G239" s="34"/>
     </row>
-    <row r="240" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="58" t="s">
         <v>259</v>
       </c>
@@ -9247,7 +9297,7 @@
       <c r="F240" s="61"/>
       <c r="G240" s="61"/>
     </row>
-    <row r="241" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B241" s="78"/>
       <c r="C241" s="66" t="s">
         <v>262</v>
@@ -9261,7 +9311,7 @@
       <c r="F241" s="67"/>
       <c r="G241" s="69"/>
     </row>
-    <row r="242" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="78"/>
       <c r="C242" s="66" t="s">
         <v>263</v>
@@ -9275,7 +9325,7 @@
       <c r="F242" s="67"/>
       <c r="G242" s="69"/>
     </row>
-    <row r="243" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="58" t="s">
         <v>264</v>
       </c>
@@ -9295,7 +9345,7 @@
       </c>
       <c r="G243" s="61"/>
     </row>
-    <row r="244" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="78"/>
       <c r="C244" s="84" t="s">
         <v>266</v>
@@ -9305,7 +9355,7 @@
       <c r="F244" s="67"/>
       <c r="G244" s="69"/>
     </row>
-    <row r="245" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="78"/>
       <c r="C245" s="66" t="s">
         <v>267</v>
@@ -9319,7 +9369,7 @@
       <c r="F245" s="67"/>
       <c r="G245" s="69"/>
     </row>
-    <row r="246" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="78"/>
       <c r="C246" s="66" t="s">
         <v>268</v>
@@ -9333,7 +9383,7 @@
       <c r="F246" s="67"/>
       <c r="G246" s="69"/>
     </row>
-    <row r="247" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B247" s="78"/>
       <c r="C247" s="84" t="s">
         <v>121</v>
@@ -9343,7 +9393,7 @@
       <c r="F247" s="67"/>
       <c r="G247" s="69"/>
     </row>
-    <row r="248" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B248" s="78"/>
       <c r="C248" s="66" t="s">
         <v>269</v>
@@ -9357,7 +9407,7 @@
       <c r="F248" s="67"/>
       <c r="G248" s="69"/>
     </row>
-    <row r="249" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B249" s="78"/>
       <c r="C249" s="66" t="s">
         <v>270</v>
@@ -9371,7 +9421,7 @@
       <c r="F249" s="67"/>
       <c r="G249" s="69"/>
     </row>
-    <row r="250" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B250" s="78"/>
       <c r="C250" s="84" t="s">
         <v>124</v>
@@ -9381,7 +9431,7 @@
       <c r="F250" s="67"/>
       <c r="G250" s="69"/>
     </row>
-    <row r="251" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="78"/>
       <c r="C251" s="66" t="s">
         <v>271</v>
@@ -9395,7 +9445,7 @@
       <c r="F251" s="67"/>
       <c r="G251" s="69"/>
     </row>
-    <row r="252" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="78"/>
       <c r="C252" s="66" t="s">
         <v>272</v>
@@ -9409,7 +9459,7 @@
       <c r="F252" s="67"/>
       <c r="G252" s="69"/>
     </row>
-    <row r="253" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="78"/>
       <c r="C253" s="84" t="s">
         <v>127</v>
@@ -9419,7 +9469,7 @@
       <c r="F253" s="67"/>
       <c r="G253" s="69"/>
     </row>
-    <row r="254" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="78"/>
       <c r="C254" s="66" t="s">
         <v>273</v>
@@ -9433,7 +9483,7 @@
       <c r="F254" s="67"/>
       <c r="G254" s="69"/>
     </row>
-    <row r="255" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="78"/>
       <c r="C255" s="66" t="s">
         <v>274</v>
@@ -9447,7 +9497,7 @@
       <c r="F255" s="67"/>
       <c r="G255" s="69"/>
     </row>
-    <row r="256" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="78"/>
       <c r="C256" s="84" t="s">
         <v>130</v>
@@ -9457,7 +9507,7 @@
       <c r="F256" s="67"/>
       <c r="G256" s="69"/>
     </row>
-    <row r="257" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="78"/>
       <c r="C257" s="66" t="s">
         <v>275</v>
@@ -9471,7 +9521,7 @@
       <c r="F257" s="67"/>
       <c r="G257" s="69"/>
     </row>
-    <row r="258" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="78"/>
       <c r="C258" s="66" t="s">
         <v>276</v>
@@ -9485,7 +9535,7 @@
       <c r="F258" s="67"/>
       <c r="G258" s="69"/>
     </row>
-    <row r="259" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="78"/>
       <c r="C259" s="84" t="s">
         <v>151</v>
@@ -9495,7 +9545,7 @@
       <c r="F259" s="67"/>
       <c r="G259" s="69"/>
     </row>
-    <row r="260" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B260" s="78"/>
       <c r="C260" s="66" t="s">
         <v>277</v>
@@ -9509,7 +9559,7 @@
       <c r="F260" s="67"/>
       <c r="G260" s="69"/>
     </row>
-    <row r="261" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B261" s="78"/>
       <c r="C261" s="66" t="s">
         <v>278</v>
@@ -9523,7 +9573,7 @@
       <c r="F261" s="67"/>
       <c r="G261" s="69"/>
     </row>
-    <row r="262" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B262" s="58" t="s">
         <v>279</v>
       </c>
@@ -9543,7 +9593,7 @@
       </c>
       <c r="G262" s="61"/>
     </row>
-    <row r="263" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B263" s="78"/>
       <c r="C263" s="84" t="s">
         <v>118</v>
@@ -9553,7 +9603,7 @@
       <c r="F263" s="67"/>
       <c r="G263" s="69"/>
     </row>
-    <row r="264" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B264" s="78"/>
       <c r="C264" s="66" t="s">
         <v>281</v>
@@ -9567,7 +9617,7 @@
       <c r="F264" s="67"/>
       <c r="G264" s="69"/>
     </row>
-    <row r="265" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="78"/>
       <c r="C265" s="66" t="s">
         <v>282</v>
@@ -9581,7 +9631,7 @@
       <c r="F265" s="67"/>
       <c r="G265" s="69"/>
     </row>
-    <row r="266" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B266" s="78"/>
       <c r="C266" s="84" t="s">
         <v>121</v>
@@ -9591,7 +9641,7 @@
       <c r="F266" s="67"/>
       <c r="G266" s="69"/>
     </row>
-    <row r="267" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="78"/>
       <c r="C267" s="66" t="s">
         <v>283</v>
@@ -9605,7 +9655,7 @@
       <c r="F267" s="67"/>
       <c r="G267" s="69"/>
     </row>
-    <row r="268" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B268" s="78"/>
       <c r="C268" s="66" t="s">
         <v>284</v>
@@ -9619,7 +9669,7 @@
       <c r="F268" s="67"/>
       <c r="G268" s="69"/>
     </row>
-    <row r="269" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B269" s="78"/>
       <c r="C269" s="84" t="s">
         <v>124</v>
@@ -9629,7 +9679,7 @@
       <c r="F269" s="67"/>
       <c r="G269" s="69"/>
     </row>
-    <row r="270" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B270" s="78"/>
       <c r="C270" s="66" t="s">
         <v>285</v>
@@ -9643,7 +9693,7 @@
       <c r="F270" s="67"/>
       <c r="G270" s="69"/>
     </row>
-    <row r="271" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B271" s="78"/>
       <c r="C271" s="66" t="s">
         <v>286</v>
@@ -9657,7 +9707,7 @@
       <c r="F271" s="67"/>
       <c r="G271" s="69"/>
     </row>
-    <row r="272" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B272" s="78"/>
       <c r="C272" s="84" t="s">
         <v>127</v>
@@ -9667,7 +9717,7 @@
       <c r="F272" s="67"/>
       <c r="G272" s="69"/>
     </row>
-    <row r="273" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B273" s="78"/>
       <c r="C273" s="66" t="s">
         <v>287</v>
@@ -9681,7 +9731,7 @@
       <c r="F273" s="67"/>
       <c r="G273" s="69"/>
     </row>
-    <row r="274" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B274" s="78"/>
       <c r="C274" s="66" t="s">
         <v>288</v>
@@ -9695,7 +9745,7 @@
       <c r="F274" s="67"/>
       <c r="G274" s="69"/>
     </row>
-    <row r="275" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B275" s="78"/>
       <c r="C275" s="84" t="s">
         <v>130</v>
@@ -9705,7 +9755,7 @@
       <c r="F275" s="67"/>
       <c r="G275" s="69"/>
     </row>
-    <row r="276" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="78"/>
       <c r="C276" s="66" t="s">
         <v>289</v>
@@ -9719,7 +9769,7 @@
       <c r="F276" s="67"/>
       <c r="G276" s="69"/>
     </row>
-    <row r="277" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B277" s="78"/>
       <c r="C277" s="66" t="s">
         <v>290</v>
@@ -9733,7 +9783,7 @@
       <c r="F277" s="67"/>
       <c r="G277" s="69"/>
     </row>
-    <row r="278" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B278" s="78"/>
       <c r="C278" s="84" t="s">
         <v>151</v>
@@ -9743,7 +9793,7 @@
       <c r="F278" s="67"/>
       <c r="G278" s="69"/>
     </row>
-    <row r="279" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B279" s="78"/>
       <c r="C279" s="66" t="s">
         <v>291</v>
@@ -9757,7 +9807,7 @@
       <c r="F279" s="67"/>
       <c r="G279" s="69"/>
     </row>
-    <row r="280" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="78"/>
       <c r="C280" s="66" t="s">
         <v>292</v>
@@ -9771,7 +9821,7 @@
       <c r="F280" s="67"/>
       <c r="G280" s="69"/>
     </row>
-    <row r="281" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="58" t="s">
         <v>293</v>
       </c>
@@ -9791,7 +9841,7 @@
       </c>
       <c r="G281" s="61"/>
     </row>
-    <row r="282" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B282" s="78"/>
       <c r="C282" s="84" t="s">
         <v>118</v>
@@ -9801,7 +9851,7 @@
       <c r="F282" s="67"/>
       <c r="G282" s="69"/>
     </row>
-    <row r="283" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B283" s="78"/>
       <c r="C283" s="66" t="s">
         <v>295</v>
@@ -9815,7 +9865,7 @@
       <c r="F283" s="67"/>
       <c r="G283" s="69"/>
     </row>
-    <row r="284" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B284" s="78"/>
       <c r="C284" s="66" t="s">
         <v>296</v>
@@ -9829,7 +9879,7 @@
       <c r="F284" s="67"/>
       <c r="G284" s="69"/>
     </row>
-    <row r="285" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="78"/>
       <c r="C285" s="84" t="s">
         <v>121</v>
@@ -9839,7 +9889,7 @@
       <c r="F285" s="67"/>
       <c r="G285" s="69"/>
     </row>
-    <row r="286" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="78"/>
       <c r="C286" s="66" t="s">
         <v>297</v>
@@ -9853,7 +9903,7 @@
       <c r="F286" s="67"/>
       <c r="G286" s="69"/>
     </row>
-    <row r="287" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="78"/>
       <c r="C287" s="66" t="s">
         <v>298</v>
@@ -9867,7 +9917,7 @@
       <c r="F287" s="67"/>
       <c r="G287" s="69"/>
     </row>
-    <row r="288" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B288" s="78"/>
       <c r="C288" s="84" t="s">
         <v>124</v>
@@ -9877,7 +9927,7 @@
       <c r="F288" s="67"/>
       <c r="G288" s="69"/>
     </row>
-    <row r="289" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B289" s="78"/>
       <c r="C289" s="66" t="s">
         <v>299</v>
@@ -9891,7 +9941,7 @@
       <c r="F289" s="67"/>
       <c r="G289" s="69"/>
     </row>
-    <row r="290" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="78"/>
       <c r="C290" s="66" t="s">
         <v>300</v>
@@ -9905,7 +9955,7 @@
       <c r="F290" s="67"/>
       <c r="G290" s="69"/>
     </row>
-    <row r="291" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B291" s="78"/>
       <c r="C291" s="84" t="s">
         <v>127</v>
@@ -9915,7 +9965,7 @@
       <c r="F291" s="67"/>
       <c r="G291" s="69"/>
     </row>
-    <row r="292" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B292" s="78"/>
       <c r="C292" s="66" t="s">
         <v>301</v>
@@ -9929,7 +9979,7 @@
       <c r="F292" s="67"/>
       <c r="G292" s="69"/>
     </row>
-    <row r="293" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="78"/>
       <c r="C293" s="66" t="s">
         <v>302</v>
@@ -9943,7 +9993,7 @@
       <c r="F293" s="67"/>
       <c r="G293" s="69"/>
     </row>
-    <row r="294" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="78"/>
       <c r="C294" s="84" t="s">
         <v>130</v>
@@ -9953,7 +10003,7 @@
       <c r="F294" s="67"/>
       <c r="G294" s="69"/>
     </row>
-    <row r="295" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B295" s="78"/>
       <c r="C295" s="66" t="s">
         <v>303</v>
@@ -9967,7 +10017,7 @@
       <c r="F295" s="67"/>
       <c r="G295" s="69"/>
     </row>
-    <row r="296" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B296" s="78"/>
       <c r="C296" s="66" t="s">
         <v>304</v>
@@ -9981,7 +10031,7 @@
       <c r="F296" s="67"/>
       <c r="G296" s="69"/>
     </row>
-    <row r="297" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="78"/>
       <c r="C297" s="84" t="s">
         <v>151</v>
@@ -9991,7 +10041,7 @@
       <c r="F297" s="67"/>
       <c r="G297" s="69"/>
     </row>
-    <row r="298" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B298" s="78"/>
       <c r="C298" s="66" t="s">
         <v>305</v>
@@ -10005,7 +10055,7 @@
       <c r="F298" s="67"/>
       <c r="G298" s="69"/>
     </row>
-    <row r="299" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="78"/>
       <c r="C299" s="66" t="s">
         <v>306</v>
@@ -10019,7 +10069,7 @@
       <c r="F299" s="67"/>
       <c r="G299" s="69"/>
     </row>
-    <row r="300" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="58" t="s">
         <v>307</v>
       </c>
@@ -10039,7 +10089,7 @@
       </c>
       <c r="G300" s="61"/>
     </row>
-    <row r="301" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="78"/>
       <c r="C301" s="84" t="s">
         <v>118</v>
@@ -10049,7 +10099,7 @@
       <c r="F301" s="67"/>
       <c r="G301" s="69"/>
     </row>
-    <row r="302" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="78"/>
       <c r="C302" s="66" t="s">
         <v>309</v>
@@ -10063,7 +10113,7 @@
       <c r="F302" s="67"/>
       <c r="G302" s="69"/>
     </row>
-    <row r="303" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B303" s="78"/>
       <c r="C303" s="66" t="s">
         <v>310</v>
@@ -10077,7 +10127,7 @@
       <c r="F303" s="67"/>
       <c r="G303" s="69"/>
     </row>
-    <row r="304" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B304" s="78"/>
       <c r="C304" s="84" t="s">
         <v>121</v>
@@ -10087,7 +10137,7 @@
       <c r="F304" s="67"/>
       <c r="G304" s="69"/>
     </row>
-    <row r="305" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="78"/>
       <c r="C305" s="66" t="s">
         <v>311</v>
@@ -10101,7 +10151,7 @@
       <c r="F305" s="67"/>
       <c r="G305" s="69"/>
     </row>
-    <row r="306" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B306" s="78"/>
       <c r="C306" s="66" t="s">
         <v>311</v>
@@ -10115,7 +10165,7 @@
       <c r="F306" s="67"/>
       <c r="G306" s="69"/>
     </row>
-    <row r="307" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B307" s="78"/>
       <c r="C307" s="84" t="s">
         <v>124</v>
@@ -10125,7 +10175,7 @@
       <c r="F307" s="67"/>
       <c r="G307" s="69"/>
     </row>
-    <row r="308" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B308" s="78"/>
       <c r="C308" s="66" t="s">
         <v>312</v>
@@ -10139,7 +10189,7 @@
       <c r="F308" s="67"/>
       <c r="G308" s="69"/>
     </row>
-    <row r="309" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B309" s="78"/>
       <c r="C309" s="66" t="s">
         <v>312</v>
@@ -10153,7 +10203,7 @@
       <c r="F309" s="67"/>
       <c r="G309" s="69"/>
     </row>
-    <row r="310" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B310" s="78"/>
       <c r="C310" s="84" t="s">
         <v>127</v>
@@ -10163,7 +10213,7 @@
       <c r="F310" s="67"/>
       <c r="G310" s="69"/>
     </row>
-    <row r="311" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B311" s="78"/>
       <c r="C311" s="66" t="s">
         <v>313</v>
@@ -10177,7 +10227,7 @@
       <c r="F311" s="67"/>
       <c r="G311" s="69"/>
     </row>
-    <row r="312" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B312" s="78"/>
       <c r="C312" s="66" t="s">
         <v>313</v>
@@ -10191,7 +10241,7 @@
       <c r="F312" s="67"/>
       <c r="G312" s="69"/>
     </row>
-    <row r="313" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B313" s="78"/>
       <c r="C313" s="84" t="s">
         <v>130</v>
@@ -10201,7 +10251,7 @@
       <c r="F313" s="67"/>
       <c r="G313" s="69"/>
     </row>
-    <row r="314" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B314" s="78"/>
       <c r="C314" s="66" t="s">
         <v>314</v>
@@ -10215,7 +10265,7 @@
       <c r="F314" s="67"/>
       <c r="G314" s="69"/>
     </row>
-    <row r="315" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B315" s="78"/>
       <c r="C315" s="66" t="s">
         <v>314</v>
@@ -10229,7 +10279,7 @@
       <c r="F315" s="67"/>
       <c r="G315" s="69"/>
     </row>
-    <row r="316" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B316" s="78"/>
       <c r="C316" s="84" t="s">
         <v>151</v>
@@ -10239,7 +10289,7 @@
       <c r="F316" s="67"/>
       <c r="G316" s="69"/>
     </row>
-    <row r="317" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B317" s="78"/>
       <c r="C317" s="66" t="s">
         <v>315</v>
@@ -10253,7 +10303,7 @@
       <c r="F317" s="67"/>
       <c r="G317" s="69"/>
     </row>
-    <row r="318" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B318" s="78"/>
       <c r="C318" s="66" t="s">
         <v>315</v>
@@ -10267,7 +10317,7 @@
       <c r="F318" s="67"/>
       <c r="G318" s="69"/>
     </row>
-    <row r="319" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B319" s="58" t="s">
         <v>316</v>
       </c>
@@ -10283,7 +10333,7 @@
       <c r="F319" s="61"/>
       <c r="G319" s="61"/>
     </row>
-    <row r="320" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B320" s="78"/>
       <c r="C320" s="66" t="s">
         <v>318</v>
@@ -10298,7 +10348,7 @@
       <c r="F320" s="67"/>
       <c r="G320" s="69"/>
     </row>
-    <row r="321" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B321" s="78"/>
       <c r="C321" s="66" t="s">
         <v>319</v>
@@ -10313,7 +10363,7 @@
       <c r="F321" s="67"/>
       <c r="G321" s="69"/>
     </row>
-    <row r="322" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B322" s="94" t="s">
         <v>320</v>
       </c>
@@ -10325,7 +10375,7 @@
       <c r="F322" s="55"/>
       <c r="G322" s="57"/>
     </row>
-    <row r="323" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B323" s="58" t="s">
         <v>322</v>
       </c>
@@ -10340,11 +10390,11 @@
       </c>
       <c r="F323" s="61"/>
       <c r="G323" s="61"/>
-      <c r="I323" s="150" t="s">
+      <c r="I323" s="223" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="324" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B324" s="58" t="s">
         <v>325</v>
       </c>
@@ -10359,9 +10409,9 @@
       </c>
       <c r="F324" s="61"/>
       <c r="G324" s="61"/>
-      <c r="I324" s="150"/>
-    </row>
-    <row r="325" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I324" s="223"/>
+    </row>
+    <row r="325" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B325" s="58" t="s">
         <v>327</v>
       </c>
@@ -10376,9 +10426,9 @@
       </c>
       <c r="F325" s="61"/>
       <c r="G325" s="61"/>
-      <c r="I325" s="150"/>
-    </row>
-    <row r="326" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I325" s="223"/>
+    </row>
+    <row r="326" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B326" s="58" t="s">
         <v>329</v>
       </c>
@@ -10393,9 +10443,9 @@
       </c>
       <c r="F326" s="61"/>
       <c r="G326" s="61"/>
-      <c r="I326" s="150"/>
-    </row>
-    <row r="327" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I326" s="223"/>
+    </row>
+    <row r="327" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B327" s="94" t="s">
         <v>331</v>
       </c>
@@ -10423,7 +10473,7 @@
       <c r="F328" s="61"/>
       <c r="G328" s="61"/>
     </row>
-    <row r="329" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B329" s="78"/>
       <c r="C329" s="66" t="s">
         <v>335</v>
@@ -10437,7 +10487,7 @@
       <c r="F329" s="67"/>
       <c r="G329" s="69"/>
     </row>
-    <row r="330" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B330" s="78"/>
       <c r="C330" s="66" t="s">
         <v>336</v>
@@ -10468,7 +10518,7 @@
       <c r="F331" s="61"/>
       <c r="G331" s="61"/>
     </row>
-    <row r="332" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B332" s="78"/>
       <c r="C332" s="66" t="s">
         <v>339</v>
@@ -10482,7 +10532,7 @@
       <c r="F332" s="67"/>
       <c r="G332" s="69"/>
     </row>
-    <row r="333" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B333" s="78"/>
       <c r="C333" s="66" t="s">
         <v>340</v>
@@ -10512,7 +10562,7 @@
       <c r="F334" s="61"/>
       <c r="G334" s="61"/>
     </row>
-    <row r="335" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B335" s="78"/>
       <c r="C335" s="66" t="s">
         <v>343</v>
@@ -10526,7 +10576,7 @@
       <c r="F335" s="67"/>
       <c r="G335" s="69"/>
     </row>
-    <row r="336" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B336" s="78"/>
       <c r="C336" s="66" t="s">
         <v>344</v>
@@ -10556,7 +10606,7 @@
       <c r="F337" s="61"/>
       <c r="G337" s="61"/>
     </row>
-    <row r="338" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B338" s="78"/>
       <c r="C338" s="66" t="s">
         <v>347</v>
@@ -10570,7 +10620,7 @@
       <c r="F338" s="67"/>
       <c r="G338" s="69"/>
     </row>
-    <row r="339" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B339" s="78"/>
       <c r="C339" s="66" t="s">
         <v>348</v>
@@ -10600,7 +10650,7 @@
       <c r="F340" s="61"/>
       <c r="G340" s="61"/>
     </row>
-    <row r="341" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B341" s="94" t="s">
         <v>351</v>
       </c>
@@ -10628,7 +10678,7 @@
       <c r="F342" s="61"/>
       <c r="G342" s="61"/>
     </row>
-    <row r="343" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B343" s="78"/>
       <c r="C343" s="66" t="s">
         <v>355</v>
@@ -10642,7 +10692,7 @@
       <c r="F343" s="67"/>
       <c r="G343" s="69"/>
     </row>
-    <row r="344" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B344" s="78"/>
       <c r="C344" s="66" t="s">
         <v>356</v>
@@ -10656,7 +10706,7 @@
       <c r="F344" s="67"/>
       <c r="G344" s="69"/>
     </row>
-    <row r="345" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B345" s="78"/>
       <c r="C345" s="66" t="s">
         <v>357</v>
@@ -10670,7 +10720,7 @@
       <c r="F345" s="67"/>
       <c r="G345" s="69"/>
     </row>
-    <row r="346" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B346" s="78"/>
       <c r="C346" s="66" t="s">
         <v>358</v>
@@ -10700,7 +10750,7 @@
       <c r="F347" s="61"/>
       <c r="G347" s="61"/>
     </row>
-    <row r="348" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B348" s="78"/>
       <c r="C348" s="66" t="s">
         <v>361</v>
@@ -10728,7 +10778,7 @@
       <c r="F349" s="61"/>
       <c r="G349" s="61"/>
     </row>
-    <row r="350" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B350" s="78"/>
       <c r="C350" s="66" t="s">
         <v>364</v>
@@ -10742,7 +10792,7 @@
       <c r="F350" s="67"/>
       <c r="G350" s="69"/>
     </row>
-    <row r="351" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B351" s="78"/>
       <c r="C351" s="66" t="s">
         <v>365</v>
@@ -10772,7 +10822,7 @@
       <c r="F352" s="61"/>
       <c r="G352" s="61"/>
     </row>
-    <row r="353" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B353" s="78"/>
       <c r="C353" s="66" t="s">
         <v>367</v>
@@ -10803,7 +10853,7 @@
       <c r="F354" s="61"/>
       <c r="G354" s="61"/>
     </row>
-    <row r="355" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B355" s="78"/>
       <c r="C355" s="66" t="s">
         <v>371</v>
@@ -10817,7 +10867,7 @@
       <c r="F355" s="67"/>
       <c r="G355" s="69"/>
     </row>
-    <row r="356" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B356" s="78"/>
       <c r="C356" s="66" t="s">
         <v>372</v>
@@ -10831,7 +10881,7 @@
       <c r="F356" s="67"/>
       <c r="G356" s="69"/>
     </row>
-    <row r="357" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B357" s="78"/>
       <c r="C357" s="66" t="s">
         <v>373</v>
@@ -10845,7 +10895,7 @@
       <c r="F357" s="67"/>
       <c r="G357" s="69"/>
     </row>
-    <row r="358" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B358" s="78"/>
       <c r="C358" s="66" t="s">
         <v>374</v>
@@ -10859,7 +10909,7 @@
       <c r="F358" s="67"/>
       <c r="G358" s="69"/>
     </row>
-    <row r="359" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B359" s="94" t="s">
         <v>375</v>
       </c>
@@ -10876,7 +10926,7 @@
       <c r="F359" s="57"/>
       <c r="G359" s="57"/>
     </row>
-    <row r="360" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B360" s="58" t="s">
         <v>377</v>
       </c>
@@ -10892,7 +10942,7 @@
       <c r="F360" s="61"/>
       <c r="G360" s="61"/>
     </row>
-    <row r="361" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B361" s="94" t="s">
         <v>378</v>
       </c>
@@ -10909,7 +10959,7 @@
       <c r="F361" s="57"/>
       <c r="G361" s="57"/>
     </row>
-    <row r="362" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B362" s="58" t="s">
         <v>380</v>
       </c>
@@ -10925,7 +10975,7 @@
       <c r="F362" s="61"/>
       <c r="G362" s="61"/>
     </row>
-    <row r="363" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B363" s="94" t="s">
         <v>382</v>
       </c>
@@ -10937,7 +10987,7 @@
       <c r="F363" s="57"/>
       <c r="G363" s="57"/>
     </row>
-    <row r="364" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B364" s="58" t="s">
         <v>384</v>
       </c>
@@ -10953,7 +11003,7 @@
       <c r="F364" s="61"/>
       <c r="G364" s="61"/>
     </row>
-    <row r="365" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="58" t="s">
         <v>386</v>
       </c>
@@ -10969,7 +11019,7 @@
       <c r="F365" s="61"/>
       <c r="G365" s="61"/>
     </row>
-    <row r="366" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B366" s="58" t="s">
         <v>388</v>
       </c>
@@ -10985,7 +11035,7 @@
       <c r="F366" s="61"/>
       <c r="G366" s="61"/>
     </row>
-    <row r="367" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B367" s="94" t="s">
         <v>391</v>
       </c>
@@ -11001,7 +11051,7 @@
       <c r="F367" s="55"/>
       <c r="G367" s="57"/>
     </row>
-    <row r="368" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B368" s="100"/>
       <c r="C368" s="101" t="s">
         <v>393</v>
@@ -11011,14 +11061,14 @@
       <c r="F368" s="26"/>
       <c r="G368" s="28"/>
     </row>
-    <row r="369" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C369" s="102"/>
       <c r="D369" s="52"/>
       <c r="E369" s="103"/>
       <c r="F369" s="52"/>
       <c r="G369" s="53"/>
     </row>
-    <row r="370" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="24" t="s">
         <v>394</v>
       </c>
@@ -11029,11 +11079,11 @@
       <c r="E370" s="27"/>
       <c r="F370" s="26"/>
       <c r="G370" s="28"/>
-      <c r="I370" s="150" t="s">
+      <c r="I370" s="223" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="371" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B371" s="94" t="s">
         <v>397</v>
       </c>
@@ -11046,9 +11096,9 @@
       <c r="E371" s="96"/>
       <c r="F371" s="55"/>
       <c r="G371" s="57"/>
-      <c r="I371" s="150"/>
-    </row>
-    <row r="372" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I371" s="223"/>
+    </row>
+    <row r="372" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B372" s="58" t="s">
         <v>399</v>
       </c>
@@ -11064,9 +11114,9 @@
       </c>
       <c r="F372" s="61"/>
       <c r="G372" s="61"/>
-      <c r="I372" s="150"/>
-    </row>
-    <row r="373" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I372" s="223"/>
+    </row>
+    <row r="373" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="78"/>
       <c r="C373" s="66" t="s">
         <v>401</v>
@@ -11079,9 +11129,9 @@
       </c>
       <c r="F373" s="67"/>
       <c r="G373" s="69"/>
-      <c r="I373" s="150"/>
-    </row>
-    <row r="374" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I373" s="223"/>
+    </row>
+    <row r="374" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="78"/>
       <c r="C374" s="66" t="s">
         <v>402</v>
@@ -11094,9 +11144,9 @@
       </c>
       <c r="F374" s="67"/>
       <c r="G374" s="69"/>
-      <c r="I374" s="150"/>
-    </row>
-    <row r="375" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I374" s="223"/>
+    </row>
+    <row r="375" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B375" s="78"/>
       <c r="C375" s="66" t="s">
         <v>403</v>
@@ -11109,9 +11159,9 @@
       </c>
       <c r="F375" s="67"/>
       <c r="G375" s="69"/>
-      <c r="I375" s="150"/>
-    </row>
-    <row r="376" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I375" s="223"/>
+    </row>
+    <row r="376" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B376" s="78"/>
       <c r="C376" s="66" t="s">
         <v>404</v>
@@ -11124,9 +11174,9 @@
       </c>
       <c r="F376" s="67"/>
       <c r="G376" s="69"/>
-      <c r="I376" s="150"/>
-    </row>
-    <row r="377" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I376" s="223"/>
+    </row>
+    <row r="377" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B377" s="78"/>
       <c r="C377" s="66" t="s">
         <v>405</v>
@@ -11140,7 +11190,7 @@
       <c r="F377" s="67"/>
       <c r="G377" s="69"/>
     </row>
-    <row r="378" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B378" s="78"/>
       <c r="C378" s="66" t="s">
         <v>406</v>
@@ -11154,7 +11204,7 @@
       <c r="F378" s="67"/>
       <c r="G378" s="69"/>
     </row>
-    <row r="379" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B379" s="78"/>
       <c r="C379" s="66" t="s">
         <v>407</v>
@@ -11168,7 +11218,7 @@
       <c r="F379" s="67"/>
       <c r="G379" s="69"/>
     </row>
-    <row r="380" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B380" s="78"/>
       <c r="C380" s="66" t="s">
         <v>408</v>
@@ -11182,7 +11232,7 @@
       <c r="F380" s="67"/>
       <c r="G380" s="69"/>
     </row>
-    <row r="381" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B381" s="78"/>
       <c r="C381" s="66" t="s">
         <v>409</v>
@@ -11196,7 +11246,7 @@
       <c r="F381" s="67"/>
       <c r="G381" s="69"/>
     </row>
-    <row r="382" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B382" s="58" t="s">
         <v>410</v>
       </c>
@@ -11213,7 +11263,7 @@
       <c r="F382" s="61"/>
       <c r="G382" s="61"/>
     </row>
-    <row r="383" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B383" s="78"/>
       <c r="C383" s="66" t="s">
         <v>412</v>
@@ -11227,7 +11277,7 @@
       <c r="F383" s="67"/>
       <c r="G383" s="69"/>
     </row>
-    <row r="384" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B384" s="78"/>
       <c r="C384" s="66" t="s">
         <v>413</v>
@@ -11241,7 +11291,7 @@
       <c r="F384" s="67"/>
       <c r="G384" s="69"/>
     </row>
-    <row r="385" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B385" s="78"/>
       <c r="C385" s="66" t="s">
         <v>414</v>
@@ -11255,7 +11305,7 @@
       <c r="F385" s="67"/>
       <c r="G385" s="69"/>
     </row>
-    <row r="386" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B386" s="78"/>
       <c r="C386" s="66" t="s">
         <v>415</v>
@@ -11269,7 +11319,7 @@
       <c r="F386" s="67"/>
       <c r="G386" s="69"/>
     </row>
-    <row r="387" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B387" s="78"/>
       <c r="C387" s="66" t="s">
         <v>416</v>
@@ -11283,7 +11333,7 @@
       <c r="F387" s="67"/>
       <c r="G387" s="69"/>
     </row>
-    <row r="388" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B388" s="58" t="s">
         <v>417</v>
       </c>
@@ -11300,7 +11350,7 @@
       <c r="F388" s="61"/>
       <c r="G388" s="61"/>
     </row>
-    <row r="389" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B389" s="78"/>
       <c r="C389" s="66" t="s">
         <v>419</v>
@@ -11314,7 +11364,7 @@
       <c r="F389" s="67"/>
       <c r="G389" s="69"/>
     </row>
-    <row r="390" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B390" s="78"/>
       <c r="C390" s="66" t="s">
         <v>420</v>
@@ -11328,7 +11378,7 @@
       <c r="F390" s="67"/>
       <c r="G390" s="69"/>
     </row>
-    <row r="391" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B391" s="78"/>
       <c r="C391" s="66" t="s">
         <v>421</v>
@@ -11342,7 +11392,7 @@
       <c r="F391" s="67"/>
       <c r="G391" s="69"/>
     </row>
-    <row r="392" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B392" s="78"/>
       <c r="C392" s="66" t="s">
         <v>422</v>
@@ -11356,7 +11406,7 @@
       <c r="F392" s="67"/>
       <c r="G392" s="69"/>
     </row>
-    <row r="393" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B393" s="78"/>
       <c r="C393" s="66" t="s">
         <v>423</v>
@@ -11370,7 +11420,7 @@
       <c r="F393" s="67"/>
       <c r="G393" s="69"/>
     </row>
-    <row r="394" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B394" s="58" t="s">
         <v>424</v>
       </c>
@@ -11387,7 +11437,7 @@
       <c r="F394" s="61"/>
       <c r="G394" s="61"/>
     </row>
-    <row r="395" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B395" s="78"/>
       <c r="C395" s="66" t="s">
         <v>426</v>
@@ -11401,7 +11451,7 @@
       <c r="F395" s="67"/>
       <c r="G395" s="69"/>
     </row>
-    <row r="396" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B396" s="58" t="s">
         <v>427</v>
       </c>
@@ -11418,7 +11468,7 @@
       <c r="F396" s="61"/>
       <c r="G396" s="61"/>
     </row>
-    <row r="397" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B397" s="78"/>
       <c r="C397" s="66" t="s">
         <v>429</v>
@@ -11432,7 +11482,7 @@
       <c r="F397" s="67"/>
       <c r="G397" s="69"/>
     </row>
-    <row r="398" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B398" s="78"/>
       <c r="C398" s="66" t="s">
         <v>430</v>
@@ -11446,7 +11496,7 @@
       <c r="F398" s="67"/>
       <c r="G398" s="69"/>
     </row>
-    <row r="399" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B399" s="78"/>
       <c r="C399" s="66" t="s">
         <v>431</v>
@@ -11460,7 +11510,7 @@
       <c r="F399" s="67"/>
       <c r="G399" s="69"/>
     </row>
-    <row r="400" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B400" s="78"/>
       <c r="C400" s="66" t="s">
         <v>432</v>
@@ -11474,7 +11524,7 @@
       <c r="F400" s="67"/>
       <c r="G400" s="69"/>
     </row>
-    <row r="401" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B401" s="78"/>
       <c r="C401" s="66" t="s">
         <v>433</v>
@@ -11488,7 +11538,7 @@
       <c r="F401" s="67"/>
       <c r="G401" s="69"/>
     </row>
-    <row r="402" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B402" s="78"/>
       <c r="C402" s="66" t="s">
         <v>434</v>
@@ -11502,7 +11552,7 @@
       <c r="F402" s="67"/>
       <c r="G402" s="69"/>
     </row>
-    <row r="403" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B403" s="78"/>
       <c r="C403" s="66" t="s">
         <v>435</v>
@@ -11516,7 +11566,7 @@
       <c r="F403" s="67"/>
       <c r="G403" s="69"/>
     </row>
-    <row r="404" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B404" s="78"/>
       <c r="C404" s="66" t="s">
         <v>436</v>
@@ -11530,7 +11580,7 @@
       <c r="F404" s="67"/>
       <c r="G404" s="69"/>
     </row>
-    <row r="405" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B405" s="78"/>
       <c r="C405" s="66" t="s">
         <v>437</v>
@@ -11544,7 +11594,7 @@
       <c r="F405" s="67"/>
       <c r="G405" s="69"/>
     </row>
-    <row r="406" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B406" s="58" t="s">
         <v>438</v>
       </c>
@@ -11561,7 +11611,7 @@
       <c r="F406" s="61"/>
       <c r="G406" s="61"/>
     </row>
-    <row r="407" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B407" s="78"/>
       <c r="C407" s="66" t="s">
         <v>440</v>
@@ -11575,7 +11625,7 @@
       <c r="F407" s="67"/>
       <c r="G407" s="69"/>
     </row>
-    <row r="408" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B408" s="78"/>
       <c r="C408" s="66" t="s">
         <v>441</v>
@@ -11589,7 +11639,7 @@
       <c r="F408" s="67"/>
       <c r="G408" s="69"/>
     </row>
-    <row r="409" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B409" s="78"/>
       <c r="C409" s="66" t="s">
         <v>442</v>
@@ -11603,7 +11653,7 @@
       <c r="F409" s="67"/>
       <c r="G409" s="69"/>
     </row>
-    <row r="410" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B410" s="78"/>
       <c r="C410" s="66" t="s">
         <v>443</v>
@@ -11617,7 +11667,7 @@
       <c r="F410" s="67"/>
       <c r="G410" s="69"/>
     </row>
-    <row r="411" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B411" s="78"/>
       <c r="C411" s="66" t="s">
         <v>444</v>
@@ -11631,7 +11681,7 @@
       <c r="F411" s="67"/>
       <c r="G411" s="69"/>
     </row>
-    <row r="412" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B412" s="78"/>
       <c r="C412" s="66" t="s">
         <v>445</v>
@@ -11645,7 +11695,7 @@
       <c r="F412" s="67"/>
       <c r="G412" s="69"/>
     </row>
-    <row r="413" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B413" s="78"/>
       <c r="C413" s="66" t="s">
         <v>446</v>
@@ -11659,7 +11709,7 @@
       <c r="F413" s="67"/>
       <c r="G413" s="69"/>
     </row>
-    <row r="414" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B414" s="78"/>
       <c r="C414" s="66" t="s">
         <v>447</v>
@@ -11673,7 +11723,7 @@
       <c r="F414" s="67"/>
       <c r="G414" s="69"/>
     </row>
-    <row r="415" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B415" s="58" t="s">
         <v>448</v>
       </c>
@@ -11690,7 +11740,7 @@
       <c r="F415" s="61"/>
       <c r="G415" s="61"/>
     </row>
-    <row r="416" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B416" s="78"/>
       <c r="C416" s="66" t="s">
         <v>450</v>
@@ -11704,7 +11754,7 @@
       <c r="F416" s="67"/>
       <c r="G416" s="69"/>
     </row>
-    <row r="417" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B417" s="29" t="s">
         <v>451</v>
       </c>
@@ -11716,7 +11766,7 @@
       <c r="F417" s="33"/>
       <c r="G417" s="34"/>
     </row>
-    <row r="418" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B418" s="58" t="s">
         <v>453</v>
       </c>
@@ -11733,7 +11783,7 @@
       <c r="F418" s="61"/>
       <c r="G418" s="61"/>
     </row>
-    <row r="419" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B419" s="78"/>
       <c r="C419" s="66" t="s">
         <v>455</v>
@@ -11747,7 +11797,7 @@
       <c r="F419" s="67"/>
       <c r="G419" s="69"/>
     </row>
-    <row r="420" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B420" s="78"/>
       <c r="C420" s="66" t="s">
         <v>456</v>
@@ -11761,7 +11811,7 @@
       <c r="F420" s="67"/>
       <c r="G420" s="69"/>
     </row>
-    <row r="421" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B421" s="78"/>
       <c r="C421" s="66" t="s">
         <v>457</v>
@@ -11775,7 +11825,7 @@
       <c r="F421" s="67"/>
       <c r="G421" s="69"/>
     </row>
-    <row r="422" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B422" s="78"/>
       <c r="C422" s="66" t="s">
         <v>458</v>
@@ -11789,7 +11839,7 @@
       <c r="F422" s="67"/>
       <c r="G422" s="69"/>
     </row>
-    <row r="423" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B423" s="58" t="s">
         <v>459</v>
       </c>
@@ -11805,7 +11855,7 @@
       <c r="F423" s="61"/>
       <c r="G423" s="61"/>
     </row>
-    <row r="424" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B424" s="78"/>
       <c r="C424" s="80" t="s">
         <v>461</v>
@@ -11819,7 +11869,7 @@
       <c r="F424" s="67"/>
       <c r="G424" s="69"/>
     </row>
-    <row r="425" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B425" s="29" t="s">
         <v>462</v>
       </c>
@@ -11831,7 +11881,7 @@
       <c r="F425" s="33"/>
       <c r="G425" s="34"/>
     </row>
-    <row r="426" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B426" s="58" t="s">
         <v>464</v>
       </c>
@@ -11848,7 +11898,7 @@
       <c r="F426" s="61"/>
       <c r="G426" s="61"/>
     </row>
-    <row r="427" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B427" s="78"/>
       <c r="C427" s="66" t="s">
         <v>466</v>
@@ -11862,7 +11912,7 @@
       <c r="F427" s="67"/>
       <c r="G427" s="69"/>
     </row>
-    <row r="428" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B428" s="78"/>
       <c r="C428" s="66" t="s">
         <v>467</v>
@@ -11876,7 +11926,7 @@
       <c r="F428" s="67"/>
       <c r="G428" s="69"/>
     </row>
-    <row r="429" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B429" s="78"/>
       <c r="C429" s="66" t="s">
         <v>468</v>
@@ -11890,7 +11940,7 @@
       <c r="F429" s="67"/>
       <c r="G429" s="69"/>
     </row>
-    <row r="430" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B430" s="78"/>
       <c r="C430" s="66" t="s">
         <v>469</v>
@@ -11904,7 +11954,7 @@
       <c r="F430" s="67"/>
       <c r="G430" s="69"/>
     </row>
-    <row r="431" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B431" s="78"/>
       <c r="C431" s="66" t="s">
         <v>470</v>
@@ -11918,7 +11968,7 @@
       <c r="F431" s="67"/>
       <c r="G431" s="69"/>
     </row>
-    <row r="432" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B432" s="78"/>
       <c r="C432" s="66" t="s">
         <v>471</v>
@@ -11932,7 +11982,7 @@
       <c r="F432" s="67"/>
       <c r="G432" s="69"/>
     </row>
-    <row r="433" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B433" s="78"/>
       <c r="C433" s="66" t="s">
         <v>472</v>
@@ -11946,7 +11996,7 @@
       <c r="F433" s="67"/>
       <c r="G433" s="69"/>
     </row>
-    <row r="434" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B434" s="78"/>
       <c r="C434" s="66" t="s">
         <v>473</v>
@@ -11960,7 +12010,7 @@
       <c r="F434" s="67"/>
       <c r="G434" s="69"/>
     </row>
-    <row r="435" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B435" s="58" t="s">
         <v>474</v>
       </c>
@@ -11976,7 +12026,7 @@
       <c r="F435" s="61"/>
       <c r="G435" s="61"/>
     </row>
-    <row r="436" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B436" s="78"/>
       <c r="C436" s="66" t="s">
         <v>476</v>
@@ -11986,7 +12036,7 @@
       <c r="F436" s="67"/>
       <c r="G436" s="69"/>
     </row>
-    <row r="437" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B437" s="78"/>
       <c r="C437" s="66" t="s">
         <v>477</v>
@@ -11996,7 +12046,7 @@
       <c r="F437" s="67"/>
       <c r="G437" s="69"/>
     </row>
-    <row r="438" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B438" s="78"/>
       <c r="C438" s="66" t="s">
         <v>478</v>
@@ -12006,7 +12056,7 @@
       <c r="F438" s="67"/>
       <c r="G438" s="69"/>
     </row>
-    <row r="439" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B439" s="58" t="s">
         <v>479</v>
       </c>
@@ -12023,7 +12073,7 @@
       <c r="F439" s="61"/>
       <c r="G439" s="61"/>
     </row>
-    <row r="440" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B440" s="78"/>
       <c r="C440" s="66" t="s">
         <v>481</v>
@@ -12037,7 +12087,7 @@
       <c r="F440" s="67"/>
       <c r="G440" s="69"/>
     </row>
-    <row r="441" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B441" s="78"/>
       <c r="C441" s="66" t="s">
         <v>482</v>
@@ -12051,7 +12101,7 @@
       <c r="F441" s="67"/>
       <c r="G441" s="69"/>
     </row>
-    <row r="442" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B442" s="58" t="s">
         <v>483</v>
       </c>
@@ -12067,7 +12117,7 @@
       <c r="F442" s="61"/>
       <c r="G442" s="61"/>
     </row>
-    <row r="443" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B443" s="78"/>
       <c r="C443" s="66" t="s">
         <v>485</v>
@@ -12077,7 +12127,7 @@
       <c r="F443" s="67"/>
       <c r="G443" s="69"/>
     </row>
-    <row r="444" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B444" s="58" t="s">
         <v>486</v>
       </c>
@@ -12093,7 +12143,7 @@
       <c r="F444" s="61"/>
       <c r="G444" s="61"/>
     </row>
-    <row r="445" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B445" s="58" t="s">
         <v>488</v>
       </c>
@@ -12110,7 +12160,7 @@
       <c r="F445" s="61"/>
       <c r="G445" s="61"/>
     </row>
-    <row r="446" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B446" s="78"/>
       <c r="C446" s="66" t="s">
         <v>490</v>
@@ -12122,7 +12172,7 @@
       <c r="F446" s="67"/>
       <c r="G446" s="69"/>
     </row>
-    <row r="447" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B447" s="78"/>
       <c r="C447" s="66" t="s">
         <v>491</v>
@@ -12134,7 +12184,7 @@
       <c r="F447" s="67"/>
       <c r="G447" s="69"/>
     </row>
-    <row r="448" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B448" s="78"/>
       <c r="C448" s="66" t="s">
         <v>492</v>
@@ -12146,7 +12196,7 @@
       <c r="F448" s="67"/>
       <c r="G448" s="69"/>
     </row>
-    <row r="449" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B449" s="78"/>
       <c r="C449" s="66" t="s">
         <v>493</v>
@@ -12158,7 +12208,7 @@
       <c r="F449" s="67"/>
       <c r="G449" s="69"/>
     </row>
-    <row r="450" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B450" s="78"/>
       <c r="C450" s="66" t="s">
         <v>494</v>
@@ -12170,7 +12220,7 @@
       <c r="F450" s="67"/>
       <c r="G450" s="69"/>
     </row>
-    <row r="451" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B451" s="78"/>
       <c r="C451" s="66" t="s">
         <v>495</v>
@@ -12182,7 +12232,7 @@
       <c r="F451" s="67"/>
       <c r="G451" s="69"/>
     </row>
-    <row r="452" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B452" s="29" t="s">
         <v>496</v>
       </c>
@@ -12194,7 +12244,7 @@
       <c r="F452" s="33"/>
       <c r="G452" s="34"/>
     </row>
-    <row r="453" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B453" s="58" t="s">
         <v>498</v>
       </c>
@@ -12218,7 +12268,7 @@
         <v>MAL</v>
       </c>
     </row>
-    <row r="454" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B454" s="78"/>
       <c r="C454" s="66" t="s">
         <v>500</v>
@@ -12230,7 +12280,7 @@
       <c r="F454" s="67"/>
       <c r="G454" s="69"/>
     </row>
-    <row r="455" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B455" s="78"/>
       <c r="C455" s="66" t="s">
         <v>501</v>
@@ -12242,7 +12292,7 @@
       <c r="F455" s="67"/>
       <c r="G455" s="69"/>
     </row>
-    <row r="456" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B456" s="78"/>
       <c r="C456" s="66" t="s">
         <v>502</v>
@@ -12254,7 +12304,7 @@
       <c r="F456" s="67"/>
       <c r="G456" s="69"/>
     </row>
-    <row r="457" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B457" s="78"/>
       <c r="C457" s="66" t="s">
         <v>503</v>
@@ -12266,7 +12316,7 @@
       <c r="F457" s="67"/>
       <c r="G457" s="69"/>
     </row>
-    <row r="458" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B458" s="78"/>
       <c r="C458" s="66" t="s">
         <v>504</v>
@@ -12278,7 +12328,7 @@
       <c r="F458" s="67"/>
       <c r="G458" s="69"/>
     </row>
-    <row r="459" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B459" s="78"/>
       <c r="C459" s="66" t="s">
         <v>505</v>
@@ -12290,7 +12340,7 @@
       <c r="F459" s="67"/>
       <c r="G459" s="69"/>
     </row>
-    <row r="460" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B460" s="58" t="s">
         <v>506</v>
       </c>
@@ -12306,7 +12356,7 @@
       <c r="F460" s="61"/>
       <c r="G460" s="61"/>
     </row>
-    <row r="461" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B461" s="78"/>
       <c r="C461" s="66" t="s">
         <v>508</v>
@@ -12316,7 +12366,7 @@
       <c r="F461" s="67"/>
       <c r="G461" s="69"/>
     </row>
-    <row r="462" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B462" s="58" t="s">
         <v>509</v>
       </c>
@@ -12332,7 +12382,7 @@
       <c r="F462" s="61"/>
       <c r="G462" s="61"/>
     </row>
-    <row r="463" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B463" s="78"/>
       <c r="C463" s="66" t="s">
         <v>511</v>
@@ -12342,7 +12392,7 @@
       <c r="F463" s="67"/>
       <c r="G463" s="69"/>
     </row>
-    <row r="464" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B464" s="58" t="s">
         <v>512</v>
       </c>
@@ -12358,7 +12408,7 @@
       <c r="F464" s="61"/>
       <c r="G464" s="61"/>
     </row>
-    <row r="465" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B465" s="78"/>
       <c r="C465" s="66" t="s">
         <v>514</v>
@@ -12368,7 +12418,7 @@
       <c r="F465" s="67"/>
       <c r="G465" s="69"/>
     </row>
-    <row r="466" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B466" s="58" t="s">
         <v>515</v>
       </c>
@@ -12384,7 +12434,7 @@
       <c r="F466" s="61"/>
       <c r="G466" s="61"/>
     </row>
-    <row r="467" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B467" s="78"/>
       <c r="C467" s="66" t="s">
         <v>517</v>
@@ -12394,7 +12444,7 @@
       <c r="F467" s="67"/>
       <c r="G467" s="69"/>
     </row>
-    <row r="468" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B468" s="58" t="s">
         <v>518</v>
       </c>
@@ -12413,7 +12463,7 @@
       <c r="H468" s="105"/>
       <c r="I468" s="106"/>
     </row>
-    <row r="469" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B469" s="78"/>
       <c r="C469" s="66" t="s">
         <v>520</v>
@@ -12425,7 +12475,7 @@
       <c r="F469" s="67"/>
       <c r="G469" s="69"/>
     </row>
-    <row r="470" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B470" s="78"/>
       <c r="C470" s="66" t="s">
         <v>521</v>
@@ -12437,7 +12487,7 @@
       <c r="F470" s="67"/>
       <c r="G470" s="69"/>
     </row>
-    <row r="471" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B471" s="78"/>
       <c r="C471" s="66" t="s">
         <v>522</v>
@@ -12449,7 +12499,7 @@
       <c r="F471" s="67"/>
       <c r="G471" s="69"/>
     </row>
-    <row r="472" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B472" s="78"/>
       <c r="C472" s="66" t="s">
         <v>523</v>
@@ -12461,7 +12511,7 @@
       <c r="F472" s="67"/>
       <c r="G472" s="69"/>
     </row>
-    <row r="473" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B473" s="78"/>
       <c r="C473" s="66" t="s">
         <v>524</v>
@@ -12473,7 +12523,7 @@
       <c r="F473" s="67"/>
       <c r="G473" s="69"/>
     </row>
-    <row r="474" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B474" s="58" t="s">
         <v>525</v>
       </c>
@@ -12489,7 +12539,7 @@
       <c r="F474" s="61"/>
       <c r="G474" s="61"/>
     </row>
-    <row r="475" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B475" s="78"/>
       <c r="C475" s="66" t="s">
         <v>527</v>
@@ -12499,7 +12549,7 @@
       <c r="F475" s="67"/>
       <c r="G475" s="69"/>
     </row>
-    <row r="476" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B476" s="29" t="s">
         <v>528</v>
       </c>
@@ -12511,7 +12561,7 @@
       <c r="F476" s="33"/>
       <c r="G476" s="34"/>
     </row>
-    <row r="477" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B477" s="58" t="s">
         <v>530</v>
       </c>
@@ -12523,7 +12573,7 @@
       <c r="F477" s="61"/>
       <c r="G477" s="61"/>
     </row>
-    <row r="478" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B478" s="107" t="s">
         <v>532</v>
       </c>
@@ -12539,7 +12589,7 @@
       <c r="F478" s="110"/>
       <c r="G478" s="47"/>
     </row>
-    <row r="479" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B479" s="107" t="s">
         <v>534</v>
       </c>
@@ -12555,7 +12605,7 @@
       <c r="F479" s="110"/>
       <c r="G479" s="47"/>
     </row>
-    <row r="480" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B480" s="107" t="s">
         <v>536</v>
       </c>
@@ -12571,7 +12621,7 @@
       <c r="F480" s="110"/>
       <c r="G480" s="47"/>
     </row>
-    <row r="481" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B481" s="107" t="s">
         <v>538</v>
       </c>
@@ -12587,7 +12637,7 @@
       <c r="F481" s="110"/>
       <c r="G481" s="47"/>
     </row>
-    <row r="482" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B482" s="58" t="s">
         <v>540</v>
       </c>
@@ -12599,7 +12649,7 @@
       <c r="F482" s="61"/>
       <c r="G482" s="61"/>
     </row>
-    <row r="483" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B483" s="107" t="s">
         <v>542</v>
       </c>
@@ -12615,7 +12665,7 @@
       <c r="F483" s="110"/>
       <c r="G483" s="47"/>
     </row>
-    <row r="484" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B484" s="107" t="s">
         <v>544</v>
       </c>
@@ -12631,7 +12681,7 @@
       <c r="F484" s="110"/>
       <c r="G484" s="47"/>
     </row>
-    <row r="485" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B485" s="107" t="s">
         <v>546</v>
       </c>
@@ -12647,7 +12697,7 @@
       <c r="F485" s="110"/>
       <c r="G485" s="47"/>
     </row>
-    <row r="486" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B486" s="107" t="s">
         <v>548</v>
       </c>
@@ -12663,7 +12713,7 @@
       <c r="F486" s="110"/>
       <c r="G486" s="47"/>
     </row>
-    <row r="487" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B487" s="58" t="s">
         <v>549</v>
       </c>
@@ -12679,7 +12729,7 @@
       <c r="F487" s="61"/>
       <c r="G487" s="61"/>
     </row>
-    <row r="488" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B488" s="29" t="s">
         <v>551</v>
       </c>
@@ -12690,11 +12740,11 @@
       <c r="E488" s="35"/>
       <c r="F488" s="33"/>
       <c r="G488" s="34"/>
-      <c r="I488" s="150" t="s">
+      <c r="I488" s="223" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="489" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B489" s="58" t="s">
         <v>554</v>
       </c>
@@ -12712,9 +12762,9 @@
         <v>556</v>
       </c>
       <c r="H489" s="83"/>
-      <c r="I489" s="150"/>
-    </row>
-    <row r="490" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I489" s="223"/>
+    </row>
+    <row r="490" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B490" s="78"/>
       <c r="C490" s="80" t="s">
         <v>557</v>
@@ -12728,7 +12778,7 @@
       <c r="F490" s="67"/>
       <c r="G490" s="69"/>
     </row>
-    <row r="491" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B491" s="78"/>
       <c r="C491" s="80" t="s">
         <v>559</v>
@@ -12742,7 +12792,7 @@
       <c r="F491" s="67"/>
       <c r="G491" s="69"/>
     </row>
-    <row r="492" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B492" s="78"/>
       <c r="C492" s="80" t="s">
         <v>560</v>
@@ -12756,7 +12806,7 @@
       <c r="F492" s="67"/>
       <c r="G492" s="69"/>
     </row>
-    <row r="493" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B493" s="78"/>
       <c r="C493" s="80" t="s">
         <v>561</v>
@@ -12770,7 +12820,7 @@
       <c r="F493" s="67"/>
       <c r="G493" s="69"/>
     </row>
-    <row r="494" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B494" s="78"/>
       <c r="C494" s="80" t="s">
         <v>562</v>
@@ -12784,7 +12834,7 @@
       <c r="F494" s="67"/>
       <c r="G494" s="69"/>
     </row>
-    <row r="495" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B495" s="78"/>
       <c r="C495" s="80" t="s">
         <v>563</v>
@@ -12798,7 +12848,7 @@
       <c r="F495" s="67"/>
       <c r="G495" s="69"/>
     </row>
-    <row r="496" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B496" s="78"/>
       <c r="C496" s="80" t="s">
         <v>564</v>
@@ -12812,7 +12862,7 @@
       <c r="F496" s="67"/>
       <c r="G496" s="69"/>
     </row>
-    <row r="497" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B497" s="78"/>
       <c r="C497" s="80" t="s">
         <v>565</v>
@@ -12826,7 +12876,7 @@
       <c r="F497" s="67"/>
       <c r="G497" s="69"/>
     </row>
-    <row r="498" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B498" s="78"/>
       <c r="C498" s="80" t="s">
         <v>566</v>
@@ -12840,7 +12890,7 @@
       <c r="F498" s="67"/>
       <c r="G498" s="69"/>
     </row>
-    <row r="499" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B499" s="78"/>
       <c r="C499" s="80" t="s">
         <v>567</v>
@@ -12854,7 +12904,7 @@
       <c r="F499" s="67"/>
       <c r="G499" s="69"/>
     </row>
-    <row r="500" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B500" s="58" t="s">
         <v>568</v>
       </c>
@@ -12872,7 +12922,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="501" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B501" s="78"/>
       <c r="C501" s="80" t="s">
         <v>570</v>
@@ -12886,7 +12936,7 @@
       <c r="F501" s="67"/>
       <c r="G501" s="69"/>
     </row>
-    <row r="502" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B502" s="58" t="s">
         <v>571</v>
       </c>
@@ -12904,7 +12954,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="503" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B503" s="78"/>
       <c r="C503" s="80" t="s">
         <v>573</v>
@@ -12920,7 +12970,7 @@
       </c>
       <c r="G503" s="69"/>
     </row>
-    <row r="504" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B504" s="78"/>
       <c r="C504" s="80" t="s">
         <v>574</v>
@@ -12934,7 +12984,7 @@
       <c r="F504" s="67"/>
       <c r="G504" s="69"/>
     </row>
-    <row r="505" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B505" s="78"/>
       <c r="C505" s="80" t="s">
         <v>575</v>
@@ -12948,7 +12998,7 @@
       <c r="F505" s="67"/>
       <c r="G505" s="69"/>
     </row>
-    <row r="506" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B506" s="78"/>
       <c r="C506" s="80" t="s">
         <v>576</v>
@@ -12962,7 +13012,7 @@
       <c r="F506" s="67"/>
       <c r="G506" s="69"/>
     </row>
-    <row r="507" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B507" s="78"/>
       <c r="C507" s="80" t="s">
         <v>577</v>
@@ -12976,7 +13026,7 @@
       <c r="F507" s="67"/>
       <c r="G507" s="69"/>
     </row>
-    <row r="508" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B508" s="78"/>
       <c r="C508" s="80" t="s">
         <v>578</v>
@@ -12990,7 +13040,7 @@
       <c r="F508" s="67"/>
       <c r="G508" s="69"/>
     </row>
-    <row r="509" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B509" s="78"/>
       <c r="C509" s="80" t="s">
         <v>579</v>
@@ -13004,7 +13054,7 @@
       <c r="F509" s="67"/>
       <c r="G509" s="69"/>
     </row>
-    <row r="510" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B510" s="78"/>
       <c r="C510" s="80" t="s">
         <v>580</v>
@@ -13018,7 +13068,7 @@
       <c r="F510" s="67"/>
       <c r="G510" s="69"/>
     </row>
-    <row r="511" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B511" s="78"/>
       <c r="C511" s="80" t="s">
         <v>581</v>
@@ -13032,7 +13082,7 @@
       <c r="F511" s="67"/>
       <c r="G511" s="69"/>
     </row>
-    <row r="512" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B512" s="78"/>
       <c r="C512" s="80" t="s">
         <v>582</v>
@@ -13046,7 +13096,7 @@
       <c r="F512" s="67"/>
       <c r="G512" s="69"/>
     </row>
-    <row r="513" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B513" s="58" t="s">
         <v>583</v>
       </c>
@@ -13062,7 +13112,7 @@
       <c r="F513" s="61"/>
       <c r="G513" s="61"/>
     </row>
-    <row r="514" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B514" s="58" t="s">
         <v>585</v>
       </c>
@@ -13080,7 +13130,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="515" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B515" s="78"/>
       <c r="C515" s="80" t="s">
         <v>587</v>
@@ -13094,7 +13144,7 @@
       <c r="F515" s="67"/>
       <c r="G515" s="69"/>
     </row>
-    <row r="516" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B516" s="78"/>
       <c r="C516" s="80" t="s">
         <v>588</v>
@@ -13108,7 +13158,7 @@
       <c r="F516" s="67"/>
       <c r="G516" s="69"/>
     </row>
-    <row r="517" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B517" s="78"/>
       <c r="C517" s="80" t="s">
         <v>589</v>
@@ -13122,7 +13172,7 @@
       <c r="F517" s="67"/>
       <c r="G517" s="69"/>
     </row>
-    <row r="518" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B518" s="78"/>
       <c r="C518" s="80" t="s">
         <v>590</v>
@@ -13136,7 +13186,7 @@
       <c r="F518" s="67"/>
       <c r="G518" s="69"/>
     </row>
-    <row r="519" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B519" s="78"/>
       <c r="C519" s="80" t="s">
         <v>591</v>
@@ -13150,7 +13200,7 @@
       <c r="F519" s="67"/>
       <c r="G519" s="69"/>
     </row>
-    <row r="520" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B520" s="78"/>
       <c r="C520" s="80" t="s">
         <v>592</v>
@@ -13164,7 +13214,7 @@
       <c r="F520" s="67"/>
       <c r="G520" s="69"/>
     </row>
-    <row r="521" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B521" s="78"/>
       <c r="C521" s="80" t="s">
         <v>593</v>
@@ -13178,7 +13228,7 @@
       <c r="F521" s="67"/>
       <c r="G521" s="69"/>
     </row>
-    <row r="522" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B522" s="78"/>
       <c r="C522" s="80" t="s">
         <v>594</v>
@@ -13192,7 +13242,7 @@
       <c r="F522" s="67"/>
       <c r="G522" s="69"/>
     </row>
-    <row r="523" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B523" s="78"/>
       <c r="C523" s="80" t="s">
         <v>595</v>
@@ -13206,7 +13256,7 @@
       <c r="F523" s="67"/>
       <c r="G523" s="69"/>
     </row>
-    <row r="524" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B524" s="78"/>
       <c r="C524" s="80" t="s">
         <v>596</v>
@@ -13220,7 +13270,7 @@
       <c r="F524" s="67"/>
       <c r="G524" s="69"/>
     </row>
-    <row r="525" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B525" s="58" t="s">
         <v>597</v>
       </c>
@@ -13238,7 +13288,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="526" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B526" s="58" t="s">
         <v>599</v>
       </c>
@@ -13254,7 +13304,7 @@
       <c r="F526" s="61"/>
       <c r="G526" s="61"/>
     </row>
-    <row r="527" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B527" s="29" t="s">
         <v>601</v>
       </c>
@@ -13266,7 +13316,7 @@
       <c r="F527" s="33"/>
       <c r="G527" s="34"/>
     </row>
-    <row r="528" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B528" s="58" t="s">
         <v>603</v>
       </c>
@@ -13284,7 +13334,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="529" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B529" s="78"/>
       <c r="C529" s="80" t="s">
         <v>605</v>
@@ -13300,7 +13350,7 @@
       </c>
       <c r="G529" s="69"/>
     </row>
-    <row r="530" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B530" s="78"/>
       <c r="C530" s="80" t="s">
         <v>606</v>
@@ -13314,7 +13364,7 @@
       <c r="F530" s="67"/>
       <c r="G530" s="69"/>
     </row>
-    <row r="531" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B531" s="78"/>
       <c r="C531" s="80" t="s">
         <v>607</v>
@@ -13328,7 +13378,7 @@
       <c r="F531" s="67"/>
       <c r="G531" s="69"/>
     </row>
-    <row r="532" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B532" s="78"/>
       <c r="C532" s="80" t="s">
         <v>608</v>
@@ -13342,7 +13392,7 @@
       <c r="F532" s="67"/>
       <c r="G532" s="69"/>
     </row>
-    <row r="533" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B533" s="78"/>
       <c r="C533" s="80" t="s">
         <v>609</v>
@@ -13356,7 +13406,7 @@
       <c r="F533" s="67"/>
       <c r="G533" s="69"/>
     </row>
-    <row r="534" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B534" s="78"/>
       <c r="C534" s="80" t="s">
         <v>610</v>
@@ -13370,7 +13420,7 @@
       <c r="F534" s="67"/>
       <c r="G534" s="69"/>
     </row>
-    <row r="535" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B535" s="78"/>
       <c r="C535" s="80" t="s">
         <v>611</v>
@@ -13384,7 +13434,7 @@
       <c r="F535" s="67"/>
       <c r="G535" s="69"/>
     </row>
-    <row r="536" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B536" s="78"/>
       <c r="C536" s="80" t="s">
         <v>612</v>
@@ -13398,7 +13448,7 @@
       <c r="F536" s="67"/>
       <c r="G536" s="69"/>
     </row>
-    <row r="537" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B537" s="78"/>
       <c r="C537" s="80" t="s">
         <v>613</v>
@@ -13412,7 +13462,7 @@
       <c r="F537" s="67"/>
       <c r="G537" s="69"/>
     </row>
-    <row r="538" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B538" s="78"/>
       <c r="C538" s="80" t="s">
         <v>614</v>
@@ -13426,7 +13476,7 @@
       <c r="F538" s="67"/>
       <c r="G538" s="69"/>
     </row>
-    <row r="539" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B539" s="58" t="s">
         <v>615</v>
       </c>
@@ -13442,7 +13492,7 @@
       <c r="F539" s="61"/>
       <c r="G539" s="61"/>
     </row>
-    <row r="540" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B540" s="78"/>
       <c r="C540" s="80" t="s">
         <v>617</v>
@@ -13454,7 +13504,7 @@
       <c r="F540" s="67"/>
       <c r="G540" s="69"/>
     </row>
-    <row r="541" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B541" s="78"/>
       <c r="C541" s="80" t="s">
         <v>618</v>
@@ -13466,7 +13516,7 @@
       <c r="F541" s="67"/>
       <c r="G541" s="69"/>
     </row>
-    <row r="542" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B542" s="78"/>
       <c r="C542" s="80" t="s">
         <v>619</v>
@@ -13478,7 +13528,7 @@
       <c r="F542" s="67"/>
       <c r="G542" s="69"/>
     </row>
-    <row r="543" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B543" s="78"/>
       <c r="C543" s="80" t="s">
         <v>620</v>
@@ -13490,7 +13540,7 @@
       <c r="F543" s="67"/>
       <c r="G543" s="69"/>
     </row>
-    <row r="544" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B544" s="58" t="s">
         <v>621</v>
       </c>
@@ -13506,7 +13556,7 @@
       <c r="F544" s="61"/>
       <c r="G544" s="61"/>
     </row>
-    <row r="545" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B545" s="58" t="s">
         <v>623</v>
       </c>
@@ -13524,7 +13574,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="546" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B546" s="58" t="s">
         <v>625</v>
       </c>
@@ -13540,7 +13590,7 @@
       <c r="F546" s="61"/>
       <c r="G546" s="61"/>
     </row>
-    <row r="547" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B547" s="58" t="s">
         <v>627</v>
       </c>
@@ -13556,7 +13606,7 @@
       <c r="F547" s="61"/>
       <c r="G547" s="61"/>
     </row>
-    <row r="548" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B548" s="29" t="s">
         <v>629</v>
       </c>
@@ -13568,7 +13618,7 @@
       <c r="F548" s="33"/>
       <c r="G548" s="34"/>
     </row>
-    <row r="549" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B549" s="58" t="s">
         <v>631</v>
       </c>
@@ -13584,7 +13634,7 @@
       <c r="F549" s="61"/>
       <c r="G549" s="61"/>
     </row>
-    <row r="550" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B550" s="58" t="s">
         <v>633</v>
       </c>
@@ -13600,7 +13650,7 @@
       <c r="F550" s="61"/>
       <c r="G550" s="61"/>
     </row>
-    <row r="551" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B551" s="58" t="s">
         <v>635</v>
       </c>
@@ -13616,7 +13666,7 @@
       <c r="F551" s="61"/>
       <c r="G551" s="61"/>
     </row>
-    <row r="552" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B552" s="58" t="s">
         <v>637</v>
       </c>
@@ -13632,7 +13682,7 @@
       <c r="F552" s="61"/>
       <c r="G552" s="61"/>
     </row>
-    <row r="553" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B553" s="58" t="s">
         <v>639</v>
       </c>
@@ -13648,7 +13698,7 @@
       <c r="F553" s="61"/>
       <c r="G553" s="61"/>
     </row>
-    <row r="554" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B554" s="29" t="s">
         <v>641</v>
       </c>
@@ -13662,7 +13712,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="555" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B555" s="58" t="s">
         <v>643</v>
       </c>
@@ -13680,7 +13730,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="556" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B556" s="58" t="s">
         <v>645</v>
       </c>
@@ -13698,7 +13748,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="557" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B557" s="58" t="s">
         <v>647</v>
       </c>
@@ -13714,7 +13764,7 @@
       <c r="F557" s="61"/>
       <c r="G557" s="61"/>
     </row>
-    <row r="558" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B558" s="58" t="s">
         <v>649</v>
       </c>
@@ -13732,7 +13782,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="559" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B559" s="58" t="s">
         <v>651</v>
       </c>
@@ -13750,7 +13800,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="560" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B560" s="58" t="s">
         <v>653</v>
       </c>
@@ -13768,7 +13818,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="561" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B561" s="58" t="s">
         <v>655</v>
       </c>
@@ -13786,7 +13836,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="562" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B562" s="29" t="s">
         <v>657</v>
       </c>
@@ -13800,7 +13850,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="563" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B563" s="58" t="s">
         <v>659</v>
       </c>
@@ -13816,7 +13866,7 @@
       <c r="F563" s="61"/>
       <c r="G563" s="61"/>
     </row>
-    <row r="564" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B564" s="58" t="s">
         <v>661</v>
       </c>
@@ -13837,7 +13887,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="565" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B565" s="78"/>
       <c r="C565" s="80" t="s">
         <v>617</v>
@@ -13849,7 +13899,7 @@
       <c r="F565" s="67"/>
       <c r="G565" s="69"/>
     </row>
-    <row r="566" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B566" s="78"/>
       <c r="C566" s="80" t="s">
         <v>618</v>
@@ -13861,7 +13911,7 @@
       <c r="F566" s="67"/>
       <c r="G566" s="69"/>
     </row>
-    <row r="567" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B567" s="78"/>
       <c r="C567" s="80" t="s">
         <v>619</v>
@@ -13873,7 +13923,7 @@
       <c r="F567" s="67"/>
       <c r="G567" s="69"/>
     </row>
-    <row r="568" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B568" s="78"/>
       <c r="C568" s="80" t="s">
         <v>620</v>
@@ -13885,7 +13935,7 @@
       <c r="F568" s="67"/>
       <c r="G568" s="69"/>
     </row>
-    <row r="569" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B569" s="58" t="s">
         <v>663</v>
       </c>
@@ -13903,7 +13953,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="570" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B570" s="78"/>
       <c r="C570" s="80" t="s">
         <v>665</v>
@@ -13916,7 +13966,7 @@
       </c>
       <c r="G570" s="69"/>
     </row>
-    <row r="571" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B571" s="78"/>
       <c r="C571" s="80" t="s">
         <v>666</v>
@@ -13926,7 +13976,7 @@
       <c r="F571" s="67"/>
       <c r="G571" s="69"/>
     </row>
-    <row r="572" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B572" s="78"/>
       <c r="C572" s="80" t="s">
         <v>667</v>
@@ -13936,7 +13986,7 @@
       <c r="F572" s="67"/>
       <c r="G572" s="69"/>
     </row>
-    <row r="573" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B573" s="78"/>
       <c r="C573" s="80" t="s">
         <v>668</v>
@@ -13946,7 +13996,7 @@
       <c r="F573" s="67"/>
       <c r="G573" s="69"/>
     </row>
-    <row r="574" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B574" s="78"/>
       <c r="C574" s="80" t="s">
         <v>669</v>
@@ -13956,7 +14006,7 @@
       <c r="F574" s="67"/>
       <c r="G574" s="69"/>
     </row>
-    <row r="575" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B575" s="78"/>
       <c r="C575" s="80" t="s">
         <v>670</v>
@@ -13966,7 +14016,7 @@
       <c r="F575" s="67"/>
       <c r="G575" s="69"/>
     </row>
-    <row r="576" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B576" s="78"/>
       <c r="C576" s="80" t="s">
         <v>671</v>
@@ -13976,7 +14026,7 @@
       <c r="F576" s="67"/>
       <c r="G576" s="69"/>
     </row>
-    <row r="577" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B577" s="78"/>
       <c r="C577" s="80" t="s">
         <v>672</v>
@@ -13986,7 +14036,7 @@
       <c r="F577" s="67"/>
       <c r="G577" s="69"/>
     </row>
-    <row r="578" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B578" s="78"/>
       <c r="C578" s="80" t="s">
         <v>673</v>
@@ -13996,7 +14046,7 @@
       <c r="F578" s="67"/>
       <c r="G578" s="69"/>
     </row>
-    <row r="579" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B579" s="78"/>
       <c r="C579" s="80" t="s">
         <v>674</v>
@@ -14006,7 +14056,7 @@
       <c r="F579" s="67"/>
       <c r="G579" s="69"/>
     </row>
-    <row r="580" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B580" s="86"/>
       <c r="C580" s="113" t="s">
         <v>675</v>
@@ -14016,7 +14066,7 @@
       <c r="F580" s="114"/>
       <c r="G580" s="116"/>
     </row>
-    <row r="581" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B581" s="58" t="s">
         <v>676</v>
       </c>
@@ -14034,7 +14084,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="582" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B582" s="78"/>
       <c r="C582" s="80" t="s">
         <v>665</v>
@@ -14047,7 +14097,7 @@
       </c>
       <c r="G582" s="69"/>
     </row>
-    <row r="583" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B583" s="78"/>
       <c r="C583" s="80" t="s">
         <v>666</v>
@@ -14057,7 +14107,7 @@
       <c r="F583" s="67"/>
       <c r="G583" s="69"/>
     </row>
-    <row r="584" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B584" s="78"/>
       <c r="C584" s="80" t="s">
         <v>667</v>
@@ -14067,7 +14117,7 @@
       <c r="F584" s="67"/>
       <c r="G584" s="69"/>
     </row>
-    <row r="585" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B585" s="78"/>
       <c r="C585" s="80" t="s">
         <v>668</v>
@@ -14077,7 +14127,7 @@
       <c r="F585" s="67"/>
       <c r="G585" s="69"/>
     </row>
-    <row r="586" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B586" s="78"/>
       <c r="C586" s="80" t="s">
         <v>669</v>
@@ -14087,7 +14137,7 @@
       <c r="F586" s="67"/>
       <c r="G586" s="69"/>
     </row>
-    <row r="587" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B587" s="78"/>
       <c r="C587" s="80" t="s">
         <v>670</v>
@@ -14097,7 +14147,7 @@
       <c r="F587" s="67"/>
       <c r="G587" s="69"/>
     </row>
-    <row r="588" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B588" s="78"/>
       <c r="C588" s="80" t="s">
         <v>671</v>
@@ -14107,7 +14157,7 @@
       <c r="F588" s="67"/>
       <c r="G588" s="69"/>
     </row>
-    <row r="589" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B589" s="78"/>
       <c r="C589" s="80" t="s">
         <v>672</v>
@@ -14117,7 +14167,7 @@
       <c r="F589" s="67"/>
       <c r="G589" s="69"/>
     </row>
-    <row r="590" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B590" s="78"/>
       <c r="C590" s="80" t="s">
         <v>673</v>
@@ -14127,7 +14177,7 @@
       <c r="F590" s="67"/>
       <c r="G590" s="69"/>
     </row>
-    <row r="591" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B591" s="78"/>
       <c r="C591" s="80" t="s">
         <v>674</v>
@@ -14137,7 +14187,7 @@
       <c r="F591" s="67"/>
       <c r="G591" s="69"/>
     </row>
-    <row r="592" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B592" s="78"/>
       <c r="C592" s="80" t="s">
         <v>675</v>
@@ -14147,7 +14197,7 @@
       <c r="F592" s="67"/>
       <c r="G592" s="69"/>
     </row>
-    <row r="593" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B593" s="58" t="s">
         <v>678</v>
       </c>
@@ -14168,7 +14218,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="594" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B594" s="78"/>
       <c r="C594" s="80" t="s">
         <v>665</v>
@@ -14178,7 +14228,7 @@
       <c r="F594" s="67"/>
       <c r="G594" s="69"/>
     </row>
-    <row r="595" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B595" s="78"/>
       <c r="C595" s="80" t="s">
         <v>666</v>
@@ -14188,7 +14238,7 @@
       <c r="F595" s="67"/>
       <c r="G595" s="69"/>
     </row>
-    <row r="596" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B596" s="78"/>
       <c r="C596" s="80" t="s">
         <v>667</v>
@@ -14198,7 +14248,7 @@
       <c r="F596" s="67"/>
       <c r="G596" s="69"/>
     </row>
-    <row r="597" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B597" s="78"/>
       <c r="C597" s="80" t="s">
         <v>668</v>
@@ -14208,7 +14258,7 @@
       <c r="F597" s="67"/>
       <c r="G597" s="69"/>
     </row>
-    <row r="598" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B598" s="78"/>
       <c r="C598" s="80" t="s">
         <v>669</v>
@@ -14218,7 +14268,7 @@
       <c r="F598" s="67"/>
       <c r="G598" s="69"/>
     </row>
-    <row r="599" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B599" s="78"/>
       <c r="C599" s="80" t="s">
         <v>670</v>
@@ -14228,7 +14278,7 @@
       <c r="F599" s="67"/>
       <c r="G599" s="69"/>
     </row>
-    <row r="600" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B600" s="78"/>
       <c r="C600" s="80" t="s">
         <v>671</v>
@@ -14238,7 +14288,7 @@
       <c r="F600" s="67"/>
       <c r="G600" s="69"/>
     </row>
-    <row r="601" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B601" s="78"/>
       <c r="C601" s="80" t="s">
         <v>672</v>
@@ -14248,7 +14298,7 @@
       <c r="F601" s="67"/>
       <c r="G601" s="69"/>
     </row>
-    <row r="602" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B602" s="78"/>
       <c r="C602" s="80" t="s">
         <v>673</v>
@@ -14258,7 +14308,7 @@
       <c r="F602" s="67"/>
       <c r="G602" s="69"/>
     </row>
-    <row r="603" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B603" s="78"/>
       <c r="C603" s="80" t="s">
         <v>674</v>
@@ -14268,7 +14318,7 @@
       <c r="F603" s="67"/>
       <c r="G603" s="69"/>
     </row>
-    <row r="604" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B604" s="78"/>
       <c r="C604" s="80" t="s">
         <v>675</v>
@@ -14278,7 +14328,7 @@
       <c r="F604" s="67"/>
       <c r="G604" s="69"/>
     </row>
-    <row r="605" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B605" s="58" t="s">
         <v>680</v>
       </c>
@@ -14296,7 +14346,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="606" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B606" s="78"/>
       <c r="C606" s="80" t="s">
         <v>665</v>
@@ -14309,7 +14359,7 @@
       </c>
       <c r="G606" s="69"/>
     </row>
-    <row r="607" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B607" s="78"/>
       <c r="C607" s="80" t="s">
         <v>666</v>
@@ -14319,7 +14369,7 @@
       <c r="F607" s="67"/>
       <c r="G607" s="69"/>
     </row>
-    <row r="608" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B608" s="78"/>
       <c r="C608" s="80" t="s">
         <v>667</v>
@@ -14329,7 +14379,7 @@
       <c r="F608" s="67"/>
       <c r="G608" s="69"/>
     </row>
-    <row r="609" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B609" s="78"/>
       <c r="C609" s="80" t="s">
         <v>668</v>
@@ -14339,7 +14389,7 @@
       <c r="F609" s="67"/>
       <c r="G609" s="69"/>
     </row>
-    <row r="610" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B610" s="78"/>
       <c r="C610" s="80" t="s">
         <v>669</v>
@@ -14349,7 +14399,7 @@
       <c r="F610" s="67"/>
       <c r="G610" s="69"/>
     </row>
-    <row r="611" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B611" s="78"/>
       <c r="C611" s="80" t="s">
         <v>670</v>
@@ -14359,7 +14409,7 @@
       <c r="F611" s="67"/>
       <c r="G611" s="69"/>
     </row>
-    <row r="612" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B612" s="78"/>
       <c r="C612" s="80" t="s">
         <v>671</v>
@@ -14369,7 +14419,7 @@
       <c r="F612" s="67"/>
       <c r="G612" s="69"/>
     </row>
-    <row r="613" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B613" s="78"/>
       <c r="C613" s="80" t="s">
         <v>672</v>
@@ -14379,7 +14429,7 @@
       <c r="F613" s="67"/>
       <c r="G613" s="69"/>
     </row>
-    <row r="614" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B614" s="78"/>
       <c r="C614" s="80" t="s">
         <v>673</v>
@@ -14389,7 +14439,7 @@
       <c r="F614" s="67"/>
       <c r="G614" s="69"/>
     </row>
-    <row r="615" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B615" s="78"/>
       <c r="C615" s="80" t="s">
         <v>674</v>
@@ -14399,7 +14449,7 @@
       <c r="F615" s="67"/>
       <c r="G615" s="69"/>
     </row>
-    <row r="616" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B616" s="78"/>
       <c r="C616" s="80" t="s">
         <v>675</v>
@@ -14409,7 +14459,7 @@
       <c r="F616" s="67"/>
       <c r="G616" s="69"/>
     </row>
-    <row r="617" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B617" s="58" t="s">
         <v>682</v>
       </c>
@@ -14427,7 +14477,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="618" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B618" s="78"/>
       <c r="C618" s="80" t="s">
         <v>665</v>
@@ -14440,7 +14490,7 @@
       </c>
       <c r="G618" s="69"/>
     </row>
-    <row r="619" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B619" s="78"/>
       <c r="C619" s="80" t="s">
         <v>666</v>
@@ -14450,7 +14500,7 @@
       <c r="F619" s="67"/>
       <c r="G619" s="69"/>
     </row>
-    <row r="620" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B620" s="78"/>
       <c r="C620" s="80" t="s">
         <v>667</v>
@@ -14460,7 +14510,7 @@
       <c r="F620" s="67"/>
       <c r="G620" s="69"/>
     </row>
-    <row r="621" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B621" s="78"/>
       <c r="C621" s="80" t="s">
         <v>668</v>
@@ -14470,7 +14520,7 @@
       <c r="F621" s="67"/>
       <c r="G621" s="69"/>
     </row>
-    <row r="622" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B622" s="78"/>
       <c r="C622" s="80" t="s">
         <v>669</v>
@@ -14480,7 +14530,7 @@
       <c r="F622" s="67"/>
       <c r="G622" s="69"/>
     </row>
-    <row r="623" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B623" s="78"/>
       <c r="C623" s="80" t="s">
         <v>670</v>
@@ -14490,7 +14540,7 @@
       <c r="F623" s="67"/>
       <c r="G623" s="69"/>
     </row>
-    <row r="624" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B624" s="78"/>
       <c r="C624" s="80" t="s">
         <v>671</v>
@@ -14500,7 +14550,7 @@
       <c r="F624" s="67"/>
       <c r="G624" s="69"/>
     </row>
-    <row r="625" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B625" s="78"/>
       <c r="C625" s="80" t="s">
         <v>672</v>
@@ -14510,7 +14560,7 @@
       <c r="F625" s="67"/>
       <c r="G625" s="69"/>
     </row>
-    <row r="626" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B626" s="78"/>
       <c r="C626" s="80" t="s">
         <v>673</v>
@@ -14520,7 +14570,7 @@
       <c r="F626" s="67"/>
       <c r="G626" s="69"/>
     </row>
-    <row r="627" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B627" s="78"/>
       <c r="C627" s="80" t="s">
         <v>674</v>
@@ -14530,7 +14580,7 @@
       <c r="F627" s="67"/>
       <c r="G627" s="69"/>
     </row>
-    <row r="628" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B628" s="78"/>
       <c r="C628" s="80" t="s">
         <v>675</v>
@@ -14540,7 +14590,7 @@
       <c r="F628" s="67"/>
       <c r="G628" s="69"/>
     </row>
-    <row r="629" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B629" s="58" t="s">
         <v>684</v>
       </c>
@@ -14558,7 +14608,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="630" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B630" s="78"/>
       <c r="C630" s="80" t="s">
         <v>665</v>
@@ -14571,7 +14621,7 @@
       </c>
       <c r="G630" s="69"/>
     </row>
-    <row r="631" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B631" s="78"/>
       <c r="C631" s="80" t="s">
         <v>666</v>
@@ -14581,7 +14631,7 @@
       <c r="F631" s="67"/>
       <c r="G631" s="69"/>
     </row>
-    <row r="632" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B632" s="78"/>
       <c r="C632" s="80" t="s">
         <v>667</v>
@@ -14591,7 +14641,7 @@
       <c r="F632" s="67"/>
       <c r="G632" s="69"/>
     </row>
-    <row r="633" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B633" s="78"/>
       <c r="C633" s="80" t="s">
         <v>668</v>
@@ -14601,7 +14651,7 @@
       <c r="F633" s="67"/>
       <c r="G633" s="69"/>
     </row>
-    <row r="634" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B634" s="78"/>
       <c r="C634" s="80" t="s">
         <v>669</v>
@@ -14611,7 +14661,7 @@
       <c r="F634" s="67"/>
       <c r="G634" s="69"/>
     </row>
-    <row r="635" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B635" s="78"/>
       <c r="C635" s="80" t="s">
         <v>670</v>
@@ -14621,7 +14671,7 @@
       <c r="F635" s="67"/>
       <c r="G635" s="69"/>
     </row>
-    <row r="636" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B636" s="78"/>
       <c r="C636" s="80" t="s">
         <v>671</v>
@@ -14631,7 +14681,7 @@
       <c r="F636" s="67"/>
       <c r="G636" s="69"/>
     </row>
-    <row r="637" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B637" s="78"/>
       <c r="C637" s="80" t="s">
         <v>672</v>
@@ -14641,7 +14691,7 @@
       <c r="F637" s="67"/>
       <c r="G637" s="69"/>
     </row>
-    <row r="638" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B638" s="78"/>
       <c r="C638" s="80" t="s">
         <v>673</v>
@@ -14651,7 +14701,7 @@
       <c r="F638" s="67"/>
       <c r="G638" s="69"/>
     </row>
-    <row r="639" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B639" s="78"/>
       <c r="C639" s="80" t="s">
         <v>674</v>
@@ -14661,7 +14711,7 @@
       <c r="F639" s="67"/>
       <c r="G639" s="69"/>
     </row>
-    <row r="640" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B640" s="78"/>
       <c r="C640" s="80" t="s">
         <v>675</v>
@@ -14671,7 +14721,7 @@
       <c r="F640" s="67"/>
       <c r="G640" s="69"/>
     </row>
-    <row r="641" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B641" s="58" t="s">
         <v>686</v>
       </c>
@@ -14689,7 +14739,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="642" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B642" s="78"/>
       <c r="C642" s="80" t="s">
         <v>665</v>
@@ -14702,7 +14752,7 @@
       </c>
       <c r="G642" s="69"/>
     </row>
-    <row r="643" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B643" s="78"/>
       <c r="C643" s="80" t="s">
         <v>666</v>
@@ -14712,7 +14762,7 @@
       <c r="F643" s="67"/>
       <c r="G643" s="69"/>
     </row>
-    <row r="644" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B644" s="78"/>
       <c r="C644" s="80" t="s">
         <v>667</v>
@@ -14722,7 +14772,7 @@
       <c r="F644" s="67"/>
       <c r="G644" s="69"/>
     </row>
-    <row r="645" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B645" s="78"/>
       <c r="C645" s="80" t="s">
         <v>668</v>
@@ -14732,7 +14782,7 @@
       <c r="F645" s="67"/>
       <c r="G645" s="69"/>
     </row>
-    <row r="646" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B646" s="78"/>
       <c r="C646" s="80" t="s">
         <v>669</v>
@@ -14742,7 +14792,7 @@
       <c r="F646" s="67"/>
       <c r="G646" s="69"/>
     </row>
-    <row r="647" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B647" s="78"/>
       <c r="C647" s="80" t="s">
         <v>670</v>
@@ -14752,7 +14802,7 @@
       <c r="F647" s="67"/>
       <c r="G647" s="69"/>
     </row>
-    <row r="648" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B648" s="78"/>
       <c r="C648" s="80" t="s">
         <v>671</v>
@@ -14762,7 +14812,7 @@
       <c r="F648" s="67"/>
       <c r="G648" s="69"/>
     </row>
-    <row r="649" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B649" s="78"/>
       <c r="C649" s="80" t="s">
         <v>672</v>
@@ -14772,7 +14822,7 @@
       <c r="F649" s="67"/>
       <c r="G649" s="69"/>
     </row>
-    <row r="650" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B650" s="78"/>
       <c r="C650" s="80" t="s">
         <v>673</v>
@@ -14782,7 +14832,7 @@
       <c r="F650" s="67"/>
       <c r="G650" s="69"/>
     </row>
-    <row r="651" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B651" s="78"/>
       <c r="C651" s="80" t="s">
         <v>674</v>
@@ -14792,7 +14842,7 @@
       <c r="F651" s="67"/>
       <c r="G651" s="69"/>
     </row>
-    <row r="652" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B652" s="78"/>
       <c r="C652" s="80" t="s">
         <v>675</v>
@@ -14802,7 +14852,7 @@
       <c r="F652" s="67"/>
       <c r="G652" s="69"/>
     </row>
-    <row r="653" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B653" s="58" t="s">
         <v>688</v>
       </c>
@@ -14823,7 +14873,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="654" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B654" s="58" t="s">
         <v>690</v>
       </c>
@@ -14841,7 +14891,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="655" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B655" s="78"/>
       <c r="C655" s="80" t="s">
         <v>665</v>
@@ -14854,7 +14904,7 @@
       </c>
       <c r="G655" s="69"/>
     </row>
-    <row r="656" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B656" s="78"/>
       <c r="C656" s="80" t="s">
         <v>666</v>
@@ -14864,7 +14914,7 @@
       <c r="F656" s="67"/>
       <c r="G656" s="69"/>
     </row>
-    <row r="657" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B657" s="78"/>
       <c r="C657" s="80" t="s">
         <v>667</v>
@@ -14874,7 +14924,7 @@
       <c r="F657" s="67"/>
       <c r="G657" s="69"/>
     </row>
-    <row r="658" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B658" s="78"/>
       <c r="C658" s="80" t="s">
         <v>668</v>
@@ -14884,7 +14934,7 @@
       <c r="F658" s="67"/>
       <c r="G658" s="69"/>
     </row>
-    <row r="659" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B659" s="78"/>
       <c r="C659" s="80" t="s">
         <v>669</v>
@@ -14894,7 +14944,7 @@
       <c r="F659" s="67"/>
       <c r="G659" s="69"/>
     </row>
-    <row r="660" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B660" s="78"/>
       <c r="C660" s="80" t="s">
         <v>670</v>
@@ -14904,7 +14954,7 @@
       <c r="F660" s="67"/>
       <c r="G660" s="69"/>
     </row>
-    <row r="661" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B661" s="78"/>
       <c r="C661" s="80" t="s">
         <v>671</v>
@@ -14914,7 +14964,7 @@
       <c r="F661" s="67"/>
       <c r="G661" s="69"/>
     </row>
-    <row r="662" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B662" s="78"/>
       <c r="C662" s="80" t="s">
         <v>672</v>
@@ -14924,7 +14974,7 @@
       <c r="F662" s="67"/>
       <c r="G662" s="69"/>
     </row>
-    <row r="663" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B663" s="78"/>
       <c r="C663" s="80" t="s">
         <v>673</v>
@@ -14934,7 +14984,7 @@
       <c r="F663" s="67"/>
       <c r="G663" s="69"/>
     </row>
-    <row r="664" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B664" s="78"/>
       <c r="C664" s="80" t="s">
         <v>674</v>
@@ -14944,7 +14994,7 @@
       <c r="F664" s="67"/>
       <c r="G664" s="69"/>
     </row>
-    <row r="665" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B665" s="78"/>
       <c r="C665" s="80" t="s">
         <v>675</v>
@@ -14954,7 +15004,7 @@
       <c r="F665" s="67"/>
       <c r="G665" s="69"/>
     </row>
-    <row r="666" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B666" s="29" t="s">
         <v>692</v>
       </c>
@@ -14968,7 +15018,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="667" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B667" s="58" t="s">
         <v>694</v>
       </c>
@@ -14980,7 +15030,7 @@
       <c r="F667" s="61"/>
       <c r="G667" s="61"/>
     </row>
-    <row r="668" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B668" s="107" t="s">
         <v>696</v>
       </c>
@@ -14998,7 +15048,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="669" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B669" s="107" t="s">
         <v>698</v>
       </c>
@@ -15016,7 +15066,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="670" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B670" s="107" t="s">
         <v>700</v>
       </c>
@@ -15034,7 +15084,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="671" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B671" s="107" t="s">
         <v>702</v>
       </c>
@@ -15052,7 +15102,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="672" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B672" s="107" t="s">
         <v>704</v>
       </c>
@@ -15068,7 +15118,7 @@
       <c r="F672" s="110"/>
       <c r="G672" s="47"/>
     </row>
-    <row r="673" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B673" s="107" t="s">
         <v>706</v>
       </c>
@@ -15086,7 +15136,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="674" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B674" s="107" t="s">
         <v>708</v>
       </c>
@@ -15102,7 +15152,7 @@
       <c r="F674" s="110"/>
       <c r="G674" s="47"/>
     </row>
-    <row r="675" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B675" s="58" t="s">
         <v>710</v>
       </c>
@@ -15116,7 +15166,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="676" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B676" s="107" t="s">
         <v>712</v>
       </c>
@@ -15134,7 +15184,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="677" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B677" s="107" t="s">
         <v>714</v>
       </c>
@@ -15152,7 +15202,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="678" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B678" s="107" t="s">
         <v>717</v>
       </c>
@@ -15170,7 +15220,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="679" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B679" s="107" t="s">
         <v>719</v>
       </c>
@@ -15188,7 +15238,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="680" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B680" s="107" t="s">
         <v>721</v>
       </c>
@@ -15206,7 +15256,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="681" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B681" s="107" t="s">
         <v>723</v>
       </c>
@@ -15224,7 +15274,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="682" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B682" s="107" t="s">
         <v>725</v>
       </c>
@@ -15242,7 +15292,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="683" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B683" s="107" t="s">
         <v>727</v>
       </c>
@@ -15260,7 +15310,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="684" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B684" s="107" t="s">
         <v>729</v>
       </c>
@@ -15278,7 +15328,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="685" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B685" s="107" t="s">
         <v>731</v>
       </c>
@@ -15296,7 +15346,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="686" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B686" s="107" t="s">
         <v>733</v>
       </c>
@@ -15312,7 +15362,7 @@
       <c r="F686" s="110"/>
       <c r="G686" s="47"/>
     </row>
-    <row r="687" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B687" s="29" t="s">
         <v>735</v>
       </c>
@@ -15324,7 +15374,7 @@
       <c r="F687" s="33"/>
       <c r="G687" s="34"/>
     </row>
-    <row r="688" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B688" s="58" t="s">
         <v>737</v>
       </c>
@@ -15340,7 +15390,7 @@
       <c r="F688" s="61"/>
       <c r="G688" s="61"/>
     </row>
-    <row r="689" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B689" s="58" t="s">
         <v>739</v>
       </c>
@@ -15358,7 +15408,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="690" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B690" s="58" t="s">
         <v>741</v>
       </c>
@@ -15374,7 +15424,7 @@
       <c r="F690" s="61"/>
       <c r="G690" s="61"/>
     </row>
-    <row r="691" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B691" s="58" t="s">
         <v>743</v>
       </c>
@@ -15395,7 +15445,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="692" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B692" s="58" t="s">
         <v>745</v>
       </c>
@@ -15416,7 +15466,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="693" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B693" s="58" t="s">
         <v>747</v>
       </c>
@@ -15432,7 +15482,7 @@
       <c r="F693" s="61"/>
       <c r="G693" s="61"/>
     </row>
-    <row r="694" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B694" s="58" t="s">
         <v>749</v>
       </c>
@@ -15448,7 +15498,7 @@
       <c r="F694" s="61"/>
       <c r="G694" s="61"/>
     </row>
-    <row r="695" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B695" s="58" t="s">
         <v>751</v>
       </c>
@@ -15466,7 +15516,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="696" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B696" s="58" t="s">
         <v>753</v>
       </c>
@@ -15484,7 +15534,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="697" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B697" s="58" t="s">
         <v>755</v>
       </c>
@@ -15502,7 +15552,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="698" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B698" s="29" t="s">
         <v>757</v>
       </c>
@@ -15516,7 +15566,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="699" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B699" s="58" t="s">
         <v>759</v>
       </c>
@@ -15530,7 +15580,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="700" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B700" s="107" t="s">
         <v>761</v>
       </c>
@@ -15542,7 +15592,7 @@
       <c r="F700" s="110"/>
       <c r="G700" s="47"/>
     </row>
-    <row r="701" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B701" s="107" t="s">
         <v>762</v>
       </c>
@@ -15560,7 +15610,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="702" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B702" s="107" t="s">
         <v>764</v>
       </c>
@@ -15578,7 +15628,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="703" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B703" s="29" t="s">
         <v>766</v>
       </c>
@@ -15594,7 +15644,7 @@
       <c r="F703" s="33"/>
       <c r="G703" s="34"/>
     </row>
-    <row r="704" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B704" s="29" t="s">
         <v>768</v>
       </c>
@@ -15610,17 +15660,17 @@
       <c r="F704" s="33"/>
       <c r="G704" s="34"/>
     </row>
-    <row r="705" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B705" s="148" t="s">
+    <row r="705" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B705" s="221" t="s">
         <v>770</v>
       </c>
-      <c r="C705" s="148"/>
+      <c r="C705" s="221"/>
       <c r="D705" s="26"/>
       <c r="E705" s="27"/>
       <c r="F705" s="26"/>
       <c r="G705" s="28"/>
     </row>
-    <row r="706" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B706" s="117"/>
       <c r="C706" s="118"/>
       <c r="D706" s="52"/>
@@ -15628,7 +15678,7 @@
       <c r="F706" s="52"/>
       <c r="G706" s="53"/>
     </row>
-    <row r="707" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B707" s="119">
         <v>4</v>
       </c>
@@ -15640,7 +15690,7 @@
       <c r="F707" s="26"/>
       <c r="G707" s="28"/>
     </row>
-    <row r="708" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B708" s="58" t="s">
         <v>772</v>
       </c>
@@ -15656,7 +15706,7 @@
       <c r="F708" s="61"/>
       <c r="G708" s="61"/>
     </row>
-    <row r="709" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B709" s="58" t="s">
         <v>774</v>
       </c>
@@ -15672,7 +15722,7 @@
       <c r="F709" s="61"/>
       <c r="G709" s="61"/>
     </row>
-    <row r="710" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B710" s="58" t="s">
         <v>776</v>
       </c>
@@ -15688,7 +15738,7 @@
       <c r="F710" s="61"/>
       <c r="G710" s="61"/>
     </row>
-    <row r="711" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B711" s="58" t="s">
         <v>778</v>
       </c>
@@ -15704,35 +15754,35 @@
       <c r="F711" s="61"/>
       <c r="G711" s="61"/>
     </row>
-    <row r="712" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B712" s="148" t="s">
+    <row r="712" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B712" s="221" t="s">
         <v>780</v>
       </c>
-      <c r="C712" s="148"/>
+      <c r="C712" s="221"/>
       <c r="D712" s="26"/>
       <c r="E712" s="27"/>
       <c r="F712" s="26"/>
       <c r="G712" s="28"/>
     </row>
-    <row r="713" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B713" s="146"/>
-      <c r="C713" s="146"/>
+    <row r="713" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B713" s="224"/>
+      <c r="C713" s="224"/>
       <c r="D713" s="52"/>
       <c r="E713" s="103"/>
       <c r="F713" s="52"/>
       <c r="G713" s="53"/>
     </row>
-    <row r="714" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B714" s="148" t="s">
+    <row r="714" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B714" s="221" t="s">
         <v>781</v>
       </c>
-      <c r="C714" s="148"/>
+      <c r="C714" s="221"/>
       <c r="D714" s="26"/>
       <c r="E714" s="27"/>
       <c r="F714" s="26"/>
       <c r="G714" s="28"/>
     </row>
-    <row r="715" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B715" s="58" t="s">
         <v>782</v>
       </c>
@@ -15748,7 +15798,7 @@
       <c r="F715" s="61"/>
       <c r="G715" s="61"/>
     </row>
-    <row r="716" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B716" s="58" t="s">
         <v>784</v>
       </c>
@@ -15764,7 +15814,7 @@
       <c r="F716" s="61"/>
       <c r="G716" s="61"/>
     </row>
-    <row r="717" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B717" s="58" t="s">
         <v>786</v>
       </c>
@@ -15780,7 +15830,7 @@
       <c r="F717" s="61"/>
       <c r="G717" s="61"/>
     </row>
-    <row r="718" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B718" s="58" t="s">
         <v>788</v>
       </c>
@@ -15796,7 +15846,7 @@
       <c r="F718" s="61"/>
       <c r="G718" s="61"/>
     </row>
-    <row r="719" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B719" s="58" t="s">
         <v>790</v>
       </c>
@@ -15812,7 +15862,7 @@
       <c r="F719" s="61"/>
       <c r="G719" s="61"/>
     </row>
-    <row r="720" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B720" s="58" t="s">
         <v>792</v>
       </c>
@@ -15828,7 +15878,7 @@
       <c r="F720" s="61"/>
       <c r="G720" s="61"/>
     </row>
-    <row r="721" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B721" s="58" t="s">
         <v>794</v>
       </c>
@@ -15844,7 +15894,7 @@
       <c r="F721" s="61"/>
       <c r="G721" s="61"/>
     </row>
-    <row r="722" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B722" s="58" t="s">
         <v>796</v>
       </c>
@@ -15860,7 +15910,7 @@
       <c r="F722" s="61"/>
       <c r="G722" s="61"/>
     </row>
-    <row r="723" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B723" s="58" t="s">
         <v>798</v>
       </c>
@@ -15876,7 +15926,7 @@
       <c r="F723" s="61"/>
       <c r="G723" s="61"/>
     </row>
-    <row r="724" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B724" s="58" t="s">
         <v>800</v>
       </c>
@@ -15892,46 +15942,36 @@
       <c r="F724" s="61"/>
       <c r="G724" s="61"/>
     </row>
-    <row r="725" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B725" s="148" t="s">
+    <row r="725" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B725" s="221" t="s">
         <v>802</v>
       </c>
-      <c r="C725" s="148"/>
+      <c r="C725" s="221"/>
       <c r="D725" s="26"/>
       <c r="E725" s="27"/>
       <c r="F725" s="26"/>
       <c r="G725" s="28"/>
     </row>
-    <row r="726" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B726" s="146"/>
-      <c r="C726" s="146"/>
-      <c r="D726" s="146"/>
-      <c r="E726" s="146"/>
-      <c r="F726" s="146"/>
-      <c r="G726" s="146"/>
-    </row>
-    <row r="727" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B727" s="147" t="s">
+    <row r="726" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B726" s="224"/>
+      <c r="C726" s="224"/>
+      <c r="D726" s="224"/>
+      <c r="E726" s="224"/>
+      <c r="F726" s="224"/>
+      <c r="G726" s="224"/>
+    </row>
+    <row r="727" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B727" s="225" t="s">
         <v>803</v>
       </c>
-      <c r="C727" s="147"/>
-      <c r="D727" s="147"/>
-      <c r="E727" s="147"/>
-      <c r="F727" s="147"/>
-      <c r="G727" s="147"/>
+      <c r="C727" s="225"/>
+      <c r="D727" s="225"/>
+      <c r="E727" s="225"/>
+      <c r="F727" s="225"/>
+      <c r="G727" s="225"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="I154:I158"/>
-    <mergeCell ref="I323:I326"/>
-    <mergeCell ref="I370:I376"/>
-    <mergeCell ref="I488:I489"/>
     <mergeCell ref="B726:G726"/>
     <mergeCell ref="B727:G727"/>
     <mergeCell ref="B705:C705"/>
@@ -15939,6 +15979,16 @@
     <mergeCell ref="B713:C713"/>
     <mergeCell ref="B714:C714"/>
     <mergeCell ref="B725:C725"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="I154:I158"/>
+    <mergeCell ref="I323:I326"/>
+    <mergeCell ref="I370:I376"/>
+    <mergeCell ref="I488:I489"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B131:C131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -15947,31 +15997,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC60"/>
+  <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="128" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" style="145" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" style="145" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="145" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="145" customWidth="1"/>
+    <col min="4" max="4" width="17" style="145" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="145" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="122" customWidth="1"/>
-    <col min="7" max="7" width="39.44140625" style="165" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="169" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="8.77734375" style="122" customWidth="1"/>
-    <col min="17" max="17" width="9.44140625" style="171" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.77734375" style="122" customWidth="1"/>
-    <col min="19" max="19" width="28.6640625" style="122" customWidth="1"/>
-    <col min="20" max="1024" width="8.77734375" style="122" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="122" customWidth="1"/>
+    <col min="7" max="7" width="47.6640625" style="153" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="157" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="8.83203125" style="122" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" style="159" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.83203125" style="122" customWidth="1"/>
+    <col min="19" max="19" width="34.33203125" style="122" bestFit="1" customWidth="1"/>
+    <col min="20" max="28" width="8.83203125" style="122" customWidth="1"/>
+    <col min="29" max="29" width="11.33203125" style="122" bestFit="1" customWidth="1"/>
+    <col min="30" max="1024" width="8.83203125" style="122" customWidth="1"/>
     <col min="1025" max="16384" width="9.33203125" style="122"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="120"/>
       <c r="B1" s="129"/>
       <c r="C1" s="129"/>
@@ -15979,7 +16031,7 @@
       <c r="E1" s="129"/>
       <c r="F1" s="121"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="123"/>
       <c r="B2" s="130" t="s">
         <v>804</v>
@@ -15989,7 +16041,7 @@
       <c r="E2" s="129"/>
       <c r="F2" s="121"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="124"/>
       <c r="B3" s="130"/>
       <c r="C3" s="131"/>
@@ -15997,7 +16049,7 @@
       <c r="E3" s="131"/>
       <c r="F3" s="121"/>
     </row>
-    <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="125"/>
       <c r="B4" s="132" t="s">
         <v>805</v>
@@ -16011,7 +16063,7 @@
       <c r="E4" s="133"/>
       <c r="F4" s="126"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="127"/>
       <c r="B5" s="134"/>
       <c r="C5" s="133" t="s">
@@ -16025,7 +16077,7 @@
       </c>
       <c r="F5" s="126"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="127"/>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -16033,9 +16085,9 @@
       <c r="E6" s="133"/>
       <c r="F6" s="126"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="123"/>
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="155" t="s">
         <v>810</v>
       </c>
       <c r="C7" s="135">
@@ -16048,12 +16100,12 @@
         <v>370</v>
       </c>
       <c r="F7" s="126"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="170"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G7" s="154"/>
+      <c r="H7" s="158"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="127"/>
-      <c r="B8" s="167" t="s">
+      <c r="B8" s="155" t="s">
         <v>811</v>
       </c>
       <c r="C8" s="135">
@@ -16067,9 +16119,9 @@
       </c>
       <c r="F8" s="126"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="127"/>
-      <c r="B9" s="167" t="s">
+      <c r="B9" s="155" t="s">
         <v>812</v>
       </c>
       <c r="C9" s="135">
@@ -16083,9 +16135,9 @@
       </c>
       <c r="F9" s="126"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="125"/>
-      <c r="B10" s="167" t="s">
+      <c r="B10" s="155" t="s">
         <v>813</v>
       </c>
       <c r="C10" s="135">
@@ -16099,7 +16151,7 @@
       </c>
       <c r="F10" s="126"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="127"/>
       <c r="B11" s="133" t="s">
         <v>814</v>
@@ -16115,7 +16167,7 @@
       </c>
       <c r="F11" s="126"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="127"/>
       <c r="B12" s="133" t="s">
         <v>815</v>
@@ -16131,7 +16183,7 @@
       </c>
       <c r="F12" s="126"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="125"/>
       <c r="B13" s="133" t="s">
         <v>816</v>
@@ -16147,7 +16199,7 @@
       </c>
       <c r="F13" s="126"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="127"/>
       <c r="B14" s="133" t="s">
         <v>817</v>
@@ -16163,7 +16215,7 @@
       </c>
       <c r="F14" s="126"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="127"/>
       <c r="B15" s="133" t="s">
         <v>818</v>
@@ -16179,7 +16231,7 @@
       </c>
       <c r="F15" s="126"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="125"/>
       <c r="B16" s="133" t="s">
         <v>819</v>
@@ -16197,7 +16249,7 @@
       </c>
       <c r="F16" s="126"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="127"/>
       <c r="B17" s="133" t="s">
         <v>820</v>
@@ -16213,7 +16265,7 @@
       </c>
       <c r="F17" s="126"/>
     </row>
-    <row r="18" spans="1:29" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="127"/>
       <c r="B18" s="133" t="s">
         <v>821</v>
@@ -16229,7 +16281,7 @@
       </c>
       <c r="F18" s="126"/>
     </row>
-    <row r="19" spans="1:29" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="125"/>
       <c r="B19" s="133" t="s">
         <v>822</v>
@@ -16244,38 +16296,38 @@
         <v>111</v>
       </c>
       <c r="F19" s="126"/>
-      <c r="T19" s="184" t="s">
+      <c r="T19" s="171" t="s">
         <v>809</v>
       </c>
-      <c r="U19" s="180" t="s">
+      <c r="U19" s="167" t="s">
         <v>833</v>
       </c>
-      <c r="V19" s="176" t="s">
+      <c r="V19" s="163" t="s">
         <v>834</v>
       </c>
-      <c r="W19" s="176" t="s">
+      <c r="W19" s="163" t="s">
         <v>835</v>
       </c>
-      <c r="X19" s="176" t="s">
+      <c r="X19" s="163" t="s">
         <v>836</v>
       </c>
-      <c r="Y19" s="176" t="s">
+      <c r="Y19" s="163" t="s">
         <v>837</v>
       </c>
-      <c r="Z19" s="176" t="s">
+      <c r="Z19" s="163" t="s">
         <v>838</v>
       </c>
-      <c r="AA19" s="176" t="s">
+      <c r="AA19" s="163" t="s">
         <v>839</v>
       </c>
-      <c r="AB19" s="188" t="s">
+      <c r="AB19" s="175" t="s">
         <v>840</v>
       </c>
-      <c r="AC19" s="192" t="s">
+      <c r="AC19" s="179" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="127"/>
       <c r="B20" s="133" t="s">
         <v>823</v>
@@ -16290,106 +16342,106 @@
         <v>111</v>
       </c>
       <c r="F20" s="126"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="207" t="s">
+      <c r="G20" s="156"/>
+      <c r="H20" s="193" t="s">
         <v>809</v>
       </c>
-      <c r="I20" s="200" t="s">
+      <c r="I20" s="186" t="s">
         <v>833</v>
       </c>
-      <c r="J20" s="201" t="s">
+      <c r="J20" s="187" t="s">
         <v>834</v>
       </c>
-      <c r="K20" s="201" t="s">
+      <c r="K20" s="187" t="s">
         <v>835</v>
       </c>
-      <c r="L20" s="201" t="s">
+      <c r="L20" s="187" t="s">
         <v>836</v>
       </c>
-      <c r="M20" s="201" t="s">
+      <c r="M20" s="187" t="s">
         <v>837</v>
       </c>
-      <c r="N20" s="201" t="s">
+      <c r="N20" s="187" t="s">
         <v>838</v>
       </c>
-      <c r="O20" s="201" t="s">
+      <c r="O20" s="187" t="s">
         <v>839</v>
       </c>
-      <c r="P20" s="213" t="s">
+      <c r="P20" s="198" t="s">
         <v>840</v>
       </c>
-      <c r="Q20" s="218" t="s">
+      <c r="Q20" s="203" t="s">
         <v>857</v>
       </c>
-      <c r="S20" s="177" t="s">
+      <c r="S20" s="164" t="s">
         <v>849</v>
       </c>
-      <c r="T20" s="185">
+      <c r="T20" s="172">
         <f>$E$8</f>
         <v>259</v>
       </c>
-      <c r="U20" s="181">
+      <c r="U20" s="168">
         <v>1</v>
       </c>
-      <c r="V20" s="173">
+      <c r="V20" s="160">
         <v>1</v>
       </c>
-      <c r="W20" s="173"/>
-      <c r="X20" s="173"/>
-      <c r="Y20" s="173"/>
-      <c r="Z20" s="173"/>
-      <c r="AA20" s="173"/>
-      <c r="AB20" s="189"/>
-      <c r="AC20" s="193">
+      <c r="W20" s="160"/>
+      <c r="X20" s="160"/>
+      <c r="Y20" s="160"/>
+      <c r="Z20" s="160"/>
+      <c r="AA20" s="160"/>
+      <c r="AB20" s="176"/>
+      <c r="AC20" s="180">
         <f t="shared" ref="AC20:AC27" si="0">SUM(U20:AB20)*T20</f>
         <v>518</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="127"/>
-      <c r="B21" s="154" t="s">
+      <c r="B21" s="226" t="s">
         <v>824</v>
       </c>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="156"/>
+      <c r="C21" s="227"/>
+      <c r="D21" s="227"/>
+      <c r="E21" s="228"/>
       <c r="F21" s="126"/>
-      <c r="G21" s="204" t="s">
+      <c r="G21" s="190" t="s">
         <v>832</v>
       </c>
-      <c r="H21" s="208"/>
-      <c r="I21" s="209"/>
-      <c r="J21" s="209"/>
-      <c r="K21" s="209"/>
-      <c r="L21" s="209"/>
-      <c r="M21" s="209"/>
-      <c r="N21" s="209"/>
-      <c r="O21" s="209"/>
-      <c r="P21" s="209"/>
-      <c r="Q21" s="219"/>
-      <c r="S21" s="178" t="s">
+      <c r="H21" s="194"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="195"/>
+      <c r="K21" s="195"/>
+      <c r="L21" s="195"/>
+      <c r="M21" s="195"/>
+      <c r="N21" s="195"/>
+      <c r="O21" s="195"/>
+      <c r="P21" s="195"/>
+      <c r="Q21" s="204"/>
+      <c r="S21" s="165" t="s">
         <v>856</v>
       </c>
-      <c r="T21" s="186">
+      <c r="T21" s="173">
         <f>$E$8</f>
         <v>259</v>
       </c>
-      <c r="U21" s="182"/>
-      <c r="V21" s="174"/>
-      <c r="W21" s="174">
+      <c r="U21" s="169"/>
+      <c r="V21" s="161"/>
+      <c r="W21" s="161">
         <v>1</v>
       </c>
-      <c r="X21" s="174"/>
-      <c r="Y21" s="174"/>
-      <c r="Z21" s="174"/>
-      <c r="AA21" s="174"/>
-      <c r="AB21" s="190"/>
-      <c r="AC21" s="194">
+      <c r="X21" s="161"/>
+      <c r="Y21" s="161"/>
+      <c r="Z21" s="161"/>
+      <c r="AA21" s="161"/>
+      <c r="AB21" s="177"/>
+      <c r="AC21" s="181">
         <f t="shared" si="0"/>
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="125"/>
       <c r="B22" s="133" t="s">
         <v>825</v>
@@ -16403,69 +16455,69 @@
         <v>75</v>
       </c>
       <c r="F22" s="126"/>
-      <c r="G22" s="205" t="str">
+      <c r="G22" s="191" t="str">
         <f>B7</f>
         <v>ADMINSITRADOR CONTRATO</v>
       </c>
-      <c r="H22" s="228">
-        <f>E7</f>
+      <c r="H22" s="213">
+        <f t="shared" ref="H22:H27" si="1">E7</f>
         <v>370</v>
       </c>
-      <c r="I22" s="202">
+      <c r="I22" s="188">
         <v>1</v>
       </c>
-      <c r="J22" s="197">
+      <c r="J22" s="184">
         <v>1</v>
       </c>
-      <c r="K22" s="197">
+      <c r="K22" s="184">
         <v>1</v>
       </c>
-      <c r="L22" s="197">
+      <c r="L22" s="184">
         <v>1</v>
       </c>
-      <c r="M22" s="197">
+      <c r="M22" s="184">
         <v>1</v>
       </c>
-      <c r="N22" s="197">
+      <c r="N22" s="184">
         <v>1</v>
       </c>
-      <c r="O22" s="210">
+      <c r="O22" s="196">
         <v>1</v>
       </c>
-      <c r="P22" s="210">
+      <c r="P22" s="196">
         <v>1</v>
       </c>
-      <c r="Q22" s="224">
-        <f>SUM(I22:P22)*H22</f>
+      <c r="Q22" s="209">
+        <f t="shared" ref="Q22:Q35" si="2">SUM(I22:P22)*H22</f>
         <v>2960</v>
       </c>
-      <c r="S22" s="178" t="s">
+      <c r="S22" s="165" t="s">
         <v>850</v>
       </c>
-      <c r="T22" s="186">
-        <f t="shared" ref="T22:T27" si="1">$E$8</f>
+      <c r="T22" s="173">
+        <f t="shared" ref="T22:T27" si="3">$E$8</f>
         <v>259</v>
       </c>
-      <c r="U22" s="182"/>
-      <c r="V22" s="174"/>
-      <c r="W22" s="174"/>
-      <c r="X22" s="174">
+      <c r="U22" s="169"/>
+      <c r="V22" s="161"/>
+      <c r="W22" s="161"/>
+      <c r="X22" s="161">
         <v>1</v>
       </c>
-      <c r="Y22" s="174">
+      <c r="Y22" s="161">
         <v>1</v>
       </c>
-      <c r="Z22" s="174">
+      <c r="Z22" s="161">
         <v>0.5</v>
       </c>
-      <c r="AA22" s="174"/>
-      <c r="AB22" s="190"/>
-      <c r="AC22" s="194">
+      <c r="AA22" s="161"/>
+      <c r="AB22" s="177"/>
+      <c r="AC22" s="181">
         <f t="shared" si="0"/>
         <v>647.5</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="125"/>
       <c r="B23" s="133" t="s">
         <v>826</v>
@@ -16475,83 +16527,83 @@
       </c>
       <c r="D23" s="133"/>
       <c r="E23" s="133">
-        <f t="shared" ref="E23:E25" si="2">ROUNDUP(C23/27000,0)</f>
+        <f t="shared" ref="E23:E25" si="4">ROUNDUP(C23/27000,0)</f>
         <v>297</v>
       </c>
       <c r="F23" s="126"/>
-      <c r="G23" s="205" t="str">
+      <c r="G23" s="191" t="str">
         <f>B8</f>
         <v>SUPERVISORES DE TERRENO</v>
       </c>
-      <c r="H23" s="228">
-        <f>E8</f>
-        <v>259</v>
-      </c>
-      <c r="I23" s="202">
-        <f>SUM(U20:U27)</f>
-        <v>1</v>
-      </c>
-      <c r="J23" s="197">
-        <f>SUM(V20:V27)</f>
-        <v>1</v>
-      </c>
-      <c r="K23" s="197">
-        <f>SUM(W20:W27)</f>
-        <v>1</v>
-      </c>
-      <c r="L23" s="197">
-        <f>SUM(X20:X27)</f>
-        <v>1.25</v>
-      </c>
-      <c r="M23" s="197">
-        <f>SUM(Y20:Y27)</f>
-        <v>3.25</v>
-      </c>
-      <c r="N23" s="197">
-        <f>SUM(Z20:Z27)</f>
-        <v>5.25</v>
-      </c>
-      <c r="O23" s="210">
-        <f>SUM(AA20:AA27)</f>
-        <v>3.75</v>
-      </c>
-      <c r="P23" s="210">
-        <f>SUM(AB20:AB27)</f>
-        <v>1.5</v>
-      </c>
-      <c r="Q23" s="224">
-        <f>SUM(I23:P23)*H23</f>
-        <v>4662</v>
-      </c>
-      <c r="S23" s="178" t="s">
-        <v>851</v>
-      </c>
-      <c r="T23" s="186">
+      <c r="H23" s="213">
         <f t="shared" si="1"/>
         <v>259</v>
       </c>
-      <c r="U23" s="182"/>
-      <c r="V23" s="174"/>
-      <c r="W23" s="174"/>
-      <c r="X23" s="174">
+      <c r="I23" s="188">
+        <f t="shared" ref="I23:P23" si="5">SUM(U20:U27)</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="184">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="184">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="184">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="M23" s="184">
+        <f t="shared" si="5"/>
+        <v>3.25</v>
+      </c>
+      <c r="N23" s="184">
+        <f t="shared" si="5"/>
+        <v>5.25</v>
+      </c>
+      <c r="O23" s="196">
+        <f t="shared" si="5"/>
+        <v>3.75</v>
+      </c>
+      <c r="P23" s="196">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q23" s="209">
+        <f t="shared" si="2"/>
+        <v>4662</v>
+      </c>
+      <c r="S23" s="165" t="s">
+        <v>851</v>
+      </c>
+      <c r="T23" s="173">
+        <f t="shared" si="3"/>
+        <v>259</v>
+      </c>
+      <c r="U23" s="169"/>
+      <c r="V23" s="161"/>
+      <c r="W23" s="161"/>
+      <c r="X23" s="161">
         <v>0.25</v>
       </c>
-      <c r="Y23" s="174">
+      <c r="Y23" s="161">
         <v>1</v>
       </c>
-      <c r="Z23" s="174">
+      <c r="Z23" s="161">
         <v>1</v>
       </c>
-      <c r="AA23" s="174">
+      <c r="AA23" s="161">
         <v>0.25</v>
       </c>
-      <c r="AB23" s="190"/>
-      <c r="AC23" s="194">
+      <c r="AB23" s="177"/>
+      <c r="AC23" s="181">
         <f t="shared" si="0"/>
         <v>647.5</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="127"/>
       <c r="B24" s="133" t="s">
         <v>827</v>
@@ -16561,58 +16613,58 @@
       </c>
       <c r="D24" s="133"/>
       <c r="E24" s="133">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F24" s="126"/>
+      <c r="G24" s="191" t="s">
+        <v>812</v>
+      </c>
+      <c r="H24" s="213">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="I24" s="188"/>
+      <c r="J24" s="184">
+        <v>1</v>
+      </c>
+      <c r="K24" s="184"/>
+      <c r="L24" s="184"/>
+      <c r="M24" s="184"/>
+      <c r="N24" s="184"/>
+      <c r="O24" s="196"/>
+      <c r="P24" s="196"/>
+      <c r="Q24" s="209">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="F24" s="126"/>
-      <c r="G24" s="205" t="s">
-        <v>812</v>
-      </c>
-      <c r="H24" s="228">
-        <f>E9</f>
         <v>185</v>
       </c>
-      <c r="I24" s="202"/>
-      <c r="J24" s="197">
+      <c r="S24" s="165" t="s">
+        <v>852</v>
+      </c>
+      <c r="T24" s="173">
+        <f t="shared" si="3"/>
+        <v>259</v>
+      </c>
+      <c r="U24" s="169"/>
+      <c r="V24" s="161"/>
+      <c r="W24" s="161"/>
+      <c r="X24" s="161"/>
+      <c r="Y24" s="161">
+        <v>0.5</v>
+      </c>
+      <c r="Z24" s="161">
         <v>1</v>
       </c>
-      <c r="K24" s="197"/>
-      <c r="L24" s="197"/>
-      <c r="M24" s="197"/>
-      <c r="N24" s="197"/>
-      <c r="O24" s="210"/>
-      <c r="P24" s="210"/>
-      <c r="Q24" s="224">
-        <f>SUM(I24:P24)*H24</f>
-        <v>185</v>
-      </c>
-      <c r="S24" s="178" t="s">
-        <v>852</v>
-      </c>
-      <c r="T24" s="186">
-        <f t="shared" si="1"/>
-        <v>259</v>
-      </c>
-      <c r="U24" s="182"/>
-      <c r="V24" s="174"/>
-      <c r="W24" s="174"/>
-      <c r="X24" s="174"/>
-      <c r="Y24" s="174">
+      <c r="AA24" s="161">
         <v>0.5</v>
       </c>
-      <c r="Z24" s="174">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="174">
-        <v>0.5</v>
-      </c>
-      <c r="AB24" s="190"/>
-      <c r="AC24" s="194">
+      <c r="AB24" s="177"/>
+      <c r="AC24" s="181">
         <f t="shared" si="0"/>
         <v>518</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="127"/>
       <c r="B25" s="133" t="s">
         <v>828</v>
@@ -16622,929 +16674,977 @@
       </c>
       <c r="D25" s="133"/>
       <c r="E25" s="133">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="F25" s="126"/>
+      <c r="G25" s="191" t="str">
+        <f t="shared" ref="G25:G40" si="6">B10</f>
+        <v>RESPONSABLE MEDIO AMBIENTE</v>
+      </c>
+      <c r="H25" s="214">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="I25" s="188">
+        <v>1</v>
+      </c>
+      <c r="J25" s="184">
+        <v>1</v>
+      </c>
+      <c r="K25" s="184">
+        <v>1</v>
+      </c>
+      <c r="L25" s="184">
+        <v>1</v>
+      </c>
+      <c r="M25" s="184">
+        <v>1</v>
+      </c>
+      <c r="N25" s="184">
+        <v>1</v>
+      </c>
+      <c r="O25" s="196">
+        <v>1</v>
+      </c>
+      <c r="P25" s="196">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="209">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="F25" s="126"/>
-      <c r="G25" s="205" t="str">
-        <f>B10</f>
-        <v>RESPONSABLE MEDIO AMBIENTE</v>
-      </c>
-      <c r="H25" s="229">
-        <f>E10</f>
-        <v>185</v>
-      </c>
-      <c r="I25" s="202">
+        <v>1480</v>
+      </c>
+      <c r="S25" s="165" t="s">
+        <v>853</v>
+      </c>
+      <c r="T25" s="173">
+        <f t="shared" si="3"/>
+        <v>259</v>
+      </c>
+      <c r="U25" s="169"/>
+      <c r="V25" s="161"/>
+      <c r="W25" s="161"/>
+      <c r="X25" s="161"/>
+      <c r="Y25" s="161"/>
+      <c r="Z25" s="161">
+        <v>0.75</v>
+      </c>
+      <c r="AA25" s="161">
         <v>1</v>
       </c>
-      <c r="J25" s="197">
-        <v>1</v>
-      </c>
-      <c r="K25" s="197">
-        <v>1</v>
-      </c>
-      <c r="L25" s="197">
-        <v>1</v>
-      </c>
-      <c r="M25" s="197">
-        <v>1</v>
-      </c>
-      <c r="N25" s="197">
-        <v>1</v>
-      </c>
-      <c r="O25" s="210">
-        <v>1</v>
-      </c>
-      <c r="P25" s="210">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="224">
-        <f>SUM(I25:P25)*H25</f>
-        <v>1480</v>
-      </c>
-      <c r="S25" s="178" t="s">
-        <v>853</v>
-      </c>
-      <c r="T25" s="186">
-        <f t="shared" si="1"/>
-        <v>259</v>
-      </c>
-      <c r="U25" s="182"/>
-      <c r="V25" s="174"/>
-      <c r="W25" s="174"/>
-      <c r="X25" s="174"/>
-      <c r="Y25" s="174"/>
-      <c r="Z25" s="174">
-        <v>0.75</v>
-      </c>
-      <c r="AA25" s="174">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="190">
+      <c r="AB25" s="177">
         <v>0.25</v>
       </c>
-      <c r="AC25" s="194">
+      <c r="AC25" s="181">
         <f t="shared" si="0"/>
         <v>518</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="125"/>
       <c r="B26" s="137" t="s">
         <v>829</v>
       </c>
       <c r="C26" s="137"/>
       <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="205" t="str">
-        <f>B11</f>
+      <c r="E26" s="231"/>
+      <c r="F26" s="232"/>
+      <c r="G26" s="191" t="str">
+        <f t="shared" si="6"/>
         <v>RESPONSABLE SEGURIDAD</v>
       </c>
-      <c r="H26" s="229">
-        <f>E11</f>
+      <c r="H26" s="214">
+        <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="I26" s="202">
+      <c r="I26" s="188">
         <v>1</v>
       </c>
-      <c r="J26" s="197">
+      <c r="J26" s="184">
         <v>1</v>
       </c>
-      <c r="K26" s="197">
+      <c r="K26" s="184">
         <v>1</v>
       </c>
-      <c r="L26" s="197">
+      <c r="L26" s="184">
         <v>1</v>
       </c>
-      <c r="M26" s="197">
+      <c r="M26" s="184">
         <v>1</v>
       </c>
-      <c r="N26" s="197">
+      <c r="N26" s="184">
         <v>1</v>
       </c>
-      <c r="O26" s="210">
+      <c r="O26" s="196">
         <v>1</v>
       </c>
-      <c r="P26" s="210">
+      <c r="P26" s="196">
         <v>1</v>
       </c>
-      <c r="Q26" s="224">
-        <f>SUM(I26:P26)*H26</f>
+      <c r="Q26" s="209">
+        <f t="shared" si="2"/>
         <v>1480</v>
       </c>
-      <c r="S26" s="178" t="s">
+      <c r="S26" s="165" t="s">
         <v>854</v>
       </c>
-      <c r="T26" s="186">
-        <f t="shared" si="1"/>
+      <c r="T26" s="173">
+        <f t="shared" si="3"/>
         <v>259</v>
       </c>
-      <c r="U26" s="182"/>
-      <c r="V26" s="174"/>
-      <c r="W26" s="174"/>
-      <c r="X26" s="174"/>
-      <c r="Y26" s="174">
+      <c r="U26" s="169"/>
+      <c r="V26" s="161"/>
+      <c r="W26" s="161"/>
+      <c r="X26" s="161"/>
+      <c r="Y26" s="161">
         <v>0.5</v>
       </c>
-      <c r="Z26" s="174">
+      <c r="Z26" s="161">
         <v>1</v>
       </c>
-      <c r="AA26" s="174">
+      <c r="AA26" s="161">
         <v>1</v>
       </c>
-      <c r="AB26" s="190">
+      <c r="AB26" s="177">
         <v>0.5</v>
       </c>
-      <c r="AC26" s="194">
+      <c r="AC26" s="181">
         <f t="shared" si="0"/>
         <v>777</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="127"/>
       <c r="B27" s="138" t="s">
         <v>830</v>
       </c>
       <c r="C27" s="138"/>
       <c r="D27" s="138"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="205" t="str">
-        <f>B12</f>
+      <c r="E27" s="231"/>
+      <c r="F27" s="232"/>
+      <c r="G27" s="191" t="str">
+        <f t="shared" si="6"/>
         <v>RESPONSABLE GESTION DE CALIDAD</v>
       </c>
-      <c r="H27" s="229">
-        <f>E12</f>
-        <v>259</v>
-      </c>
-      <c r="I27" s="202">
-        <v>1</v>
-      </c>
-      <c r="J27" s="197">
-        <v>1</v>
-      </c>
-      <c r="K27" s="197">
-        <v>1</v>
-      </c>
-      <c r="L27" s="197">
-        <v>1</v>
-      </c>
-      <c r="M27" s="197">
-        <v>1</v>
-      </c>
-      <c r="N27" s="197">
-        <v>1</v>
-      </c>
-      <c r="O27" s="210">
-        <v>1</v>
-      </c>
-      <c r="P27" s="210">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="224">
-        <f>SUM(I27:P27)*H27</f>
-        <v>2072</v>
-      </c>
-      <c r="S27" s="179" t="s">
-        <v>855</v>
-      </c>
-      <c r="T27" s="187">
+      <c r="H27" s="214">
         <f t="shared" si="1"/>
         <v>259</v>
       </c>
-      <c r="U27" s="183"/>
-      <c r="V27" s="175"/>
-      <c r="W27" s="175"/>
-      <c r="X27" s="175"/>
-      <c r="Y27" s="175">
+      <c r="I27" s="188">
+        <v>1</v>
+      </c>
+      <c r="J27" s="184">
+        <v>1</v>
+      </c>
+      <c r="K27" s="184">
+        <v>1</v>
+      </c>
+      <c r="L27" s="184">
+        <v>1</v>
+      </c>
+      <c r="M27" s="184">
+        <v>1</v>
+      </c>
+      <c r="N27" s="184">
+        <v>1</v>
+      </c>
+      <c r="O27" s="196">
+        <v>1</v>
+      </c>
+      <c r="P27" s="196">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="209">
+        <f t="shared" si="2"/>
+        <v>2072</v>
+      </c>
+      <c r="S27" s="166" t="s">
+        <v>855</v>
+      </c>
+      <c r="T27" s="174">
+        <f t="shared" si="3"/>
+        <v>259</v>
+      </c>
+      <c r="U27" s="170"/>
+      <c r="V27" s="162"/>
+      <c r="W27" s="162"/>
+      <c r="X27" s="162"/>
+      <c r="Y27" s="162">
         <v>0.25</v>
       </c>
-      <c r="Z27" s="175">
+      <c r="Z27" s="162">
         <v>1</v>
       </c>
-      <c r="AA27" s="175">
+      <c r="AA27" s="162">
         <v>1</v>
       </c>
-      <c r="AB27" s="191">
+      <c r="AB27" s="178">
         <v>0.75</v>
       </c>
-      <c r="AC27" s="195">
+      <c r="AC27" s="182">
         <f t="shared" si="0"/>
         <v>777</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="127"/>
       <c r="B28" s="139"/>
       <c r="C28" s="129"/>
       <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="205" t="str">
-        <f>B13</f>
+      <c r="E28" s="231"/>
+      <c r="F28" s="232"/>
+      <c r="G28" s="191" t="str">
+        <f t="shared" si="6"/>
         <v>JEFE OF. ADMINISTRATIVA</v>
       </c>
-      <c r="H28" s="229">
-        <f t="shared" ref="H28:H35" si="3">E13</f>
+      <c r="H28" s="214">
+        <f t="shared" ref="H28:H35" si="7">E13</f>
         <v>185</v>
       </c>
-      <c r="I28" s="202">
+      <c r="I28" s="188">
         <v>1</v>
       </c>
-      <c r="J28" s="197">
+      <c r="J28" s="184">
         <v>1</v>
       </c>
-      <c r="K28" s="197">
+      <c r="K28" s="184">
         <v>1</v>
       </c>
-      <c r="L28" s="197">
+      <c r="L28" s="184">
         <v>1</v>
       </c>
-      <c r="M28" s="197">
+      <c r="M28" s="184">
         <v>1</v>
       </c>
-      <c r="N28" s="197">
+      <c r="N28" s="233">
         <v>1</v>
       </c>
-      <c r="O28" s="210">
+      <c r="O28" s="234">
         <v>1</v>
       </c>
-      <c r="P28" s="210">
+      <c r="P28" s="196">
         <v>1</v>
       </c>
-      <c r="Q28" s="224">
-        <f>SUM(I28:P28)*H28</f>
+      <c r="Q28" s="209">
+        <f t="shared" si="2"/>
         <v>1480</v>
       </c>
-      <c r="U28" s="171"/>
-      <c r="V28" s="171"/>
-      <c r="W28" s="171"/>
-      <c r="X28" s="171"/>
-      <c r="Y28" s="171"/>
-      <c r="Z28" s="171"/>
-      <c r="AA28" s="171"/>
-      <c r="AB28" s="171"/>
-      <c r="AC28" s="196">
+      <c r="U28" s="159"/>
+      <c r="V28" s="159"/>
+      <c r="W28" s="159"/>
+      <c r="X28" s="159"/>
+      <c r="Y28" s="159"/>
+      <c r="Z28" s="159"/>
+      <c r="AA28" s="159"/>
+      <c r="AB28" s="159"/>
+      <c r="AC28" s="183">
         <f>SUM(AC20:AC27)</f>
         <v>4662</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="123"/>
       <c r="B29" s="140"/>
       <c r="C29" s="141"/>
       <c r="D29" s="142"/>
       <c r="E29" s="142"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="205" t="str">
-        <f>B14</f>
+      <c r="F29" s="232"/>
+      <c r="G29" s="191" t="str">
+        <f t="shared" si="6"/>
         <v>ASISTENTE OF.ADMINIS.</v>
       </c>
-      <c r="H29" s="229">
-        <f t="shared" si="3"/>
+      <c r="H29" s="214">
+        <f t="shared" si="7"/>
         <v>111</v>
       </c>
-      <c r="I29" s="202">
+      <c r="I29" s="188">
         <v>2</v>
       </c>
-      <c r="J29" s="197">
+      <c r="J29" s="184">
         <v>2</v>
       </c>
-      <c r="K29" s="197">
+      <c r="K29" s="184">
         <v>2</v>
       </c>
-      <c r="L29" s="197">
+      <c r="L29" s="184">
         <v>2</v>
       </c>
-      <c r="M29" s="197">
+      <c r="M29" s="184">
         <v>2</v>
       </c>
-      <c r="N29" s="197">
+      <c r="N29" s="233">
         <v>2</v>
       </c>
-      <c r="O29" s="210">
+      <c r="O29" s="234">
         <v>2</v>
       </c>
-      <c r="P29" s="210">
+      <c r="P29" s="196">
         <v>2</v>
       </c>
-      <c r="Q29" s="224">
-        <f>SUM(I29:P29)*H29</f>
+      <c r="Q29" s="209">
+        <f t="shared" si="2"/>
         <v>1776</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="125"/>
       <c r="B30" s="139"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="205" t="str">
-        <f>B15</f>
+      <c r="C30" s="143" t="s">
+        <v>861</v>
+      </c>
+      <c r="D30" s="238">
+        <v>2959478274</v>
+      </c>
+      <c r="E30" s="133">
+        <f>ROUNDUP(D30/27000,0)</f>
+        <v>109611</v>
+      </c>
+      <c r="F30" s="232"/>
+      <c r="G30" s="191" t="str">
+        <f t="shared" si="6"/>
         <v>SECRETARIA</v>
       </c>
-      <c r="H30" s="229">
-        <f t="shared" si="3"/>
+      <c r="H30" s="214">
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="I30" s="202">
+      <c r="I30" s="188">
         <v>1</v>
       </c>
-      <c r="J30" s="197">
+      <c r="J30" s="184">
         <v>1</v>
       </c>
-      <c r="K30" s="197">
+      <c r="K30" s="184">
         <v>1</v>
       </c>
-      <c r="L30" s="197">
+      <c r="L30" s="184">
         <v>1</v>
       </c>
-      <c r="M30" s="197">
+      <c r="M30" s="184">
         <v>1</v>
       </c>
-      <c r="N30" s="197">
+      <c r="N30" s="233">
         <v>1</v>
       </c>
-      <c r="O30" s="210">
+      <c r="O30" s="234">
         <v>1</v>
       </c>
-      <c r="P30" s="210">
+      <c r="P30" s="196">
         <v>1</v>
       </c>
-      <c r="Q30" s="224">
-        <f>SUM(I30:P30)*H30</f>
+      <c r="Q30" s="209">
+        <f t="shared" si="2"/>
         <v>416</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="127"/>
       <c r="B31" s="139"/>
       <c r="C31" s="141"/>
       <c r="D31" s="142"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="205" t="str">
-        <f>B16</f>
+      <c r="E31" s="231"/>
+      <c r="F31" s="232"/>
+      <c r="G31" s="191" t="str">
+        <f t="shared" si="6"/>
         <v>JUNIOR</v>
       </c>
-      <c r="H31" s="229">
-        <f t="shared" si="3"/>
+      <c r="H31" s="214">
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="I31" s="202">
+      <c r="I31" s="188">
         <v>2</v>
       </c>
-      <c r="J31" s="197">
+      <c r="J31" s="184">
         <v>6</v>
       </c>
-      <c r="K31" s="197">
+      <c r="K31" s="184">
         <v>8</v>
       </c>
-      <c r="L31" s="197">
+      <c r="L31" s="184">
         <v>8</v>
       </c>
-      <c r="M31" s="197">
+      <c r="M31" s="184">
         <v>9</v>
       </c>
-      <c r="N31" s="197">
+      <c r="N31" s="233">
         <v>10</v>
       </c>
-      <c r="O31" s="210">
+      <c r="O31" s="234">
         <v>10</v>
       </c>
-      <c r="P31" s="210">
+      <c r="P31" s="196">
         <v>5</v>
       </c>
-      <c r="Q31" s="224">
-        <f>SUM(I31:P31)*H31</f>
+      <c r="Q31" s="209">
+        <f t="shared" si="2"/>
         <v>1334</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="127"/>
       <c r="B32" s="140"/>
       <c r="C32" s="141"/>
       <c r="D32" s="142"/>
       <c r="E32" s="142"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="205" t="str">
-        <f>B17</f>
+      <c r="F32" s="232"/>
+      <c r="G32" s="191" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">CONDUCTOR  </v>
       </c>
-      <c r="H32" s="229">
-        <f t="shared" si="3"/>
+      <c r="H32" s="214">
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
-      <c r="I32" s="202">
+      <c r="I32" s="188">
         <v>1</v>
       </c>
-      <c r="J32" s="197">
+      <c r="J32" s="184">
         <v>1</v>
       </c>
-      <c r="K32" s="197">
+      <c r="K32" s="184">
         <v>1</v>
       </c>
-      <c r="L32" s="197">
+      <c r="L32" s="184">
         <v>1</v>
       </c>
-      <c r="M32" s="197">
+      <c r="M32" s="184">
         <v>1</v>
       </c>
-      <c r="N32" s="198">
+      <c r="N32" s="233">
         <v>2</v>
       </c>
-      <c r="O32" s="211">
+      <c r="O32" s="234">
         <v>2</v>
       </c>
-      <c r="P32" s="210">
+      <c r="P32" s="196">
         <v>1</v>
       </c>
-      <c r="Q32" s="224">
-        <f>SUM(I32:P32)*H32</f>
+      <c r="Q32" s="209">
+        <f t="shared" si="2"/>
         <v>590</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="125"/>
       <c r="B33" s="139"/>
       <c r="C33" s="143"/>
       <c r="D33" s="142"/>
       <c r="E33" s="142"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="205" t="str">
-        <f>B18</f>
+      <c r="F33" s="232"/>
+      <c r="G33" s="191" t="str">
+        <f t="shared" si="6"/>
         <v>JEFE TALLER MANTENCION</v>
       </c>
-      <c r="H33" s="229">
-        <f t="shared" si="3"/>
+      <c r="H33" s="214">
+        <f t="shared" si="7"/>
         <v>148</v>
       </c>
-      <c r="I33" s="202">
+      <c r="I33" s="188">
         <v>1</v>
       </c>
-      <c r="J33" s="197">
+      <c r="J33" s="184">
         <v>1</v>
       </c>
-      <c r="K33" s="197">
+      <c r="K33" s="184">
         <v>1</v>
       </c>
-      <c r="L33" s="197">
+      <c r="L33" s="184">
         <v>1</v>
       </c>
-      <c r="M33" s="197">
+      <c r="M33" s="184">
         <v>1</v>
       </c>
-      <c r="N33" s="197">
+      <c r="N33" s="233">
         <v>1</v>
       </c>
-      <c r="O33" s="210">
+      <c r="O33" s="234">
         <v>1</v>
       </c>
-      <c r="P33" s="210">
+      <c r="P33" s="196">
         <v>1</v>
       </c>
-      <c r="Q33" s="224">
-        <f>SUM(I33:P33)*H33</f>
+      <c r="Q33" s="209">
+        <f t="shared" si="2"/>
         <v>1184</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="127"/>
       <c r="B34" s="139"/>
       <c r="C34" s="141"/>
       <c r="D34" s="142"/>
       <c r="E34" s="142"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="205" t="str">
-        <f>B19</f>
+      <c r="F34" s="232"/>
+      <c r="G34" s="191" t="str">
+        <f t="shared" si="6"/>
         <v>ELECTRICO</v>
       </c>
-      <c r="H34" s="229">
-        <f t="shared" si="3"/>
+      <c r="H34" s="214">
+        <f t="shared" si="7"/>
         <v>111</v>
       </c>
-      <c r="I34" s="202">
+      <c r="I34" s="188">
         <v>1</v>
       </c>
-      <c r="J34" s="197">
+      <c r="J34" s="184">
         <v>1</v>
       </c>
-      <c r="K34" s="197">
+      <c r="K34" s="184">
         <v>1</v>
       </c>
-      <c r="L34" s="197">
+      <c r="L34" s="184">
         <v>1</v>
       </c>
-      <c r="M34" s="197">
+      <c r="M34" s="184">
         <v>1</v>
       </c>
-      <c r="N34" s="197">
+      <c r="N34" s="233">
         <v>1</v>
       </c>
-      <c r="O34" s="210">
+      <c r="O34" s="234">
         <v>1</v>
       </c>
-      <c r="P34" s="210">
+      <c r="P34" s="196">
         <v>1</v>
       </c>
-      <c r="Q34" s="224">
-        <f>SUM(I34:P34)*H34</f>
+      <c r="Q34" s="209">
+        <f t="shared" si="2"/>
         <v>888</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="127"/>
       <c r="B35" s="140"/>
       <c r="C35" s="141"/>
       <c r="D35" s="142"/>
       <c r="E35" s="142"/>
       <c r="F35" s="121"/>
-      <c r="G35" s="206" t="str">
-        <f>B20</f>
+      <c r="G35" s="192" t="str">
+        <f t="shared" si="6"/>
         <v>MECANICO</v>
       </c>
-      <c r="H35" s="230">
-        <f t="shared" si="3"/>
+      <c r="H35" s="215">
+        <f t="shared" si="7"/>
         <v>111</v>
       </c>
-      <c r="I35" s="203">
+      <c r="I35" s="189">
         <v>1</v>
       </c>
-      <c r="J35" s="199">
+      <c r="J35" s="185">
         <v>1</v>
       </c>
-      <c r="K35" s="199">
+      <c r="K35" s="185">
         <v>1</v>
       </c>
-      <c r="L35" s="199">
+      <c r="L35" s="185">
         <v>1</v>
       </c>
-      <c r="M35" s="199">
+      <c r="M35" s="185">
         <v>1</v>
       </c>
-      <c r="N35" s="199">
+      <c r="N35" s="235">
         <v>1</v>
       </c>
-      <c r="O35" s="212">
+      <c r="O35" s="236">
         <v>1</v>
       </c>
-      <c r="P35" s="212">
+      <c r="P35" s="197">
         <v>1</v>
       </c>
-      <c r="Q35" s="225">
-        <f>SUM(I35:P35)*H35</f>
+      <c r="Q35" s="210">
+        <f t="shared" si="2"/>
         <v>888</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="125"/>
       <c r="B36" s="139"/>
       <c r="C36" s="143"/>
       <c r="D36" s="142"/>
       <c r="E36" s="142"/>
       <c r="F36" s="121"/>
-      <c r="G36" s="204" t="str">
-        <f>B21</f>
+      <c r="G36" s="190" t="str">
+        <f t="shared" si="6"/>
         <v>OTROS GASTOS</v>
       </c>
-      <c r="H36" s="231"/>
-      <c r="I36" s="209"/>
-      <c r="J36" s="209"/>
-      <c r="K36" s="209"/>
-      <c r="L36" s="209"/>
-      <c r="M36" s="209"/>
-      <c r="N36" s="209"/>
-      <c r="O36" s="209"/>
-      <c r="P36" s="209"/>
-      <c r="Q36" s="226"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H36" s="216"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="195"/>
+      <c r="K36" s="195"/>
+      <c r="L36" s="195"/>
+      <c r="M36" s="195"/>
+      <c r="N36" s="195"/>
+      <c r="O36" s="195"/>
+      <c r="P36" s="195"/>
+      <c r="Q36" s="211"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="127"/>
       <c r="B37" s="139"/>
       <c r="C37" s="141"/>
       <c r="D37" s="142"/>
       <c r="E37" s="142"/>
       <c r="F37" s="121"/>
-      <c r="G37" s="205" t="str">
-        <f>B22</f>
+      <c r="G37" s="191" t="str">
+        <f t="shared" si="6"/>
         <v>ARRIENDO CAMIONETA (MES)</v>
       </c>
-      <c r="H37" s="229">
+      <c r="H37" s="214">
         <f>E22</f>
         <v>75</v>
       </c>
-      <c r="I37" s="202">
+      <c r="I37" s="188">
         <v>1</v>
       </c>
-      <c r="J37" s="197">
+      <c r="J37" s="184">
         <v>1</v>
       </c>
-      <c r="K37" s="197">
+      <c r="K37" s="184">
         <v>1</v>
       </c>
-      <c r="L37" s="197">
+      <c r="L37" s="184">
         <v>1</v>
       </c>
-      <c r="M37" s="197">
+      <c r="M37" s="184">
         <v>1</v>
       </c>
-      <c r="N37" s="198">
+      <c r="N37" s="233">
         <v>2</v>
       </c>
-      <c r="O37" s="211">
+      <c r="O37" s="234">
         <v>2</v>
       </c>
-      <c r="P37" s="210">
+      <c r="P37" s="196">
         <v>1</v>
       </c>
-      <c r="Q37" s="224">
+      <c r="Q37" s="209">
         <f>SUM(I37:P37)*H37</f>
         <v>750</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="127"/>
       <c r="B38" s="144"/>
       <c r="C38" s="141"/>
       <c r="D38" s="142"/>
       <c r="E38" s="142"/>
-      <c r="G38" s="205" t="str">
-        <f>B23</f>
+      <c r="G38" s="191" t="str">
+        <f t="shared" si="6"/>
         <v>ARRIENDO GRUA</v>
       </c>
-      <c r="H38" s="229">
-        <f t="shared" ref="H38:H40" si="4">E23</f>
+      <c r="H38" s="214">
+        <f t="shared" ref="H38:H40" si="8">E23</f>
         <v>297</v>
       </c>
-      <c r="I38" s="202">
+      <c r="I38" s="188">
         <v>2</v>
       </c>
-      <c r="J38" s="197">
+      <c r="J38" s="184">
         <v>2</v>
       </c>
-      <c r="K38" s="197">
+      <c r="K38" s="184">
         <v>2</v>
       </c>
-      <c r="L38" s="197">
+      <c r="L38" s="184">
         <v>2</v>
       </c>
-      <c r="M38" s="197">
+      <c r="M38" s="184">
         <v>2</v>
       </c>
-      <c r="N38" s="197">
+      <c r="N38" s="184">
         <v>2</v>
       </c>
-      <c r="O38" s="210">
+      <c r="O38" s="196">
         <v>2</v>
       </c>
-      <c r="P38" s="210">
+      <c r="P38" s="196">
         <v>2</v>
       </c>
-      <c r="Q38" s="224">
+      <c r="Q38" s="209">
         <f>SUM(I38:P38)*H38</f>
         <v>4752</v>
       </c>
-      <c r="S38" s="172" t="s">
+      <c r="S38" s="229" t="s">
         <v>859</v>
       </c>
-      <c r="T38" s="172"/>
-      <c r="U38" s="172"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T38" s="229"/>
+      <c r="U38" s="229"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="125"/>
       <c r="B39" s="140"/>
       <c r="C39" s="142"/>
       <c r="D39" s="142"/>
       <c r="E39" s="142"/>
-      <c r="G39" s="205" t="str">
-        <f>B24</f>
-        <v>GASTOS agua mes ( $ PROMEDIO)</v>
-      </c>
-      <c r="H39" s="229">
-        <f t="shared" si="4"/>
+      <c r="G39" s="191" t="s">
+        <v>864</v>
+      </c>
+      <c r="H39" s="214">
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="I39" s="202">
+      <c r="I39" s="188">
         <v>1</v>
       </c>
-      <c r="J39" s="197">
+      <c r="J39" s="184">
         <v>1</v>
       </c>
-      <c r="K39" s="197">
+      <c r="K39" s="184">
         <v>1</v>
       </c>
-      <c r="L39" s="197">
+      <c r="L39" s="184">
         <v>1</v>
       </c>
-      <c r="M39" s="197">
+      <c r="M39" s="184">
         <v>1</v>
       </c>
-      <c r="N39" s="197">
+      <c r="N39" s="184">
         <v>1</v>
       </c>
-      <c r="O39" s="210">
+      <c r="O39" s="196">
         <v>1</v>
       </c>
-      <c r="P39" s="210">
+      <c r="P39" s="196">
         <v>1</v>
       </c>
-      <c r="Q39" s="224">
+      <c r="Q39" s="209">
         <f>SUM(I39:P39)*H39</f>
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="127"/>
       <c r="B40" s="139"/>
       <c r="C40" s="143"/>
       <c r="D40" s="142"/>
       <c r="E40" s="142"/>
-      <c r="G40" s="214" t="str">
-        <f>B25</f>
-        <v>GASTOS ELECTRICIDAD MES PROMEDIO)</v>
-      </c>
-      <c r="H40" s="232">
-        <f t="shared" si="4"/>
+      <c r="G40" s="199" t="s">
+        <v>865</v>
+      </c>
+      <c r="H40" s="217">
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="I40" s="215">
+      <c r="I40" s="200">
         <v>1</v>
       </c>
-      <c r="J40" s="216">
+      <c r="J40" s="201">
         <v>1</v>
       </c>
-      <c r="K40" s="216">
+      <c r="K40" s="201">
         <v>1</v>
       </c>
-      <c r="L40" s="216">
+      <c r="L40" s="201">
         <v>1</v>
       </c>
-      <c r="M40" s="216">
+      <c r="M40" s="201">
         <v>1</v>
       </c>
-      <c r="N40" s="216">
+      <c r="N40" s="201">
         <v>1</v>
       </c>
-      <c r="O40" s="217">
+      <c r="O40" s="202">
         <v>1</v>
       </c>
-      <c r="P40" s="217">
+      <c r="P40" s="202">
         <v>1</v>
       </c>
-      <c r="Q40" s="227">
+      <c r="Q40" s="212">
         <f>SUM(I40:P40)*H40</f>
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="127"/>
       <c r="B41" s="139"/>
-      <c r="C41" s="141"/>
+      <c r="C41" s="143"/>
       <c r="D41" s="142"/>
       <c r="E41" s="142"/>
-      <c r="G41" s="220" t="s">
+      <c r="G41" s="205" t="s">
         <v>858</v>
       </c>
-      <c r="H41" s="221"/>
-      <c r="I41" s="222">
-        <f>SUMPRODUCT(I22:I40,$H$22:$H$40)</f>
+      <c r="H41" s="206"/>
+      <c r="I41" s="207">
+        <f t="shared" ref="I41:P41" si="9">SUMPRODUCT(I22:I40,$H$22:$H$40)</f>
         <v>2875</v>
       </c>
-      <c r="J41" s="222">
-        <f>SUMPRODUCT(J22:J40,$H$22:$H$40)</f>
+      <c r="J41" s="207">
+        <f t="shared" si="9"/>
         <v>3152</v>
       </c>
-      <c r="K41" s="222">
-        <f>SUMPRODUCT(K22:K40,$H$22:$H$40)</f>
+      <c r="K41" s="207">
+        <f t="shared" si="9"/>
         <v>3013</v>
       </c>
-      <c r="L41" s="222">
-        <f>SUMPRODUCT(L22:L40,$H$22:$H$40)</f>
+      <c r="L41" s="207">
+        <f t="shared" si="9"/>
         <v>3077.75</v>
       </c>
-      <c r="M41" s="222">
-        <f>SUMPRODUCT(M22:M40,$H$22:$H$40)</f>
+      <c r="M41" s="207">
+        <f t="shared" si="9"/>
         <v>3618.75</v>
       </c>
-      <c r="N41" s="222">
-        <f>SUMPRODUCT(N22:N40,$H$22:$H$40)</f>
+      <c r="N41" s="207">
+        <f t="shared" si="9"/>
         <v>4293.75</v>
       </c>
-      <c r="O41" s="222">
-        <f>SUMPRODUCT(O22:O40,$H$22:$H$40)</f>
+      <c r="O41" s="207">
+        <f t="shared" si="9"/>
         <v>3905.25</v>
       </c>
-      <c r="P41" s="222">
-        <f>SUMPRODUCT(P22:P40,$H$22:$H$40)</f>
+      <c r="P41" s="207">
+        <f t="shared" si="9"/>
         <v>3073.5</v>
       </c>
-      <c r="Q41" s="223">
+      <c r="Q41" s="208">
         <f>SUM(Q21:Q40)</f>
         <v>27009</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="125"/>
-      <c r="B42" s="140"/>
-      <c r="C42" s="141"/>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A42" s="127"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="143"/>
       <c r="D42" s="142"/>
       <c r="E42" s="142"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="127"/>
       <c r="B43" s="139"/>
-      <c r="C43" s="143"/>
+      <c r="C43" s="141"/>
       <c r="D43" s="142"/>
       <c r="E43" s="142"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="127"/>
-      <c r="B44" s="139"/>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44" s="125"/>
+      <c r="B44" s="140"/>
       <c r="C44" s="141"/>
       <c r="D44" s="142"/>
       <c r="E44" s="142"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45" s="125"/>
-      <c r="B45" s="140"/>
-      <c r="C45" s="141"/>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45" s="127"/>
+      <c r="B45" s="139"/>
+      <c r="C45" s="143"/>
       <c r="D45" s="142"/>
       <c r="E45" s="142"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G45" s="237" t="s">
+        <v>860</v>
+      </c>
+      <c r="H45" s="239">
+        <f>0.02*D30</f>
+        <v>59189565.480000004</v>
+      </c>
+      <c r="I45" s="239"/>
+      <c r="J45" s="239"/>
+      <c r="S45" s="122" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="127"/>
       <c r="B46" s="139"/>
-      <c r="C46" s="143"/>
+      <c r="C46" s="141"/>
       <c r="D46" s="142"/>
       <c r="E46" s="142"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A47" s="127"/>
-      <c r="B47" s="139"/>
+      <c r="S46" s="122">
+        <f>175/8*20000</f>
+        <v>437500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47" s="125"/>
+      <c r="B47" s="140"/>
       <c r="C47" s="141"/>
       <c r="D47" s="142"/>
       <c r="E47" s="142"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="123"/>
-      <c r="B48" s="140"/>
-      <c r="C48" s="141"/>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48" s="127"/>
+      <c r="B48" s="139"/>
+      <c r="C48" s="143"/>
       <c r="D48" s="142"/>
       <c r="E48" s="142"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="125"/>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="127"/>
       <c r="B49" s="139"/>
-      <c r="C49" s="143"/>
+      <c r="C49" s="141"/>
       <c r="D49" s="142"/>
       <c r="E49" s="142"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="127"/>
-      <c r="B50" s="139"/>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="123"/>
+      <c r="B50" s="140"/>
       <c r="C50" s="141"/>
       <c r="D50" s="142"/>
       <c r="E50" s="142"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="127"/>
-      <c r="C51" s="141"/>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="125"/>
+      <c r="B51" s="139"/>
+      <c r="C51" s="143"/>
       <c r="D51" s="142"/>
       <c r="E51" s="142"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="125"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M51" s="122" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="127"/>
+      <c r="B52" s="139"/>
+      <c r="C52" s="141"/>
+      <c r="D52" s="142"/>
+      <c r="E52" s="142"/>
+      <c r="M52" s="122">
+        <v>5682</v>
+      </c>
+      <c r="N52" s="240">
+        <f>M52*2700</f>
+        <v>15341400</v>
+      </c>
+      <c r="O52" s="240"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="127"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="127"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="125"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C53" s="141"/>
+      <c r="D53" s="142"/>
+      <c r="E53" s="142"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" s="125"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="127"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="127"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="127"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="125"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="125"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="127"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="127"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="127"/>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="125"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="127"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="127"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="S38:U38"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="N52:O52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17560,321 +17660,321 @@
       <selection activeCell="B4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-    </row>
-    <row r="4" spans="2:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="164" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+    </row>
+    <row r="4" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="230" t="s">
         <v>831</v>
       </c>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="157"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="158"/>
-      <c r="K5" s="157"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="159" t="s">
+      <c r="C4" s="230"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="230"/>
+      <c r="H4" s="230"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="147"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="146"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="148" t="s">
         <v>832</v>
       </c>
-      <c r="C6" s="159" t="s">
+      <c r="C6" s="148" t="s">
         <v>833</v>
       </c>
-      <c r="D6" s="159" t="s">
+      <c r="D6" s="148" t="s">
         <v>834</v>
       </c>
-      <c r="E6" s="159" t="s">
+      <c r="E6" s="148" t="s">
         <v>835</v>
       </c>
-      <c r="F6" s="159" t="s">
+      <c r="F6" s="148" t="s">
         <v>836</v>
       </c>
-      <c r="G6" s="159" t="s">
+      <c r="G6" s="148" t="s">
         <v>837</v>
       </c>
-      <c r="H6" s="159" t="s">
+      <c r="H6" s="148" t="s">
         <v>838</v>
       </c>
-      <c r="I6" s="159" t="s">
+      <c r="I6" s="148" t="s">
         <v>839</v>
       </c>
-      <c r="J6" s="159" t="s">
+      <c r="J6" s="148" t="s">
         <v>840</v>
       </c>
-      <c r="K6" s="160"/>
-    </row>
-    <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B7" s="161" t="s">
+      <c r="K6" s="149"/>
+    </row>
+    <row r="7" spans="2:11" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="150" t="s">
         <v>841</v>
       </c>
-      <c r="C7" s="161">
+      <c r="C7" s="150">
         <v>10</v>
       </c>
-      <c r="D7" s="161">
-        <v>20</v>
-      </c>
-      <c r="E7" s="161">
+      <c r="D7" s="150">
+        <v>20</v>
+      </c>
+      <c r="E7" s="150">
         <v>30</v>
       </c>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="160"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="161" t="s">
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="149"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="150" t="s">
         <v>842</v>
       </c>
-      <c r="C8" s="161">
+      <c r="C8" s="150">
         <v>0</v>
       </c>
-      <c r="D8" s="161">
-        <v>20</v>
-      </c>
-      <c r="E8" s="161">
+      <c r="D8" s="150">
+        <v>20</v>
+      </c>
+      <c r="E8" s="150">
         <v>30</v>
       </c>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="160"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="161" t="s">
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="149"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="150" t="s">
         <v>843</v>
       </c>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161">
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150">
         <v>10</v>
       </c>
-      <c r="G9" s="161">
-        <v>20</v>
-      </c>
-      <c r="H9" s="161">
-        <v>20</v>
-      </c>
-      <c r="I9" s="161">
+      <c r="G9" s="150">
+        <v>20</v>
+      </c>
+      <c r="H9" s="150">
+        <v>20</v>
+      </c>
+      <c r="I9" s="150">
         <v>10</v>
       </c>
-      <c r="J9" s="161"/>
-      <c r="K9" s="160"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="161" t="s">
+      <c r="J9" s="150"/>
+      <c r="K9" s="149"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="150" t="s">
         <v>844</v>
       </c>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161">
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="150">
         <v>15</v>
       </c>
-      <c r="G10" s="161">
+      <c r="G10" s="150">
         <v>30</v>
       </c>
-      <c r="H10" s="161">
+      <c r="H10" s="150">
         <v>35</v>
       </c>
-      <c r="I10" s="161">
-        <v>20</v>
-      </c>
-      <c r="J10" s="161"/>
-      <c r="K10" s="160"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="161" t="s">
+      <c r="I10" s="150">
+        <v>20</v>
+      </c>
+      <c r="J10" s="150"/>
+      <c r="K10" s="149"/>
+    </row>
+    <row r="11" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="150" t="s">
         <v>845</v>
       </c>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161">
-        <v>20</v>
-      </c>
-      <c r="G11" s="161">
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150">
+        <v>20</v>
+      </c>
+      <c r="G11" s="150">
         <v>30</v>
       </c>
-      <c r="H11" s="161">
+      <c r="H11" s="150">
         <v>25</v>
       </c>
-      <c r="I11" s="161">
-        <v>20</v>
-      </c>
-      <c r="J11" s="161"/>
-      <c r="K11" s="160"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="161" t="s">
+      <c r="I11" s="150">
+        <v>20</v>
+      </c>
+      <c r="J11" s="150"/>
+      <c r="K11" s="149"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="150" t="s">
         <v>846</v>
       </c>
-      <c r="C12" s="161">
+      <c r="C12" s="150">
         <v>10</v>
       </c>
-      <c r="D12" s="161">
-        <v>20</v>
-      </c>
-      <c r="E12" s="161">
-        <v>20</v>
-      </c>
-      <c r="F12" s="161">
+      <c r="D12" s="150">
+        <v>20</v>
+      </c>
+      <c r="E12" s="150">
+        <v>20</v>
+      </c>
+      <c r="F12" s="150">
         <v>30</v>
       </c>
-      <c r="G12" s="161">
+      <c r="G12" s="150">
         <v>30</v>
       </c>
-      <c r="H12" s="161">
+      <c r="H12" s="150">
         <v>25</v>
       </c>
-      <c r="I12" s="161">
-        <v>20</v>
-      </c>
-      <c r="J12" s="161">
+      <c r="I12" s="150">
+        <v>20</v>
+      </c>
+      <c r="J12" s="150">
         <v>10</v>
       </c>
-      <c r="K12" s="160"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="161" t="s">
+      <c r="K12" s="149"/>
+    </row>
+    <row r="13" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B13" s="150" t="s">
         <v>395</v>
       </c>
-      <c r="C13" s="161"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161">
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150">
         <v>25</v>
       </c>
-      <c r="H13" s="161">
+      <c r="H13" s="150">
         <v>25</v>
       </c>
-      <c r="I13" s="161">
+      <c r="I13" s="150">
         <v>50</v>
       </c>
-      <c r="J13" s="161">
+      <c r="J13" s="150">
         <v>30</v>
       </c>
-      <c r="K13" s="160"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="161" t="s">
+      <c r="K13" s="149"/>
+    </row>
+    <row r="14" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B14" s="150" t="s">
         <v>847</v>
       </c>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161">
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150">
         <v>10</v>
       </c>
-      <c r="H14" s="161">
+      <c r="H14" s="150">
         <v>25</v>
       </c>
-      <c r="I14" s="161">
+      <c r="I14" s="150">
         <v>30</v>
       </c>
-      <c r="J14" s="161">
+      <c r="J14" s="150">
         <v>10</v>
       </c>
-      <c r="K14" s="160"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="162" t="s">
+      <c r="K14" s="149"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="151" t="s">
         <v>848</v>
       </c>
-      <c r="C15" s="162">
-        <v>20</v>
-      </c>
-      <c r="D15" s="162">
+      <c r="C15" s="151">
+        <v>20</v>
+      </c>
+      <c r="D15" s="151">
         <v>60</v>
       </c>
-      <c r="E15" s="162">
+      <c r="E15" s="151">
         <v>80</v>
       </c>
-      <c r="F15" s="162">
+      <c r="F15" s="151">
         <v>75</v>
       </c>
-      <c r="G15" s="162">
+      <c r="G15" s="151">
         <v>145</v>
       </c>
-      <c r="H15" s="162">
+      <c r="H15" s="151">
         <v>155</v>
       </c>
-      <c r="I15" s="162">
+      <c r="I15" s="151">
         <v>150</v>
       </c>
-      <c r="J15" s="162">
+      <c r="J15" s="151">
         <v>50</v>
       </c>
-      <c r="K15" s="160"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="163"/>
-      <c r="C16" s="163">
+      <c r="K15" s="149"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="152"/>
+      <c r="C16" s="152">
         <f>C15/10</f>
         <v>2</v>
       </c>
-      <c r="D16" s="163">
+      <c r="D16" s="152">
         <f t="shared" ref="D16:J16" si="0">D15/10</f>
         <v>6</v>
       </c>
-      <c r="E16" s="163">
+      <c r="E16" s="152">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F16" s="163">
+      <c r="F16" s="152">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="G16" s="163">
+      <c r="G16" s="152">
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
-      <c r="H16" s="163">
+      <c r="H16" s="152">
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
-      <c r="I16" s="163">
+      <c r="I16" s="152">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J16" s="163">
+      <c r="J16" s="152">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K16" s="157"/>
+      <c r="K16" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/presupuesto/PRESUPUESTO_CURSO_EDIF_PRIM_2018.xlsx
+++ b/presupuesto/PRESUPUESTO_CURSO_EDIF_PRIM_2018.xlsx
@@ -5,20 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador.DESKTOP-HAFAICN\Desktop\proyecto-CI6501\presupuesto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mleal\Desktop\proyecto-CI6501\presupuesto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D06B1B-82D9-4221-B0B8-D1CEDFE8A94C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B5323C-754C-4615-909E-46BDD2ADCD3B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Presupuesto Original" sheetId="1" r:id="rId1"/>
     <sheet name="GG" sheetId="2" r:id="rId2"/>
     <sheet name="Personal CD" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="875">
   <si>
     <t>ITEMIZACION DEL PRESUPUESTO</t>
   </si>
@@ -2615,9 +2621,6 @@
     <t>CD</t>
   </si>
   <si>
-    <t>Celulares</t>
-  </si>
-  <si>
     <t>gra</t>
   </si>
   <si>
@@ -2625,16 +2628,48 @@
   </si>
   <si>
     <t>GASTOS ELECTRICIDAD (MES PROMEDIO)</t>
+  </si>
+  <si>
+    <t>/mes</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
+  <si>
+    <t>ADM Central 2%</t>
+  </si>
+  <si>
+    <t>Utilidad 10%</t>
+  </si>
+  <si>
+    <t>Imprevisto 8%</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>SubTotal Neto</t>
+  </si>
+  <si>
+    <t>IVA 19%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="170" formatCode="0.000%"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -3656,11 +3691,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3755,7 +3791,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3776,7 +3812,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3794,7 +3830,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3812,7 +3848,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3836,7 +3872,7 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3851,7 +3887,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3872,7 +3908,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3887,7 +3923,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3896,7 +3932,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3908,13 +3944,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3935,7 +3971,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3947,10 +3983,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3974,7 +4010,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3986,16 +4022,16 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4080,13 +4116,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4286,45 +4322,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="11"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="11"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -4339,19 +4336,77 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="11"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="11"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4504,7 +4559,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4698,7 +4753,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4735,7 +4790,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="746759488"/>
@@ -4814,7 +4869,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4852,7 +4907,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="279484656"/>
@@ -4900,7 +4955,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5503,8 +5558,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4586382" y="12700"/>
-          <a:ext cx="6147062" cy="2992773"/>
+          <a:off x="6612486" y="12700"/>
+          <a:ext cx="7239715" cy="3207766"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5862,34 +5917,34 @@
       <selection pane="bottomLeft" activeCell="E488" sqref="E488"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="48.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.44140625" style="1" customWidth="1"/>
     <col min="12" max="1025" width="9.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="218" t="s">
+    <row r="1" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="230"/>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
@@ -5900,7 +5955,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13" t="s">
@@ -5911,7 +5966,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="18" t="s">
         <v>3</v>
@@ -5919,10 +5974,10 @@
       <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="219" t="s">
+      <c r="D4" s="231" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="220" t="s">
+      <c r="E4" s="232" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="20" t="s">
@@ -5932,12 +5987,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="21"/>
       <c r="C5" s="22"/>
-      <c r="D5" s="219"/>
-      <c r="E5" s="220"/>
+      <c r="D5" s="231"/>
+      <c r="E5" s="232"/>
       <c r="F5" s="23" t="s">
         <v>9</v>
       </c>
@@ -5945,7 +6000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="24" t="s">
         <v>11</v>
@@ -5958,7 +6013,7 @@
       <c r="F6" s="26"/>
       <c r="G6" s="28"/>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="29" t="s">
         <v>13</v>
@@ -5975,7 +6030,7 @@
       <c r="F7" s="33"/>
       <c r="G7" s="34"/>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="29" t="s">
         <v>16</v>
@@ -5988,7 +6043,7 @@
       <c r="F8" s="33"/>
       <c r="G8" s="34"/>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="36" t="s">
         <v>18</v>
@@ -6005,7 +6060,7 @@
       <c r="F9" s="40"/>
       <c r="G9" s="41"/>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="36" t="s">
         <v>21</v>
@@ -6022,7 +6077,7 @@
       <c r="F10" s="40"/>
       <c r="G10" s="41"/>
     </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="36" t="s">
         <v>23</v>
@@ -6039,7 +6094,7 @@
       <c r="F11" s="40"/>
       <c r="G11" s="41"/>
     </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="36" t="s">
         <v>25</v>
@@ -6056,7 +6111,7 @@
       <c r="F12" s="40"/>
       <c r="G12" s="41"/>
     </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="36" t="s">
         <v>27</v>
@@ -6073,7 +6128,7 @@
       <c r="F13" s="40"/>
       <c r="G13" s="41"/>
     </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="29" t="s">
         <v>29</v>
@@ -6086,7 +6141,7 @@
       <c r="F14" s="33"/>
       <c r="G14" s="34"/>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="36" t="s">
         <v>31</v>
@@ -6103,7 +6158,7 @@
       <c r="F15" s="40"/>
       <c r="G15" s="41"/>
     </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="36" t="s">
         <v>34</v>
@@ -6120,7 +6175,7 @@
       <c r="F16" s="40"/>
       <c r="G16" s="41"/>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="36" t="s">
         <v>36</v>
@@ -6137,7 +6192,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="41"/>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="36" t="s">
         <v>38</v>
@@ -6154,7 +6209,7 @@
       <c r="F18" s="40"/>
       <c r="G18" s="41"/>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="36" t="s">
         <v>40</v>
@@ -6171,7 +6226,7 @@
       <c r="F19" s="40"/>
       <c r="G19" s="41"/>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="36" t="s">
         <v>42</v>
@@ -6188,7 +6243,7 @@
       <c r="F20" s="40"/>
       <c r="G20" s="41"/>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="36" t="s">
         <v>44</v>
@@ -6205,7 +6260,7 @@
       <c r="F21" s="40"/>
       <c r="G21" s="41"/>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="36" t="s">
         <v>46</v>
@@ -6222,7 +6277,7 @@
       <c r="F22" s="40"/>
       <c r="G22" s="41"/>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="36" t="s">
         <v>48</v>
@@ -6239,7 +6294,7 @@
       <c r="F23" s="40"/>
       <c r="G23" s="41"/>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="42" t="s">
         <v>50</v>
@@ -6256,7 +6311,7 @@
       <c r="F24" s="46"/>
       <c r="G24" s="47"/>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="42" t="s">
         <v>52</v>
@@ -6273,7 +6328,7 @@
       <c r="F25" s="46"/>
       <c r="G25" s="47"/>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="42" t="s">
         <v>54</v>
@@ -6290,7 +6345,7 @@
       <c r="F26" s="46"/>
       <c r="G26" s="47"/>
     </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="48"/>
       <c r="C27" s="49"/>
@@ -6299,18 +6354,18 @@
       <c r="F27" s="52"/>
       <c r="G27" s="53"/>
     </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
-      <c r="B28" s="221" t="s">
+      <c r="B28" s="227" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="221"/>
+      <c r="C28" s="227"/>
       <c r="D28" s="26"/>
       <c r="E28" s="27"/>
       <c r="F28" s="26"/>
       <c r="G28" s="28"/>
     </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="54" t="s">
         <v>57</v>
@@ -6323,7 +6378,7 @@
       <c r="F29" s="55"/>
       <c r="G29" s="57"/>
     </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="58" t="s">
         <v>59</v>
@@ -6340,7 +6395,7 @@
       <c r="F30" s="60"/>
       <c r="G30" s="61"/>
     </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="58" t="s">
         <v>61</v>
@@ -6357,7 +6412,7 @@
       <c r="F31" s="60"/>
       <c r="G31" s="61"/>
     </row>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="29" t="s">
         <v>63</v>
@@ -6370,7 +6425,7 @@
       <c r="F32" s="33"/>
       <c r="G32" s="34"/>
     </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="58" t="s">
         <v>65</v>
@@ -6387,7 +6442,7 @@
       <c r="F33" s="60"/>
       <c r="G33" s="61"/>
     </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="65"/>
       <c r="C34" s="66" t="s">
@@ -6401,7 +6456,7 @@
       <c r="F34" s="67"/>
       <c r="G34" s="69"/>
     </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="65"/>
       <c r="C35" s="66" t="s">
@@ -6414,7 +6469,7 @@
       <c r="F35" s="67"/>
       <c r="G35" s="69"/>
     </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="58" t="s">
         <v>70</v>
@@ -6435,7 +6490,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="70"/>
       <c r="C37" s="66" t="s">
@@ -6448,7 +6503,7 @@
       <c r="F37" s="67"/>
       <c r="G37" s="69"/>
     </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="70"/>
       <c r="C38" s="66" t="s">
@@ -6461,7 +6516,7 @@
       <c r="F38" s="67"/>
       <c r="G38" s="69"/>
     </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="58" t="s">
         <v>74</v>
@@ -6482,7 +6537,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="70"/>
       <c r="C40" s="66" t="s">
@@ -6495,7 +6550,7 @@
       <c r="F40" s="67"/>
       <c r="G40" s="69"/>
     </row>
-    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="70"/>
       <c r="C41" s="66" t="s">
@@ -6508,7 +6563,7 @@
       <c r="F41" s="67"/>
       <c r="G41" s="69"/>
     </row>
-    <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="58" t="s">
         <v>78</v>
@@ -6529,7 +6584,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="70"/>
       <c r="C43" s="66" t="s">
@@ -6542,7 +6597,7 @@
       <c r="F43" s="67"/>
       <c r="G43" s="69"/>
     </row>
-    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="70"/>
       <c r="C44" s="66" t="s">
@@ -6555,7 +6610,7 @@
       <c r="F44" s="67"/>
       <c r="G44" s="69"/>
     </row>
-    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="29" t="s">
         <v>82</v>
@@ -6568,7 +6623,7 @@
       <c r="F45" s="33"/>
       <c r="G45" s="34"/>
     </row>
-    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="58" t="s">
         <v>84</v>
@@ -6589,7 +6644,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="70"/>
       <c r="C47" s="66" t="s">
@@ -6602,7 +6657,7 @@
       <c r="F47" s="67"/>
       <c r="G47" s="69"/>
     </row>
-    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="70"/>
       <c r="C48" s="66" t="s">
@@ -6615,7 +6670,7 @@
       <c r="F48" s="67"/>
       <c r="G48" s="69"/>
     </row>
-    <row r="49" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="58" t="s">
         <v>88</v>
@@ -6628,7 +6683,7 @@
       <c r="F49" s="60"/>
       <c r="G49" s="61"/>
     </row>
-    <row r="50" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="73" t="s">
         <v>90</v>
@@ -6646,7 +6701,7 @@
       <c r="F50" s="75"/>
       <c r="G50" s="77"/>
     </row>
-    <row r="51" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="78"/>
       <c r="C51" s="66" t="s">
@@ -6659,7 +6714,7 @@
       <c r="F51" s="67"/>
       <c r="G51" s="69"/>
     </row>
-    <row r="52" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="78"/>
       <c r="C52" s="66" t="s">
@@ -6672,7 +6727,7 @@
       <c r="F52" s="67"/>
       <c r="G52" s="69"/>
     </row>
-    <row r="53" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="73" t="s">
         <v>94</v>
@@ -6693,7 +6748,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="78"/>
       <c r="C54" s="66" t="s">
@@ -6706,7 +6761,7 @@
       <c r="F54" s="67"/>
       <c r="G54" s="69"/>
     </row>
-    <row r="55" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="78"/>
       <c r="C55" s="66" t="s">
@@ -6719,7 +6774,7 @@
       <c r="F55" s="67"/>
       <c r="G55" s="69"/>
     </row>
-    <row r="56" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="73" t="s">
         <v>98</v>
@@ -6740,7 +6795,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="78"/>
       <c r="C57" s="66" t="s">
@@ -6753,7 +6808,7 @@
       <c r="F57" s="67"/>
       <c r="G57" s="69"/>
     </row>
-    <row r="58" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="78"/>
       <c r="C58" s="66" t="s">
@@ -6766,7 +6821,7 @@
       <c r="F58" s="67"/>
       <c r="G58" s="69"/>
     </row>
-    <row r="59" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="B59" s="73" t="s">
         <v>102</v>
@@ -6787,7 +6842,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="78"/>
       <c r="C60" s="80" t="s">
@@ -6800,7 +6855,7 @@
       <c r="F60" s="67"/>
       <c r="G60" s="69"/>
     </row>
-    <row r="61" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
       <c r="B61" s="78"/>
       <c r="C61" s="80" t="s">
@@ -6813,7 +6868,7 @@
       <c r="F61" s="67"/>
       <c r="G61" s="69"/>
     </row>
-    <row r="62" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="58" t="s">
         <v>106</v>
@@ -6826,7 +6881,7 @@
       <c r="F62" s="60"/>
       <c r="G62" s="61"/>
     </row>
-    <row r="63" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="73" t="s">
         <v>107</v>
@@ -6848,7 +6903,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="81"/>
       <c r="B64" s="78"/>
       <c r="C64" s="80" t="s">
@@ -6879,7 +6934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="81"/>
       <c r="B65" s="78"/>
       <c r="C65" s="80" t="s">
@@ -6902,7 +6957,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="73" t="s">
         <v>112</v>
       </c>
@@ -6931,7 +6986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="78"/>
       <c r="C67" s="66" t="s">
         <v>114</v>
@@ -6956,7 +7011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="78"/>
       <c r="C68" s="66" t="s">
         <v>115</v>
@@ -6981,7 +7036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="73" t="s">
         <v>116</v>
       </c>
@@ -7012,7 +7067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="78"/>
       <c r="C70" s="84" t="s">
         <v>118</v>
@@ -7022,7 +7077,7 @@
       <c r="F70" s="67"/>
       <c r="G70" s="69"/>
     </row>
-    <row r="71" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="78"/>
       <c r="C71" s="66" t="s">
         <v>119</v>
@@ -7043,7 +7098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="78"/>
       <c r="C72" s="66" t="s">
         <v>120</v>
@@ -7064,7 +7119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="78"/>
       <c r="C73" s="84" t="s">
         <v>121</v>
@@ -7074,7 +7129,7 @@
       <c r="F73" s="67"/>
       <c r="G73" s="69"/>
     </row>
-    <row r="74" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="78"/>
       <c r="C74" s="66" t="s">
         <v>122</v>
@@ -7092,7 +7147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="78"/>
       <c r="C75" s="66" t="s">
         <v>123</v>
@@ -7106,7 +7161,7 @@
       <c r="F75" s="67"/>
       <c r="G75" s="69"/>
     </row>
-    <row r="76" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="78"/>
       <c r="C76" s="84" t="s">
         <v>124</v>
@@ -7116,7 +7171,7 @@
       <c r="F76" s="67"/>
       <c r="G76" s="69"/>
     </row>
-    <row r="77" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="78"/>
       <c r="C77" s="66" t="s">
         <v>125</v>
@@ -7130,7 +7185,7 @@
       <c r="F77" s="67"/>
       <c r="G77" s="69"/>
     </row>
-    <row r="78" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="78"/>
       <c r="C78" s="66" t="s">
         <v>126</v>
@@ -7144,7 +7199,7 @@
       <c r="F78" s="67"/>
       <c r="G78" s="69"/>
     </row>
-    <row r="79" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="78"/>
       <c r="C79" s="84" t="s">
         <v>127</v>
@@ -7154,7 +7209,7 @@
       <c r="F79" s="67"/>
       <c r="G79" s="69"/>
     </row>
-    <row r="80" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="78"/>
       <c r="C80" s="66" t="s">
         <v>128</v>
@@ -7168,7 +7223,7 @@
       <c r="F80" s="67"/>
       <c r="G80" s="69"/>
     </row>
-    <row r="81" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="78"/>
       <c r="C81" s="66" t="s">
         <v>129</v>
@@ -7182,7 +7237,7 @@
       <c r="F81" s="67"/>
       <c r="G81" s="69"/>
     </row>
-    <row r="82" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="78"/>
       <c r="C82" s="84" t="s">
         <v>130</v>
@@ -7192,7 +7247,7 @@
       <c r="F82" s="67"/>
       <c r="G82" s="69"/>
     </row>
-    <row r="83" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="78"/>
       <c r="C83" s="66" t="s">
         <v>131</v>
@@ -7206,7 +7261,7 @@
       <c r="F83" s="67"/>
       <c r="G83" s="69"/>
     </row>
-    <row r="84" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="78"/>
       <c r="C84" s="66" t="s">
         <v>132</v>
@@ -7220,7 +7275,7 @@
       <c r="F84" s="67"/>
       <c r="G84" s="69"/>
     </row>
-    <row r="85" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="73" t="s">
         <v>133</v>
       </c>
@@ -7240,7 +7295,7 @@
       </c>
       <c r="G85" s="77"/>
     </row>
-    <row r="86" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="78"/>
       <c r="C86" s="84" t="s">
         <v>121</v>
@@ -7250,7 +7305,7 @@
       <c r="F86" s="67"/>
       <c r="G86" s="69"/>
     </row>
-    <row r="87" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="78"/>
       <c r="C87" s="66" t="s">
         <v>135</v>
@@ -7264,7 +7319,7 @@
       <c r="F87" s="67"/>
       <c r="G87" s="69"/>
     </row>
-    <row r="88" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="78"/>
       <c r="C88" s="66" t="s">
         <v>136</v>
@@ -7278,7 +7333,7 @@
       <c r="F88" s="67"/>
       <c r="G88" s="69"/>
     </row>
-    <row r="89" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="78"/>
       <c r="C89" s="84" t="s">
         <v>130</v>
@@ -7288,7 +7343,7 @@
       <c r="F89" s="67"/>
       <c r="G89" s="69"/>
     </row>
-    <row r="90" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="78"/>
       <c r="C90" s="66" t="s">
         <v>137</v>
@@ -7302,7 +7357,7 @@
       <c r="F90" s="67"/>
       <c r="G90" s="69"/>
     </row>
-    <row r="91" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="78"/>
       <c r="C91" s="66" t="s">
         <v>138</v>
@@ -7316,7 +7371,7 @@
       <c r="F91" s="67"/>
       <c r="G91" s="69"/>
     </row>
-    <row r="92" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="73" t="s">
         <v>139</v>
       </c>
@@ -7336,7 +7391,7 @@
       </c>
       <c r="G92" s="77"/>
     </row>
-    <row r="93" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="78"/>
       <c r="C93" s="84" t="s">
         <v>118</v>
@@ -7346,7 +7401,7 @@
       <c r="F93" s="67"/>
       <c r="G93" s="69"/>
     </row>
-    <row r="94" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="78"/>
       <c r="C94" s="66" t="s">
         <v>141</v>
@@ -7360,7 +7415,7 @@
       <c r="F94" s="67"/>
       <c r="G94" s="69"/>
     </row>
-    <row r="95" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="78"/>
       <c r="C95" s="66" t="s">
         <v>142</v>
@@ -7374,7 +7429,7 @@
       <c r="F95" s="67"/>
       <c r="G95" s="69"/>
     </row>
-    <row r="96" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="78"/>
       <c r="C96" s="84" t="s">
         <v>121</v>
@@ -7384,7 +7439,7 @@
       <c r="F96" s="67"/>
       <c r="G96" s="69"/>
     </row>
-    <row r="97" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="78"/>
       <c r="C97" s="66" t="s">
         <v>143</v>
@@ -7398,7 +7453,7 @@
       <c r="F97" s="67"/>
       <c r="G97" s="69"/>
     </row>
-    <row r="98" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="78"/>
       <c r="C98" s="66" t="s">
         <v>144</v>
@@ -7412,7 +7467,7 @@
       <c r="F98" s="67"/>
       <c r="G98" s="69"/>
     </row>
-    <row r="99" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="78"/>
       <c r="C99" s="84" t="s">
         <v>124</v>
@@ -7422,7 +7477,7 @@
       <c r="F99" s="67"/>
       <c r="G99" s="69"/>
     </row>
-    <row r="100" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="78"/>
       <c r="C100" s="66" t="s">
         <v>145</v>
@@ -7436,7 +7491,7 @@
       <c r="F100" s="67"/>
       <c r="G100" s="69"/>
     </row>
-    <row r="101" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="78"/>
       <c r="C101" s="66" t="s">
         <v>146</v>
@@ -7450,7 +7505,7 @@
       <c r="F101" s="67"/>
       <c r="G101" s="69"/>
     </row>
-    <row r="102" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="78"/>
       <c r="C102" s="84" t="s">
         <v>127</v>
@@ -7460,7 +7515,7 @@
       <c r="F102" s="67"/>
       <c r="G102" s="69"/>
     </row>
-    <row r="103" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="78"/>
       <c r="C103" s="66" t="s">
         <v>147</v>
@@ -7474,7 +7529,7 @@
       <c r="F103" s="67"/>
       <c r="G103" s="69"/>
     </row>
-    <row r="104" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="78"/>
       <c r="C104" s="66" t="s">
         <v>148</v>
@@ -7488,7 +7543,7 @@
       <c r="F104" s="67"/>
       <c r="G104" s="69"/>
     </row>
-    <row r="105" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="78"/>
       <c r="C105" s="84" t="s">
         <v>130</v>
@@ -7498,7 +7553,7 @@
       <c r="F105" s="67"/>
       <c r="G105" s="69"/>
     </row>
-    <row r="106" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="78"/>
       <c r="C106" s="66" t="s">
         <v>149</v>
@@ -7512,7 +7567,7 @@
       <c r="F106" s="67"/>
       <c r="G106" s="69"/>
     </row>
-    <row r="107" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="78"/>
       <c r="C107" s="66" t="s">
         <v>150</v>
@@ -7526,7 +7581,7 @@
       <c r="F107" s="67"/>
       <c r="G107" s="69"/>
     </row>
-    <row r="108" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="78"/>
       <c r="C108" s="84" t="s">
         <v>151</v>
@@ -7536,7 +7591,7 @@
       <c r="F108" s="67"/>
       <c r="G108" s="69"/>
     </row>
-    <row r="109" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="78"/>
       <c r="C109" s="66" t="s">
         <v>152</v>
@@ -7550,7 +7605,7 @@
       <c r="F109" s="67"/>
       <c r="G109" s="69"/>
     </row>
-    <row r="110" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="78"/>
       <c r="C110" s="66" t="s">
         <v>153</v>
@@ -7564,7 +7619,7 @@
       <c r="F110" s="67"/>
       <c r="G110" s="69"/>
     </row>
-    <row r="111" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="73" t="s">
         <v>154</v>
       </c>
@@ -7584,7 +7639,7 @@
       </c>
       <c r="G111" s="77"/>
     </row>
-    <row r="112" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="78"/>
       <c r="C112" s="84" t="s">
         <v>118</v>
@@ -7594,7 +7649,7 @@
       <c r="F112" s="67"/>
       <c r="G112" s="69"/>
     </row>
-    <row r="113" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="78"/>
       <c r="C113" s="66" t="s">
         <v>156</v>
@@ -7608,7 +7663,7 @@
       <c r="F113" s="67"/>
       <c r="G113" s="69"/>
     </row>
-    <row r="114" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="78"/>
       <c r="C114" s="66" t="s">
         <v>157</v>
@@ -7622,7 +7677,7 @@
       <c r="F114" s="67"/>
       <c r="G114" s="69"/>
     </row>
-    <row r="115" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="78"/>
       <c r="C115" s="84" t="s">
         <v>121</v>
@@ -7632,7 +7687,7 @@
       <c r="F115" s="67"/>
       <c r="G115" s="69"/>
     </row>
-    <row r="116" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="78"/>
       <c r="C116" s="66" t="s">
         <v>158</v>
@@ -7646,7 +7701,7 @@
       <c r="F116" s="67"/>
       <c r="G116" s="69"/>
     </row>
-    <row r="117" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="78"/>
       <c r="C117" s="66" t="s">
         <v>159</v>
@@ -7660,7 +7715,7 @@
       <c r="F117" s="67"/>
       <c r="G117" s="69"/>
     </row>
-    <row r="118" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="78"/>
       <c r="C118" s="84" t="s">
         <v>124</v>
@@ -7670,7 +7725,7 @@
       <c r="F118" s="67"/>
       <c r="G118" s="69"/>
     </row>
-    <row r="119" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="78"/>
       <c r="C119" s="66" t="s">
         <v>160</v>
@@ -7684,7 +7739,7 @@
       <c r="F119" s="67"/>
       <c r="G119" s="69"/>
     </row>
-    <row r="120" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="78"/>
       <c r="C120" s="66" t="s">
         <v>161</v>
@@ -7698,7 +7753,7 @@
       <c r="F120" s="67"/>
       <c r="G120" s="69"/>
     </row>
-    <row r="121" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="78"/>
       <c r="C121" s="84" t="s">
         <v>127</v>
@@ -7708,7 +7763,7 @@
       <c r="F121" s="67"/>
       <c r="G121" s="69"/>
     </row>
-    <row r="122" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="78"/>
       <c r="C122" s="66" t="s">
         <v>162</v>
@@ -7722,7 +7777,7 @@
       <c r="F122" s="67"/>
       <c r="G122" s="69"/>
     </row>
-    <row r="123" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="78"/>
       <c r="C123" s="66" t="s">
         <v>163</v>
@@ -7736,7 +7791,7 @@
       <c r="F123" s="67"/>
       <c r="G123" s="69"/>
     </row>
-    <row r="124" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="78"/>
       <c r="C124" s="84" t="s">
         <v>130</v>
@@ -7746,7 +7801,7 @@
       <c r="F124" s="67"/>
       <c r="G124" s="69"/>
     </row>
-    <row r="125" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="78"/>
       <c r="C125" s="66" t="s">
         <v>164</v>
@@ -7760,7 +7815,7 @@
       <c r="F125" s="67"/>
       <c r="G125" s="69"/>
     </row>
-    <row r="126" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="78"/>
       <c r="C126" s="66" t="s">
         <v>165</v>
@@ -7774,7 +7829,7 @@
       <c r="F126" s="67"/>
       <c r="G126" s="69"/>
     </row>
-    <row r="127" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="78"/>
       <c r="C127" s="84" t="s">
         <v>151</v>
@@ -7786,7 +7841,7 @@
       <c r="F127" s="67"/>
       <c r="G127" s="69"/>
     </row>
-    <row r="128" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="78"/>
       <c r="C128" s="66" t="s">
         <v>166</v>
@@ -7800,7 +7855,7 @@
       <c r="F128" s="67"/>
       <c r="G128" s="69"/>
     </row>
-    <row r="129" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="78"/>
       <c r="C129" s="66" t="s">
         <v>167</v>
@@ -7814,7 +7869,7 @@
       <c r="F129" s="67"/>
       <c r="G129" s="69"/>
     </row>
-    <row r="130" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="73" t="s">
         <v>168</v>
       </c>
@@ -7836,11 +7891,11 @@
       </c>
       <c r="I130" s="83"/>
     </row>
-    <row r="131" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="222" t="s">
+    <row r="131" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="228" t="s">
         <v>170</v>
       </c>
-      <c r="C131" s="222"/>
+      <c r="C131" s="228"/>
       <c r="D131" s="82" t="s">
         <v>109</v>
       </c>
@@ -7850,11 +7905,11 @@
       <c r="F131" s="67"/>
       <c r="G131" s="69"/>
     </row>
-    <row r="132" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="222" t="s">
+    <row r="132" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="228" t="s">
         <v>171</v>
       </c>
-      <c r="C132" s="222"/>
+      <c r="C132" s="228"/>
       <c r="D132" s="82" t="s">
         <v>109</v>
       </c>
@@ -7864,7 +7919,7 @@
       <c r="F132" s="67"/>
       <c r="G132" s="69"/>
     </row>
-    <row r="133" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="73" t="s">
         <v>172</v>
       </c>
@@ -7884,7 +7939,7 @@
       </c>
       <c r="G133" s="77"/>
     </row>
-    <row r="134" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="86"/>
       <c r="C134" s="84" t="s">
         <v>118</v>
@@ -7894,7 +7949,7 @@
       <c r="F134" s="67"/>
       <c r="G134" s="69"/>
     </row>
-    <row r="135" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="86"/>
       <c r="C135" s="66" t="s">
         <v>174</v>
@@ -7908,7 +7963,7 @@
       <c r="F135" s="67"/>
       <c r="G135" s="69"/>
     </row>
-    <row r="136" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="86"/>
       <c r="C136" s="66" t="s">
         <v>175</v>
@@ -7922,7 +7977,7 @@
       <c r="F136" s="67"/>
       <c r="G136" s="69"/>
     </row>
-    <row r="137" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="86"/>
       <c r="C137" s="87" t="s">
         <v>121</v>
@@ -7932,7 +7987,7 @@
       <c r="F137" s="67"/>
       <c r="G137" s="69"/>
     </row>
-    <row r="138" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="86"/>
       <c r="C138" s="66" t="s">
         <v>176</v>
@@ -7946,7 +8001,7 @@
       <c r="F138" s="67"/>
       <c r="G138" s="69"/>
     </row>
-    <row r="139" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="86"/>
       <c r="C139" s="66" t="s">
         <v>177</v>
@@ -7960,7 +8015,7 @@
       <c r="F139" s="67"/>
       <c r="G139" s="69"/>
     </row>
-    <row r="140" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="86"/>
       <c r="C140" s="84" t="s">
         <v>124</v>
@@ -7970,7 +8025,7 @@
       <c r="F140" s="67"/>
       <c r="G140" s="69"/>
     </row>
-    <row r="141" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="86"/>
       <c r="C141" s="66" t="s">
         <v>178</v>
@@ -7984,7 +8039,7 @@
       <c r="F141" s="67"/>
       <c r="G141" s="69"/>
     </row>
-    <row r="142" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="86"/>
       <c r="C142" s="66" t="s">
         <v>179</v>
@@ -7998,7 +8053,7 @@
       <c r="F142" s="67"/>
       <c r="G142" s="69"/>
     </row>
-    <row r="143" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="86"/>
       <c r="C143" s="84" t="s">
         <v>127</v>
@@ -8008,7 +8063,7 @@
       <c r="F143" s="67"/>
       <c r="G143" s="69"/>
     </row>
-    <row r="144" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="86"/>
       <c r="C144" s="66" t="s">
         <v>180</v>
@@ -8022,7 +8077,7 @@
       <c r="F144" s="67"/>
       <c r="G144" s="69"/>
     </row>
-    <row r="145" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="86"/>
       <c r="C145" s="66" t="s">
         <v>181</v>
@@ -8036,7 +8091,7 @@
       <c r="F145" s="67"/>
       <c r="G145" s="69"/>
     </row>
-    <row r="146" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="86"/>
       <c r="C146" s="84" t="s">
         <v>130</v>
@@ -8046,7 +8101,7 @@
       <c r="F146" s="67"/>
       <c r="G146" s="69"/>
     </row>
-    <row r="147" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="86"/>
       <c r="C147" s="66" t="s">
         <v>182</v>
@@ -8060,7 +8115,7 @@
       <c r="F147" s="67"/>
       <c r="G147" s="69"/>
     </row>
-    <row r="148" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="86"/>
       <c r="C148" s="66" t="s">
         <v>183</v>
@@ -8074,7 +8129,7 @@
       <c r="F148" s="67"/>
       <c r="G148" s="69"/>
     </row>
-    <row r="149" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="58" t="s">
         <v>184</v>
       </c>
@@ -8086,7 +8141,7 @@
       <c r="F149" s="60"/>
       <c r="G149" s="61"/>
     </row>
-    <row r="150" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="73"/>
       <c r="C150" s="74" t="s">
         <v>186</v>
@@ -8101,7 +8156,7 @@
       <c r="F150" s="75"/>
       <c r="G150" s="77"/>
     </row>
-    <row r="151" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="78"/>
       <c r="C151" s="66" t="s">
         <v>187</v>
@@ -8115,7 +8170,7 @@
       <c r="F151" s="67"/>
       <c r="G151" s="69"/>
     </row>
-    <row r="152" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="78"/>
       <c r="C152" s="66" t="s">
         <v>188</v>
@@ -8129,7 +8184,7 @@
       <c r="F152" s="67"/>
       <c r="G152" s="69"/>
     </row>
-    <row r="153" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="73"/>
       <c r="C153" s="74" t="s">
         <v>185</v>
@@ -8147,7 +8202,7 @@
       </c>
       <c r="G153" s="77"/>
     </row>
-    <row r="154" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="78"/>
       <c r="C154" s="66" t="s">
         <v>189</v>
@@ -8160,11 +8215,11 @@
       </c>
       <c r="F154" s="67"/>
       <c r="G154" s="69"/>
-      <c r="I154" s="223" t="s">
+      <c r="I154" s="229" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="78"/>
       <c r="C155" s="66" t="s">
         <v>191</v>
@@ -8177,9 +8232,9 @@
       </c>
       <c r="F155" s="67"/>
       <c r="G155" s="69"/>
-      <c r="I155" s="223"/>
-    </row>
-    <row r="156" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I155" s="229"/>
+    </row>
+    <row r="156" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="78"/>
       <c r="C156" s="66" t="s">
         <v>192</v>
@@ -8192,9 +8247,9 @@
       </c>
       <c r="F156" s="67"/>
       <c r="G156" s="69"/>
-      <c r="I156" s="223"/>
-    </row>
-    <row r="157" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I156" s="229"/>
+    </row>
+    <row r="157" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="78"/>
       <c r="C157" s="66" t="s">
         <v>193</v>
@@ -8207,9 +8262,9 @@
       </c>
       <c r="F157" s="67"/>
       <c r="G157" s="69"/>
-      <c r="I157" s="223"/>
-    </row>
-    <row r="158" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I157" s="229"/>
+    </row>
+    <row r="158" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="78"/>
       <c r="C158" s="66" t="s">
         <v>194</v>
@@ -8222,9 +8277,9 @@
       </c>
       <c r="F158" s="67"/>
       <c r="G158" s="69"/>
-      <c r="I158" s="223"/>
-    </row>
-    <row r="159" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I158" s="229"/>
+    </row>
+    <row r="159" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="29" t="s">
         <v>195</v>
       </c>
@@ -8236,7 +8291,7 @@
       <c r="F159" s="33"/>
       <c r="G159" s="34"/>
     </row>
-    <row r="160" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="58" t="s">
         <v>197</v>
       </c>
@@ -8252,7 +8307,7 @@
       <c r="F160" s="61"/>
       <c r="G160" s="61"/>
     </row>
-    <row r="161" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="78"/>
       <c r="C161" s="66" t="s">
         <v>199</v>
@@ -8264,7 +8319,7 @@
       <c r="F161" s="67"/>
       <c r="G161" s="69"/>
     </row>
-    <row r="162" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="78"/>
       <c r="C162" s="66" t="s">
         <v>200</v>
@@ -8276,7 +8331,7 @@
       <c r="F162" s="67"/>
       <c r="G162" s="69"/>
     </row>
-    <row r="163" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="58" t="s">
         <v>201</v>
       </c>
@@ -8296,7 +8351,7 @@
       </c>
       <c r="G163" s="61"/>
     </row>
-    <row r="164" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="78"/>
       <c r="C164" s="84" t="s">
         <v>118</v>
@@ -8306,7 +8361,7 @@
       <c r="F164" s="67"/>
       <c r="G164" s="69"/>
     </row>
-    <row r="165" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="78"/>
       <c r="C165" s="66" t="s">
         <v>203</v>
@@ -8320,7 +8375,7 @@
       <c r="F165" s="67"/>
       <c r="G165" s="69"/>
     </row>
-    <row r="166" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="78"/>
       <c r="C166" s="66" t="s">
         <v>204</v>
@@ -8334,7 +8389,7 @@
       <c r="F166" s="67"/>
       <c r="G166" s="69"/>
     </row>
-    <row r="167" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="78"/>
       <c r="C167" s="84" t="s">
         <v>121</v>
@@ -8344,7 +8399,7 @@
       <c r="F167" s="67"/>
       <c r="G167" s="69"/>
     </row>
-    <row r="168" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="78"/>
       <c r="C168" s="66" t="s">
         <v>205</v>
@@ -8358,7 +8413,7 @@
       <c r="F168" s="67"/>
       <c r="G168" s="69"/>
     </row>
-    <row r="169" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="78"/>
       <c r="C169" s="66" t="s">
         <v>206</v>
@@ -8372,7 +8427,7 @@
       <c r="F169" s="67"/>
       <c r="G169" s="69"/>
     </row>
-    <row r="170" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="78"/>
       <c r="C170" s="84" t="s">
         <v>124</v>
@@ -8382,7 +8437,7 @@
       <c r="F170" s="67"/>
       <c r="G170" s="69"/>
     </row>
-    <row r="171" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="78"/>
       <c r="C171" s="66" t="s">
         <v>207</v>
@@ -8396,7 +8451,7 @@
       <c r="F171" s="67"/>
       <c r="G171" s="69"/>
     </row>
-    <row r="172" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="78"/>
       <c r="C172" s="66" t="s">
         <v>208</v>
@@ -8410,7 +8465,7 @@
       <c r="F172" s="67"/>
       <c r="G172" s="69"/>
     </row>
-    <row r="173" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="78"/>
       <c r="C173" s="84" t="s">
         <v>127</v>
@@ -8420,7 +8475,7 @@
       <c r="F173" s="67"/>
       <c r="G173" s="69"/>
     </row>
-    <row r="174" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="78"/>
       <c r="C174" s="66" t="s">
         <v>209</v>
@@ -8434,7 +8489,7 @@
       <c r="F174" s="67"/>
       <c r="G174" s="69"/>
     </row>
-    <row r="175" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="78"/>
       <c r="C175" s="66" t="s">
         <v>210</v>
@@ -8448,7 +8503,7 @@
       <c r="F175" s="67"/>
       <c r="G175" s="69"/>
     </row>
-    <row r="176" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="78"/>
       <c r="C176" s="84" t="s">
         <v>130</v>
@@ -8458,7 +8513,7 @@
       <c r="F176" s="67"/>
       <c r="G176" s="69"/>
     </row>
-    <row r="177" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="78"/>
       <c r="C177" s="66" t="s">
         <v>211</v>
@@ -8472,7 +8527,7 @@
       <c r="F177" s="67"/>
       <c r="G177" s="69"/>
     </row>
-    <row r="178" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="78"/>
       <c r="C178" s="66" t="s">
         <v>212</v>
@@ -8486,7 +8541,7 @@
       <c r="F178" s="67"/>
       <c r="G178" s="69"/>
     </row>
-    <row r="179" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="78"/>
       <c r="C179" s="84" t="s">
         <v>151</v>
@@ -8496,7 +8551,7 @@
       <c r="F179" s="67"/>
       <c r="G179" s="69"/>
     </row>
-    <row r="180" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="78"/>
       <c r="C180" s="66" t="s">
         <v>213</v>
@@ -8510,7 +8565,7 @@
       <c r="F180" s="67"/>
       <c r="G180" s="69"/>
     </row>
-    <row r="181" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="78"/>
       <c r="C181" s="66" t="s">
         <v>214</v>
@@ -8524,7 +8579,7 @@
       <c r="F181" s="67"/>
       <c r="G181" s="69"/>
     </row>
-    <row r="182" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="58" t="s">
         <v>215</v>
       </c>
@@ -8544,7 +8599,7 @@
       </c>
       <c r="G182" s="61"/>
     </row>
-    <row r="183" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="78"/>
       <c r="C183" s="84" t="s">
         <v>118</v>
@@ -8554,7 +8609,7 @@
       <c r="F183" s="67"/>
       <c r="G183" s="69"/>
     </row>
-    <row r="184" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="78"/>
       <c r="C184" s="66" t="s">
         <v>217</v>
@@ -8568,7 +8623,7 @@
       <c r="F184" s="67"/>
       <c r="G184" s="69"/>
     </row>
-    <row r="185" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="78"/>
       <c r="C185" s="66" t="s">
         <v>218</v>
@@ -8582,7 +8637,7 @@
       <c r="F185" s="67"/>
       <c r="G185" s="69"/>
     </row>
-    <row r="186" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="78"/>
       <c r="C186" s="84" t="s">
         <v>121</v>
@@ -8592,7 +8647,7 @@
       <c r="F186" s="67"/>
       <c r="G186" s="69"/>
     </row>
-    <row r="187" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="78"/>
       <c r="C187" s="66" t="s">
         <v>219</v>
@@ -8606,7 +8661,7 @@
       <c r="F187" s="67"/>
       <c r="G187" s="69"/>
     </row>
-    <row r="188" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="78"/>
       <c r="C188" s="66" t="s">
         <v>220</v>
@@ -8620,7 +8675,7 @@
       <c r="F188" s="67"/>
       <c r="G188" s="69"/>
     </row>
-    <row r="189" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="78"/>
       <c r="C189" s="84" t="s">
         <v>124</v>
@@ -8630,7 +8685,7 @@
       <c r="F189" s="67"/>
       <c r="G189" s="69"/>
     </row>
-    <row r="190" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="78"/>
       <c r="C190" s="66" t="s">
         <v>221</v>
@@ -8644,7 +8699,7 @@
       <c r="F190" s="67"/>
       <c r="G190" s="69"/>
     </row>
-    <row r="191" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="78"/>
       <c r="C191" s="66" t="s">
         <v>222</v>
@@ -8658,7 +8713,7 @@
       <c r="F191" s="67"/>
       <c r="G191" s="69"/>
     </row>
-    <row r="192" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="78"/>
       <c r="C192" s="84" t="s">
         <v>127</v>
@@ -8668,7 +8723,7 @@
       <c r="F192" s="67"/>
       <c r="G192" s="69"/>
     </row>
-    <row r="193" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="78"/>
       <c r="C193" s="66" t="s">
         <v>223</v>
@@ -8682,7 +8737,7 @@
       <c r="F193" s="67"/>
       <c r="G193" s="69"/>
     </row>
-    <row r="194" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="78"/>
       <c r="C194" s="66" t="s">
         <v>224</v>
@@ -8696,7 +8751,7 @@
       <c r="F194" s="67"/>
       <c r="G194" s="69"/>
     </row>
-    <row r="195" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="78"/>
       <c r="C195" s="84" t="s">
         <v>130</v>
@@ -8706,7 +8761,7 @@
       <c r="F195" s="67"/>
       <c r="G195" s="69"/>
     </row>
-    <row r="196" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="78"/>
       <c r="C196" s="66" t="s">
         <v>225</v>
@@ -8720,7 +8775,7 @@
       <c r="F196" s="67"/>
       <c r="G196" s="69"/>
     </row>
-    <row r="197" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="78"/>
       <c r="C197" s="66" t="s">
         <v>226</v>
@@ -8734,7 +8789,7 @@
       <c r="F197" s="67"/>
       <c r="G197" s="69"/>
     </row>
-    <row r="198" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="78"/>
       <c r="C198" s="84" t="s">
         <v>151</v>
@@ -8744,7 +8799,7 @@
       <c r="F198" s="67"/>
       <c r="G198" s="69"/>
     </row>
-    <row r="199" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="78"/>
       <c r="C199" s="66" t="s">
         <v>227</v>
@@ -8758,7 +8813,7 @@
       <c r="F199" s="67"/>
       <c r="G199" s="69"/>
     </row>
-    <row r="200" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="78"/>
       <c r="C200" s="66" t="s">
         <v>228</v>
@@ -8772,7 +8827,7 @@
       <c r="F200" s="67"/>
       <c r="G200" s="69"/>
     </row>
-    <row r="201" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="58" t="s">
         <v>229</v>
       </c>
@@ -8792,7 +8847,7 @@
       </c>
       <c r="G201" s="61"/>
     </row>
-    <row r="202" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="78"/>
       <c r="C202" s="84" t="s">
         <v>118</v>
@@ -8802,7 +8857,7 @@
       <c r="F202" s="67"/>
       <c r="G202" s="69"/>
     </row>
-    <row r="203" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="78"/>
       <c r="C203" s="66" t="s">
         <v>231</v>
@@ -8816,7 +8871,7 @@
       <c r="F203" s="67"/>
       <c r="G203" s="69"/>
     </row>
-    <row r="204" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="78"/>
       <c r="C204" s="66" t="s">
         <v>232</v>
@@ -8830,7 +8885,7 @@
       <c r="F204" s="67"/>
       <c r="G204" s="69"/>
     </row>
-    <row r="205" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="78"/>
       <c r="C205" s="84" t="s">
         <v>121</v>
@@ -8840,7 +8895,7 @@
       <c r="F205" s="67"/>
       <c r="G205" s="69"/>
     </row>
-    <row r="206" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="78"/>
       <c r="C206" s="66" t="s">
         <v>233</v>
@@ -8854,7 +8909,7 @@
       <c r="F206" s="67"/>
       <c r="G206" s="69"/>
     </row>
-    <row r="207" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="78"/>
       <c r="C207" s="66" t="s">
         <v>234</v>
@@ -8868,7 +8923,7 @@
       <c r="F207" s="67"/>
       <c r="G207" s="69"/>
     </row>
-    <row r="208" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="78"/>
       <c r="C208" s="84" t="s">
         <v>124</v>
@@ -8878,7 +8933,7 @@
       <c r="F208" s="67"/>
       <c r="G208" s="69"/>
     </row>
-    <row r="209" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="78"/>
       <c r="C209" s="66" t="s">
         <v>235</v>
@@ -8892,7 +8947,7 @@
       <c r="F209" s="67"/>
       <c r="G209" s="69"/>
     </row>
-    <row r="210" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="78"/>
       <c r="C210" s="66" t="s">
         <v>236</v>
@@ -8906,7 +8961,7 @@
       <c r="F210" s="67"/>
       <c r="G210" s="69"/>
     </row>
-    <row r="211" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="78"/>
       <c r="C211" s="84" t="s">
         <v>127</v>
@@ -8916,7 +8971,7 @@
       <c r="F211" s="67"/>
       <c r="G211" s="69"/>
     </row>
-    <row r="212" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="78"/>
       <c r="C212" s="66" t="s">
         <v>237</v>
@@ -8930,7 +8985,7 @@
       <c r="F212" s="67"/>
       <c r="G212" s="69"/>
     </row>
-    <row r="213" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="78"/>
       <c r="C213" s="66" t="s">
         <v>238</v>
@@ -8944,7 +8999,7 @@
       <c r="F213" s="67"/>
       <c r="G213" s="69"/>
     </row>
-    <row r="214" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="78"/>
       <c r="C214" s="84" t="s">
         <v>130</v>
@@ -8954,7 +9009,7 @@
       <c r="F214" s="67"/>
       <c r="G214" s="69"/>
     </row>
-    <row r="215" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="78"/>
       <c r="C215" s="66" t="s">
         <v>239</v>
@@ -8968,7 +9023,7 @@
       <c r="F215" s="67"/>
       <c r="G215" s="69"/>
     </row>
-    <row r="216" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="78"/>
       <c r="C216" s="66" t="s">
         <v>240</v>
@@ -8982,7 +9037,7 @@
       <c r="F216" s="67"/>
       <c r="G216" s="69"/>
     </row>
-    <row r="217" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="78"/>
       <c r="C217" s="84" t="s">
         <v>151</v>
@@ -8992,7 +9047,7 @@
       <c r="F217" s="67"/>
       <c r="G217" s="69"/>
     </row>
-    <row r="218" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="78"/>
       <c r="C218" s="66" t="s">
         <v>241</v>
@@ -9006,7 +9061,7 @@
       <c r="F218" s="67"/>
       <c r="G218" s="69"/>
     </row>
-    <row r="219" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="78"/>
       <c r="C219" s="66" t="s">
         <v>242</v>
@@ -9020,7 +9075,7 @@
       <c r="F219" s="67"/>
       <c r="G219" s="69"/>
     </row>
-    <row r="220" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="58" t="s">
         <v>243</v>
       </c>
@@ -9040,7 +9095,7 @@
       </c>
       <c r="G220" s="61"/>
     </row>
-    <row r="221" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="78"/>
       <c r="C221" s="84" t="s">
         <v>118</v>
@@ -9050,7 +9105,7 @@
       <c r="F221" s="67"/>
       <c r="G221" s="69"/>
     </row>
-    <row r="222" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="78"/>
       <c r="C222" s="66" t="s">
         <v>245</v>
@@ -9064,7 +9119,7 @@
       <c r="F222" s="67"/>
       <c r="G222" s="69"/>
     </row>
-    <row r="223" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="78"/>
       <c r="C223" s="66" t="s">
         <v>246</v>
@@ -9078,7 +9133,7 @@
       <c r="F223" s="67"/>
       <c r="G223" s="69"/>
     </row>
-    <row r="224" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="78"/>
       <c r="C224" s="84" t="s">
         <v>121</v>
@@ -9088,7 +9143,7 @@
       <c r="F224" s="67"/>
       <c r="G224" s="69"/>
     </row>
-    <row r="225" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="78"/>
       <c r="C225" s="66" t="s">
         <v>247</v>
@@ -9102,7 +9157,7 @@
       <c r="F225" s="67"/>
       <c r="G225" s="69"/>
     </row>
-    <row r="226" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="78"/>
       <c r="C226" s="66" t="s">
         <v>248</v>
@@ -9116,7 +9171,7 @@
       <c r="F226" s="67"/>
       <c r="G226" s="69"/>
     </row>
-    <row r="227" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="78"/>
       <c r="C227" s="84" t="s">
         <v>124</v>
@@ -9126,7 +9181,7 @@
       <c r="F227" s="67"/>
       <c r="G227" s="69"/>
     </row>
-    <row r="228" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="78"/>
       <c r="C228" s="66" t="s">
         <v>249</v>
@@ -9140,7 +9195,7 @@
       <c r="F228" s="67"/>
       <c r="G228" s="69"/>
     </row>
-    <row r="229" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="78"/>
       <c r="C229" s="66" t="s">
         <v>250</v>
@@ -9154,7 +9209,7 @@
       <c r="F229" s="67"/>
       <c r="G229" s="69"/>
     </row>
-    <row r="230" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="78"/>
       <c r="C230" s="84" t="s">
         <v>127</v>
@@ -9164,7 +9219,7 @@
       <c r="F230" s="67"/>
       <c r="G230" s="69"/>
     </row>
-    <row r="231" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="78"/>
       <c r="C231" s="66" t="s">
         <v>251</v>
@@ -9178,7 +9233,7 @@
       <c r="F231" s="67"/>
       <c r="G231" s="69"/>
     </row>
-    <row r="232" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="78"/>
       <c r="C232" s="66" t="s">
         <v>252</v>
@@ -9192,7 +9247,7 @@
       <c r="F232" s="67"/>
       <c r="G232" s="69"/>
     </row>
-    <row r="233" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="78"/>
       <c r="C233" s="84" t="s">
         <v>130</v>
@@ -9202,7 +9257,7 @@
       <c r="F233" s="67"/>
       <c r="G233" s="69"/>
     </row>
-    <row r="234" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="78"/>
       <c r="C234" s="66" t="s">
         <v>253</v>
@@ -9216,7 +9271,7 @@
       <c r="F234" s="67"/>
       <c r="G234" s="69"/>
     </row>
-    <row r="235" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="78"/>
       <c r="C235" s="66" t="s">
         <v>254</v>
@@ -9230,7 +9285,7 @@
       <c r="F235" s="67"/>
       <c r="G235" s="69"/>
     </row>
-    <row r="236" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="78"/>
       <c r="C236" s="84" t="s">
         <v>151</v>
@@ -9240,7 +9295,7 @@
       <c r="F236" s="67"/>
       <c r="G236" s="69"/>
     </row>
-    <row r="237" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="78"/>
       <c r="C237" s="66" t="s">
         <v>255</v>
@@ -9254,7 +9309,7 @@
       <c r="F237" s="67"/>
       <c r="G237" s="69"/>
     </row>
-    <row r="238" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="78"/>
       <c r="C238" s="66" t="s">
         <v>256</v>
@@ -9268,7 +9323,7 @@
       <c r="F238" s="67"/>
       <c r="G238" s="69"/>
     </row>
-    <row r="239" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="29" t="s">
         <v>257</v>
       </c>
@@ -9280,7 +9335,7 @@
       <c r="F239" s="33"/>
       <c r="G239" s="34"/>
     </row>
-    <row r="240" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="58" t="s">
         <v>259</v>
       </c>
@@ -9297,7 +9352,7 @@
       <c r="F240" s="61"/>
       <c r="G240" s="61"/>
     </row>
-    <row r="241" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="78"/>
       <c r="C241" s="66" t="s">
         <v>262</v>
@@ -9311,7 +9366,7 @@
       <c r="F241" s="67"/>
       <c r="G241" s="69"/>
     </row>
-    <row r="242" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="78"/>
       <c r="C242" s="66" t="s">
         <v>263</v>
@@ -9325,7 +9380,7 @@
       <c r="F242" s="67"/>
       <c r="G242" s="69"/>
     </row>
-    <row r="243" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="58" t="s">
         <v>264</v>
       </c>
@@ -9345,7 +9400,7 @@
       </c>
       <c r="G243" s="61"/>
     </row>
-    <row r="244" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="78"/>
       <c r="C244" s="84" t="s">
         <v>266</v>
@@ -9355,7 +9410,7 @@
       <c r="F244" s="67"/>
       <c r="G244" s="69"/>
     </row>
-    <row r="245" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="78"/>
       <c r="C245" s="66" t="s">
         <v>267</v>
@@ -9369,7 +9424,7 @@
       <c r="F245" s="67"/>
       <c r="G245" s="69"/>
     </row>
-    <row r="246" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="78"/>
       <c r="C246" s="66" t="s">
         <v>268</v>
@@ -9383,7 +9438,7 @@
       <c r="F246" s="67"/>
       <c r="G246" s="69"/>
     </row>
-    <row r="247" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="78"/>
       <c r="C247" s="84" t="s">
         <v>121</v>
@@ -9393,7 +9448,7 @@
       <c r="F247" s="67"/>
       <c r="G247" s="69"/>
     </row>
-    <row r="248" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="78"/>
       <c r="C248" s="66" t="s">
         <v>269</v>
@@ -9407,7 +9462,7 @@
       <c r="F248" s="67"/>
       <c r="G248" s="69"/>
     </row>
-    <row r="249" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="78"/>
       <c r="C249" s="66" t="s">
         <v>270</v>
@@ -9421,7 +9476,7 @@
       <c r="F249" s="67"/>
       <c r="G249" s="69"/>
     </row>
-    <row r="250" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="78"/>
       <c r="C250" s="84" t="s">
         <v>124</v>
@@ -9431,7 +9486,7 @@
       <c r="F250" s="67"/>
       <c r="G250" s="69"/>
     </row>
-    <row r="251" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="78"/>
       <c r="C251" s="66" t="s">
         <v>271</v>
@@ -9445,7 +9500,7 @@
       <c r="F251" s="67"/>
       <c r="G251" s="69"/>
     </row>
-    <row r="252" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="78"/>
       <c r="C252" s="66" t="s">
         <v>272</v>
@@ -9459,7 +9514,7 @@
       <c r="F252" s="67"/>
       <c r="G252" s="69"/>
     </row>
-    <row r="253" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="78"/>
       <c r="C253" s="84" t="s">
         <v>127</v>
@@ -9469,7 +9524,7 @@
       <c r="F253" s="67"/>
       <c r="G253" s="69"/>
     </row>
-    <row r="254" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="78"/>
       <c r="C254" s="66" t="s">
         <v>273</v>
@@ -9483,7 +9538,7 @@
       <c r="F254" s="67"/>
       <c r="G254" s="69"/>
     </row>
-    <row r="255" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="78"/>
       <c r="C255" s="66" t="s">
         <v>274</v>
@@ -9497,7 +9552,7 @@
       <c r="F255" s="67"/>
       <c r="G255" s="69"/>
     </row>
-    <row r="256" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="78"/>
       <c r="C256" s="84" t="s">
         <v>130</v>
@@ -9507,7 +9562,7 @@
       <c r="F256" s="67"/>
       <c r="G256" s="69"/>
     </row>
-    <row r="257" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="78"/>
       <c r="C257" s="66" t="s">
         <v>275</v>
@@ -9521,7 +9576,7 @@
       <c r="F257" s="67"/>
       <c r="G257" s="69"/>
     </row>
-    <row r="258" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="78"/>
       <c r="C258" s="66" t="s">
         <v>276</v>
@@ -9535,7 +9590,7 @@
       <c r="F258" s="67"/>
       <c r="G258" s="69"/>
     </row>
-    <row r="259" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="78"/>
       <c r="C259" s="84" t="s">
         <v>151</v>
@@ -9545,7 +9600,7 @@
       <c r="F259" s="67"/>
       <c r="G259" s="69"/>
     </row>
-    <row r="260" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="78"/>
       <c r="C260" s="66" t="s">
         <v>277</v>
@@ -9559,7 +9614,7 @@
       <c r="F260" s="67"/>
       <c r="G260" s="69"/>
     </row>
-    <row r="261" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="78"/>
       <c r="C261" s="66" t="s">
         <v>278</v>
@@ -9573,7 +9628,7 @@
       <c r="F261" s="67"/>
       <c r="G261" s="69"/>
     </row>
-    <row r="262" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="58" t="s">
         <v>279</v>
       </c>
@@ -9593,7 +9648,7 @@
       </c>
       <c r="G262" s="61"/>
     </row>
-    <row r="263" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="78"/>
       <c r="C263" s="84" t="s">
         <v>118</v>
@@ -9603,7 +9658,7 @@
       <c r="F263" s="67"/>
       <c r="G263" s="69"/>
     </row>
-    <row r="264" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="78"/>
       <c r="C264" s="66" t="s">
         <v>281</v>
@@ -9617,7 +9672,7 @@
       <c r="F264" s="67"/>
       <c r="G264" s="69"/>
     </row>
-    <row r="265" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="78"/>
       <c r="C265" s="66" t="s">
         <v>282</v>
@@ -9631,7 +9686,7 @@
       <c r="F265" s="67"/>
       <c r="G265" s="69"/>
     </row>
-    <row r="266" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="78"/>
       <c r="C266" s="84" t="s">
         <v>121</v>
@@ -9641,7 +9696,7 @@
       <c r="F266" s="67"/>
       <c r="G266" s="69"/>
     </row>
-    <row r="267" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="78"/>
       <c r="C267" s="66" t="s">
         <v>283</v>
@@ -9655,7 +9710,7 @@
       <c r="F267" s="67"/>
       <c r="G267" s="69"/>
     </row>
-    <row r="268" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="78"/>
       <c r="C268" s="66" t="s">
         <v>284</v>
@@ -9669,7 +9724,7 @@
       <c r="F268" s="67"/>
       <c r="G268" s="69"/>
     </row>
-    <row r="269" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="78"/>
       <c r="C269" s="84" t="s">
         <v>124</v>
@@ -9679,7 +9734,7 @@
       <c r="F269" s="67"/>
       <c r="G269" s="69"/>
     </row>
-    <row r="270" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="78"/>
       <c r="C270" s="66" t="s">
         <v>285</v>
@@ -9693,7 +9748,7 @@
       <c r="F270" s="67"/>
       <c r="G270" s="69"/>
     </row>
-    <row r="271" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="78"/>
       <c r="C271" s="66" t="s">
         <v>286</v>
@@ -9707,7 +9762,7 @@
       <c r="F271" s="67"/>
       <c r="G271" s="69"/>
     </row>
-    <row r="272" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="78"/>
       <c r="C272" s="84" t="s">
         <v>127</v>
@@ -9717,7 +9772,7 @@
       <c r="F272" s="67"/>
       <c r="G272" s="69"/>
     </row>
-    <row r="273" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="78"/>
       <c r="C273" s="66" t="s">
         <v>287</v>
@@ -9731,7 +9786,7 @@
       <c r="F273" s="67"/>
       <c r="G273" s="69"/>
     </row>
-    <row r="274" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="78"/>
       <c r="C274" s="66" t="s">
         <v>288</v>
@@ -9745,7 +9800,7 @@
       <c r="F274" s="67"/>
       <c r="G274" s="69"/>
     </row>
-    <row r="275" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="78"/>
       <c r="C275" s="84" t="s">
         <v>130</v>
@@ -9755,7 +9810,7 @@
       <c r="F275" s="67"/>
       <c r="G275" s="69"/>
     </row>
-    <row r="276" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="78"/>
       <c r="C276" s="66" t="s">
         <v>289</v>
@@ -9769,7 +9824,7 @@
       <c r="F276" s="67"/>
       <c r="G276" s="69"/>
     </row>
-    <row r="277" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="78"/>
       <c r="C277" s="66" t="s">
         <v>290</v>
@@ -9783,7 +9838,7 @@
       <c r="F277" s="67"/>
       <c r="G277" s="69"/>
     </row>
-    <row r="278" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="78"/>
       <c r="C278" s="84" t="s">
         <v>151</v>
@@ -9793,7 +9848,7 @@
       <c r="F278" s="67"/>
       <c r="G278" s="69"/>
     </row>
-    <row r="279" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="78"/>
       <c r="C279" s="66" t="s">
         <v>291</v>
@@ -9807,7 +9862,7 @@
       <c r="F279" s="67"/>
       <c r="G279" s="69"/>
     </row>
-    <row r="280" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="78"/>
       <c r="C280" s="66" t="s">
         <v>292</v>
@@ -9821,7 +9876,7 @@
       <c r="F280" s="67"/>
       <c r="G280" s="69"/>
     </row>
-    <row r="281" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="58" t="s">
         <v>293</v>
       </c>
@@ -9841,7 +9896,7 @@
       </c>
       <c r="G281" s="61"/>
     </row>
-    <row r="282" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="78"/>
       <c r="C282" s="84" t="s">
         <v>118</v>
@@ -9851,7 +9906,7 @@
       <c r="F282" s="67"/>
       <c r="G282" s="69"/>
     </row>
-    <row r="283" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="78"/>
       <c r="C283" s="66" t="s">
         <v>295</v>
@@ -9865,7 +9920,7 @@
       <c r="F283" s="67"/>
       <c r="G283" s="69"/>
     </row>
-    <row r="284" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="78"/>
       <c r="C284" s="66" t="s">
         <v>296</v>
@@ -9879,7 +9934,7 @@
       <c r="F284" s="67"/>
       <c r="G284" s="69"/>
     </row>
-    <row r="285" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="78"/>
       <c r="C285" s="84" t="s">
         <v>121</v>
@@ -9889,7 +9944,7 @@
       <c r="F285" s="67"/>
       <c r="G285" s="69"/>
     </row>
-    <row r="286" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="78"/>
       <c r="C286" s="66" t="s">
         <v>297</v>
@@ -9903,7 +9958,7 @@
       <c r="F286" s="67"/>
       <c r="G286" s="69"/>
     </row>
-    <row r="287" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="78"/>
       <c r="C287" s="66" t="s">
         <v>298</v>
@@ -9917,7 +9972,7 @@
       <c r="F287" s="67"/>
       <c r="G287" s="69"/>
     </row>
-    <row r="288" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="78"/>
       <c r="C288" s="84" t="s">
         <v>124</v>
@@ -9927,7 +9982,7 @@
       <c r="F288" s="67"/>
       <c r="G288" s="69"/>
     </row>
-    <row r="289" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="78"/>
       <c r="C289" s="66" t="s">
         <v>299</v>
@@ -9941,7 +9996,7 @@
       <c r="F289" s="67"/>
       <c r="G289" s="69"/>
     </row>
-    <row r="290" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="78"/>
       <c r="C290" s="66" t="s">
         <v>300</v>
@@ -9955,7 +10010,7 @@
       <c r="F290" s="67"/>
       <c r="G290" s="69"/>
     </row>
-    <row r="291" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="78"/>
       <c r="C291" s="84" t="s">
         <v>127</v>
@@ -9965,7 +10020,7 @@
       <c r="F291" s="67"/>
       <c r="G291" s="69"/>
     </row>
-    <row r="292" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="78"/>
       <c r="C292" s="66" t="s">
         <v>301</v>
@@ -9979,7 +10034,7 @@
       <c r="F292" s="67"/>
       <c r="G292" s="69"/>
     </row>
-    <row r="293" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="78"/>
       <c r="C293" s="66" t="s">
         <v>302</v>
@@ -9993,7 +10048,7 @@
       <c r="F293" s="67"/>
       <c r="G293" s="69"/>
     </row>
-    <row r="294" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="78"/>
       <c r="C294" s="84" t="s">
         <v>130</v>
@@ -10003,7 +10058,7 @@
       <c r="F294" s="67"/>
       <c r="G294" s="69"/>
     </row>
-    <row r="295" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="78"/>
       <c r="C295" s="66" t="s">
         <v>303</v>
@@ -10017,7 +10072,7 @@
       <c r="F295" s="67"/>
       <c r="G295" s="69"/>
     </row>
-    <row r="296" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="78"/>
       <c r="C296" s="66" t="s">
         <v>304</v>
@@ -10031,7 +10086,7 @@
       <c r="F296" s="67"/>
       <c r="G296" s="69"/>
     </row>
-    <row r="297" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="78"/>
       <c r="C297" s="84" t="s">
         <v>151</v>
@@ -10041,7 +10096,7 @@
       <c r="F297" s="67"/>
       <c r="G297" s="69"/>
     </row>
-    <row r="298" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="78"/>
       <c r="C298" s="66" t="s">
         <v>305</v>
@@ -10055,7 +10110,7 @@
       <c r="F298" s="67"/>
       <c r="G298" s="69"/>
     </row>
-    <row r="299" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="78"/>
       <c r="C299" s="66" t="s">
         <v>306</v>
@@ -10069,7 +10124,7 @@
       <c r="F299" s="67"/>
       <c r="G299" s="69"/>
     </row>
-    <row r="300" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="58" t="s">
         <v>307</v>
       </c>
@@ -10089,7 +10144,7 @@
       </c>
       <c r="G300" s="61"/>
     </row>
-    <row r="301" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="78"/>
       <c r="C301" s="84" t="s">
         <v>118</v>
@@ -10099,7 +10154,7 @@
       <c r="F301" s="67"/>
       <c r="G301" s="69"/>
     </row>
-    <row r="302" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="78"/>
       <c r="C302" s="66" t="s">
         <v>309</v>
@@ -10113,7 +10168,7 @@
       <c r="F302" s="67"/>
       <c r="G302" s="69"/>
     </row>
-    <row r="303" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="78"/>
       <c r="C303" s="66" t="s">
         <v>310</v>
@@ -10127,7 +10182,7 @@
       <c r="F303" s="67"/>
       <c r="G303" s="69"/>
     </row>
-    <row r="304" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="78"/>
       <c r="C304" s="84" t="s">
         <v>121</v>
@@ -10137,7 +10192,7 @@
       <c r="F304" s="67"/>
       <c r="G304" s="69"/>
     </row>
-    <row r="305" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="78"/>
       <c r="C305" s="66" t="s">
         <v>311</v>
@@ -10151,7 +10206,7 @@
       <c r="F305" s="67"/>
       <c r="G305" s="69"/>
     </row>
-    <row r="306" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="78"/>
       <c r="C306" s="66" t="s">
         <v>311</v>
@@ -10165,7 +10220,7 @@
       <c r="F306" s="67"/>
       <c r="G306" s="69"/>
     </row>
-    <row r="307" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="78"/>
       <c r="C307" s="84" t="s">
         <v>124</v>
@@ -10175,7 +10230,7 @@
       <c r="F307" s="67"/>
       <c r="G307" s="69"/>
     </row>
-    <row r="308" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="78"/>
       <c r="C308" s="66" t="s">
         <v>312</v>
@@ -10189,7 +10244,7 @@
       <c r="F308" s="67"/>
       <c r="G308" s="69"/>
     </row>
-    <row r="309" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="78"/>
       <c r="C309" s="66" t="s">
         <v>312</v>
@@ -10203,7 +10258,7 @@
       <c r="F309" s="67"/>
       <c r="G309" s="69"/>
     </row>
-    <row r="310" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="78"/>
       <c r="C310" s="84" t="s">
         <v>127</v>
@@ -10213,7 +10268,7 @@
       <c r="F310" s="67"/>
       <c r="G310" s="69"/>
     </row>
-    <row r="311" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="78"/>
       <c r="C311" s="66" t="s">
         <v>313</v>
@@ -10227,7 +10282,7 @@
       <c r="F311" s="67"/>
       <c r="G311" s="69"/>
     </row>
-    <row r="312" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="78"/>
       <c r="C312" s="66" t="s">
         <v>313</v>
@@ -10241,7 +10296,7 @@
       <c r="F312" s="67"/>
       <c r="G312" s="69"/>
     </row>
-    <row r="313" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="78"/>
       <c r="C313" s="84" t="s">
         <v>130</v>
@@ -10251,7 +10306,7 @@
       <c r="F313" s="67"/>
       <c r="G313" s="69"/>
     </row>
-    <row r="314" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="78"/>
       <c r="C314" s="66" t="s">
         <v>314</v>
@@ -10265,7 +10320,7 @@
       <c r="F314" s="67"/>
       <c r="G314" s="69"/>
     </row>
-    <row r="315" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="78"/>
       <c r="C315" s="66" t="s">
         <v>314</v>
@@ -10279,7 +10334,7 @@
       <c r="F315" s="67"/>
       <c r="G315" s="69"/>
     </row>
-    <row r="316" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="78"/>
       <c r="C316" s="84" t="s">
         <v>151</v>
@@ -10289,7 +10344,7 @@
       <c r="F316" s="67"/>
       <c r="G316" s="69"/>
     </row>
-    <row r="317" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="78"/>
       <c r="C317" s="66" t="s">
         <v>315</v>
@@ -10303,7 +10358,7 @@
       <c r="F317" s="67"/>
       <c r="G317" s="69"/>
     </row>
-    <row r="318" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="78"/>
       <c r="C318" s="66" t="s">
         <v>315</v>
@@ -10317,7 +10372,7 @@
       <c r="F318" s="67"/>
       <c r="G318" s="69"/>
     </row>
-    <row r="319" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="58" t="s">
         <v>316</v>
       </c>
@@ -10333,7 +10388,7 @@
       <c r="F319" s="61"/>
       <c r="G319" s="61"/>
     </row>
-    <row r="320" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="78"/>
       <c r="C320" s="66" t="s">
         <v>318</v>
@@ -10348,7 +10403,7 @@
       <c r="F320" s="67"/>
       <c r="G320" s="69"/>
     </row>
-    <row r="321" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="78"/>
       <c r="C321" s="66" t="s">
         <v>319</v>
@@ -10363,7 +10418,7 @@
       <c r="F321" s="67"/>
       <c r="G321" s="69"/>
     </row>
-    <row r="322" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="94" t="s">
         <v>320</v>
       </c>
@@ -10375,7 +10430,7 @@
       <c r="F322" s="55"/>
       <c r="G322" s="57"/>
     </row>
-    <row r="323" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="58" t="s">
         <v>322</v>
       </c>
@@ -10390,11 +10445,11 @@
       </c>
       <c r="F323" s="61"/>
       <c r="G323" s="61"/>
-      <c r="I323" s="223" t="s">
+      <c r="I323" s="229" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="324" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="58" t="s">
         <v>325</v>
       </c>
@@ -10409,9 +10464,9 @@
       </c>
       <c r="F324" s="61"/>
       <c r="G324" s="61"/>
-      <c r="I324" s="223"/>
-    </row>
-    <row r="325" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I324" s="229"/>
+    </row>
+    <row r="325" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="58" t="s">
         <v>327</v>
       </c>
@@ -10426,9 +10481,9 @@
       </c>
       <c r="F325" s="61"/>
       <c r="G325" s="61"/>
-      <c r="I325" s="223"/>
-    </row>
-    <row r="326" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I325" s="229"/>
+    </row>
+    <row r="326" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="58" t="s">
         <v>329</v>
       </c>
@@ -10443,9 +10498,9 @@
       </c>
       <c r="F326" s="61"/>
       <c r="G326" s="61"/>
-      <c r="I326" s="223"/>
-    </row>
-    <row r="327" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I326" s="229"/>
+    </row>
+    <row r="327" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="94" t="s">
         <v>331</v>
       </c>
@@ -10473,7 +10528,7 @@
       <c r="F328" s="61"/>
       <c r="G328" s="61"/>
     </row>
-    <row r="329" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="78"/>
       <c r="C329" s="66" t="s">
         <v>335</v>
@@ -10487,7 +10542,7 @@
       <c r="F329" s="67"/>
       <c r="G329" s="69"/>
     </row>
-    <row r="330" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="78"/>
       <c r="C330" s="66" t="s">
         <v>336</v>
@@ -10518,7 +10573,7 @@
       <c r="F331" s="61"/>
       <c r="G331" s="61"/>
     </row>
-    <row r="332" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="78"/>
       <c r="C332" s="66" t="s">
         <v>339</v>
@@ -10532,7 +10587,7 @@
       <c r="F332" s="67"/>
       <c r="G332" s="69"/>
     </row>
-    <row r="333" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="78"/>
       <c r="C333" s="66" t="s">
         <v>340</v>
@@ -10562,7 +10617,7 @@
       <c r="F334" s="61"/>
       <c r="G334" s="61"/>
     </row>
-    <row r="335" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="78"/>
       <c r="C335" s="66" t="s">
         <v>343</v>
@@ -10576,7 +10631,7 @@
       <c r="F335" s="67"/>
       <c r="G335" s="69"/>
     </row>
-    <row r="336" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="78"/>
       <c r="C336" s="66" t="s">
         <v>344</v>
@@ -10606,7 +10661,7 @@
       <c r="F337" s="61"/>
       <c r="G337" s="61"/>
     </row>
-    <row r="338" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="78"/>
       <c r="C338" s="66" t="s">
         <v>347</v>
@@ -10620,7 +10675,7 @@
       <c r="F338" s="67"/>
       <c r="G338" s="69"/>
     </row>
-    <row r="339" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="78"/>
       <c r="C339" s="66" t="s">
         <v>348</v>
@@ -10650,7 +10705,7 @@
       <c r="F340" s="61"/>
       <c r="G340" s="61"/>
     </row>
-    <row r="341" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="94" t="s">
         <v>351</v>
       </c>
@@ -10678,7 +10733,7 @@
       <c r="F342" s="61"/>
       <c r="G342" s="61"/>
     </row>
-    <row r="343" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="78"/>
       <c r="C343" s="66" t="s">
         <v>355</v>
@@ -10692,7 +10747,7 @@
       <c r="F343" s="67"/>
       <c r="G343" s="69"/>
     </row>
-    <row r="344" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="78"/>
       <c r="C344" s="66" t="s">
         <v>356</v>
@@ -10706,7 +10761,7 @@
       <c r="F344" s="67"/>
       <c r="G344" s="69"/>
     </row>
-    <row r="345" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="78"/>
       <c r="C345" s="66" t="s">
         <v>357</v>
@@ -10720,7 +10775,7 @@
       <c r="F345" s="67"/>
       <c r="G345" s="69"/>
     </row>
-    <row r="346" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="78"/>
       <c r="C346" s="66" t="s">
         <v>358</v>
@@ -10750,7 +10805,7 @@
       <c r="F347" s="61"/>
       <c r="G347" s="61"/>
     </row>
-    <row r="348" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="78"/>
       <c r="C348" s="66" t="s">
         <v>361</v>
@@ -10778,7 +10833,7 @@
       <c r="F349" s="61"/>
       <c r="G349" s="61"/>
     </row>
-    <row r="350" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="78"/>
       <c r="C350" s="66" t="s">
         <v>364</v>
@@ -10792,7 +10847,7 @@
       <c r="F350" s="67"/>
       <c r="G350" s="69"/>
     </row>
-    <row r="351" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="78"/>
       <c r="C351" s="66" t="s">
         <v>365</v>
@@ -10822,7 +10877,7 @@
       <c r="F352" s="61"/>
       <c r="G352" s="61"/>
     </row>
-    <row r="353" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="78"/>
       <c r="C353" s="66" t="s">
         <v>367</v>
@@ -10853,7 +10908,7 @@
       <c r="F354" s="61"/>
       <c r="G354" s="61"/>
     </row>
-    <row r="355" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="78"/>
       <c r="C355" s="66" t="s">
         <v>371</v>
@@ -10867,7 +10922,7 @@
       <c r="F355" s="67"/>
       <c r="G355" s="69"/>
     </row>
-    <row r="356" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="78"/>
       <c r="C356" s="66" t="s">
         <v>372</v>
@@ -10881,7 +10936,7 @@
       <c r="F356" s="67"/>
       <c r="G356" s="69"/>
     </row>
-    <row r="357" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="78"/>
       <c r="C357" s="66" t="s">
         <v>373</v>
@@ -10895,7 +10950,7 @@
       <c r="F357" s="67"/>
       <c r="G357" s="69"/>
     </row>
-    <row r="358" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="78"/>
       <c r="C358" s="66" t="s">
         <v>374</v>
@@ -10909,7 +10964,7 @@
       <c r="F358" s="67"/>
       <c r="G358" s="69"/>
     </row>
-    <row r="359" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="94" t="s">
         <v>375</v>
       </c>
@@ -10926,7 +10981,7 @@
       <c r="F359" s="57"/>
       <c r="G359" s="57"/>
     </row>
-    <row r="360" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="58" t="s">
         <v>377</v>
       </c>
@@ -10942,7 +10997,7 @@
       <c r="F360" s="61"/>
       <c r="G360" s="61"/>
     </row>
-    <row r="361" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="94" t="s">
         <v>378</v>
       </c>
@@ -10959,7 +11014,7 @@
       <c r="F361" s="57"/>
       <c r="G361" s="57"/>
     </row>
-    <row r="362" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="58" t="s">
         <v>380</v>
       </c>
@@ -10975,7 +11030,7 @@
       <c r="F362" s="61"/>
       <c r="G362" s="61"/>
     </row>
-    <row r="363" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="94" t="s">
         <v>382</v>
       </c>
@@ -10987,7 +11042,7 @@
       <c r="F363" s="57"/>
       <c r="G363" s="57"/>
     </row>
-    <row r="364" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="58" t="s">
         <v>384</v>
       </c>
@@ -11003,7 +11058,7 @@
       <c r="F364" s="61"/>
       <c r="G364" s="61"/>
     </row>
-    <row r="365" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="58" t="s">
         <v>386</v>
       </c>
@@ -11019,7 +11074,7 @@
       <c r="F365" s="61"/>
       <c r="G365" s="61"/>
     </row>
-    <row r="366" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="58" t="s">
         <v>388</v>
       </c>
@@ -11035,7 +11090,7 @@
       <c r="F366" s="61"/>
       <c r="G366" s="61"/>
     </row>
-    <row r="367" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="94" t="s">
         <v>391</v>
       </c>
@@ -11051,7 +11106,7 @@
       <c r="F367" s="55"/>
       <c r="G367" s="57"/>
     </row>
-    <row r="368" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="100"/>
       <c r="C368" s="101" t="s">
         <v>393</v>
@@ -11061,14 +11116,14 @@
       <c r="F368" s="26"/>
       <c r="G368" s="28"/>
     </row>
-    <row r="369" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C369" s="102"/>
       <c r="D369" s="52"/>
       <c r="E369" s="103"/>
       <c r="F369" s="52"/>
       <c r="G369" s="53"/>
     </row>
-    <row r="370" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="24" t="s">
         <v>394</v>
       </c>
@@ -11079,11 +11134,11 @@
       <c r="E370" s="27"/>
       <c r="F370" s="26"/>
       <c r="G370" s="28"/>
-      <c r="I370" s="223" t="s">
+      <c r="I370" s="229" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="371" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="94" t="s">
         <v>397</v>
       </c>
@@ -11096,9 +11151,9 @@
       <c r="E371" s="96"/>
       <c r="F371" s="55"/>
       <c r="G371" s="57"/>
-      <c r="I371" s="223"/>
-    </row>
-    <row r="372" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I371" s="229"/>
+    </row>
+    <row r="372" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="58" t="s">
         <v>399</v>
       </c>
@@ -11114,9 +11169,9 @@
       </c>
       <c r="F372" s="61"/>
       <c r="G372" s="61"/>
-      <c r="I372" s="223"/>
-    </row>
-    <row r="373" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I372" s="229"/>
+    </row>
+    <row r="373" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="78"/>
       <c r="C373" s="66" t="s">
         <v>401</v>
@@ -11129,9 +11184,9 @@
       </c>
       <c r="F373" s="67"/>
       <c r="G373" s="69"/>
-      <c r="I373" s="223"/>
-    </row>
-    <row r="374" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I373" s="229"/>
+    </row>
+    <row r="374" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="78"/>
       <c r="C374" s="66" t="s">
         <v>402</v>
@@ -11144,9 +11199,9 @@
       </c>
       <c r="F374" s="67"/>
       <c r="G374" s="69"/>
-      <c r="I374" s="223"/>
-    </row>
-    <row r="375" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I374" s="229"/>
+    </row>
+    <row r="375" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="78"/>
       <c r="C375" s="66" t="s">
         <v>403</v>
@@ -11159,9 +11214,9 @@
       </c>
       <c r="F375" s="67"/>
       <c r="G375" s="69"/>
-      <c r="I375" s="223"/>
-    </row>
-    <row r="376" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I375" s="229"/>
+    </row>
+    <row r="376" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="78"/>
       <c r="C376" s="66" t="s">
         <v>404</v>
@@ -11174,9 +11229,9 @@
       </c>
       <c r="F376" s="67"/>
       <c r="G376" s="69"/>
-      <c r="I376" s="223"/>
-    </row>
-    <row r="377" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I376" s="229"/>
+    </row>
+    <row r="377" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="78"/>
       <c r="C377" s="66" t="s">
         <v>405</v>
@@ -11190,7 +11245,7 @@
       <c r="F377" s="67"/>
       <c r="G377" s="69"/>
     </row>
-    <row r="378" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="78"/>
       <c r="C378" s="66" t="s">
         <v>406</v>
@@ -11204,7 +11259,7 @@
       <c r="F378" s="67"/>
       <c r="G378" s="69"/>
     </row>
-    <row r="379" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="78"/>
       <c r="C379" s="66" t="s">
         <v>407</v>
@@ -11218,7 +11273,7 @@
       <c r="F379" s="67"/>
       <c r="G379" s="69"/>
     </row>
-    <row r="380" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="78"/>
       <c r="C380" s="66" t="s">
         <v>408</v>
@@ -11232,7 +11287,7 @@
       <c r="F380" s="67"/>
       <c r="G380" s="69"/>
     </row>
-    <row r="381" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="78"/>
       <c r="C381" s="66" t="s">
         <v>409</v>
@@ -11246,7 +11301,7 @@
       <c r="F381" s="67"/>
       <c r="G381" s="69"/>
     </row>
-    <row r="382" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="58" t="s">
         <v>410</v>
       </c>
@@ -11263,7 +11318,7 @@
       <c r="F382" s="61"/>
       <c r="G382" s="61"/>
     </row>
-    <row r="383" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="78"/>
       <c r="C383" s="66" t="s">
         <v>412</v>
@@ -11277,7 +11332,7 @@
       <c r="F383" s="67"/>
       <c r="G383" s="69"/>
     </row>
-    <row r="384" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="78"/>
       <c r="C384" s="66" t="s">
         <v>413</v>
@@ -11291,7 +11346,7 @@
       <c r="F384" s="67"/>
       <c r="G384" s="69"/>
     </row>
-    <row r="385" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="78"/>
       <c r="C385" s="66" t="s">
         <v>414</v>
@@ -11305,7 +11360,7 @@
       <c r="F385" s="67"/>
       <c r="G385" s="69"/>
     </row>
-    <row r="386" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="78"/>
       <c r="C386" s="66" t="s">
         <v>415</v>
@@ -11319,7 +11374,7 @@
       <c r="F386" s="67"/>
       <c r="G386" s="69"/>
     </row>
-    <row r="387" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="78"/>
       <c r="C387" s="66" t="s">
         <v>416</v>
@@ -11333,7 +11388,7 @@
       <c r="F387" s="67"/>
       <c r="G387" s="69"/>
     </row>
-    <row r="388" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="58" t="s">
         <v>417</v>
       </c>
@@ -11350,7 +11405,7 @@
       <c r="F388" s="61"/>
       <c r="G388" s="61"/>
     </row>
-    <row r="389" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="78"/>
       <c r="C389" s="66" t="s">
         <v>419</v>
@@ -11364,7 +11419,7 @@
       <c r="F389" s="67"/>
       <c r="G389" s="69"/>
     </row>
-    <row r="390" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="78"/>
       <c r="C390" s="66" t="s">
         <v>420</v>
@@ -11378,7 +11433,7 @@
       <c r="F390" s="67"/>
       <c r="G390" s="69"/>
     </row>
-    <row r="391" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="78"/>
       <c r="C391" s="66" t="s">
         <v>421</v>
@@ -11392,7 +11447,7 @@
       <c r="F391" s="67"/>
       <c r="G391" s="69"/>
     </row>
-    <row r="392" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="78"/>
       <c r="C392" s="66" t="s">
         <v>422</v>
@@ -11406,7 +11461,7 @@
       <c r="F392" s="67"/>
       <c r="G392" s="69"/>
     </row>
-    <row r="393" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="78"/>
       <c r="C393" s="66" t="s">
         <v>423</v>
@@ -11420,7 +11475,7 @@
       <c r="F393" s="67"/>
       <c r="G393" s="69"/>
     </row>
-    <row r="394" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="58" t="s">
         <v>424</v>
       </c>
@@ -11437,7 +11492,7 @@
       <c r="F394" s="61"/>
       <c r="G394" s="61"/>
     </row>
-    <row r="395" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="78"/>
       <c r="C395" s="66" t="s">
         <v>426</v>
@@ -11451,7 +11506,7 @@
       <c r="F395" s="67"/>
       <c r="G395" s="69"/>
     </row>
-    <row r="396" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="58" t="s">
         <v>427</v>
       </c>
@@ -11468,7 +11523,7 @@
       <c r="F396" s="61"/>
       <c r="G396" s="61"/>
     </row>
-    <row r="397" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="78"/>
       <c r="C397" s="66" t="s">
         <v>429</v>
@@ -11482,7 +11537,7 @@
       <c r="F397" s="67"/>
       <c r="G397" s="69"/>
     </row>
-    <row r="398" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="78"/>
       <c r="C398" s="66" t="s">
         <v>430</v>
@@ -11496,7 +11551,7 @@
       <c r="F398" s="67"/>
       <c r="G398" s="69"/>
     </row>
-    <row r="399" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="78"/>
       <c r="C399" s="66" t="s">
         <v>431</v>
@@ -11510,7 +11565,7 @@
       <c r="F399" s="67"/>
       <c r="G399" s="69"/>
     </row>
-    <row r="400" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="78"/>
       <c r="C400" s="66" t="s">
         <v>432</v>
@@ -11524,7 +11579,7 @@
       <c r="F400" s="67"/>
       <c r="G400" s="69"/>
     </row>
-    <row r="401" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" s="78"/>
       <c r="C401" s="66" t="s">
         <v>433</v>
@@ -11538,7 +11593,7 @@
       <c r="F401" s="67"/>
       <c r="G401" s="69"/>
     </row>
-    <row r="402" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="78"/>
       <c r="C402" s="66" t="s">
         <v>434</v>
@@ -11552,7 +11607,7 @@
       <c r="F402" s="67"/>
       <c r="G402" s="69"/>
     </row>
-    <row r="403" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" s="78"/>
       <c r="C403" s="66" t="s">
         <v>435</v>
@@ -11566,7 +11621,7 @@
       <c r="F403" s="67"/>
       <c r="G403" s="69"/>
     </row>
-    <row r="404" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" s="78"/>
       <c r="C404" s="66" t="s">
         <v>436</v>
@@ -11580,7 +11635,7 @@
       <c r="F404" s="67"/>
       <c r="G404" s="69"/>
     </row>
-    <row r="405" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" s="78"/>
       <c r="C405" s="66" t="s">
         <v>437</v>
@@ -11594,7 +11649,7 @@
       <c r="F405" s="67"/>
       <c r="G405" s="69"/>
     </row>
-    <row r="406" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" s="58" t="s">
         <v>438</v>
       </c>
@@ -11611,7 +11666,7 @@
       <c r="F406" s="61"/>
       <c r="G406" s="61"/>
     </row>
-    <row r="407" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" s="78"/>
       <c r="C407" s="66" t="s">
         <v>440</v>
@@ -11625,7 +11680,7 @@
       <c r="F407" s="67"/>
       <c r="G407" s="69"/>
     </row>
-    <row r="408" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B408" s="78"/>
       <c r="C408" s="66" t="s">
         <v>441</v>
@@ -11639,7 +11694,7 @@
       <c r="F408" s="67"/>
       <c r="G408" s="69"/>
     </row>
-    <row r="409" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B409" s="78"/>
       <c r="C409" s="66" t="s">
         <v>442</v>
@@ -11653,7 +11708,7 @@
       <c r="F409" s="67"/>
       <c r="G409" s="69"/>
     </row>
-    <row r="410" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B410" s="78"/>
       <c r="C410" s="66" t="s">
         <v>443</v>
@@ -11667,7 +11722,7 @@
       <c r="F410" s="67"/>
       <c r="G410" s="69"/>
     </row>
-    <row r="411" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B411" s="78"/>
       <c r="C411" s="66" t="s">
         <v>444</v>
@@ -11681,7 +11736,7 @@
       <c r="F411" s="67"/>
       <c r="G411" s="69"/>
     </row>
-    <row r="412" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B412" s="78"/>
       <c r="C412" s="66" t="s">
         <v>445</v>
@@ -11695,7 +11750,7 @@
       <c r="F412" s="67"/>
       <c r="G412" s="69"/>
     </row>
-    <row r="413" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B413" s="78"/>
       <c r="C413" s="66" t="s">
         <v>446</v>
@@ -11709,7 +11764,7 @@
       <c r="F413" s="67"/>
       <c r="G413" s="69"/>
     </row>
-    <row r="414" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B414" s="78"/>
       <c r="C414" s="66" t="s">
         <v>447</v>
@@ -11723,7 +11778,7 @@
       <c r="F414" s="67"/>
       <c r="G414" s="69"/>
     </row>
-    <row r="415" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B415" s="58" t="s">
         <v>448</v>
       </c>
@@ -11740,7 +11795,7 @@
       <c r="F415" s="61"/>
       <c r="G415" s="61"/>
     </row>
-    <row r="416" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B416" s="78"/>
       <c r="C416" s="66" t="s">
         <v>450</v>
@@ -11754,7 +11809,7 @@
       <c r="F416" s="67"/>
       <c r="G416" s="69"/>
     </row>
-    <row r="417" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B417" s="29" t="s">
         <v>451</v>
       </c>
@@ -11766,7 +11821,7 @@
       <c r="F417" s="33"/>
       <c r="G417" s="34"/>
     </row>
-    <row r="418" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B418" s="58" t="s">
         <v>453</v>
       </c>
@@ -11783,7 +11838,7 @@
       <c r="F418" s="61"/>
       <c r="G418" s="61"/>
     </row>
-    <row r="419" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B419" s="78"/>
       <c r="C419" s="66" t="s">
         <v>455</v>
@@ -11797,7 +11852,7 @@
       <c r="F419" s="67"/>
       <c r="G419" s="69"/>
     </row>
-    <row r="420" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B420" s="78"/>
       <c r="C420" s="66" t="s">
         <v>456</v>
@@ -11811,7 +11866,7 @@
       <c r="F420" s="67"/>
       <c r="G420" s="69"/>
     </row>
-    <row r="421" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B421" s="78"/>
       <c r="C421" s="66" t="s">
         <v>457</v>
@@ -11825,7 +11880,7 @@
       <c r="F421" s="67"/>
       <c r="G421" s="69"/>
     </row>
-    <row r="422" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B422" s="78"/>
       <c r="C422" s="66" t="s">
         <v>458</v>
@@ -11839,7 +11894,7 @@
       <c r="F422" s="67"/>
       <c r="G422" s="69"/>
     </row>
-    <row r="423" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B423" s="58" t="s">
         <v>459</v>
       </c>
@@ -11855,7 +11910,7 @@
       <c r="F423" s="61"/>
       <c r="G423" s="61"/>
     </row>
-    <row r="424" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B424" s="78"/>
       <c r="C424" s="80" t="s">
         <v>461</v>
@@ -11869,7 +11924,7 @@
       <c r="F424" s="67"/>
       <c r="G424" s="69"/>
     </row>
-    <row r="425" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B425" s="29" t="s">
         <v>462</v>
       </c>
@@ -11881,7 +11936,7 @@
       <c r="F425" s="33"/>
       <c r="G425" s="34"/>
     </row>
-    <row r="426" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B426" s="58" t="s">
         <v>464</v>
       </c>
@@ -11898,7 +11953,7 @@
       <c r="F426" s="61"/>
       <c r="G426" s="61"/>
     </row>
-    <row r="427" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B427" s="78"/>
       <c r="C427" s="66" t="s">
         <v>466</v>
@@ -11912,7 +11967,7 @@
       <c r="F427" s="67"/>
       <c r="G427" s="69"/>
     </row>
-    <row r="428" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B428" s="78"/>
       <c r="C428" s="66" t="s">
         <v>467</v>
@@ -11926,7 +11981,7 @@
       <c r="F428" s="67"/>
       <c r="G428" s="69"/>
     </row>
-    <row r="429" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B429" s="78"/>
       <c r="C429" s="66" t="s">
         <v>468</v>
@@ -11940,7 +11995,7 @@
       <c r="F429" s="67"/>
       <c r="G429" s="69"/>
     </row>
-    <row r="430" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B430" s="78"/>
       <c r="C430" s="66" t="s">
         <v>469</v>
@@ -11954,7 +12009,7 @@
       <c r="F430" s="67"/>
       <c r="G430" s="69"/>
     </row>
-    <row r="431" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B431" s="78"/>
       <c r="C431" s="66" t="s">
         <v>470</v>
@@ -11968,7 +12023,7 @@
       <c r="F431" s="67"/>
       <c r="G431" s="69"/>
     </row>
-    <row r="432" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B432" s="78"/>
       <c r="C432" s="66" t="s">
         <v>471</v>
@@ -11982,7 +12037,7 @@
       <c r="F432" s="67"/>
       <c r="G432" s="69"/>
     </row>
-    <row r="433" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B433" s="78"/>
       <c r="C433" s="66" t="s">
         <v>472</v>
@@ -11996,7 +12051,7 @@
       <c r="F433" s="67"/>
       <c r="G433" s="69"/>
     </row>
-    <row r="434" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B434" s="78"/>
       <c r="C434" s="66" t="s">
         <v>473</v>
@@ -12010,7 +12065,7 @@
       <c r="F434" s="67"/>
       <c r="G434" s="69"/>
     </row>
-    <row r="435" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B435" s="58" t="s">
         <v>474</v>
       </c>
@@ -12026,7 +12081,7 @@
       <c r="F435" s="61"/>
       <c r="G435" s="61"/>
     </row>
-    <row r="436" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B436" s="78"/>
       <c r="C436" s="66" t="s">
         <v>476</v>
@@ -12036,7 +12091,7 @@
       <c r="F436" s="67"/>
       <c r="G436" s="69"/>
     </row>
-    <row r="437" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B437" s="78"/>
       <c r="C437" s="66" t="s">
         <v>477</v>
@@ -12046,7 +12101,7 @@
       <c r="F437" s="67"/>
       <c r="G437" s="69"/>
     </row>
-    <row r="438" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B438" s="78"/>
       <c r="C438" s="66" t="s">
         <v>478</v>
@@ -12056,7 +12111,7 @@
       <c r="F438" s="67"/>
       <c r="G438" s="69"/>
     </row>
-    <row r="439" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B439" s="58" t="s">
         <v>479</v>
       </c>
@@ -12073,7 +12128,7 @@
       <c r="F439" s="61"/>
       <c r="G439" s="61"/>
     </row>
-    <row r="440" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B440" s="78"/>
       <c r="C440" s="66" t="s">
         <v>481</v>
@@ -12087,7 +12142,7 @@
       <c r="F440" s="67"/>
       <c r="G440" s="69"/>
     </row>
-    <row r="441" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B441" s="78"/>
       <c r="C441" s="66" t="s">
         <v>482</v>
@@ -12101,7 +12156,7 @@
       <c r="F441" s="67"/>
       <c r="G441" s="69"/>
     </row>
-    <row r="442" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B442" s="58" t="s">
         <v>483</v>
       </c>
@@ -12117,7 +12172,7 @@
       <c r="F442" s="61"/>
       <c r="G442" s="61"/>
     </row>
-    <row r="443" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B443" s="78"/>
       <c r="C443" s="66" t="s">
         <v>485</v>
@@ -12127,7 +12182,7 @@
       <c r="F443" s="67"/>
       <c r="G443" s="69"/>
     </row>
-    <row r="444" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B444" s="58" t="s">
         <v>486</v>
       </c>
@@ -12143,7 +12198,7 @@
       <c r="F444" s="61"/>
       <c r="G444" s="61"/>
     </row>
-    <row r="445" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B445" s="58" t="s">
         <v>488</v>
       </c>
@@ -12160,7 +12215,7 @@
       <c r="F445" s="61"/>
       <c r="G445" s="61"/>
     </row>
-    <row r="446" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B446" s="78"/>
       <c r="C446" s="66" t="s">
         <v>490</v>
@@ -12172,7 +12227,7 @@
       <c r="F446" s="67"/>
       <c r="G446" s="69"/>
     </row>
-    <row r="447" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B447" s="78"/>
       <c r="C447" s="66" t="s">
         <v>491</v>
@@ -12184,7 +12239,7 @@
       <c r="F447" s="67"/>
       <c r="G447" s="69"/>
     </row>
-    <row r="448" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B448" s="78"/>
       <c r="C448" s="66" t="s">
         <v>492</v>
@@ -12196,7 +12251,7 @@
       <c r="F448" s="67"/>
       <c r="G448" s="69"/>
     </row>
-    <row r="449" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="78"/>
       <c r="C449" s="66" t="s">
         <v>493</v>
@@ -12208,7 +12263,7 @@
       <c r="F449" s="67"/>
       <c r="G449" s="69"/>
     </row>
-    <row r="450" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B450" s="78"/>
       <c r="C450" s="66" t="s">
         <v>494</v>
@@ -12220,7 +12275,7 @@
       <c r="F450" s="67"/>
       <c r="G450" s="69"/>
     </row>
-    <row r="451" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B451" s="78"/>
       <c r="C451" s="66" t="s">
         <v>495</v>
@@ -12232,7 +12287,7 @@
       <c r="F451" s="67"/>
       <c r="G451" s="69"/>
     </row>
-    <row r="452" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B452" s="29" t="s">
         <v>496</v>
       </c>
@@ -12244,7 +12299,7 @@
       <c r="F452" s="33"/>
       <c r="G452" s="34"/>
     </row>
-    <row r="453" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B453" s="58" t="s">
         <v>498</v>
       </c>
@@ -12268,7 +12323,7 @@
         <v>MAL</v>
       </c>
     </row>
-    <row r="454" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="78"/>
       <c r="C454" s="66" t="s">
         <v>500</v>
@@ -12280,7 +12335,7 @@
       <c r="F454" s="67"/>
       <c r="G454" s="69"/>
     </row>
-    <row r="455" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B455" s="78"/>
       <c r="C455" s="66" t="s">
         <v>501</v>
@@ -12292,7 +12347,7 @@
       <c r="F455" s="67"/>
       <c r="G455" s="69"/>
     </row>
-    <row r="456" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B456" s="78"/>
       <c r="C456" s="66" t="s">
         <v>502</v>
@@ -12304,7 +12359,7 @@
       <c r="F456" s="67"/>
       <c r="G456" s="69"/>
     </row>
-    <row r="457" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B457" s="78"/>
       <c r="C457" s="66" t="s">
         <v>503</v>
@@ -12316,7 +12371,7 @@
       <c r="F457" s="67"/>
       <c r="G457" s="69"/>
     </row>
-    <row r="458" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B458" s="78"/>
       <c r="C458" s="66" t="s">
         <v>504</v>
@@ -12328,7 +12383,7 @@
       <c r="F458" s="67"/>
       <c r="G458" s="69"/>
     </row>
-    <row r="459" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B459" s="78"/>
       <c r="C459" s="66" t="s">
         <v>505</v>
@@ -12340,7 +12395,7 @@
       <c r="F459" s="67"/>
       <c r="G459" s="69"/>
     </row>
-    <row r="460" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B460" s="58" t="s">
         <v>506</v>
       </c>
@@ -12356,7 +12411,7 @@
       <c r="F460" s="61"/>
       <c r="G460" s="61"/>
     </row>
-    <row r="461" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B461" s="78"/>
       <c r="C461" s="66" t="s">
         <v>508</v>
@@ -12366,7 +12421,7 @@
       <c r="F461" s="67"/>
       <c r="G461" s="69"/>
     </row>
-    <row r="462" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B462" s="58" t="s">
         <v>509</v>
       </c>
@@ -12382,7 +12437,7 @@
       <c r="F462" s="61"/>
       <c r="G462" s="61"/>
     </row>
-    <row r="463" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B463" s="78"/>
       <c r="C463" s="66" t="s">
         <v>511</v>
@@ -12392,7 +12447,7 @@
       <c r="F463" s="67"/>
       <c r="G463" s="69"/>
     </row>
-    <row r="464" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B464" s="58" t="s">
         <v>512</v>
       </c>
@@ -12408,7 +12463,7 @@
       <c r="F464" s="61"/>
       <c r="G464" s="61"/>
     </row>
-    <row r="465" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B465" s="78"/>
       <c r="C465" s="66" t="s">
         <v>514</v>
@@ -12418,7 +12473,7 @@
       <c r="F465" s="67"/>
       <c r="G465" s="69"/>
     </row>
-    <row r="466" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B466" s="58" t="s">
         <v>515</v>
       </c>
@@ -12434,7 +12489,7 @@
       <c r="F466" s="61"/>
       <c r="G466" s="61"/>
     </row>
-    <row r="467" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B467" s="78"/>
       <c r="C467" s="66" t="s">
         <v>517</v>
@@ -12444,7 +12499,7 @@
       <c r="F467" s="67"/>
       <c r="G467" s="69"/>
     </row>
-    <row r="468" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B468" s="58" t="s">
         <v>518</v>
       </c>
@@ -12463,7 +12518,7 @@
       <c r="H468" s="105"/>
       <c r="I468" s="106"/>
     </row>
-    <row r="469" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B469" s="78"/>
       <c r="C469" s="66" t="s">
         <v>520</v>
@@ -12475,7 +12530,7 @@
       <c r="F469" s="67"/>
       <c r="G469" s="69"/>
     </row>
-    <row r="470" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B470" s="78"/>
       <c r="C470" s="66" t="s">
         <v>521</v>
@@ -12487,7 +12542,7 @@
       <c r="F470" s="67"/>
       <c r="G470" s="69"/>
     </row>
-    <row r="471" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B471" s="78"/>
       <c r="C471" s="66" t="s">
         <v>522</v>
@@ -12499,7 +12554,7 @@
       <c r="F471" s="67"/>
       <c r="G471" s="69"/>
     </row>
-    <row r="472" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="78"/>
       <c r="C472" s="66" t="s">
         <v>523</v>
@@ -12511,7 +12566,7 @@
       <c r="F472" s="67"/>
       <c r="G472" s="69"/>
     </row>
-    <row r="473" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B473" s="78"/>
       <c r="C473" s="66" t="s">
         <v>524</v>
@@ -12523,7 +12578,7 @@
       <c r="F473" s="67"/>
       <c r="G473" s="69"/>
     </row>
-    <row r="474" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B474" s="58" t="s">
         <v>525</v>
       </c>
@@ -12539,7 +12594,7 @@
       <c r="F474" s="61"/>
       <c r="G474" s="61"/>
     </row>
-    <row r="475" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B475" s="78"/>
       <c r="C475" s="66" t="s">
         <v>527</v>
@@ -12549,7 +12604,7 @@
       <c r="F475" s="67"/>
       <c r="G475" s="69"/>
     </row>
-    <row r="476" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B476" s="29" t="s">
         <v>528</v>
       </c>
@@ -12561,7 +12616,7 @@
       <c r="F476" s="33"/>
       <c r="G476" s="34"/>
     </row>
-    <row r="477" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B477" s="58" t="s">
         <v>530</v>
       </c>
@@ -12573,7 +12628,7 @@
       <c r="F477" s="61"/>
       <c r="G477" s="61"/>
     </row>
-    <row r="478" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B478" s="107" t="s">
         <v>532</v>
       </c>
@@ -12589,7 +12644,7 @@
       <c r="F478" s="110"/>
       <c r="G478" s="47"/>
     </row>
-    <row r="479" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B479" s="107" t="s">
         <v>534</v>
       </c>
@@ -12605,7 +12660,7 @@
       <c r="F479" s="110"/>
       <c r="G479" s="47"/>
     </row>
-    <row r="480" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B480" s="107" t="s">
         <v>536</v>
       </c>
@@ -12621,7 +12676,7 @@
       <c r="F480" s="110"/>
       <c r="G480" s="47"/>
     </row>
-    <row r="481" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B481" s="107" t="s">
         <v>538</v>
       </c>
@@ -12637,7 +12692,7 @@
       <c r="F481" s="110"/>
       <c r="G481" s="47"/>
     </row>
-    <row r="482" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B482" s="58" t="s">
         <v>540</v>
       </c>
@@ -12649,7 +12704,7 @@
       <c r="F482" s="61"/>
       <c r="G482" s="61"/>
     </row>
-    <row r="483" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B483" s="107" t="s">
         <v>542</v>
       </c>
@@ -12665,7 +12720,7 @@
       <c r="F483" s="110"/>
       <c r="G483" s="47"/>
     </row>
-    <row r="484" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B484" s="107" t="s">
         <v>544</v>
       </c>
@@ -12681,7 +12736,7 @@
       <c r="F484" s="110"/>
       <c r="G484" s="47"/>
     </row>
-    <row r="485" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B485" s="107" t="s">
         <v>546</v>
       </c>
@@ -12697,7 +12752,7 @@
       <c r="F485" s="110"/>
       <c r="G485" s="47"/>
     </row>
-    <row r="486" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B486" s="107" t="s">
         <v>548</v>
       </c>
@@ -12713,7 +12768,7 @@
       <c r="F486" s="110"/>
       <c r="G486" s="47"/>
     </row>
-    <row r="487" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B487" s="58" t="s">
         <v>549</v>
       </c>
@@ -12729,7 +12784,7 @@
       <c r="F487" s="61"/>
       <c r="G487" s="61"/>
     </row>
-    <row r="488" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B488" s="29" t="s">
         <v>551</v>
       </c>
@@ -12740,11 +12795,11 @@
       <c r="E488" s="35"/>
       <c r="F488" s="33"/>
       <c r="G488" s="34"/>
-      <c r="I488" s="223" t="s">
+      <c r="I488" s="229" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="489" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B489" s="58" t="s">
         <v>554</v>
       </c>
@@ -12762,9 +12817,9 @@
         <v>556</v>
       </c>
       <c r="H489" s="83"/>
-      <c r="I489" s="223"/>
-    </row>
-    <row r="490" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I489" s="229"/>
+    </row>
+    <row r="490" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B490" s="78"/>
       <c r="C490" s="80" t="s">
         <v>557</v>
@@ -12778,7 +12833,7 @@
       <c r="F490" s="67"/>
       <c r="G490" s="69"/>
     </row>
-    <row r="491" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B491" s="78"/>
       <c r="C491" s="80" t="s">
         <v>559</v>
@@ -12792,7 +12847,7 @@
       <c r="F491" s="67"/>
       <c r="G491" s="69"/>
     </row>
-    <row r="492" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B492" s="78"/>
       <c r="C492" s="80" t="s">
         <v>560</v>
@@ -12806,7 +12861,7 @@
       <c r="F492" s="67"/>
       <c r="G492" s="69"/>
     </row>
-    <row r="493" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B493" s="78"/>
       <c r="C493" s="80" t="s">
         <v>561</v>
@@ -12820,7 +12875,7 @@
       <c r="F493" s="67"/>
       <c r="G493" s="69"/>
     </row>
-    <row r="494" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B494" s="78"/>
       <c r="C494" s="80" t="s">
         <v>562</v>
@@ -12834,7 +12889,7 @@
       <c r="F494" s="67"/>
       <c r="G494" s="69"/>
     </row>
-    <row r="495" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B495" s="78"/>
       <c r="C495" s="80" t="s">
         <v>563</v>
@@ -12848,7 +12903,7 @@
       <c r="F495" s="67"/>
       <c r="G495" s="69"/>
     </row>
-    <row r="496" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B496" s="78"/>
       <c r="C496" s="80" t="s">
         <v>564</v>
@@ -12862,7 +12917,7 @@
       <c r="F496" s="67"/>
       <c r="G496" s="69"/>
     </row>
-    <row r="497" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B497" s="78"/>
       <c r="C497" s="80" t="s">
         <v>565</v>
@@ -12876,7 +12931,7 @@
       <c r="F497" s="67"/>
       <c r="G497" s="69"/>
     </row>
-    <row r="498" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B498" s="78"/>
       <c r="C498" s="80" t="s">
         <v>566</v>
@@ -12890,7 +12945,7 @@
       <c r="F498" s="67"/>
       <c r="G498" s="69"/>
     </row>
-    <row r="499" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B499" s="78"/>
       <c r="C499" s="80" t="s">
         <v>567</v>
@@ -12904,7 +12959,7 @@
       <c r="F499" s="67"/>
       <c r="G499" s="69"/>
     </row>
-    <row r="500" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B500" s="58" t="s">
         <v>568</v>
       </c>
@@ -12922,7 +12977,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="501" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B501" s="78"/>
       <c r="C501" s="80" t="s">
         <v>570</v>
@@ -12936,7 +12991,7 @@
       <c r="F501" s="67"/>
       <c r="G501" s="69"/>
     </row>
-    <row r="502" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B502" s="58" t="s">
         <v>571</v>
       </c>
@@ -12954,7 +13009,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="503" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B503" s="78"/>
       <c r="C503" s="80" t="s">
         <v>573</v>
@@ -12970,7 +13025,7 @@
       </c>
       <c r="G503" s="69"/>
     </row>
-    <row r="504" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B504" s="78"/>
       <c r="C504" s="80" t="s">
         <v>574</v>
@@ -12984,7 +13039,7 @@
       <c r="F504" s="67"/>
       <c r="G504" s="69"/>
     </row>
-    <row r="505" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B505" s="78"/>
       <c r="C505" s="80" t="s">
         <v>575</v>
@@ -12998,7 +13053,7 @@
       <c r="F505" s="67"/>
       <c r="G505" s="69"/>
     </row>
-    <row r="506" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B506" s="78"/>
       <c r="C506" s="80" t="s">
         <v>576</v>
@@ -13012,7 +13067,7 @@
       <c r="F506" s="67"/>
       <c r="G506" s="69"/>
     </row>
-    <row r="507" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B507" s="78"/>
       <c r="C507" s="80" t="s">
         <v>577</v>
@@ -13026,7 +13081,7 @@
       <c r="F507" s="67"/>
       <c r="G507" s="69"/>
     </row>
-    <row r="508" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B508" s="78"/>
       <c r="C508" s="80" t="s">
         <v>578</v>
@@ -13040,7 +13095,7 @@
       <c r="F508" s="67"/>
       <c r="G508" s="69"/>
     </row>
-    <row r="509" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B509" s="78"/>
       <c r="C509" s="80" t="s">
         <v>579</v>
@@ -13054,7 +13109,7 @@
       <c r="F509" s="67"/>
       <c r="G509" s="69"/>
     </row>
-    <row r="510" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B510" s="78"/>
       <c r="C510" s="80" t="s">
         <v>580</v>
@@ -13068,7 +13123,7 @@
       <c r="F510" s="67"/>
       <c r="G510" s="69"/>
     </row>
-    <row r="511" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B511" s="78"/>
       <c r="C511" s="80" t="s">
         <v>581</v>
@@ -13082,7 +13137,7 @@
       <c r="F511" s="67"/>
       <c r="G511" s="69"/>
     </row>
-    <row r="512" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B512" s="78"/>
       <c r="C512" s="80" t="s">
         <v>582</v>
@@ -13096,7 +13151,7 @@
       <c r="F512" s="67"/>
       <c r="G512" s="69"/>
     </row>
-    <row r="513" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B513" s="58" t="s">
         <v>583</v>
       </c>
@@ -13112,7 +13167,7 @@
       <c r="F513" s="61"/>
       <c r="G513" s="61"/>
     </row>
-    <row r="514" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B514" s="58" t="s">
         <v>585</v>
       </c>
@@ -13130,7 +13185,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="515" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B515" s="78"/>
       <c r="C515" s="80" t="s">
         <v>587</v>
@@ -13144,7 +13199,7 @@
       <c r="F515" s="67"/>
       <c r="G515" s="69"/>
     </row>
-    <row r="516" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B516" s="78"/>
       <c r="C516" s="80" t="s">
         <v>588</v>
@@ -13158,7 +13213,7 @@
       <c r="F516" s="67"/>
       <c r="G516" s="69"/>
     </row>
-    <row r="517" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B517" s="78"/>
       <c r="C517" s="80" t="s">
         <v>589</v>
@@ -13172,7 +13227,7 @@
       <c r="F517" s="67"/>
       <c r="G517" s="69"/>
     </row>
-    <row r="518" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B518" s="78"/>
       <c r="C518" s="80" t="s">
         <v>590</v>
@@ -13186,7 +13241,7 @@
       <c r="F518" s="67"/>
       <c r="G518" s="69"/>
     </row>
-    <row r="519" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B519" s="78"/>
       <c r="C519" s="80" t="s">
         <v>591</v>
@@ -13200,7 +13255,7 @@
       <c r="F519" s="67"/>
       <c r="G519" s="69"/>
     </row>
-    <row r="520" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B520" s="78"/>
       <c r="C520" s="80" t="s">
         <v>592</v>
@@ -13214,7 +13269,7 @@
       <c r="F520" s="67"/>
       <c r="G520" s="69"/>
     </row>
-    <row r="521" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B521" s="78"/>
       <c r="C521" s="80" t="s">
         <v>593</v>
@@ -13228,7 +13283,7 @@
       <c r="F521" s="67"/>
       <c r="G521" s="69"/>
     </row>
-    <row r="522" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B522" s="78"/>
       <c r="C522" s="80" t="s">
         <v>594</v>
@@ -13242,7 +13297,7 @@
       <c r="F522" s="67"/>
       <c r="G522" s="69"/>
     </row>
-    <row r="523" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B523" s="78"/>
       <c r="C523" s="80" t="s">
         <v>595</v>
@@ -13256,7 +13311,7 @@
       <c r="F523" s="67"/>
       <c r="G523" s="69"/>
     </row>
-    <row r="524" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B524" s="78"/>
       <c r="C524" s="80" t="s">
         <v>596</v>
@@ -13270,7 +13325,7 @@
       <c r="F524" s="67"/>
       <c r="G524" s="69"/>
     </row>
-    <row r="525" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B525" s="58" t="s">
         <v>597</v>
       </c>
@@ -13288,7 +13343,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="526" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B526" s="58" t="s">
         <v>599</v>
       </c>
@@ -13304,7 +13359,7 @@
       <c r="F526" s="61"/>
       <c r="G526" s="61"/>
     </row>
-    <row r="527" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B527" s="29" t="s">
         <v>601</v>
       </c>
@@ -13316,7 +13371,7 @@
       <c r="F527" s="33"/>
       <c r="G527" s="34"/>
     </row>
-    <row r="528" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B528" s="58" t="s">
         <v>603</v>
       </c>
@@ -13334,7 +13389,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="529" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B529" s="78"/>
       <c r="C529" s="80" t="s">
         <v>605</v>
@@ -13350,7 +13405,7 @@
       </c>
       <c r="G529" s="69"/>
     </row>
-    <row r="530" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B530" s="78"/>
       <c r="C530" s="80" t="s">
         <v>606</v>
@@ -13364,7 +13419,7 @@
       <c r="F530" s="67"/>
       <c r="G530" s="69"/>
     </row>
-    <row r="531" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B531" s="78"/>
       <c r="C531" s="80" t="s">
         <v>607</v>
@@ -13378,7 +13433,7 @@
       <c r="F531" s="67"/>
       <c r="G531" s="69"/>
     </row>
-    <row r="532" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B532" s="78"/>
       <c r="C532" s="80" t="s">
         <v>608</v>
@@ -13392,7 +13447,7 @@
       <c r="F532" s="67"/>
       <c r="G532" s="69"/>
     </row>
-    <row r="533" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B533" s="78"/>
       <c r="C533" s="80" t="s">
         <v>609</v>
@@ -13406,7 +13461,7 @@
       <c r="F533" s="67"/>
       <c r="G533" s="69"/>
     </row>
-    <row r="534" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B534" s="78"/>
       <c r="C534" s="80" t="s">
         <v>610</v>
@@ -13420,7 +13475,7 @@
       <c r="F534" s="67"/>
       <c r="G534" s="69"/>
     </row>
-    <row r="535" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B535" s="78"/>
       <c r="C535" s="80" t="s">
         <v>611</v>
@@ -13434,7 +13489,7 @@
       <c r="F535" s="67"/>
       <c r="G535" s="69"/>
     </row>
-    <row r="536" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B536" s="78"/>
       <c r="C536" s="80" t="s">
         <v>612</v>
@@ -13448,7 +13503,7 @@
       <c r="F536" s="67"/>
       <c r="G536" s="69"/>
     </row>
-    <row r="537" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B537" s="78"/>
       <c r="C537" s="80" t="s">
         <v>613</v>
@@ -13462,7 +13517,7 @@
       <c r="F537" s="67"/>
       <c r="G537" s="69"/>
     </row>
-    <row r="538" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B538" s="78"/>
       <c r="C538" s="80" t="s">
         <v>614</v>
@@ -13476,7 +13531,7 @@
       <c r="F538" s="67"/>
       <c r="G538" s="69"/>
     </row>
-    <row r="539" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B539" s="58" t="s">
         <v>615</v>
       </c>
@@ -13492,7 +13547,7 @@
       <c r="F539" s="61"/>
       <c r="G539" s="61"/>
     </row>
-    <row r="540" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B540" s="78"/>
       <c r="C540" s="80" t="s">
         <v>617</v>
@@ -13504,7 +13559,7 @@
       <c r="F540" s="67"/>
       <c r="G540" s="69"/>
     </row>
-    <row r="541" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B541" s="78"/>
       <c r="C541" s="80" t="s">
         <v>618</v>
@@ -13516,7 +13571,7 @@
       <c r="F541" s="67"/>
       <c r="G541" s="69"/>
     </row>
-    <row r="542" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B542" s="78"/>
       <c r="C542" s="80" t="s">
         <v>619</v>
@@ -13528,7 +13583,7 @@
       <c r="F542" s="67"/>
       <c r="G542" s="69"/>
     </row>
-    <row r="543" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B543" s="78"/>
       <c r="C543" s="80" t="s">
         <v>620</v>
@@ -13540,7 +13595,7 @@
       <c r="F543" s="67"/>
       <c r="G543" s="69"/>
     </row>
-    <row r="544" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B544" s="58" t="s">
         <v>621</v>
       </c>
@@ -13556,7 +13611,7 @@
       <c r="F544" s="61"/>
       <c r="G544" s="61"/>
     </row>
-    <row r="545" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B545" s="58" t="s">
         <v>623</v>
       </c>
@@ -13574,7 +13629,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="546" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B546" s="58" t="s">
         <v>625</v>
       </c>
@@ -13590,7 +13645,7 @@
       <c r="F546" s="61"/>
       <c r="G546" s="61"/>
     </row>
-    <row r="547" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B547" s="58" t="s">
         <v>627</v>
       </c>
@@ -13606,7 +13661,7 @@
       <c r="F547" s="61"/>
       <c r="G547" s="61"/>
     </row>
-    <row r="548" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B548" s="29" t="s">
         <v>629</v>
       </c>
@@ -13618,7 +13673,7 @@
       <c r="F548" s="33"/>
       <c r="G548" s="34"/>
     </row>
-    <row r="549" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B549" s="58" t="s">
         <v>631</v>
       </c>
@@ -13634,7 +13689,7 @@
       <c r="F549" s="61"/>
       <c r="G549" s="61"/>
     </row>
-    <row r="550" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B550" s="58" t="s">
         <v>633</v>
       </c>
@@ -13650,7 +13705,7 @@
       <c r="F550" s="61"/>
       <c r="G550" s="61"/>
     </row>
-    <row r="551" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B551" s="58" t="s">
         <v>635</v>
       </c>
@@ -13666,7 +13721,7 @@
       <c r="F551" s="61"/>
       <c r="G551" s="61"/>
     </row>
-    <row r="552" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B552" s="58" t="s">
         <v>637</v>
       </c>
@@ -13682,7 +13737,7 @@
       <c r="F552" s="61"/>
       <c r="G552" s="61"/>
     </row>
-    <row r="553" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B553" s="58" t="s">
         <v>639</v>
       </c>
@@ -13698,7 +13753,7 @@
       <c r="F553" s="61"/>
       <c r="G553" s="61"/>
     </row>
-    <row r="554" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B554" s="29" t="s">
         <v>641</v>
       </c>
@@ -13712,7 +13767,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="555" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B555" s="58" t="s">
         <v>643</v>
       </c>
@@ -13730,7 +13785,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="556" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B556" s="58" t="s">
         <v>645</v>
       </c>
@@ -13748,7 +13803,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="557" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B557" s="58" t="s">
         <v>647</v>
       </c>
@@ -13764,7 +13819,7 @@
       <c r="F557" s="61"/>
       <c r="G557" s="61"/>
     </row>
-    <row r="558" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B558" s="58" t="s">
         <v>649</v>
       </c>
@@ -13782,7 +13837,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="559" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B559" s="58" t="s">
         <v>651</v>
       </c>
@@ -13800,7 +13855,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="560" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B560" s="58" t="s">
         <v>653</v>
       </c>
@@ -13818,7 +13873,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="561" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B561" s="58" t="s">
         <v>655</v>
       </c>
@@ -13836,7 +13891,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="562" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B562" s="29" t="s">
         <v>657</v>
       </c>
@@ -13850,7 +13905,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="563" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B563" s="58" t="s">
         <v>659</v>
       </c>
@@ -13866,7 +13921,7 @@
       <c r="F563" s="61"/>
       <c r="G563" s="61"/>
     </row>
-    <row r="564" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B564" s="58" t="s">
         <v>661</v>
       </c>
@@ -13887,7 +13942,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="565" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B565" s="78"/>
       <c r="C565" s="80" t="s">
         <v>617</v>
@@ -13899,7 +13954,7 @@
       <c r="F565" s="67"/>
       <c r="G565" s="69"/>
     </row>
-    <row r="566" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B566" s="78"/>
       <c r="C566" s="80" t="s">
         <v>618</v>
@@ -13911,7 +13966,7 @@
       <c r="F566" s="67"/>
       <c r="G566" s="69"/>
     </row>
-    <row r="567" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B567" s="78"/>
       <c r="C567" s="80" t="s">
         <v>619</v>
@@ -13923,7 +13978,7 @@
       <c r="F567" s="67"/>
       <c r="G567" s="69"/>
     </row>
-    <row r="568" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B568" s="78"/>
       <c r="C568" s="80" t="s">
         <v>620</v>
@@ -13935,7 +13990,7 @@
       <c r="F568" s="67"/>
       <c r="G568" s="69"/>
     </row>
-    <row r="569" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B569" s="58" t="s">
         <v>663</v>
       </c>
@@ -13953,7 +14008,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="570" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B570" s="78"/>
       <c r="C570" s="80" t="s">
         <v>665</v>
@@ -13966,7 +14021,7 @@
       </c>
       <c r="G570" s="69"/>
     </row>
-    <row r="571" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B571" s="78"/>
       <c r="C571" s="80" t="s">
         <v>666</v>
@@ -13976,7 +14031,7 @@
       <c r="F571" s="67"/>
       <c r="G571" s="69"/>
     </row>
-    <row r="572" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B572" s="78"/>
       <c r="C572" s="80" t="s">
         <v>667</v>
@@ -13986,7 +14041,7 @@
       <c r="F572" s="67"/>
       <c r="G572" s="69"/>
     </row>
-    <row r="573" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B573" s="78"/>
       <c r="C573" s="80" t="s">
         <v>668</v>
@@ -13996,7 +14051,7 @@
       <c r="F573" s="67"/>
       <c r="G573" s="69"/>
     </row>
-    <row r="574" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B574" s="78"/>
       <c r="C574" s="80" t="s">
         <v>669</v>
@@ -14006,7 +14061,7 @@
       <c r="F574" s="67"/>
       <c r="G574" s="69"/>
     </row>
-    <row r="575" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B575" s="78"/>
       <c r="C575" s="80" t="s">
         <v>670</v>
@@ -14016,7 +14071,7 @@
       <c r="F575" s="67"/>
       <c r="G575" s="69"/>
     </row>
-    <row r="576" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B576" s="78"/>
       <c r="C576" s="80" t="s">
         <v>671</v>
@@ -14026,7 +14081,7 @@
       <c r="F576" s="67"/>
       <c r="G576" s="69"/>
     </row>
-    <row r="577" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B577" s="78"/>
       <c r="C577" s="80" t="s">
         <v>672</v>
@@ -14036,7 +14091,7 @@
       <c r="F577" s="67"/>
       <c r="G577" s="69"/>
     </row>
-    <row r="578" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B578" s="78"/>
       <c r="C578" s="80" t="s">
         <v>673</v>
@@ -14046,7 +14101,7 @@
       <c r="F578" s="67"/>
       <c r="G578" s="69"/>
     </row>
-    <row r="579" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B579" s="78"/>
       <c r="C579" s="80" t="s">
         <v>674</v>
@@ -14056,7 +14111,7 @@
       <c r="F579" s="67"/>
       <c r="G579" s="69"/>
     </row>
-    <row r="580" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B580" s="86"/>
       <c r="C580" s="113" t="s">
         <v>675</v>
@@ -14066,7 +14121,7 @@
       <c r="F580" s="114"/>
       <c r="G580" s="116"/>
     </row>
-    <row r="581" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B581" s="58" t="s">
         <v>676</v>
       </c>
@@ -14084,7 +14139,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="582" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B582" s="78"/>
       <c r="C582" s="80" t="s">
         <v>665</v>
@@ -14097,7 +14152,7 @@
       </c>
       <c r="G582" s="69"/>
     </row>
-    <row r="583" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B583" s="78"/>
       <c r="C583" s="80" t="s">
         <v>666</v>
@@ -14107,7 +14162,7 @@
       <c r="F583" s="67"/>
       <c r="G583" s="69"/>
     </row>
-    <row r="584" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B584" s="78"/>
       <c r="C584" s="80" t="s">
         <v>667</v>
@@ -14117,7 +14172,7 @@
       <c r="F584" s="67"/>
       <c r="G584" s="69"/>
     </row>
-    <row r="585" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B585" s="78"/>
       <c r="C585" s="80" t="s">
         <v>668</v>
@@ -14127,7 +14182,7 @@
       <c r="F585" s="67"/>
       <c r="G585" s="69"/>
     </row>
-    <row r="586" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B586" s="78"/>
       <c r="C586" s="80" t="s">
         <v>669</v>
@@ -14137,7 +14192,7 @@
       <c r="F586" s="67"/>
       <c r="G586" s="69"/>
     </row>
-    <row r="587" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B587" s="78"/>
       <c r="C587" s="80" t="s">
         <v>670</v>
@@ -14147,7 +14202,7 @@
       <c r="F587" s="67"/>
       <c r="G587" s="69"/>
     </row>
-    <row r="588" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B588" s="78"/>
       <c r="C588" s="80" t="s">
         <v>671</v>
@@ -14157,7 +14212,7 @@
       <c r="F588" s="67"/>
       <c r="G588" s="69"/>
     </row>
-    <row r="589" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B589" s="78"/>
       <c r="C589" s="80" t="s">
         <v>672</v>
@@ -14167,7 +14222,7 @@
       <c r="F589" s="67"/>
       <c r="G589" s="69"/>
     </row>
-    <row r="590" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B590" s="78"/>
       <c r="C590" s="80" t="s">
         <v>673</v>
@@ -14177,7 +14232,7 @@
       <c r="F590" s="67"/>
       <c r="G590" s="69"/>
     </row>
-    <row r="591" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B591" s="78"/>
       <c r="C591" s="80" t="s">
         <v>674</v>
@@ -14187,7 +14242,7 @@
       <c r="F591" s="67"/>
       <c r="G591" s="69"/>
     </row>
-    <row r="592" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B592" s="78"/>
       <c r="C592" s="80" t="s">
         <v>675</v>
@@ -14197,7 +14252,7 @@
       <c r="F592" s="67"/>
       <c r="G592" s="69"/>
     </row>
-    <row r="593" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B593" s="58" t="s">
         <v>678</v>
       </c>
@@ -14218,7 +14273,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="594" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B594" s="78"/>
       <c r="C594" s="80" t="s">
         <v>665</v>
@@ -14228,7 +14283,7 @@
       <c r="F594" s="67"/>
       <c r="G594" s="69"/>
     </row>
-    <row r="595" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B595" s="78"/>
       <c r="C595" s="80" t="s">
         <v>666</v>
@@ -14238,7 +14293,7 @@
       <c r="F595" s="67"/>
       <c r="G595" s="69"/>
     </row>
-    <row r="596" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B596" s="78"/>
       <c r="C596" s="80" t="s">
         <v>667</v>
@@ -14248,7 +14303,7 @@
       <c r="F596" s="67"/>
       <c r="G596" s="69"/>
     </row>
-    <row r="597" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B597" s="78"/>
       <c r="C597" s="80" t="s">
         <v>668</v>
@@ -14258,7 +14313,7 @@
       <c r="F597" s="67"/>
       <c r="G597" s="69"/>
     </row>
-    <row r="598" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B598" s="78"/>
       <c r="C598" s="80" t="s">
         <v>669</v>
@@ -14268,7 +14323,7 @@
       <c r="F598" s="67"/>
       <c r="G598" s="69"/>
     </row>
-    <row r="599" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B599" s="78"/>
       <c r="C599" s="80" t="s">
         <v>670</v>
@@ -14278,7 +14333,7 @@
       <c r="F599" s="67"/>
       <c r="G599" s="69"/>
     </row>
-    <row r="600" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B600" s="78"/>
       <c r="C600" s="80" t="s">
         <v>671</v>
@@ -14288,7 +14343,7 @@
       <c r="F600" s="67"/>
       <c r="G600" s="69"/>
     </row>
-    <row r="601" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B601" s="78"/>
       <c r="C601" s="80" t="s">
         <v>672</v>
@@ -14298,7 +14353,7 @@
       <c r="F601" s="67"/>
       <c r="G601" s="69"/>
     </row>
-    <row r="602" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B602" s="78"/>
       <c r="C602" s="80" t="s">
         <v>673</v>
@@ -14308,7 +14363,7 @@
       <c r="F602" s="67"/>
       <c r="G602" s="69"/>
     </row>
-    <row r="603" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B603" s="78"/>
       <c r="C603" s="80" t="s">
         <v>674</v>
@@ -14318,7 +14373,7 @@
       <c r="F603" s="67"/>
       <c r="G603" s="69"/>
     </row>
-    <row r="604" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B604" s="78"/>
       <c r="C604" s="80" t="s">
         <v>675</v>
@@ -14328,7 +14383,7 @@
       <c r="F604" s="67"/>
       <c r="G604" s="69"/>
     </row>
-    <row r="605" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B605" s="58" t="s">
         <v>680</v>
       </c>
@@ -14346,7 +14401,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="606" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B606" s="78"/>
       <c r="C606" s="80" t="s">
         <v>665</v>
@@ -14359,7 +14414,7 @@
       </c>
       <c r="G606" s="69"/>
     </row>
-    <row r="607" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B607" s="78"/>
       <c r="C607" s="80" t="s">
         <v>666</v>
@@ -14369,7 +14424,7 @@
       <c r="F607" s="67"/>
       <c r="G607" s="69"/>
     </row>
-    <row r="608" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B608" s="78"/>
       <c r="C608" s="80" t="s">
         <v>667</v>
@@ -14379,7 +14434,7 @@
       <c r="F608" s="67"/>
       <c r="G608" s="69"/>
     </row>
-    <row r="609" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B609" s="78"/>
       <c r="C609" s="80" t="s">
         <v>668</v>
@@ -14389,7 +14444,7 @@
       <c r="F609" s="67"/>
       <c r="G609" s="69"/>
     </row>
-    <row r="610" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B610" s="78"/>
       <c r="C610" s="80" t="s">
         <v>669</v>
@@ -14399,7 +14454,7 @@
       <c r="F610" s="67"/>
       <c r="G610" s="69"/>
     </row>
-    <row r="611" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B611" s="78"/>
       <c r="C611" s="80" t="s">
         <v>670</v>
@@ -14409,7 +14464,7 @@
       <c r="F611" s="67"/>
       <c r="G611" s="69"/>
     </row>
-    <row r="612" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B612" s="78"/>
       <c r="C612" s="80" t="s">
         <v>671</v>
@@ -14419,7 +14474,7 @@
       <c r="F612" s="67"/>
       <c r="G612" s="69"/>
     </row>
-    <row r="613" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B613" s="78"/>
       <c r="C613" s="80" t="s">
         <v>672</v>
@@ -14429,7 +14484,7 @@
       <c r="F613" s="67"/>
       <c r="G613" s="69"/>
     </row>
-    <row r="614" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B614" s="78"/>
       <c r="C614" s="80" t="s">
         <v>673</v>
@@ -14439,7 +14494,7 @@
       <c r="F614" s="67"/>
       <c r="G614" s="69"/>
     </row>
-    <row r="615" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B615" s="78"/>
       <c r="C615" s="80" t="s">
         <v>674</v>
@@ -14449,7 +14504,7 @@
       <c r="F615" s="67"/>
       <c r="G615" s="69"/>
     </row>
-    <row r="616" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B616" s="78"/>
       <c r="C616" s="80" t="s">
         <v>675</v>
@@ -14459,7 +14514,7 @@
       <c r="F616" s="67"/>
       <c r="G616" s="69"/>
     </row>
-    <row r="617" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B617" s="58" t="s">
         <v>682</v>
       </c>
@@ -14477,7 +14532,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="618" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B618" s="78"/>
       <c r="C618" s="80" t="s">
         <v>665</v>
@@ -14490,7 +14545,7 @@
       </c>
       <c r="G618" s="69"/>
     </row>
-    <row r="619" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B619" s="78"/>
       <c r="C619" s="80" t="s">
         <v>666</v>
@@ -14500,7 +14555,7 @@
       <c r="F619" s="67"/>
       <c r="G619" s="69"/>
     </row>
-    <row r="620" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B620" s="78"/>
       <c r="C620" s="80" t="s">
         <v>667</v>
@@ -14510,7 +14565,7 @@
       <c r="F620" s="67"/>
       <c r="G620" s="69"/>
     </row>
-    <row r="621" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B621" s="78"/>
       <c r="C621" s="80" t="s">
         <v>668</v>
@@ -14520,7 +14575,7 @@
       <c r="F621" s="67"/>
       <c r="G621" s="69"/>
     </row>
-    <row r="622" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B622" s="78"/>
       <c r="C622" s="80" t="s">
         <v>669</v>
@@ -14530,7 +14585,7 @@
       <c r="F622" s="67"/>
       <c r="G622" s="69"/>
     </row>
-    <row r="623" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B623" s="78"/>
       <c r="C623" s="80" t="s">
         <v>670</v>
@@ -14540,7 +14595,7 @@
       <c r="F623" s="67"/>
       <c r="G623" s="69"/>
     </row>
-    <row r="624" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B624" s="78"/>
       <c r="C624" s="80" t="s">
         <v>671</v>
@@ -14550,7 +14605,7 @@
       <c r="F624" s="67"/>
       <c r="G624" s="69"/>
     </row>
-    <row r="625" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B625" s="78"/>
       <c r="C625" s="80" t="s">
         <v>672</v>
@@ -14560,7 +14615,7 @@
       <c r="F625" s="67"/>
       <c r="G625" s="69"/>
     </row>
-    <row r="626" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B626" s="78"/>
       <c r="C626" s="80" t="s">
         <v>673</v>
@@ -14570,7 +14625,7 @@
       <c r="F626" s="67"/>
       <c r="G626" s="69"/>
     </row>
-    <row r="627" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B627" s="78"/>
       <c r="C627" s="80" t="s">
         <v>674</v>
@@ -14580,7 +14635,7 @@
       <c r="F627" s="67"/>
       <c r="G627" s="69"/>
     </row>
-    <row r="628" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B628" s="78"/>
       <c r="C628" s="80" t="s">
         <v>675</v>
@@ -14590,7 +14645,7 @@
       <c r="F628" s="67"/>
       <c r="G628" s="69"/>
     </row>
-    <row r="629" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B629" s="58" t="s">
         <v>684</v>
       </c>
@@ -14608,7 +14663,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="630" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B630" s="78"/>
       <c r="C630" s="80" t="s">
         <v>665</v>
@@ -14621,7 +14676,7 @@
       </c>
       <c r="G630" s="69"/>
     </row>
-    <row r="631" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B631" s="78"/>
       <c r="C631" s="80" t="s">
         <v>666</v>
@@ -14631,7 +14686,7 @@
       <c r="F631" s="67"/>
       <c r="G631" s="69"/>
     </row>
-    <row r="632" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B632" s="78"/>
       <c r="C632" s="80" t="s">
         <v>667</v>
@@ -14641,7 +14696,7 @@
       <c r="F632" s="67"/>
       <c r="G632" s="69"/>
     </row>
-    <row r="633" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B633" s="78"/>
       <c r="C633" s="80" t="s">
         <v>668</v>
@@ -14651,7 +14706,7 @@
       <c r="F633" s="67"/>
       <c r="G633" s="69"/>
     </row>
-    <row r="634" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B634" s="78"/>
       <c r="C634" s="80" t="s">
         <v>669</v>
@@ -14661,7 +14716,7 @@
       <c r="F634" s="67"/>
       <c r="G634" s="69"/>
     </row>
-    <row r="635" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B635" s="78"/>
       <c r="C635" s="80" t="s">
         <v>670</v>
@@ -14671,7 +14726,7 @@
       <c r="F635" s="67"/>
       <c r="G635" s="69"/>
     </row>
-    <row r="636" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B636" s="78"/>
       <c r="C636" s="80" t="s">
         <v>671</v>
@@ -14681,7 +14736,7 @@
       <c r="F636" s="67"/>
       <c r="G636" s="69"/>
     </row>
-    <row r="637" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B637" s="78"/>
       <c r="C637" s="80" t="s">
         <v>672</v>
@@ -14691,7 +14746,7 @@
       <c r="F637" s="67"/>
       <c r="G637" s="69"/>
     </row>
-    <row r="638" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B638" s="78"/>
       <c r="C638" s="80" t="s">
         <v>673</v>
@@ -14701,7 +14756,7 @@
       <c r="F638" s="67"/>
       <c r="G638" s="69"/>
     </row>
-    <row r="639" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B639" s="78"/>
       <c r="C639" s="80" t="s">
         <v>674</v>
@@ -14711,7 +14766,7 @@
       <c r="F639" s="67"/>
       <c r="G639" s="69"/>
     </row>
-    <row r="640" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B640" s="78"/>
       <c r="C640" s="80" t="s">
         <v>675</v>
@@ -14721,7 +14776,7 @@
       <c r="F640" s="67"/>
       <c r="G640" s="69"/>
     </row>
-    <row r="641" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B641" s="58" t="s">
         <v>686</v>
       </c>
@@ -14739,7 +14794,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="642" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B642" s="78"/>
       <c r="C642" s="80" t="s">
         <v>665</v>
@@ -14752,7 +14807,7 @@
       </c>
       <c r="G642" s="69"/>
     </row>
-    <row r="643" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B643" s="78"/>
       <c r="C643" s="80" t="s">
         <v>666</v>
@@ -14762,7 +14817,7 @@
       <c r="F643" s="67"/>
       <c r="G643" s="69"/>
     </row>
-    <row r="644" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B644" s="78"/>
       <c r="C644" s="80" t="s">
         <v>667</v>
@@ -14772,7 +14827,7 @@
       <c r="F644" s="67"/>
       <c r="G644" s="69"/>
     </row>
-    <row r="645" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B645" s="78"/>
       <c r="C645" s="80" t="s">
         <v>668</v>
@@ -14782,7 +14837,7 @@
       <c r="F645" s="67"/>
       <c r="G645" s="69"/>
     </row>
-    <row r="646" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B646" s="78"/>
       <c r="C646" s="80" t="s">
         <v>669</v>
@@ -14792,7 +14847,7 @@
       <c r="F646" s="67"/>
       <c r="G646" s="69"/>
     </row>
-    <row r="647" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B647" s="78"/>
       <c r="C647" s="80" t="s">
         <v>670</v>
@@ -14802,7 +14857,7 @@
       <c r="F647" s="67"/>
       <c r="G647" s="69"/>
     </row>
-    <row r="648" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B648" s="78"/>
       <c r="C648" s="80" t="s">
         <v>671</v>
@@ -14812,7 +14867,7 @@
       <c r="F648" s="67"/>
       <c r="G648" s="69"/>
     </row>
-    <row r="649" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B649" s="78"/>
       <c r="C649" s="80" t="s">
         <v>672</v>
@@ -14822,7 +14877,7 @@
       <c r="F649" s="67"/>
       <c r="G649" s="69"/>
     </row>
-    <row r="650" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B650" s="78"/>
       <c r="C650" s="80" t="s">
         <v>673</v>
@@ -14832,7 +14887,7 @@
       <c r="F650" s="67"/>
       <c r="G650" s="69"/>
     </row>
-    <row r="651" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B651" s="78"/>
       <c r="C651" s="80" t="s">
         <v>674</v>
@@ -14842,7 +14897,7 @@
       <c r="F651" s="67"/>
       <c r="G651" s="69"/>
     </row>
-    <row r="652" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B652" s="78"/>
       <c r="C652" s="80" t="s">
         <v>675</v>
@@ -14852,7 +14907,7 @@
       <c r="F652" s="67"/>
       <c r="G652" s="69"/>
     </row>
-    <row r="653" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B653" s="58" t="s">
         <v>688</v>
       </c>
@@ -14873,7 +14928,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="654" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B654" s="58" t="s">
         <v>690</v>
       </c>
@@ -14891,7 +14946,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="655" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B655" s="78"/>
       <c r="C655" s="80" t="s">
         <v>665</v>
@@ -14904,7 +14959,7 @@
       </c>
       <c r="G655" s="69"/>
     </row>
-    <row r="656" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B656" s="78"/>
       <c r="C656" s="80" t="s">
         <v>666</v>
@@ -14914,7 +14969,7 @@
       <c r="F656" s="67"/>
       <c r="G656" s="69"/>
     </row>
-    <row r="657" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B657" s="78"/>
       <c r="C657" s="80" t="s">
         <v>667</v>
@@ -14924,7 +14979,7 @@
       <c r="F657" s="67"/>
       <c r="G657" s="69"/>
     </row>
-    <row r="658" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B658" s="78"/>
       <c r="C658" s="80" t="s">
         <v>668</v>
@@ -14934,7 +14989,7 @@
       <c r="F658" s="67"/>
       <c r="G658" s="69"/>
     </row>
-    <row r="659" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B659" s="78"/>
       <c r="C659" s="80" t="s">
         <v>669</v>
@@ -14944,7 +14999,7 @@
       <c r="F659" s="67"/>
       <c r="G659" s="69"/>
     </row>
-    <row r="660" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B660" s="78"/>
       <c r="C660" s="80" t="s">
         <v>670</v>
@@ -14954,7 +15009,7 @@
       <c r="F660" s="67"/>
       <c r="G660" s="69"/>
     </row>
-    <row r="661" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B661" s="78"/>
       <c r="C661" s="80" t="s">
         <v>671</v>
@@ -14964,7 +15019,7 @@
       <c r="F661" s="67"/>
       <c r="G661" s="69"/>
     </row>
-    <row r="662" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B662" s="78"/>
       <c r="C662" s="80" t="s">
         <v>672</v>
@@ -14974,7 +15029,7 @@
       <c r="F662" s="67"/>
       <c r="G662" s="69"/>
     </row>
-    <row r="663" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B663" s="78"/>
       <c r="C663" s="80" t="s">
         <v>673</v>
@@ -14984,7 +15039,7 @@
       <c r="F663" s="67"/>
       <c r="G663" s="69"/>
     </row>
-    <row r="664" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B664" s="78"/>
       <c r="C664" s="80" t="s">
         <v>674</v>
@@ -14994,7 +15049,7 @@
       <c r="F664" s="67"/>
       <c r="G664" s="69"/>
     </row>
-    <row r="665" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B665" s="78"/>
       <c r="C665" s="80" t="s">
         <v>675</v>
@@ -15004,7 +15059,7 @@
       <c r="F665" s="67"/>
       <c r="G665" s="69"/>
     </row>
-    <row r="666" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B666" s="29" t="s">
         <v>692</v>
       </c>
@@ -15018,7 +15073,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="667" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B667" s="58" t="s">
         <v>694</v>
       </c>
@@ -15030,7 +15085,7 @@
       <c r="F667" s="61"/>
       <c r="G667" s="61"/>
     </row>
-    <row r="668" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B668" s="107" t="s">
         <v>696</v>
       </c>
@@ -15048,7 +15103,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="669" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B669" s="107" t="s">
         <v>698</v>
       </c>
@@ -15066,7 +15121,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="670" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B670" s="107" t="s">
         <v>700</v>
       </c>
@@ -15084,7 +15139,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="671" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B671" s="107" t="s">
         <v>702</v>
       </c>
@@ -15102,7 +15157,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="672" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B672" s="107" t="s">
         <v>704</v>
       </c>
@@ -15118,7 +15173,7 @@
       <c r="F672" s="110"/>
       <c r="G672" s="47"/>
     </row>
-    <row r="673" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B673" s="107" t="s">
         <v>706</v>
       </c>
@@ -15136,7 +15191,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="674" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B674" s="107" t="s">
         <v>708</v>
       </c>
@@ -15152,7 +15207,7 @@
       <c r="F674" s="110"/>
       <c r="G674" s="47"/>
     </row>
-    <row r="675" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B675" s="58" t="s">
         <v>710</v>
       </c>
@@ -15166,7 +15221,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="676" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B676" s="107" t="s">
         <v>712</v>
       </c>
@@ -15184,7 +15239,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="677" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B677" s="107" t="s">
         <v>714</v>
       </c>
@@ -15202,7 +15257,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="678" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B678" s="107" t="s">
         <v>717</v>
       </c>
@@ -15220,7 +15275,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="679" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B679" s="107" t="s">
         <v>719</v>
       </c>
@@ -15238,7 +15293,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="680" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B680" s="107" t="s">
         <v>721</v>
       </c>
@@ -15256,7 +15311,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="681" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B681" s="107" t="s">
         <v>723</v>
       </c>
@@ -15274,7 +15329,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="682" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B682" s="107" t="s">
         <v>725</v>
       </c>
@@ -15292,7 +15347,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="683" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B683" s="107" t="s">
         <v>727</v>
       </c>
@@ -15310,7 +15365,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="684" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B684" s="107" t="s">
         <v>729</v>
       </c>
@@ -15328,7 +15383,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="685" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B685" s="107" t="s">
         <v>731</v>
       </c>
@@ -15346,7 +15401,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="686" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B686" s="107" t="s">
         <v>733</v>
       </c>
@@ -15362,7 +15417,7 @@
       <c r="F686" s="110"/>
       <c r="G686" s="47"/>
     </row>
-    <row r="687" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B687" s="29" t="s">
         <v>735</v>
       </c>
@@ -15374,7 +15429,7 @@
       <c r="F687" s="33"/>
       <c r="G687" s="34"/>
     </row>
-    <row r="688" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B688" s="58" t="s">
         <v>737</v>
       </c>
@@ -15390,7 +15445,7 @@
       <c r="F688" s="61"/>
       <c r="G688" s="61"/>
     </row>
-    <row r="689" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B689" s="58" t="s">
         <v>739</v>
       </c>
@@ -15408,7 +15463,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="690" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B690" s="58" t="s">
         <v>741</v>
       </c>
@@ -15424,7 +15479,7 @@
       <c r="F690" s="61"/>
       <c r="G690" s="61"/>
     </row>
-    <row r="691" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B691" s="58" t="s">
         <v>743</v>
       </c>
@@ -15445,7 +15500,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="692" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B692" s="58" t="s">
         <v>745</v>
       </c>
@@ -15466,7 +15521,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="693" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B693" s="58" t="s">
         <v>747</v>
       </c>
@@ -15482,7 +15537,7 @@
       <c r="F693" s="61"/>
       <c r="G693" s="61"/>
     </row>
-    <row r="694" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B694" s="58" t="s">
         <v>749</v>
       </c>
@@ -15498,7 +15553,7 @@
       <c r="F694" s="61"/>
       <c r="G694" s="61"/>
     </row>
-    <row r="695" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B695" s="58" t="s">
         <v>751</v>
       </c>
@@ -15516,7 +15571,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="696" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B696" s="58" t="s">
         <v>753</v>
       </c>
@@ -15534,7 +15589,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="697" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B697" s="58" t="s">
         <v>755</v>
       </c>
@@ -15552,7 +15607,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="698" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B698" s="29" t="s">
         <v>757</v>
       </c>
@@ -15566,7 +15621,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="699" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B699" s="58" t="s">
         <v>759</v>
       </c>
@@ -15580,7 +15635,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="700" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B700" s="107" t="s">
         <v>761</v>
       </c>
@@ -15592,7 +15647,7 @@
       <c r="F700" s="110"/>
       <c r="G700" s="47"/>
     </row>
-    <row r="701" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B701" s="107" t="s">
         <v>762</v>
       </c>
@@ -15610,7 +15665,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="702" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B702" s="107" t="s">
         <v>764</v>
       </c>
@@ -15628,7 +15683,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="703" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B703" s="29" t="s">
         <v>766</v>
       </c>
@@ -15644,7 +15699,7 @@
       <c r="F703" s="33"/>
       <c r="G703" s="34"/>
     </row>
-    <row r="704" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B704" s="29" t="s">
         <v>768</v>
       </c>
@@ -15660,17 +15715,17 @@
       <c r="F704" s="33"/>
       <c r="G704" s="34"/>
     </row>
-    <row r="705" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B705" s="221" t="s">
+    <row r="705" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B705" s="227" t="s">
         <v>770</v>
       </c>
-      <c r="C705" s="221"/>
+      <c r="C705" s="227"/>
       <c r="D705" s="26"/>
       <c r="E705" s="27"/>
       <c r="F705" s="26"/>
       <c r="G705" s="28"/>
     </row>
-    <row r="706" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B706" s="117"/>
       <c r="C706" s="118"/>
       <c r="D706" s="52"/>
@@ -15678,7 +15733,7 @@
       <c r="F706" s="52"/>
       <c r="G706" s="53"/>
     </row>
-    <row r="707" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B707" s="119">
         <v>4</v>
       </c>
@@ -15690,7 +15745,7 @@
       <c r="F707" s="26"/>
       <c r="G707" s="28"/>
     </row>
-    <row r="708" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B708" s="58" t="s">
         <v>772</v>
       </c>
@@ -15706,7 +15761,7 @@
       <c r="F708" s="61"/>
       <c r="G708" s="61"/>
     </row>
-    <row r="709" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B709" s="58" t="s">
         <v>774</v>
       </c>
@@ -15722,7 +15777,7 @@
       <c r="F709" s="61"/>
       <c r="G709" s="61"/>
     </row>
-    <row r="710" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B710" s="58" t="s">
         <v>776</v>
       </c>
@@ -15738,7 +15793,7 @@
       <c r="F710" s="61"/>
       <c r="G710" s="61"/>
     </row>
-    <row r="711" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B711" s="58" t="s">
         <v>778</v>
       </c>
@@ -15754,35 +15809,35 @@
       <c r="F711" s="61"/>
       <c r="G711" s="61"/>
     </row>
-    <row r="712" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B712" s="221" t="s">
+    <row r="712" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B712" s="227" t="s">
         <v>780</v>
       </c>
-      <c r="C712" s="221"/>
+      <c r="C712" s="227"/>
       <c r="D712" s="26"/>
       <c r="E712" s="27"/>
       <c r="F712" s="26"/>
       <c r="G712" s="28"/>
     </row>
-    <row r="713" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B713" s="224"/>
-      <c r="C713" s="224"/>
+    <row r="713" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B713" s="225"/>
+      <c r="C713" s="225"/>
       <c r="D713" s="52"/>
       <c r="E713" s="103"/>
       <c r="F713" s="52"/>
       <c r="G713" s="53"/>
     </row>
-    <row r="714" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B714" s="221" t="s">
+    <row r="714" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B714" s="227" t="s">
         <v>781</v>
       </c>
-      <c r="C714" s="221"/>
+      <c r="C714" s="227"/>
       <c r="D714" s="26"/>
       <c r="E714" s="27"/>
       <c r="F714" s="26"/>
       <c r="G714" s="28"/>
     </row>
-    <row r="715" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B715" s="58" t="s">
         <v>782</v>
       </c>
@@ -15798,7 +15853,7 @@
       <c r="F715" s="61"/>
       <c r="G715" s="61"/>
     </row>
-    <row r="716" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B716" s="58" t="s">
         <v>784</v>
       </c>
@@ -15814,7 +15869,7 @@
       <c r="F716" s="61"/>
       <c r="G716" s="61"/>
     </row>
-    <row r="717" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B717" s="58" t="s">
         <v>786</v>
       </c>
@@ -15830,7 +15885,7 @@
       <c r="F717" s="61"/>
       <c r="G717" s="61"/>
     </row>
-    <row r="718" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B718" s="58" t="s">
         <v>788</v>
       </c>
@@ -15846,7 +15901,7 @@
       <c r="F718" s="61"/>
       <c r="G718" s="61"/>
     </row>
-    <row r="719" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B719" s="58" t="s">
         <v>790</v>
       </c>
@@ -15862,7 +15917,7 @@
       <c r="F719" s="61"/>
       <c r="G719" s="61"/>
     </row>
-    <row r="720" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B720" s="58" t="s">
         <v>792</v>
       </c>
@@ -15878,7 +15933,7 @@
       <c r="F720" s="61"/>
       <c r="G720" s="61"/>
     </row>
-    <row r="721" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B721" s="58" t="s">
         <v>794</v>
       </c>
@@ -15894,7 +15949,7 @@
       <c r="F721" s="61"/>
       <c r="G721" s="61"/>
     </row>
-    <row r="722" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B722" s="58" t="s">
         <v>796</v>
       </c>
@@ -15910,7 +15965,7 @@
       <c r="F722" s="61"/>
       <c r="G722" s="61"/>
     </row>
-    <row r="723" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B723" s="58" t="s">
         <v>798</v>
       </c>
@@ -15926,7 +15981,7 @@
       <c r="F723" s="61"/>
       <c r="G723" s="61"/>
     </row>
-    <row r="724" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B724" s="58" t="s">
         <v>800</v>
       </c>
@@ -15942,36 +15997,46 @@
       <c r="F724" s="61"/>
       <c r="G724" s="61"/>
     </row>
-    <row r="725" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B725" s="221" t="s">
+    <row r="725" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B725" s="227" t="s">
         <v>802</v>
       </c>
-      <c r="C725" s="221"/>
+      <c r="C725" s="227"/>
       <c r="D725" s="26"/>
       <c r="E725" s="27"/>
       <c r="F725" s="26"/>
       <c r="G725" s="28"/>
     </row>
-    <row r="726" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B726" s="224"/>
-      <c r="C726" s="224"/>
-      <c r="D726" s="224"/>
-      <c r="E726" s="224"/>
-      <c r="F726" s="224"/>
-      <c r="G726" s="224"/>
-    </row>
-    <row r="727" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B727" s="225" t="s">
+    <row r="726" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B726" s="225"/>
+      <c r="C726" s="225"/>
+      <c r="D726" s="225"/>
+      <c r="E726" s="225"/>
+      <c r="F726" s="225"/>
+      <c r="G726" s="225"/>
+    </row>
+    <row r="727" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B727" s="226" t="s">
         <v>803</v>
       </c>
-      <c r="C727" s="225"/>
-      <c r="D727" s="225"/>
-      <c r="E727" s="225"/>
-      <c r="F727" s="225"/>
-      <c r="G727" s="225"/>
+      <c r="C727" s="226"/>
+      <c r="D727" s="226"/>
+      <c r="E727" s="226"/>
+      <c r="F727" s="226"/>
+      <c r="G727" s="226"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="I154:I158"/>
+    <mergeCell ref="I323:I326"/>
+    <mergeCell ref="I370:I376"/>
+    <mergeCell ref="I488:I489"/>
     <mergeCell ref="B726:G726"/>
     <mergeCell ref="B727:G727"/>
     <mergeCell ref="B705:C705"/>
@@ -15979,16 +16044,6 @@
     <mergeCell ref="B713:C713"/>
     <mergeCell ref="B714:C714"/>
     <mergeCell ref="B725:C725"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="I154:I158"/>
-    <mergeCell ref="I323:I326"/>
-    <mergeCell ref="I370:I376"/>
-    <mergeCell ref="I488:I489"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B131:C131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -15999,31 +16054,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="M21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T54" sqref="T54:U54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="128" customWidth="1"/>
     <col min="2" max="2" width="44.33203125" style="145" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="145" customWidth="1"/>
     <col min="4" max="4" width="17" style="145" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="145" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="122" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="122" customWidth="1"/>
     <col min="7" max="7" width="47.6640625" style="153" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" style="157" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="8.83203125" style="122" customWidth="1"/>
-    <col min="17" max="17" width="11.83203125" style="159" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.83203125" style="122" customWidth="1"/>
+    <col min="9" max="16" width="8.77734375" style="122" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" style="159" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.109375" style="122" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="34.33203125" style="122" bestFit="1" customWidth="1"/>
-    <col min="20" max="28" width="8.83203125" style="122" customWidth="1"/>
+    <col min="20" max="28" width="8.77734375" style="122" customWidth="1"/>
     <col min="29" max="29" width="11.33203125" style="122" bestFit="1" customWidth="1"/>
-    <col min="30" max="1024" width="8.83203125" style="122" customWidth="1"/>
+    <col min="30" max="1024" width="8.77734375" style="122" customWidth="1"/>
     <col min="1025" max="16384" width="9.33203125" style="122"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="120"/>
       <c r="B1" s="129"/>
       <c r="C1" s="129"/>
@@ -16031,7 +16086,7 @@
       <c r="E1" s="129"/>
       <c r="F1" s="121"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="123"/>
       <c r="B2" s="130" t="s">
         <v>804</v>
@@ -16041,7 +16096,7 @@
       <c r="E2" s="129"/>
       <c r="F2" s="121"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="124"/>
       <c r="B3" s="130"/>
       <c r="C3" s="131"/>
@@ -16049,7 +16104,7 @@
       <c r="E3" s="131"/>
       <c r="F3" s="121"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="125"/>
       <c r="B4" s="132" t="s">
         <v>805</v>
@@ -16063,7 +16118,7 @@
       <c r="E4" s="133"/>
       <c r="F4" s="126"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="127"/>
       <c r="B5" s="134"/>
       <c r="C5" s="133" t="s">
@@ -16077,7 +16132,7 @@
       </c>
       <c r="F5" s="126"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="127"/>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -16085,7 +16140,7 @@
       <c r="E6" s="133"/>
       <c r="F6" s="126"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="123"/>
       <c r="B7" s="155" t="s">
         <v>810</v>
@@ -16103,7 +16158,7 @@
       <c r="G7" s="154"/>
       <c r="H7" s="158"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="127"/>
       <c r="B8" s="155" t="s">
         <v>811</v>
@@ -16119,7 +16174,7 @@
       </c>
       <c r="F8" s="126"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="127"/>
       <c r="B9" s="155" t="s">
         <v>812</v>
@@ -16135,7 +16190,7 @@
       </c>
       <c r="F9" s="126"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="125"/>
       <c r="B10" s="155" t="s">
         <v>813</v>
@@ -16151,7 +16206,7 @@
       </c>
       <c r="F10" s="126"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="127"/>
       <c r="B11" s="133" t="s">
         <v>814</v>
@@ -16167,7 +16222,7 @@
       </c>
       <c r="F11" s="126"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="127"/>
       <c r="B12" s="133" t="s">
         <v>815</v>
@@ -16183,7 +16238,7 @@
       </c>
       <c r="F12" s="126"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="125"/>
       <c r="B13" s="133" t="s">
         <v>816</v>
@@ -16199,7 +16254,7 @@
       </c>
       <c r="F13" s="126"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="127"/>
       <c r="B14" s="133" t="s">
         <v>817</v>
@@ -16215,7 +16270,7 @@
       </c>
       <c r="F14" s="126"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="127"/>
       <c r="B15" s="133" t="s">
         <v>818</v>
@@ -16231,7 +16286,7 @@
       </c>
       <c r="F15" s="126"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="125"/>
       <c r="B16" s="133" t="s">
         <v>819</v>
@@ -16249,7 +16304,7 @@
       </c>
       <c r="F16" s="126"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="127"/>
       <c r="B17" s="133" t="s">
         <v>820</v>
@@ -16265,7 +16320,7 @@
       </c>
       <c r="F17" s="126"/>
     </row>
-    <row r="18" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="127"/>
       <c r="B18" s="133" t="s">
         <v>821</v>
@@ -16281,7 +16336,7 @@
       </c>
       <c r="F18" s="126"/>
     </row>
-    <row r="19" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="125"/>
       <c r="B19" s="133" t="s">
         <v>822</v>
@@ -16327,7 +16382,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="127"/>
       <c r="B20" s="133" t="s">
         <v>823</v>
@@ -16397,14 +16452,14 @@
         <v>518</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="127"/>
-      <c r="B21" s="226" t="s">
+      <c r="B21" s="233" t="s">
         <v>824</v>
       </c>
-      <c r="C21" s="227"/>
-      <c r="D21" s="227"/>
-      <c r="E21" s="228"/>
+      <c r="C21" s="234"/>
+      <c r="D21" s="234"/>
+      <c r="E21" s="235"/>
       <c r="F21" s="126"/>
       <c r="G21" s="190" t="s">
         <v>832</v>
@@ -16441,7 +16496,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="125"/>
       <c r="B22" s="133" t="s">
         <v>825</v>
@@ -16517,7 +16572,7 @@
         <v>647.5</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="125"/>
       <c r="B23" s="133" t="s">
         <v>826</v>
@@ -16603,7 +16658,7 @@
         <v>647.5</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="127"/>
       <c r="B24" s="133" t="s">
         <v>827</v>
@@ -16664,7 +16719,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="127"/>
       <c r="B25" s="133" t="s">
         <v>828</v>
@@ -16679,7 +16734,7 @@
       </c>
       <c r="F25" s="126"/>
       <c r="G25" s="191" t="str">
-        <f t="shared" ref="G25:G40" si="6">B10</f>
+        <f t="shared" ref="G25:G38" si="6">B10</f>
         <v>RESPONSABLE MEDIO AMBIENTE</v>
       </c>
       <c r="H25" s="214">
@@ -16740,15 +16795,15 @@
         <v>518</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="125"/>
       <c r="B26" s="137" t="s">
         <v>829</v>
       </c>
       <c r="C26" s="137"/>
       <c r="D26" s="137"/>
-      <c r="E26" s="231"/>
-      <c r="F26" s="232"/>
+      <c r="E26" s="218"/>
+      <c r="F26" s="219"/>
       <c r="G26" s="191" t="str">
         <f t="shared" si="6"/>
         <v>RESPONSABLE SEGURIDAD</v>
@@ -16813,15 +16868,15 @@
         <v>777</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="127"/>
       <c r="B27" s="138" t="s">
         <v>830</v>
       </c>
       <c r="C27" s="138"/>
       <c r="D27" s="138"/>
-      <c r="E27" s="231"/>
-      <c r="F27" s="232"/>
+      <c r="E27" s="218"/>
+      <c r="F27" s="219"/>
       <c r="G27" s="191" t="str">
         <f t="shared" si="6"/>
         <v>RESPONSABLE GESTION DE CALIDAD</v>
@@ -16886,13 +16941,13 @@
         <v>777</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="127"/>
       <c r="B28" s="139"/>
       <c r="C28" s="129"/>
       <c r="D28" s="129"/>
-      <c r="E28" s="231"/>
-      <c r="F28" s="232"/>
+      <c r="E28" s="218"/>
+      <c r="F28" s="219"/>
       <c r="G28" s="191" t="str">
         <f t="shared" si="6"/>
         <v>JEFE OF. ADMINISTRATIVA</v>
@@ -16916,10 +16971,10 @@
       <c r="M28" s="184">
         <v>1</v>
       </c>
-      <c r="N28" s="233">
+      <c r="N28" s="220">
         <v>1</v>
       </c>
-      <c r="O28" s="234">
+      <c r="O28" s="221">
         <v>1</v>
       </c>
       <c r="P28" s="196">
@@ -16942,13 +16997,13 @@
         <v>4662</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="123"/>
       <c r="B29" s="140"/>
       <c r="C29" s="141"/>
       <c r="D29" s="142"/>
       <c r="E29" s="142"/>
-      <c r="F29" s="232"/>
+      <c r="F29" s="219"/>
       <c r="G29" s="191" t="str">
         <f t="shared" si="6"/>
         <v>ASISTENTE OF.ADMINIS.</v>
@@ -16972,10 +17027,10 @@
       <c r="M29" s="184">
         <v>2</v>
       </c>
-      <c r="N29" s="233">
+      <c r="N29" s="220">
         <v>2</v>
       </c>
-      <c r="O29" s="234">
+      <c r="O29" s="221">
         <v>2</v>
       </c>
       <c r="P29" s="196">
@@ -16986,20 +17041,13 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="125"/>
       <c r="B30" s="139"/>
       <c r="C30" s="143" t="s">
         <v>861</v>
       </c>
-      <c r="D30" s="238">
-        <v>2959478274</v>
-      </c>
-      <c r="E30" s="133">
-        <f>ROUNDUP(D30/27000,0)</f>
-        <v>109611</v>
-      </c>
-      <c r="F30" s="232"/>
+      <c r="F30" s="219"/>
       <c r="G30" s="191" t="str">
         <f t="shared" si="6"/>
         <v>SECRETARIA</v>
@@ -17023,10 +17071,10 @@
       <c r="M30" s="184">
         <v>1</v>
       </c>
-      <c r="N30" s="233">
+      <c r="N30" s="220">
         <v>1</v>
       </c>
-      <c r="O30" s="234">
+      <c r="O30" s="221">
         <v>1</v>
       </c>
       <c r="P30" s="196">
@@ -17037,13 +17085,13 @@
         <v>416</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="127"/>
       <c r="B31" s="139"/>
       <c r="C31" s="141"/>
       <c r="D31" s="142"/>
-      <c r="E31" s="231"/>
-      <c r="F31" s="232"/>
+      <c r="E31" s="218"/>
+      <c r="F31" s="219"/>
       <c r="G31" s="191" t="str">
         <f t="shared" si="6"/>
         <v>JUNIOR</v>
@@ -17067,10 +17115,10 @@
       <c r="M31" s="184">
         <v>9</v>
       </c>
-      <c r="N31" s="233">
+      <c r="N31" s="220">
         <v>10</v>
       </c>
-      <c r="O31" s="234">
+      <c r="O31" s="221">
         <v>10</v>
       </c>
       <c r="P31" s="196">
@@ -17081,13 +17129,13 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="127"/>
       <c r="B32" s="140"/>
       <c r="C32" s="141"/>
       <c r="D32" s="142"/>
       <c r="E32" s="142"/>
-      <c r="F32" s="232"/>
+      <c r="F32" s="219"/>
       <c r="G32" s="191" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">CONDUCTOR  </v>
@@ -17111,10 +17159,10 @@
       <c r="M32" s="184">
         <v>1</v>
       </c>
-      <c r="N32" s="233">
+      <c r="N32" s="220">
         <v>2</v>
       </c>
-      <c r="O32" s="234">
+      <c r="O32" s="221">
         <v>2</v>
       </c>
       <c r="P32" s="196">
@@ -17124,14 +17172,30 @@
         <f t="shared" si="2"/>
         <v>590</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R32" s="245" t="s">
+        <v>867</v>
+      </c>
+      <c r="S32" s="241">
+        <f>T32/8</f>
+        <v>87145875</v>
+      </c>
+      <c r="T32" s="238">
+        <f>Q41*27000</f>
+        <v>697167000</v>
+      </c>
+      <c r="U32" s="238"/>
+      <c r="W32" s="244">
+        <f>Q41</f>
+        <v>25821</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="125"/>
       <c r="B33" s="139"/>
       <c r="C33" s="143"/>
       <c r="D33" s="142"/>
       <c r="E33" s="142"/>
-      <c r="F33" s="232"/>
+      <c r="F33" s="219"/>
       <c r="G33" s="191" t="str">
         <f t="shared" si="6"/>
         <v>JEFE TALLER MANTENCION</v>
@@ -17155,10 +17219,10 @@
       <c r="M33" s="184">
         <v>1</v>
       </c>
-      <c r="N33" s="233">
+      <c r="N33" s="220">
         <v>1</v>
       </c>
-      <c r="O33" s="234">
+      <c r="O33" s="221">
         <v>1</v>
       </c>
       <c r="P33" s="196">
@@ -17168,14 +17232,26 @@
         <f t="shared" si="2"/>
         <v>1184</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R33" s="245"/>
+      <c r="S33" s="240">
+        <v>450000</v>
+      </c>
+      <c r="T33" s="243">
+        <f>S33*8</f>
+        <v>3600000</v>
+      </c>
+      <c r="U33" s="242"/>
+      <c r="W33" s="244">
+        <f>T33/27000</f>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="127"/>
       <c r="B34" s="139"/>
       <c r="C34" s="141"/>
-      <c r="D34" s="142"/>
       <c r="E34" s="142"/>
-      <c r="F34" s="232"/>
+      <c r="F34" s="219"/>
       <c r="G34" s="191" t="str">
         <f t="shared" si="6"/>
         <v>ELECTRICO</v>
@@ -17199,10 +17275,10 @@
       <c r="M34" s="184">
         <v>1</v>
       </c>
-      <c r="N34" s="233">
+      <c r="N34" s="220">
         <v>1</v>
       </c>
-      <c r="O34" s="234">
+      <c r="O34" s="221">
         <v>1</v>
       </c>
       <c r="P34" s="196">
@@ -17212,8 +17288,21 @@
         <f t="shared" si="2"/>
         <v>888</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="245"/>
+      <c r="S34" s="240">
+        <v>100000</v>
+      </c>
+      <c r="T34" s="243">
+        <f>S34*8</f>
+        <v>800000</v>
+      </c>
+      <c r="U34" s="242"/>
+      <c r="W34" s="244">
+        <f>T34/27000</f>
+        <v>29.62962962962963</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="127"/>
       <c r="B35" s="140"/>
       <c r="C35" s="141"/>
@@ -17243,10 +17332,10 @@
       <c r="M35" s="185">
         <v>1</v>
       </c>
-      <c r="N35" s="235">
+      <c r="N35" s="222">
         <v>1</v>
       </c>
-      <c r="O35" s="236">
+      <c r="O35" s="223">
         <v>1</v>
       </c>
       <c r="P35" s="197">
@@ -17257,7 +17346,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="125"/>
       <c r="B36" s="139"/>
       <c r="C36" s="143"/>
@@ -17279,7 +17368,7 @@
       <c r="P36" s="195"/>
       <c r="Q36" s="211"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="127"/>
       <c r="B37" s="139"/>
       <c r="C37" s="141"/>
@@ -17309,10 +17398,10 @@
       <c r="M37" s="184">
         <v>1</v>
       </c>
-      <c r="N37" s="233">
+      <c r="N37" s="220">
         <v>2</v>
       </c>
-      <c r="O37" s="234">
+      <c r="O37" s="221">
         <v>2</v>
       </c>
       <c r="P37" s="196">
@@ -17323,7 +17412,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="127"/>
       <c r="B38" s="144"/>
       <c r="C38" s="141"/>
@@ -17338,10 +17427,10 @@
         <v>297</v>
       </c>
       <c r="I38" s="188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" s="184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K38" s="184">
         <v>2</v>
@@ -17363,22 +17452,22 @@
       </c>
       <c r="Q38" s="209">
         <f>SUM(I38:P38)*H38</f>
-        <v>4752</v>
-      </c>
-      <c r="S38" s="229" t="s">
+        <v>3564</v>
+      </c>
+      <c r="S38" s="236" t="s">
         <v>859</v>
       </c>
-      <c r="T38" s="229"/>
-      <c r="U38" s="229"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T38" s="236"/>
+      <c r="U38" s="236"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="125"/>
       <c r="B39" s="140"/>
       <c r="C39" s="142"/>
       <c r="D39" s="142"/>
       <c r="E39" s="142"/>
       <c r="G39" s="191" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H39" s="214">
         <f t="shared" si="8"/>
@@ -17413,14 +17502,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="127"/>
       <c r="B40" s="139"/>
       <c r="C40" s="143"/>
       <c r="D40" s="142"/>
       <c r="E40" s="142"/>
       <c r="G40" s="199" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H40" s="217">
         <f t="shared" si="8"/>
@@ -17455,7 +17544,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="127"/>
       <c r="B41" s="139"/>
       <c r="C41" s="143"/>
@@ -17467,11 +17556,11 @@
       <c r="H41" s="206"/>
       <c r="I41" s="207">
         <f t="shared" ref="I41:P41" si="9">SUMPRODUCT(I22:I40,$H$22:$H$40)</f>
-        <v>2875</v>
+        <v>2281</v>
       </c>
       <c r="J41" s="207">
         <f t="shared" si="9"/>
-        <v>3152</v>
+        <v>2558</v>
       </c>
       <c r="K41" s="207">
         <f t="shared" si="9"/>
@@ -17499,99 +17588,197 @@
       </c>
       <c r="Q41" s="208">
         <f>SUM(Q21:Q40)</f>
-        <v>27009</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+        <v>25821</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="127"/>
       <c r="B42" s="139"/>
       <c r="C42" s="143"/>
       <c r="D42" s="142"/>
       <c r="E42" s="142"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="127"/>
       <c r="B43" s="139"/>
       <c r="C43" s="141"/>
       <c r="D43" s="142"/>
       <c r="E43" s="142"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S43" s="122" t="s">
+        <v>865</v>
+      </c>
+      <c r="T43" s="242" t="s">
+        <v>866</v>
+      </c>
+      <c r="U43" s="242"/>
+      <c r="W43" s="122" t="s">
+        <v>868</v>
+      </c>
+      <c r="X43" s="122" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="125"/>
       <c r="B44" s="140"/>
       <c r="C44" s="141"/>
       <c r="D44" s="142"/>
       <c r="E44" s="142"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R44" s="122" t="s">
+        <v>861</v>
+      </c>
+      <c r="S44" s="241"/>
+      <c r="T44" s="243">
+        <v>3274824326</v>
+      </c>
+      <c r="U44" s="243"/>
+      <c r="W44" s="248">
+        <f>ROUNDUP(T44/27000,0)</f>
+        <v>121290</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="127"/>
       <c r="B45" s="139"/>
       <c r="C45" s="143"/>
       <c r="D45" s="142"/>
       <c r="E45" s="142"/>
-      <c r="G45" s="237" t="s">
+      <c r="G45" s="224" t="s">
         <v>860</v>
       </c>
-      <c r="H45" s="239">
-        <f>0.02*D30</f>
-        <v>59189565.480000004</v>
-      </c>
-      <c r="I45" s="239"/>
-      <c r="J45" s="239"/>
-      <c r="S45" s="122" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H45" s="237">
+        <f>0.02*T44</f>
+        <v>65496486.520000003</v>
+      </c>
+      <c r="I45" s="237"/>
+      <c r="J45" s="237"/>
+      <c r="R45" s="122" t="s">
+        <v>871</v>
+      </c>
+      <c r="S45" s="241"/>
+      <c r="T45" s="243">
+        <f>T44*0.08</f>
+        <v>261985946.08000001</v>
+      </c>
+      <c r="U45" s="243"/>
+      <c r="W45" s="248">
+        <f t="shared" ref="W45:W52" si="10">ROUNDUP(T45/27000,0)</f>
+        <v>9704</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="127"/>
       <c r="B46" s="139"/>
       <c r="C46" s="141"/>
       <c r="D46" s="142"/>
       <c r="E46" s="142"/>
-      <c r="S46" s="122">
-        <f>175/8*20000</f>
-        <v>437500</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R46" s="122" t="s">
+        <v>867</v>
+      </c>
+      <c r="S46" s="241">
+        <f>SUM(S32:S34)</f>
+        <v>87695875</v>
+      </c>
+      <c r="T46" s="243">
+        <f>SUM(T32:U34)</f>
+        <v>701567000</v>
+      </c>
+      <c r="U46" s="243"/>
+      <c r="W46" s="248">
+        <f t="shared" si="10"/>
+        <v>25984</v>
+      </c>
+      <c r="X46" s="246">
+        <f>T46/$T$44</f>
+        <v>0.21423042281383126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="125"/>
       <c r="B47" s="140"/>
       <c r="C47" s="141"/>
       <c r="D47" s="142"/>
       <c r="E47" s="142"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S47" s="240"/>
+      <c r="W47" s="248"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="127"/>
       <c r="B48" s="139"/>
       <c r="C48" s="143"/>
       <c r="D48" s="142"/>
       <c r="E48" s="142"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R48" s="122" t="s">
+        <v>870</v>
+      </c>
+      <c r="S48" s="240"/>
+      <c r="T48" s="243">
+        <f>0.1*SUM(T44:U46)</f>
+        <v>423837727.208</v>
+      </c>
+      <c r="U48" s="243"/>
+      <c r="W48" s="248">
+        <f t="shared" si="10"/>
+        <v>15698</v>
+      </c>
+      <c r="X48" s="246">
+        <f>T48/$T$44</f>
+        <v>0.12942304228138313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="127"/>
       <c r="B49" s="139"/>
       <c r="C49" s="141"/>
       <c r="D49" s="142"/>
       <c r="E49" s="142"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R49" s="122" t="s">
+        <v>869</v>
+      </c>
+      <c r="T49" s="237">
+        <f>0.02*SUM(T44:U46)</f>
+        <v>84767545.441599995</v>
+      </c>
+      <c r="U49" s="237"/>
+      <c r="W49" s="248">
+        <f t="shared" si="10"/>
+        <v>3140</v>
+      </c>
+      <c r="X49" s="246">
+        <f>T49/$T$44</f>
+        <v>2.5884608456276624E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="123"/>
       <c r="B50" s="140"/>
       <c r="C50" s="141"/>
       <c r="D50" s="142"/>
       <c r="E50" s="142"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R50" s="122" t="s">
+        <v>873</v>
+      </c>
+      <c r="T50" s="237">
+        <f>SUM(T44:U49)</f>
+        <v>4746982544.7296</v>
+      </c>
+      <c r="U50" s="237"/>
+      <c r="W50" s="248">
+        <f t="shared" si="10"/>
+        <v>175815</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="125"/>
       <c r="B51" s="139"/>
       <c r="C51" s="143"/>
       <c r="D51" s="142"/>
       <c r="E51" s="142"/>
       <c r="M51" s="122" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="127"/>
       <c r="B52" s="139"/>
       <c r="C52" s="141"/>
@@ -17600,51 +17787,86 @@
       <c r="M52" s="122">
         <v>5682</v>
       </c>
-      <c r="N52" s="240">
+      <c r="N52" s="238">
         <f>M52*2700</f>
         <v>15341400</v>
       </c>
-      <c r="O52" s="240"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="238"/>
+      <c r="R52" s="122" t="s">
+        <v>874</v>
+      </c>
+      <c r="T52" s="237">
+        <f>T50*0.19</f>
+        <v>901926683.49862397</v>
+      </c>
+      <c r="U52" s="237"/>
+      <c r="W52" s="248">
+        <f t="shared" si="10"/>
+        <v>33405</v>
+      </c>
+      <c r="X52" s="246">
+        <f>T52/$T$44</f>
+        <v>0.27541223397478326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="127"/>
       <c r="C53" s="141"/>
       <c r="D53" s="142"/>
       <c r="E53" s="142"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="V53" s="247"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="125"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T54" s="237">
+        <f>SUM(T50:U52)</f>
+        <v>5648909228.2282238</v>
+      </c>
+      <c r="U54" s="237"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="127"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="127"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" s="125"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" s="127"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" s="127"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" s="125"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" s="127"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" s="127"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="17">
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="T52:U52"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="S38:U38"/>
     <mergeCell ref="H45:J45"/>
     <mergeCell ref="N52:O52"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="R32:R34"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="T54:U54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17660,9 +17882,9 @@
       <selection activeCell="B4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="146"/>
       <c r="C3" s="146"/>
       <c r="D3" s="146"/>
@@ -17674,21 +17896,21 @@
       <c r="J3" s="146"/>
       <c r="K3" s="146"/>
     </row>
-    <row r="4" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="230" t="s">
+    <row r="4" spans="2:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="239" t="s">
         <v>831</v>
       </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="230"/>
-      <c r="H4" s="230"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
       <c r="I4" s="146"/>
       <c r="J4" s="146"/>
       <c r="K4" s="146"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="147"/>
       <c r="C5" s="147"/>
       <c r="D5" s="147"/>
@@ -17700,7 +17922,7 @@
       <c r="J5" s="147"/>
       <c r="K5" s="146"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="148" t="s">
         <v>832</v>
       </c>
@@ -17730,7 +17952,7 @@
       </c>
       <c r="K6" s="149"/>
     </row>
-    <row r="7" spans="2:11" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="150" t="s">
         <v>841</v>
       </c>
@@ -17750,7 +17972,7 @@
       <c r="J7" s="150"/>
       <c r="K7" s="149"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="150" t="s">
         <v>842</v>
       </c>
@@ -17770,7 +17992,7 @@
       <c r="J8" s="150"/>
       <c r="K8" s="149"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="150" t="s">
         <v>843</v>
       </c>
@@ -17792,7 +18014,7 @@
       <c r="J9" s="150"/>
       <c r="K9" s="149"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="150" t="s">
         <v>844</v>
       </c>
@@ -17814,7 +18036,7 @@
       <c r="J10" s="150"/>
       <c r="K10" s="149"/>
     </row>
-    <row r="11" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="150" t="s">
         <v>845</v>
       </c>
@@ -17836,7 +18058,7 @@
       <c r="J11" s="150"/>
       <c r="K11" s="149"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="150" t="s">
         <v>846</v>
       </c>
@@ -17866,7 +18088,7 @@
       </c>
       <c r="K12" s="149"/>
     </row>
-    <row r="13" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="150" t="s">
         <v>395</v>
       </c>
@@ -17888,7 +18110,7 @@
       </c>
       <c r="K13" s="149"/>
     </row>
-    <row r="14" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="150" t="s">
         <v>847</v>
       </c>
@@ -17910,7 +18132,7 @@
       </c>
       <c r="K14" s="149"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="151" t="s">
         <v>848</v>
       </c>
@@ -17940,7 +18162,7 @@
       </c>
       <c r="K15" s="149"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="152"/>
       <c r="C16" s="152">
         <f>C15/10</f>

--- a/presupuesto/PRESUPUESTO_CURSO_EDIF_PRIM_2018.xlsx
+++ b/presupuesto/PRESUPUESTO_CURSO_EDIF_PRIM_2018.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mleal\Desktop\proyecto-CI6501\presupuesto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\proyecto edificios\proyecto-CI6501\presupuesto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B5323C-754C-4615-909E-46BDD2ADCD3B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8796426-BD37-4782-B87A-BE8ADECF721F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Presupuesto Original" sheetId="1" r:id="rId1"/>
     <sheet name="GG" sheetId="2" r:id="rId2"/>
     <sheet name="Personal CD" sheetId="7" r:id="rId3"/>
+    <sheet name="Tablas informe " sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="899">
   <si>
     <t>ITEMIZACION DEL PRESUPUESTO</t>
   </si>
@@ -2658,20 +2659,94 @@
   </si>
   <si>
     <t>IVA 19%</t>
+  </si>
+  <si>
+    <t>Instalación de Faenas</t>
+  </si>
+  <si>
+    <t>Partidas</t>
+  </si>
+  <si>
+    <t>Total CLP</t>
+  </si>
+  <si>
+    <t>Total UF</t>
+  </si>
+  <si>
+    <t>Obra gruesa</t>
+  </si>
+  <si>
+    <t>Terminaciones</t>
+  </si>
+  <si>
+    <t>Partidas Generales</t>
+  </si>
+  <si>
+    <t>Otras Partidas</t>
+  </si>
+  <si>
+    <t>Total Costo Directo</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>\$/MES</t>
+  </si>
+  <si>
+    <t>GASTOS agua mes ( \$ PROMEDIO)</t>
+  </si>
+  <si>
+    <t>Gastos Generales</t>
+  </si>
+  <si>
+    <t>Trabajadores y otros gastos</t>
+  </si>
+  <si>
+    <t>Servicios de Comunicación</t>
+  </si>
+  <si>
+    <t>Caja Chica</t>
+  </si>
+  <si>
+    <t>Total Mensual CLP</t>
+  </si>
+  <si>
+    <t>TOTAL G.G.</t>
+  </si>
+  <si>
+    <t>Imprevisto (8\%)</t>
+  </si>
+  <si>
+    <t>Utilidad (10\%)</t>
+  </si>
+  <si>
+    <t>ADM Central (2\%)</t>
+  </si>
+  <si>
+    <t>Costo total Obra</t>
+  </si>
+  <si>
+    <t>Csoto Directo</t>
+  </si>
+  <si>
+    <t>IVA (19\%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="170" formatCode="0.000%"/>
+  <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2869,6 +2944,27 @@
       <name val="Times New Roman"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -2938,7 +3034,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="84">
     <border>
       <left/>
       <right/>
@@ -3690,13 +3786,337 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="338">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3791,7 +4211,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3812,7 +4232,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3830,7 +4250,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3848,7 +4268,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3872,7 +4292,7 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3887,7 +4307,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3908,7 +4328,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3923,7 +4343,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3932,7 +4352,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3944,13 +4364,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3971,7 +4391,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3983,10 +4403,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4010,7 +4430,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4022,16 +4442,16 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4116,13 +4536,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4180,9 +4600,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4192,9 +4609,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4204,9 +4618,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4216,9 +4627,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4228,9 +4636,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4240,17 +4645,8 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4273,9 +4669,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
@@ -4336,29 +4729,44 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="11"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="11"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="11"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -4372,41 +4780,271 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="26" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="69" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="68" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="62" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="26" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="26" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="69" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="4">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda [0]" xfId="3" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4492,7 +5130,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4559,7 +5197,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4753,7 +5391,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4790,7 +5428,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="746759488"/>
@@ -4869,7 +5507,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4907,7 +5545,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="279484656"/>
@@ -4955,7 +5593,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5613,7 +6251,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5917,7 +6555,7 @@
       <selection pane="bottomLeft" activeCell="E488" sqref="E488"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" style="2" customWidth="1"/>
@@ -5934,15 +6572,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
     </row>
     <row r="2" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
@@ -5974,10 +6612,10 @@
       <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="231" t="s">
+      <c r="D4" s="223" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="232" t="s">
+      <c r="E4" s="224" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="20" t="s">
@@ -5991,8 +6629,8 @@
       <c r="A5" s="17"/>
       <c r="B5" s="21"/>
       <c r="C5" s="22"/>
-      <c r="D5" s="231"/>
-      <c r="E5" s="232"/>
+      <c r="D5" s="223"/>
+      <c r="E5" s="224"/>
       <c r="F5" s="23" t="s">
         <v>9</v>
       </c>
@@ -6356,10 +6994,10 @@
     </row>
     <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
-      <c r="B28" s="227" t="s">
+      <c r="B28" s="225" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="227"/>
+      <c r="C28" s="225"/>
       <c r="D28" s="26"/>
       <c r="E28" s="27"/>
       <c r="F28" s="26"/>
@@ -7892,10 +8530,10 @@
       <c r="I130" s="83"/>
     </row>
     <row r="131" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="228" t="s">
+      <c r="B131" s="226" t="s">
         <v>170</v>
       </c>
-      <c r="C131" s="228"/>
+      <c r="C131" s="226"/>
       <c r="D131" s="82" t="s">
         <v>109</v>
       </c>
@@ -7906,10 +8544,10 @@
       <c r="G131" s="69"/>
     </row>
     <row r="132" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="228" t="s">
+      <c r="B132" s="226" t="s">
         <v>171</v>
       </c>
-      <c r="C132" s="228"/>
+      <c r="C132" s="226"/>
       <c r="D132" s="82" t="s">
         <v>109</v>
       </c>
@@ -8215,7 +8853,7 @@
       </c>
       <c r="F154" s="67"/>
       <c r="G154" s="69"/>
-      <c r="I154" s="229" t="s">
+      <c r="I154" s="227" t="s">
         <v>190</v>
       </c>
     </row>
@@ -8232,7 +8870,7 @@
       </c>
       <c r="F155" s="67"/>
       <c r="G155" s="69"/>
-      <c r="I155" s="229"/>
+      <c r="I155" s="227"/>
     </row>
     <row r="156" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="78"/>
@@ -8247,7 +8885,7 @@
       </c>
       <c r="F156" s="67"/>
       <c r="G156" s="69"/>
-      <c r="I156" s="229"/>
+      <c r="I156" s="227"/>
     </row>
     <row r="157" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="78"/>
@@ -8262,7 +8900,7 @@
       </c>
       <c r="F157" s="67"/>
       <c r="G157" s="69"/>
-      <c r="I157" s="229"/>
+      <c r="I157" s="227"/>
     </row>
     <row r="158" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="78"/>
@@ -8277,7 +8915,7 @@
       </c>
       <c r="F158" s="67"/>
       <c r="G158" s="69"/>
-      <c r="I158" s="229"/>
+      <c r="I158" s="227"/>
     </row>
     <row r="159" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="29" t="s">
@@ -10445,7 +11083,7 @@
       </c>
       <c r="F323" s="61"/>
       <c r="G323" s="61"/>
-      <c r="I323" s="229" t="s">
+      <c r="I323" s="227" t="s">
         <v>324</v>
       </c>
     </row>
@@ -10464,7 +11102,7 @@
       </c>
       <c r="F324" s="61"/>
       <c r="G324" s="61"/>
-      <c r="I324" s="229"/>
+      <c r="I324" s="227"/>
     </row>
     <row r="325" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="58" t="s">
@@ -10481,7 +11119,7 @@
       </c>
       <c r="F325" s="61"/>
       <c r="G325" s="61"/>
-      <c r="I325" s="229"/>
+      <c r="I325" s="227"/>
     </row>
     <row r="326" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="58" t="s">
@@ -10498,7 +11136,7 @@
       </c>
       <c r="F326" s="61"/>
       <c r="G326" s="61"/>
-      <c r="I326" s="229"/>
+      <c r="I326" s="227"/>
     </row>
     <row r="327" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="94" t="s">
@@ -11134,7 +11772,7 @@
       <c r="E370" s="27"/>
       <c r="F370" s="26"/>
       <c r="G370" s="28"/>
-      <c r="I370" s="229" t="s">
+      <c r="I370" s="227" t="s">
         <v>396</v>
       </c>
     </row>
@@ -11151,7 +11789,7 @@
       <c r="E371" s="96"/>
       <c r="F371" s="55"/>
       <c r="G371" s="57"/>
-      <c r="I371" s="229"/>
+      <c r="I371" s="227"/>
     </row>
     <row r="372" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="58" t="s">
@@ -11169,7 +11807,7 @@
       </c>
       <c r="F372" s="61"/>
       <c r="G372" s="61"/>
-      <c r="I372" s="229"/>
+      <c r="I372" s="227"/>
     </row>
     <row r="373" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="78"/>
@@ -11184,7 +11822,7 @@
       </c>
       <c r="F373" s="67"/>
       <c r="G373" s="69"/>
-      <c r="I373" s="229"/>
+      <c r="I373" s="227"/>
     </row>
     <row r="374" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="78"/>
@@ -11199,7 +11837,7 @@
       </c>
       <c r="F374" s="67"/>
       <c r="G374" s="69"/>
-      <c r="I374" s="229"/>
+      <c r="I374" s="227"/>
     </row>
     <row r="375" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="78"/>
@@ -11214,7 +11852,7 @@
       </c>
       <c r="F375" s="67"/>
       <c r="G375" s="69"/>
-      <c r="I375" s="229"/>
+      <c r="I375" s="227"/>
     </row>
     <row r="376" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="78"/>
@@ -11229,7 +11867,7 @@
       </c>
       <c r="F376" s="67"/>
       <c r="G376" s="69"/>
-      <c r="I376" s="229"/>
+      <c r="I376" s="227"/>
     </row>
     <row r="377" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="78"/>
@@ -12795,7 +13433,7 @@
       <c r="E488" s="35"/>
       <c r="F488" s="33"/>
       <c r="G488" s="34"/>
-      <c r="I488" s="229" t="s">
+      <c r="I488" s="227" t="s">
         <v>553</v>
       </c>
     </row>
@@ -12817,7 +13455,7 @@
         <v>556</v>
       </c>
       <c r="H489" s="83"/>
-      <c r="I489" s="229"/>
+      <c r="I489" s="227"/>
     </row>
     <row r="490" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B490" s="78"/>
@@ -15716,10 +16354,10 @@
       <c r="G704" s="34"/>
     </row>
     <row r="705" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B705" s="227" t="s">
+      <c r="B705" s="225" t="s">
         <v>770</v>
       </c>
-      <c r="C705" s="227"/>
+      <c r="C705" s="225"/>
       <c r="D705" s="26"/>
       <c r="E705" s="27"/>
       <c r="F705" s="26"/>
@@ -15810,28 +16448,28 @@
       <c r="G711" s="61"/>
     </row>
     <row r="712" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B712" s="227" t="s">
+      <c r="B712" s="225" t="s">
         <v>780</v>
       </c>
-      <c r="C712" s="227"/>
+      <c r="C712" s="225"/>
       <c r="D712" s="26"/>
       <c r="E712" s="27"/>
       <c r="F712" s="26"/>
       <c r="G712" s="28"/>
     </row>
     <row r="713" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B713" s="225"/>
-      <c r="C713" s="225"/>
+      <c r="B713" s="228"/>
+      <c r="C713" s="228"/>
       <c r="D713" s="52"/>
       <c r="E713" s="103"/>
       <c r="F713" s="52"/>
       <c r="G713" s="53"/>
     </row>
     <row r="714" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B714" s="227" t="s">
+      <c r="B714" s="225" t="s">
         <v>781</v>
       </c>
-      <c r="C714" s="227"/>
+      <c r="C714" s="225"/>
       <c r="D714" s="26"/>
       <c r="E714" s="27"/>
       <c r="F714" s="26"/>
@@ -15998,45 +16636,35 @@
       <c r="G724" s="61"/>
     </row>
     <row r="725" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B725" s="227" t="s">
+      <c r="B725" s="225" t="s">
         <v>802</v>
       </c>
-      <c r="C725" s="227"/>
+      <c r="C725" s="225"/>
       <c r="D725" s="26"/>
       <c r="E725" s="27"/>
       <c r="F725" s="26"/>
       <c r="G725" s="28"/>
     </row>
     <row r="726" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B726" s="225"/>
-      <c r="C726" s="225"/>
-      <c r="D726" s="225"/>
-      <c r="E726" s="225"/>
-      <c r="F726" s="225"/>
-      <c r="G726" s="225"/>
+      <c r="B726" s="228"/>
+      <c r="C726" s="228"/>
+      <c r="D726" s="228"/>
+      <c r="E726" s="228"/>
+      <c r="F726" s="228"/>
+      <c r="G726" s="228"/>
     </row>
     <row r="727" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B727" s="226" t="s">
+      <c r="B727" s="229" t="s">
         <v>803</v>
       </c>
-      <c r="C727" s="226"/>
-      <c r="D727" s="226"/>
-      <c r="E727" s="226"/>
-      <c r="F727" s="226"/>
-      <c r="G727" s="226"/>
+      <c r="C727" s="229"/>
+      <c r="D727" s="229"/>
+      <c r="E727" s="229"/>
+      <c r="F727" s="229"/>
+      <c r="G727" s="229"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="I154:I158"/>
-    <mergeCell ref="I323:I326"/>
-    <mergeCell ref="I370:I376"/>
-    <mergeCell ref="I488:I489"/>
     <mergeCell ref="B726:G726"/>
     <mergeCell ref="B727:G727"/>
     <mergeCell ref="B705:C705"/>
@@ -16044,6 +16672,16 @@
     <mergeCell ref="B713:C713"/>
     <mergeCell ref="B714:C714"/>
     <mergeCell ref="B725:C725"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="I154:I158"/>
+    <mergeCell ref="I323:I326"/>
+    <mergeCell ref="I370:I376"/>
+    <mergeCell ref="I488:I489"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B131:C131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -16054,11 +16692,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T54" sqref="T54:U54"/>
+    <sheetView topLeftCell="K31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X46" sqref="X46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="128" customWidth="1"/>
     <col min="2" max="2" width="44.33203125" style="145" customWidth="1"/>
@@ -16078,7 +16716,7 @@
     <col min="1025" max="16384" width="9.33203125" style="122"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="120"/>
       <c r="B1" s="129"/>
       <c r="C1" s="129"/>
@@ -16086,7 +16724,7 @@
       <c r="E1" s="129"/>
       <c r="F1" s="121"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="123"/>
       <c r="B2" s="130" t="s">
         <v>804</v>
@@ -16096,15 +16734,35 @@
       <c r="E2" s="129"/>
       <c r="F2" s="121"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="124"/>
       <c r="B3" s="130"/>
       <c r="C3" s="131"/>
       <c r="D3" s="131"/>
       <c r="E3" s="131"/>
       <c r="F3" s="121"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R3" s="122">
+        <f>SUM(I22:I35)</f>
+        <v>15</v>
+      </c>
+      <c r="S3" s="122">
+        <f t="shared" ref="S3:V3" si="0">SUM(J22:J35)</f>
+        <v>20</v>
+      </c>
+      <c r="T3" s="122">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="U3" s="122">
+        <f t="shared" si="0"/>
+        <v>21.25</v>
+      </c>
+      <c r="V3" s="122">
+        <f t="shared" si="0"/>
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="125"/>
       <c r="B4" s="132" t="s">
         <v>805</v>
@@ -16118,7 +16776,7 @@
       <c r="E4" s="133"/>
       <c r="F4" s="126"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="127"/>
       <c r="B5" s="134"/>
       <c r="C5" s="133" t="s">
@@ -16132,7 +16790,7 @@
       </c>
       <c r="F5" s="126"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="127"/>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -16140,7 +16798,7 @@
       <c r="E6" s="133"/>
       <c r="F6" s="126"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="123"/>
       <c r="B7" s="155" t="s">
         <v>810</v>
@@ -16158,7 +16816,7 @@
       <c r="G7" s="154"/>
       <c r="H7" s="158"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="127"/>
       <c r="B8" s="155" t="s">
         <v>811</v>
@@ -16174,7 +16832,7 @@
       </c>
       <c r="F8" s="126"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="127"/>
       <c r="B9" s="155" t="s">
         <v>812</v>
@@ -16190,7 +16848,7 @@
       </c>
       <c r="F9" s="126"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="125"/>
       <c r="B10" s="155" t="s">
         <v>813</v>
@@ -16206,7 +16864,7 @@
       </c>
       <c r="F10" s="126"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="127"/>
       <c r="B11" s="133" t="s">
         <v>814</v>
@@ -16222,7 +16880,7 @@
       </c>
       <c r="F11" s="126"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="127"/>
       <c r="B12" s="133" t="s">
         <v>815</v>
@@ -16238,7 +16896,7 @@
       </c>
       <c r="F12" s="126"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="125"/>
       <c r="B13" s="133" t="s">
         <v>816</v>
@@ -16254,7 +16912,7 @@
       </c>
       <c r="F13" s="126"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="127"/>
       <c r="B14" s="133" t="s">
         <v>817</v>
@@ -16270,7 +16928,7 @@
       </c>
       <c r="F14" s="126"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="127"/>
       <c r="B15" s="133" t="s">
         <v>818</v>
@@ -16286,7 +16944,7 @@
       </c>
       <c r="F15" s="126"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="125"/>
       <c r="B16" s="133" t="s">
         <v>819</v>
@@ -16351,34 +17009,34 @@
         <v>111</v>
       </c>
       <c r="F19" s="126"/>
-      <c r="T19" s="171" t="s">
+      <c r="T19" s="291" t="s">
         <v>809</v>
       </c>
-      <c r="U19" s="167" t="s">
+      <c r="U19" s="292" t="s">
         <v>833</v>
       </c>
-      <c r="V19" s="163" t="s">
+      <c r="V19" s="293" t="s">
         <v>834</v>
       </c>
-      <c r="W19" s="163" t="s">
+      <c r="W19" s="293" t="s">
         <v>835</v>
       </c>
-      <c r="X19" s="163" t="s">
+      <c r="X19" s="293" t="s">
         <v>836</v>
       </c>
-      <c r="Y19" s="163" t="s">
+      <c r="Y19" s="293" t="s">
         <v>837</v>
       </c>
-      <c r="Z19" s="163" t="s">
+      <c r="Z19" s="293" t="s">
         <v>838</v>
       </c>
-      <c r="AA19" s="163" t="s">
+      <c r="AA19" s="293" t="s">
         <v>839</v>
       </c>
-      <c r="AB19" s="175" t="s">
+      <c r="AB19" s="294" t="s">
         <v>840</v>
       </c>
-      <c r="AC19" s="179" t="s">
+      <c r="AC19" s="295" t="s">
         <v>857</v>
       </c>
     </row>
@@ -16398,44 +17056,44 @@
       </c>
       <c r="F20" s="126"/>
       <c r="G20" s="156"/>
-      <c r="H20" s="193" t="s">
+      <c r="H20" s="185" t="s">
         <v>809</v>
       </c>
-      <c r="I20" s="186" t="s">
+      <c r="I20" s="297" t="s">
         <v>833</v>
       </c>
-      <c r="J20" s="187" t="s">
+      <c r="J20" s="298" t="s">
         <v>834</v>
       </c>
-      <c r="K20" s="187" t="s">
+      <c r="K20" s="298" t="s">
         <v>835</v>
       </c>
-      <c r="L20" s="187" t="s">
+      <c r="L20" s="298" t="s">
         <v>836</v>
       </c>
-      <c r="M20" s="187" t="s">
+      <c r="M20" s="298" t="s">
         <v>837</v>
       </c>
-      <c r="N20" s="187" t="s">
+      <c r="N20" s="298" t="s">
         <v>838</v>
       </c>
-      <c r="O20" s="187" t="s">
+      <c r="O20" s="298" t="s">
         <v>839</v>
       </c>
-      <c r="P20" s="198" t="s">
+      <c r="P20" s="299" t="s">
         <v>840</v>
       </c>
-      <c r="Q20" s="203" t="s">
+      <c r="Q20" s="194" t="s">
         <v>857</v>
       </c>
-      <c r="S20" s="164" t="s">
+      <c r="S20" s="163" t="s">
         <v>849</v>
       </c>
-      <c r="T20" s="172">
+      <c r="T20" s="169">
         <f>$E$8</f>
         <v>259</v>
       </c>
-      <c r="U20" s="168">
+      <c r="U20" s="166">
         <v>1</v>
       </c>
       <c r="V20" s="160">
@@ -16446,42 +17104,42 @@
       <c r="Y20" s="160"/>
       <c r="Z20" s="160"/>
       <c r="AA20" s="160"/>
-      <c r="AB20" s="176"/>
-      <c r="AC20" s="180">
-        <f t="shared" ref="AC20:AC27" si="0">SUM(U20:AB20)*T20</f>
+      <c r="AB20" s="172"/>
+      <c r="AC20" s="175">
+        <f t="shared" ref="AC20:AC27" si="1">SUM(U20:AB20)*T20</f>
         <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="127"/>
-      <c r="B21" s="233" t="s">
+      <c r="B21" s="231" t="s">
         <v>824</v>
       </c>
-      <c r="C21" s="234"/>
-      <c r="D21" s="234"/>
-      <c r="E21" s="235"/>
+      <c r="C21" s="232"/>
+      <c r="D21" s="232"/>
+      <c r="E21" s="233"/>
       <c r="F21" s="126"/>
-      <c r="G21" s="190" t="s">
+      <c r="G21" s="182" t="s">
         <v>832</v>
       </c>
-      <c r="H21" s="194"/>
-      <c r="I21" s="195"/>
-      <c r="J21" s="195"/>
-      <c r="K21" s="195"/>
-      <c r="L21" s="195"/>
-      <c r="M21" s="195"/>
-      <c r="N21" s="195"/>
-      <c r="O21" s="195"/>
-      <c r="P21" s="195"/>
-      <c r="Q21" s="204"/>
-      <c r="S21" s="165" t="s">
+      <c r="H21" s="186"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="187"/>
+      <c r="K21" s="187"/>
+      <c r="L21" s="187"/>
+      <c r="M21" s="187"/>
+      <c r="N21" s="187"/>
+      <c r="O21" s="187"/>
+      <c r="P21" s="187"/>
+      <c r="Q21" s="195"/>
+      <c r="S21" s="164" t="s">
         <v>856</v>
       </c>
-      <c r="T21" s="173">
+      <c r="T21" s="170">
         <f>$E$8</f>
         <v>259</v>
       </c>
-      <c r="U21" s="169"/>
+      <c r="U21" s="167"/>
       <c r="V21" s="161"/>
       <c r="W21" s="161">
         <v>1</v>
@@ -16490,9 +17148,9 @@
       <c r="Y21" s="161"/>
       <c r="Z21" s="161"/>
       <c r="AA21" s="161"/>
-      <c r="AB21" s="177"/>
-      <c r="AC21" s="181">
-        <f t="shared" si="0"/>
+      <c r="AB21" s="173"/>
+      <c r="AC21" s="176">
+        <f t="shared" si="1"/>
         <v>259</v>
       </c>
     </row>
@@ -16510,50 +17168,50 @@
         <v>75</v>
       </c>
       <c r="F22" s="126"/>
-      <c r="G22" s="191" t="str">
+      <c r="G22" s="183" t="str">
         <f>B7</f>
         <v>ADMINSITRADOR CONTRATO</v>
       </c>
-      <c r="H22" s="213">
-        <f t="shared" ref="H22:H27" si="1">E7</f>
+      <c r="H22" s="204">
+        <f>E7</f>
         <v>370</v>
       </c>
-      <c r="I22" s="188">
+      <c r="I22" s="180">
         <v>1</v>
       </c>
-      <c r="J22" s="184">
+      <c r="J22" s="178">
         <v>1</v>
       </c>
-      <c r="K22" s="184">
+      <c r="K22" s="178">
         <v>1</v>
       </c>
-      <c r="L22" s="184">
+      <c r="L22" s="178">
         <v>1</v>
       </c>
-      <c r="M22" s="184">
+      <c r="M22" s="178">
         <v>1</v>
       </c>
-      <c r="N22" s="184">
+      <c r="N22" s="178">
         <v>1</v>
       </c>
-      <c r="O22" s="196">
+      <c r="O22" s="188">
         <v>1</v>
       </c>
-      <c r="P22" s="196">
+      <c r="P22" s="188">
         <v>1</v>
       </c>
-      <c r="Q22" s="209">
+      <c r="Q22" s="200">
         <f t="shared" ref="Q22:Q35" si="2">SUM(I22:P22)*H22</f>
         <v>2960</v>
       </c>
-      <c r="S22" s="165" t="s">
+      <c r="S22" s="164" t="s">
         <v>850</v>
       </c>
-      <c r="T22" s="173">
+      <c r="T22" s="170">
         <f t="shared" ref="T22:T27" si="3">$E$8</f>
         <v>259</v>
       </c>
-      <c r="U22" s="169"/>
+      <c r="U22" s="167"/>
       <c r="V22" s="161"/>
       <c r="W22" s="161"/>
       <c r="X22" s="161">
@@ -16566,9 +17224,9 @@
         <v>0.5</v>
       </c>
       <c r="AA22" s="161"/>
-      <c r="AB22" s="177"/>
-      <c r="AC22" s="181">
-        <f t="shared" si="0"/>
+      <c r="AB22" s="173"/>
+      <c r="AC22" s="176">
+        <f t="shared" si="1"/>
         <v>647.5</v>
       </c>
     </row>
@@ -16586,58 +17244,58 @@
         <v>297</v>
       </c>
       <c r="F23" s="126"/>
-      <c r="G23" s="191" t="str">
+      <c r="G23" s="183" t="str">
         <f>B8</f>
         <v>SUPERVISORES DE TERRENO</v>
       </c>
-      <c r="H23" s="213">
-        <f t="shared" si="1"/>
+      <c r="H23" s="204">
+        <f t="shared" ref="H22:H27" si="5">E8</f>
         <v>259</v>
       </c>
-      <c r="I23" s="188">
-        <f t="shared" ref="I23:P23" si="5">SUM(U20:U27)</f>
+      <c r="I23" s="180">
+        <f t="shared" ref="I23:P23" si="6">SUM(U20:U27)</f>
         <v>1</v>
       </c>
-      <c r="J23" s="184">
-        <f t="shared" si="5"/>
+      <c r="J23" s="178">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K23" s="184">
-        <f t="shared" si="5"/>
+      <c r="K23" s="178">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L23" s="184">
-        <f t="shared" si="5"/>
+      <c r="L23" s="178">
+        <f t="shared" si="6"/>
         <v>1.25</v>
       </c>
-      <c r="M23" s="184">
-        <f t="shared" si="5"/>
+      <c r="M23" s="178">
+        <f t="shared" si="6"/>
         <v>3.25</v>
       </c>
-      <c r="N23" s="184">
-        <f t="shared" si="5"/>
+      <c r="N23" s="178">
+        <f>SUM(Z20:Z27)</f>
         <v>5.25</v>
       </c>
-      <c r="O23" s="196">
-        <f t="shared" si="5"/>
+      <c r="O23" s="188">
+        <f t="shared" si="6"/>
         <v>3.75</v>
       </c>
-      <c r="P23" s="196">
-        <f t="shared" si="5"/>
+      <c r="P23" s="188">
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="Q23" s="209">
+      <c r="Q23" s="200">
         <f t="shared" si="2"/>
         <v>4662</v>
       </c>
-      <c r="S23" s="165" t="s">
+      <c r="S23" s="164" t="s">
         <v>851</v>
       </c>
-      <c r="T23" s="173">
+      <c r="T23" s="170">
         <f t="shared" si="3"/>
         <v>259</v>
       </c>
-      <c r="U23" s="169"/>
+      <c r="U23" s="167"/>
       <c r="V23" s="161"/>
       <c r="W23" s="161"/>
       <c r="X23" s="161">
@@ -16652,9 +17310,9 @@
       <c r="AA23" s="161">
         <v>0.25</v>
       </c>
-      <c r="AB23" s="177"/>
-      <c r="AC23" s="181">
-        <f t="shared" si="0"/>
+      <c r="AB23" s="173"/>
+      <c r="AC23" s="176">
+        <f t="shared" si="1"/>
         <v>647.5</v>
       </c>
     </row>
@@ -16672,35 +17330,35 @@
         <v>6</v>
       </c>
       <c r="F24" s="126"/>
-      <c r="G24" s="191" t="s">
+      <c r="G24" s="183" t="s">
         <v>812</v>
       </c>
-      <c r="H24" s="213">
-        <f t="shared" si="1"/>
+      <c r="H24" s="204">
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
-      <c r="I24" s="188"/>
-      <c r="J24" s="184">
+      <c r="I24" s="180"/>
+      <c r="J24" s="178">
         <v>1</v>
       </c>
-      <c r="K24" s="184"/>
-      <c r="L24" s="184"/>
-      <c r="M24" s="184"/>
-      <c r="N24" s="184"/>
-      <c r="O24" s="196"/>
-      <c r="P24" s="196"/>
-      <c r="Q24" s="209">
+      <c r="K24" s="178"/>
+      <c r="L24" s="178"/>
+      <c r="M24" s="178"/>
+      <c r="N24" s="178"/>
+      <c r="O24" s="188"/>
+      <c r="P24" s="188"/>
+      <c r="Q24" s="200">
         <f t="shared" si="2"/>
         <v>185</v>
       </c>
-      <c r="S24" s="165" t="s">
+      <c r="S24" s="164" t="s">
         <v>852</v>
       </c>
-      <c r="T24" s="173">
+      <c r="T24" s="170">
         <f t="shared" si="3"/>
         <v>259</v>
       </c>
-      <c r="U24" s="169"/>
+      <c r="U24" s="167"/>
       <c r="V24" s="161"/>
       <c r="W24" s="161"/>
       <c r="X24" s="161"/>
@@ -16713,9 +17371,9 @@
       <c r="AA24" s="161">
         <v>0.5</v>
       </c>
-      <c r="AB24" s="177"/>
-      <c r="AC24" s="181">
-        <f t="shared" si="0"/>
+      <c r="AB24" s="173"/>
+      <c r="AC24" s="176">
+        <f t="shared" si="1"/>
         <v>518</v>
       </c>
     </row>
@@ -16733,50 +17391,50 @@
         <v>8</v>
       </c>
       <c r="F25" s="126"/>
-      <c r="G25" s="191" t="str">
-        <f t="shared" ref="G25:G38" si="6">B10</f>
+      <c r="G25" s="183" t="str">
+        <f t="shared" ref="G25:G38" si="7">B10</f>
         <v>RESPONSABLE MEDIO AMBIENTE</v>
       </c>
-      <c r="H25" s="214">
-        <f t="shared" si="1"/>
+      <c r="H25" s="205">
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
-      <c r="I25" s="188">
+      <c r="I25" s="180">
         <v>1</v>
       </c>
-      <c r="J25" s="184">
+      <c r="J25" s="178">
         <v>1</v>
       </c>
-      <c r="K25" s="184">
+      <c r="K25" s="178">
         <v>1</v>
       </c>
-      <c r="L25" s="184">
+      <c r="L25" s="178">
         <v>1</v>
       </c>
-      <c r="M25" s="184">
+      <c r="M25" s="178">
         <v>1</v>
       </c>
-      <c r="N25" s="184">
+      <c r="N25" s="178">
         <v>1</v>
       </c>
-      <c r="O25" s="196">
+      <c r="O25" s="188">
         <v>1</v>
       </c>
-      <c r="P25" s="196">
+      <c r="P25" s="188">
         <v>1</v>
       </c>
-      <c r="Q25" s="209">
+      <c r="Q25" s="200">
         <f t="shared" si="2"/>
         <v>1480</v>
       </c>
-      <c r="S25" s="165" t="s">
+      <c r="S25" s="164" t="s">
         <v>853</v>
       </c>
-      <c r="T25" s="173">
+      <c r="T25" s="170">
         <f t="shared" si="3"/>
         <v>259</v>
       </c>
-      <c r="U25" s="169"/>
+      <c r="U25" s="167"/>
       <c r="V25" s="161"/>
       <c r="W25" s="161"/>
       <c r="X25" s="161"/>
@@ -16787,67 +17445,67 @@
       <c r="AA25" s="161">
         <v>1</v>
       </c>
-      <c r="AB25" s="177">
+      <c r="AB25" s="173">
         <v>0.25</v>
       </c>
-      <c r="AC25" s="181">
-        <f t="shared" si="0"/>
+      <c r="AC25" s="176">
+        <f t="shared" si="1"/>
         <v>518</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="125"/>
       <c r="B26" s="137" t="s">
         <v>829</v>
       </c>
       <c r="C26" s="137"/>
       <c r="D26" s="137"/>
-      <c r="E26" s="218"/>
-      <c r="F26" s="219"/>
-      <c r="G26" s="191" t="str">
-        <f t="shared" si="6"/>
+      <c r="E26" s="209"/>
+      <c r="F26" s="210"/>
+      <c r="G26" s="183" t="str">
+        <f t="shared" si="7"/>
         <v>RESPONSABLE SEGURIDAD</v>
       </c>
-      <c r="H26" s="214">
-        <f t="shared" si="1"/>
+      <c r="H26" s="205">
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
-      <c r="I26" s="188">
+      <c r="I26" s="180">
         <v>1</v>
       </c>
-      <c r="J26" s="184">
+      <c r="J26" s="178">
         <v>1</v>
       </c>
-      <c r="K26" s="184">
+      <c r="K26" s="178">
         <v>1</v>
       </c>
-      <c r="L26" s="184">
+      <c r="L26" s="178">
         <v>1</v>
       </c>
-      <c r="M26" s="184">
+      <c r="M26" s="178">
         <v>1</v>
       </c>
-      <c r="N26" s="184">
+      <c r="N26" s="178">
         <v>1</v>
       </c>
-      <c r="O26" s="196">
+      <c r="O26" s="188">
         <v>1</v>
       </c>
-      <c r="P26" s="196">
+      <c r="P26" s="188">
         <v>1</v>
       </c>
-      <c r="Q26" s="209">
+      <c r="Q26" s="200">
         <f t="shared" si="2"/>
         <v>1480</v>
       </c>
-      <c r="S26" s="165" t="s">
+      <c r="S26" s="164" t="s">
         <v>854</v>
       </c>
-      <c r="T26" s="173">
+      <c r="T26" s="170">
         <f t="shared" si="3"/>
         <v>259</v>
       </c>
-      <c r="U26" s="169"/>
+      <c r="U26" s="167"/>
       <c r="V26" s="161"/>
       <c r="W26" s="161"/>
       <c r="X26" s="161"/>
@@ -16860,67 +17518,67 @@
       <c r="AA26" s="161">
         <v>1</v>
       </c>
-      <c r="AB26" s="177">
+      <c r="AB26" s="173">
         <v>0.5</v>
       </c>
-      <c r="AC26" s="181">
-        <f t="shared" si="0"/>
+      <c r="AC26" s="176">
+        <f t="shared" si="1"/>
         <v>777</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="127"/>
       <c r="B27" s="138" t="s">
         <v>830</v>
       </c>
       <c r="C27" s="138"/>
       <c r="D27" s="138"/>
-      <c r="E27" s="218"/>
-      <c r="F27" s="219"/>
-      <c r="G27" s="191" t="str">
-        <f t="shared" si="6"/>
+      <c r="E27" s="209"/>
+      <c r="F27" s="210"/>
+      <c r="G27" s="183" t="str">
+        <f t="shared" si="7"/>
         <v>RESPONSABLE GESTION DE CALIDAD</v>
       </c>
-      <c r="H27" s="214">
-        <f t="shared" si="1"/>
+      <c r="H27" s="205">
+        <f t="shared" si="5"/>
         <v>259</v>
       </c>
-      <c r="I27" s="188">
+      <c r="I27" s="180">
         <v>1</v>
       </c>
-      <c r="J27" s="184">
+      <c r="J27" s="178">
         <v>1</v>
       </c>
-      <c r="K27" s="184">
+      <c r="K27" s="178">
         <v>1</v>
       </c>
-      <c r="L27" s="184">
+      <c r="L27" s="178">
         <v>1</v>
       </c>
-      <c r="M27" s="184">
+      <c r="M27" s="178">
         <v>1</v>
       </c>
-      <c r="N27" s="184">
+      <c r="N27" s="178">
         <v>1</v>
       </c>
-      <c r="O27" s="196">
+      <c r="O27" s="188">
         <v>1</v>
       </c>
-      <c r="P27" s="196">
+      <c r="P27" s="188">
         <v>1</v>
       </c>
-      <c r="Q27" s="209">
+      <c r="Q27" s="200">
         <f t="shared" si="2"/>
         <v>2072</v>
       </c>
-      <c r="S27" s="166" t="s">
+      <c r="S27" s="165" t="s">
         <v>855</v>
       </c>
-      <c r="T27" s="174">
+      <c r="T27" s="171">
         <f t="shared" si="3"/>
         <v>259</v>
       </c>
-      <c r="U27" s="170"/>
+      <c r="U27" s="168"/>
       <c r="V27" s="162"/>
       <c r="W27" s="162"/>
       <c r="X27" s="162"/>
@@ -16933,11 +17591,11 @@
       <c r="AA27" s="162">
         <v>1</v>
       </c>
-      <c r="AB27" s="178">
+      <c r="AB27" s="174">
         <v>0.75</v>
       </c>
-      <c r="AC27" s="182">
-        <f t="shared" si="0"/>
+      <c r="AC27" s="177">
+        <f t="shared" si="1"/>
         <v>777</v>
       </c>
     </row>
@@ -16946,41 +17604,41 @@
       <c r="B28" s="139"/>
       <c r="C28" s="129"/>
       <c r="D28" s="129"/>
-      <c r="E28" s="218"/>
-      <c r="F28" s="219"/>
-      <c r="G28" s="191" t="str">
-        <f t="shared" si="6"/>
+      <c r="E28" s="209"/>
+      <c r="F28" s="210"/>
+      <c r="G28" s="183" t="str">
+        <f t="shared" si="7"/>
         <v>JEFE OF. ADMINISTRATIVA</v>
       </c>
-      <c r="H28" s="214">
-        <f t="shared" ref="H28:H35" si="7">E13</f>
+      <c r="H28" s="205">
+        <f t="shared" ref="H28:H35" si="8">E13</f>
         <v>185</v>
       </c>
-      <c r="I28" s="188">
+      <c r="I28" s="180">
         <v>1</v>
       </c>
-      <c r="J28" s="184">
+      <c r="J28" s="178">
         <v>1</v>
       </c>
-      <c r="K28" s="184">
+      <c r="K28" s="178">
         <v>1</v>
       </c>
-      <c r="L28" s="184">
+      <c r="L28" s="178">
         <v>1</v>
       </c>
-      <c r="M28" s="184">
+      <c r="M28" s="178">
         <v>1</v>
       </c>
-      <c r="N28" s="220">
+      <c r="N28" s="211">
         <v>1</v>
       </c>
-      <c r="O28" s="221">
+      <c r="O28" s="212">
         <v>1</v>
       </c>
-      <c r="P28" s="196">
+      <c r="P28" s="188">
         <v>1</v>
       </c>
-      <c r="Q28" s="209">
+      <c r="Q28" s="200">
         <f t="shared" si="2"/>
         <v>1480</v>
       </c>
@@ -16992,7 +17650,7 @@
       <c r="Z28" s="159"/>
       <c r="AA28" s="159"/>
       <c r="AB28" s="159"/>
-      <c r="AC28" s="183">
+      <c r="AC28" s="296">
         <f>SUM(AC20:AC27)</f>
         <v>4662</v>
       </c>
@@ -17003,40 +17661,40 @@
       <c r="C29" s="141"/>
       <c r="D29" s="142"/>
       <c r="E29" s="142"/>
-      <c r="F29" s="219"/>
-      <c r="G29" s="191" t="str">
-        <f t="shared" si="6"/>
+      <c r="F29" s="210"/>
+      <c r="G29" s="183" t="str">
+        <f t="shared" si="7"/>
         <v>ASISTENTE OF.ADMINIS.</v>
       </c>
-      <c r="H29" s="214">
-        <f t="shared" si="7"/>
+      <c r="H29" s="205">
+        <f t="shared" si="8"/>
         <v>111</v>
       </c>
-      <c r="I29" s="188">
+      <c r="I29" s="180">
         <v>2</v>
       </c>
-      <c r="J29" s="184">
+      <c r="J29" s="178">
         <v>2</v>
       </c>
-      <c r="K29" s="184">
+      <c r="K29" s="178">
         <v>2</v>
       </c>
-      <c r="L29" s="184">
+      <c r="L29" s="178">
         <v>2</v>
       </c>
-      <c r="M29" s="184">
+      <c r="M29" s="178">
         <v>2</v>
       </c>
-      <c r="N29" s="220">
+      <c r="N29" s="211">
         <v>2</v>
       </c>
-      <c r="O29" s="221">
+      <c r="O29" s="212">
         <v>2</v>
       </c>
-      <c r="P29" s="196">
+      <c r="P29" s="188">
         <v>2</v>
       </c>
-      <c r="Q29" s="209">
+      <c r="Q29" s="200">
         <f t="shared" si="2"/>
         <v>1776</v>
       </c>
@@ -17047,40 +17705,40 @@
       <c r="C30" s="143" t="s">
         <v>861</v>
       </c>
-      <c r="F30" s="219"/>
-      <c r="G30" s="191" t="str">
-        <f t="shared" si="6"/>
+      <c r="F30" s="210"/>
+      <c r="G30" s="183" t="str">
+        <f t="shared" si="7"/>
         <v>SECRETARIA</v>
       </c>
-      <c r="H30" s="214">
-        <f t="shared" si="7"/>
+      <c r="H30" s="205">
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
-      <c r="I30" s="188">
+      <c r="I30" s="180">
         <v>1</v>
       </c>
-      <c r="J30" s="184">
+      <c r="J30" s="178">
         <v>1</v>
       </c>
-      <c r="K30" s="184">
+      <c r="K30" s="178">
         <v>1</v>
       </c>
-      <c r="L30" s="184">
+      <c r="L30" s="178">
         <v>1</v>
       </c>
-      <c r="M30" s="184">
+      <c r="M30" s="178">
         <v>1</v>
       </c>
-      <c r="N30" s="220">
+      <c r="N30" s="211">
         <v>1</v>
       </c>
-      <c r="O30" s="221">
+      <c r="O30" s="212">
         <v>1</v>
       </c>
-      <c r="P30" s="196">
+      <c r="P30" s="188">
         <v>1</v>
       </c>
-      <c r="Q30" s="209">
+      <c r="Q30" s="200">
         <f t="shared" si="2"/>
         <v>416</v>
       </c>
@@ -17090,41 +17748,41 @@
       <c r="B31" s="139"/>
       <c r="C31" s="141"/>
       <c r="D31" s="142"/>
-      <c r="E31" s="218"/>
-      <c r="F31" s="219"/>
-      <c r="G31" s="191" t="str">
-        <f t="shared" si="6"/>
+      <c r="E31" s="209"/>
+      <c r="F31" s="210"/>
+      <c r="G31" s="183" t="str">
+        <f t="shared" si="7"/>
         <v>JUNIOR</v>
       </c>
-      <c r="H31" s="214">
-        <f t="shared" si="7"/>
+      <c r="H31" s="205">
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
-      <c r="I31" s="188">
+      <c r="I31" s="180">
         <v>2</v>
       </c>
-      <c r="J31" s="184">
+      <c r="J31" s="178">
         <v>6</v>
       </c>
-      <c r="K31" s="184">
+      <c r="K31" s="178">
         <v>8</v>
       </c>
-      <c r="L31" s="184">
+      <c r="L31" s="178">
         <v>8</v>
       </c>
-      <c r="M31" s="184">
+      <c r="M31" s="178">
         <v>9</v>
       </c>
-      <c r="N31" s="220">
+      <c r="N31" s="211">
         <v>10</v>
       </c>
-      <c r="O31" s="221">
+      <c r="O31" s="212">
         <v>10</v>
       </c>
-      <c r="P31" s="196">
+      <c r="P31" s="188">
         <v>5</v>
       </c>
-      <c r="Q31" s="209">
+      <c r="Q31" s="200">
         <f t="shared" si="2"/>
         <v>1334</v>
       </c>
@@ -17135,56 +17793,56 @@
       <c r="C32" s="141"/>
       <c r="D32" s="142"/>
       <c r="E32" s="142"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="191" t="str">
-        <f t="shared" si="6"/>
+      <c r="F32" s="210"/>
+      <c r="G32" s="183" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">CONDUCTOR  </v>
       </c>
-      <c r="H32" s="214">
-        <f t="shared" si="7"/>
+      <c r="H32" s="205">
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
-      <c r="I32" s="188">
+      <c r="I32" s="180">
         <v>1</v>
       </c>
-      <c r="J32" s="184">
+      <c r="J32" s="178">
         <v>1</v>
       </c>
-      <c r="K32" s="184">
+      <c r="K32" s="178">
         <v>1</v>
       </c>
-      <c r="L32" s="184">
+      <c r="L32" s="178">
         <v>1</v>
       </c>
-      <c r="M32" s="184">
+      <c r="M32" s="178">
         <v>1</v>
       </c>
-      <c r="N32" s="220">
+      <c r="N32" s="211">
         <v>2</v>
       </c>
-      <c r="O32" s="221">
+      <c r="O32" s="212">
         <v>2</v>
       </c>
-      <c r="P32" s="196">
+      <c r="P32" s="188">
         <v>1</v>
       </c>
-      <c r="Q32" s="209">
+      <c r="Q32" s="200">
         <f t="shared" si="2"/>
         <v>590</v>
       </c>
-      <c r="R32" s="245" t="s">
+      <c r="R32" s="238" t="s">
         <v>867</v>
       </c>
-      <c r="S32" s="241">
+      <c r="S32" s="217">
         <f>T32/8</f>
         <v>87145875</v>
       </c>
-      <c r="T32" s="238">
+      <c r="T32" s="235">
         <f>Q41*27000</f>
         <v>697167000</v>
       </c>
-      <c r="U32" s="238"/>
-      <c r="W32" s="244">
+      <c r="U32" s="235"/>
+      <c r="W32" s="218">
         <f>Q41</f>
         <v>25821</v>
       </c>
@@ -17195,53 +17853,53 @@
       <c r="C33" s="143"/>
       <c r="D33" s="142"/>
       <c r="E33" s="142"/>
-      <c r="F33" s="219"/>
-      <c r="G33" s="191" t="str">
-        <f t="shared" si="6"/>
+      <c r="F33" s="210"/>
+      <c r="G33" s="183" t="str">
+        <f t="shared" si="7"/>
         <v>JEFE TALLER MANTENCION</v>
       </c>
-      <c r="H33" s="214">
-        <f t="shared" si="7"/>
+      <c r="H33" s="205">
+        <f t="shared" si="8"/>
         <v>148</v>
       </c>
-      <c r="I33" s="188">
+      <c r="I33" s="180">
         <v>1</v>
       </c>
-      <c r="J33" s="184">
+      <c r="J33" s="178">
         <v>1</v>
       </c>
-      <c r="K33" s="184">
+      <c r="K33" s="178">
         <v>1</v>
       </c>
-      <c r="L33" s="184">
+      <c r="L33" s="178">
         <v>1</v>
       </c>
-      <c r="M33" s="184">
+      <c r="M33" s="178">
         <v>1</v>
       </c>
-      <c r="N33" s="220">
+      <c r="N33" s="211">
         <v>1</v>
       </c>
-      <c r="O33" s="221">
+      <c r="O33" s="212">
         <v>1</v>
       </c>
-      <c r="P33" s="196">
+      <c r="P33" s="188">
         <v>1</v>
       </c>
-      <c r="Q33" s="209">
+      <c r="Q33" s="200">
         <f t="shared" si="2"/>
         <v>1184</v>
       </c>
-      <c r="R33" s="245"/>
-      <c r="S33" s="240">
+      <c r="R33" s="238"/>
+      <c r="S33" s="216">
         <v>450000</v>
       </c>
-      <c r="T33" s="243">
+      <c r="T33" s="237">
         <f>S33*8</f>
         <v>3600000</v>
       </c>
-      <c r="U33" s="242"/>
-      <c r="W33" s="244">
+      <c r="U33" s="236"/>
+      <c r="W33" s="218">
         <f>T33/27000</f>
         <v>133.33333333333334</v>
       </c>
@@ -17251,53 +17909,53 @@
       <c r="B34" s="139"/>
       <c r="C34" s="141"/>
       <c r="E34" s="142"/>
-      <c r="F34" s="219"/>
-      <c r="G34" s="191" t="str">
-        <f t="shared" si="6"/>
+      <c r="F34" s="210"/>
+      <c r="G34" s="183" t="str">
+        <f t="shared" si="7"/>
         <v>ELECTRICO</v>
       </c>
-      <c r="H34" s="214">
-        <f t="shared" si="7"/>
+      <c r="H34" s="205">
+        <f t="shared" si="8"/>
         <v>111</v>
       </c>
-      <c r="I34" s="188">
+      <c r="I34" s="180">
         <v>1</v>
       </c>
-      <c r="J34" s="184">
+      <c r="J34" s="178">
         <v>1</v>
       </c>
-      <c r="K34" s="184">
+      <c r="K34" s="178">
         <v>1</v>
       </c>
-      <c r="L34" s="184">
+      <c r="L34" s="178">
         <v>1</v>
       </c>
-      <c r="M34" s="184">
+      <c r="M34" s="178">
         <v>1</v>
       </c>
-      <c r="N34" s="220">
+      <c r="N34" s="211">
         <v>1</v>
       </c>
-      <c r="O34" s="221">
+      <c r="O34" s="212">
         <v>1</v>
       </c>
-      <c r="P34" s="196">
+      <c r="P34" s="188">
         <v>1</v>
       </c>
-      <c r="Q34" s="209">
+      <c r="Q34" s="200">
         <f t="shared" si="2"/>
         <v>888</v>
       </c>
-      <c r="R34" s="245"/>
-      <c r="S34" s="240">
+      <c r="R34" s="238"/>
+      <c r="S34" s="216">
         <v>100000</v>
       </c>
-      <c r="T34" s="243">
+      <c r="T34" s="237">
         <f>S34*8</f>
         <v>800000</v>
       </c>
-      <c r="U34" s="242"/>
-      <c r="W34" s="244">
+      <c r="U34" s="236"/>
+      <c r="W34" s="218">
         <f>T34/27000</f>
         <v>29.62962962962963</v>
       </c>
@@ -17309,39 +17967,39 @@
       <c r="D35" s="142"/>
       <c r="E35" s="142"/>
       <c r="F35" s="121"/>
-      <c r="G35" s="192" t="str">
-        <f t="shared" si="6"/>
+      <c r="G35" s="184" t="str">
+        <f t="shared" si="7"/>
         <v>MECANICO</v>
       </c>
-      <c r="H35" s="215">
-        <f t="shared" si="7"/>
+      <c r="H35" s="206">
+        <f t="shared" si="8"/>
         <v>111</v>
       </c>
-      <c r="I35" s="189">
+      <c r="I35" s="181">
         <v>1</v>
       </c>
-      <c r="J35" s="185">
+      <c r="J35" s="179">
         <v>1</v>
       </c>
-      <c r="K35" s="185">
+      <c r="K35" s="179">
         <v>1</v>
       </c>
-      <c r="L35" s="185">
+      <c r="L35" s="179">
         <v>1</v>
       </c>
-      <c r="M35" s="185">
+      <c r="M35" s="179">
         <v>1</v>
       </c>
-      <c r="N35" s="222">
+      <c r="N35" s="213">
         <v>1</v>
       </c>
-      <c r="O35" s="223">
+      <c r="O35" s="214">
         <v>1</v>
       </c>
-      <c r="P35" s="197">
+      <c r="P35" s="189">
         <v>1</v>
       </c>
-      <c r="Q35" s="210">
+      <c r="Q35" s="201">
         <f t="shared" si="2"/>
         <v>888</v>
       </c>
@@ -17353,20 +18011,20 @@
       <c r="D36" s="142"/>
       <c r="E36" s="142"/>
       <c r="F36" s="121"/>
-      <c r="G36" s="190" t="str">
-        <f t="shared" si="6"/>
+      <c r="G36" s="182" t="str">
+        <f t="shared" si="7"/>
         <v>OTROS GASTOS</v>
       </c>
-      <c r="H36" s="216"/>
-      <c r="I36" s="195"/>
-      <c r="J36" s="195"/>
-      <c r="K36" s="195"/>
-      <c r="L36" s="195"/>
-      <c r="M36" s="195"/>
-      <c r="N36" s="195"/>
-      <c r="O36" s="195"/>
-      <c r="P36" s="195"/>
-      <c r="Q36" s="211"/>
+      <c r="H36" s="207"/>
+      <c r="I36" s="187"/>
+      <c r="J36" s="187"/>
+      <c r="K36" s="187"/>
+      <c r="L36" s="187"/>
+      <c r="M36" s="187"/>
+      <c r="N36" s="187"/>
+      <c r="O36" s="187"/>
+      <c r="P36" s="187"/>
+      <c r="Q36" s="202"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="127"/>
@@ -17375,39 +18033,39 @@
       <c r="D37" s="142"/>
       <c r="E37" s="142"/>
       <c r="F37" s="121"/>
-      <c r="G37" s="191" t="str">
-        <f t="shared" si="6"/>
+      <c r="G37" s="183" t="str">
+        <f t="shared" si="7"/>
         <v>ARRIENDO CAMIONETA (MES)</v>
       </c>
-      <c r="H37" s="214">
+      <c r="H37" s="205">
         <f>E22</f>
         <v>75</v>
       </c>
-      <c r="I37" s="188">
+      <c r="I37" s="180">
         <v>1</v>
       </c>
-      <c r="J37" s="184">
+      <c r="J37" s="178">
         <v>1</v>
       </c>
-      <c r="K37" s="184">
+      <c r="K37" s="178">
         <v>1</v>
       </c>
-      <c r="L37" s="184">
+      <c r="L37" s="178">
         <v>1</v>
       </c>
-      <c r="M37" s="184">
+      <c r="M37" s="178">
         <v>1</v>
       </c>
-      <c r="N37" s="220">
+      <c r="N37" s="211">
         <v>2</v>
       </c>
-      <c r="O37" s="221">
+      <c r="O37" s="212">
         <v>2</v>
       </c>
-      <c r="P37" s="196">
+      <c r="P37" s="188">
         <v>1</v>
       </c>
-      <c r="Q37" s="209">
+      <c r="Q37" s="200">
         <f>SUM(I37:P37)*H37</f>
         <v>750</v>
       </c>
@@ -17418,47 +18076,47 @@
       <c r="C38" s="141"/>
       <c r="D38" s="142"/>
       <c r="E38" s="142"/>
-      <c r="G38" s="191" t="str">
-        <f t="shared" si="6"/>
+      <c r="G38" s="183" t="str">
+        <f t="shared" si="7"/>
         <v>ARRIENDO GRUA</v>
       </c>
-      <c r="H38" s="214">
-        <f t="shared" ref="H38:H40" si="8">E23</f>
+      <c r="H38" s="205">
+        <f t="shared" ref="H38:H40" si="9">E23</f>
         <v>297</v>
       </c>
-      <c r="I38" s="188">
+      <c r="I38" s="180">
         <v>0</v>
       </c>
-      <c r="J38" s="184">
+      <c r="J38" s="178">
         <v>0</v>
       </c>
-      <c r="K38" s="184">
+      <c r="K38" s="178">
         <v>2</v>
       </c>
-      <c r="L38" s="184">
+      <c r="L38" s="178">
         <v>2</v>
       </c>
-      <c r="M38" s="184">
+      <c r="M38" s="178">
         <v>2</v>
       </c>
-      <c r="N38" s="184">
+      <c r="N38" s="178">
         <v>2</v>
       </c>
-      <c r="O38" s="196">
+      <c r="O38" s="188">
         <v>2</v>
       </c>
-      <c r="P38" s="196">
+      <c r="P38" s="188">
         <v>2</v>
       </c>
-      <c r="Q38" s="209">
+      <c r="Q38" s="200">
         <f>SUM(I38:P38)*H38</f>
         <v>3564</v>
       </c>
-      <c r="S38" s="236" t="s">
+      <c r="S38" s="234" t="s">
         <v>859</v>
       </c>
-      <c r="T38" s="236"/>
-      <c r="U38" s="236"/>
+      <c r="T38" s="234"/>
+      <c r="U38" s="234"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="125"/>
@@ -17466,38 +18124,38 @@
       <c r="C39" s="142"/>
       <c r="D39" s="142"/>
       <c r="E39" s="142"/>
-      <c r="G39" s="191" t="s">
+      <c r="G39" s="183" t="s">
         <v>863</v>
       </c>
-      <c r="H39" s="214">
-        <f t="shared" si="8"/>
+      <c r="H39" s="205">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="I39" s="188">
+      <c r="I39" s="180">
         <v>1</v>
       </c>
-      <c r="J39" s="184">
+      <c r="J39" s="178">
         <v>1</v>
       </c>
-      <c r="K39" s="184">
+      <c r="K39" s="178">
         <v>1</v>
       </c>
-      <c r="L39" s="184">
+      <c r="L39" s="178">
         <v>1</v>
       </c>
-      <c r="M39" s="184">
+      <c r="M39" s="178">
         <v>1</v>
       </c>
-      <c r="N39" s="184">
+      <c r="N39" s="178">
         <v>1</v>
       </c>
-      <c r="O39" s="196">
+      <c r="O39" s="188">
         <v>1</v>
       </c>
-      <c r="P39" s="196">
+      <c r="P39" s="188">
         <v>1</v>
       </c>
-      <c r="Q39" s="209">
+      <c r="Q39" s="200">
         <f>SUM(I39:P39)*H39</f>
         <v>48</v>
       </c>
@@ -17508,38 +18166,38 @@
       <c r="C40" s="143"/>
       <c r="D40" s="142"/>
       <c r="E40" s="142"/>
-      <c r="G40" s="199" t="s">
+      <c r="G40" s="190" t="s">
         <v>864</v>
       </c>
-      <c r="H40" s="217">
-        <f t="shared" si="8"/>
+      <c r="H40" s="208">
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="I40" s="200">
+      <c r="I40" s="191">
         <v>1</v>
       </c>
-      <c r="J40" s="201">
+      <c r="J40" s="192">
         <v>1</v>
       </c>
-      <c r="K40" s="201">
+      <c r="K40" s="192">
         <v>1</v>
       </c>
-      <c r="L40" s="201">
+      <c r="L40" s="192">
         <v>1</v>
       </c>
-      <c r="M40" s="201">
+      <c r="M40" s="192">
         <v>1</v>
       </c>
-      <c r="N40" s="201">
+      <c r="N40" s="192">
         <v>1</v>
       </c>
-      <c r="O40" s="202">
+      <c r="O40" s="193">
         <v>1</v>
       </c>
-      <c r="P40" s="202">
+      <c r="P40" s="193">
         <v>1</v>
       </c>
-      <c r="Q40" s="212">
+      <c r="Q40" s="203">
         <f>SUM(I40:P40)*H40</f>
         <v>64</v>
       </c>
@@ -17550,43 +18208,43 @@
       <c r="C41" s="143"/>
       <c r="D41" s="142"/>
       <c r="E41" s="142"/>
-      <c r="G41" s="205" t="s">
+      <c r="G41" s="196" t="s">
         <v>858</v>
       </c>
-      <c r="H41" s="206"/>
-      <c r="I41" s="207">
-        <f t="shared" ref="I41:P41" si="9">SUMPRODUCT(I22:I40,$H$22:$H$40)</f>
+      <c r="H41" s="197"/>
+      <c r="I41" s="198">
+        <f t="shared" ref="I41:P41" si="10">SUMPRODUCT(I22:I40,$H$22:$H$40)</f>
         <v>2281</v>
       </c>
-      <c r="J41" s="207">
-        <f t="shared" si="9"/>
+      <c r="J41" s="198">
+        <f t="shared" si="10"/>
         <v>2558</v>
       </c>
-      <c r="K41" s="207">
-        <f t="shared" si="9"/>
+      <c r="K41" s="198">
+        <f t="shared" si="10"/>
         <v>3013</v>
       </c>
-      <c r="L41" s="207">
-        <f t="shared" si="9"/>
+      <c r="L41" s="198">
+        <f t="shared" si="10"/>
         <v>3077.75</v>
       </c>
-      <c r="M41" s="207">
-        <f t="shared" si="9"/>
+      <c r="M41" s="198">
+        <f t="shared" si="10"/>
         <v>3618.75</v>
       </c>
-      <c r="N41" s="207">
-        <f t="shared" si="9"/>
+      <c r="N41" s="198">
+        <f t="shared" si="10"/>
         <v>4293.75</v>
       </c>
-      <c r="O41" s="207">
-        <f t="shared" si="9"/>
+      <c r="O41" s="198">
+        <f t="shared" si="10"/>
         <v>3905.25</v>
       </c>
-      <c r="P41" s="207">
-        <f t="shared" si="9"/>
+      <c r="P41" s="198">
+        <f t="shared" si="10"/>
         <v>3073.5</v>
       </c>
-      <c r="Q41" s="208">
+      <c r="Q41" s="199">
         <f>SUM(Q21:Q40)</f>
         <v>25821</v>
       </c>
@@ -17607,10 +18265,10 @@
       <c r="S43" s="122" t="s">
         <v>865</v>
       </c>
-      <c r="T43" s="242" t="s">
+      <c r="T43" s="236" t="s">
         <v>866</v>
       </c>
-      <c r="U43" s="242"/>
+      <c r="U43" s="236"/>
       <c r="W43" s="122" t="s">
         <v>868</v>
       </c>
@@ -17627,12 +18285,12 @@
       <c r="R44" s="122" t="s">
         <v>861</v>
       </c>
-      <c r="S44" s="241"/>
-      <c r="T44" s="243">
+      <c r="S44" s="217"/>
+      <c r="T44" s="237">
         <v>3274824326</v>
       </c>
-      <c r="U44" s="243"/>
-      <c r="W44" s="248">
+      <c r="U44" s="237"/>
+      <c r="W44" s="221">
         <f>ROUNDUP(T44/27000,0)</f>
         <v>121290</v>
       </c>
@@ -17643,26 +18301,26 @@
       <c r="C45" s="143"/>
       <c r="D45" s="142"/>
       <c r="E45" s="142"/>
-      <c r="G45" s="224" t="s">
+      <c r="G45" s="215" t="s">
         <v>860</v>
       </c>
-      <c r="H45" s="237">
+      <c r="H45" s="230">
         <f>0.02*T44</f>
         <v>65496486.520000003</v>
       </c>
-      <c r="I45" s="237"/>
-      <c r="J45" s="237"/>
+      <c r="I45" s="230"/>
+      <c r="J45" s="230"/>
       <c r="R45" s="122" t="s">
         <v>871</v>
       </c>
-      <c r="S45" s="241"/>
-      <c r="T45" s="243">
+      <c r="S45" s="217"/>
+      <c r="T45" s="237">
         <f>T44*0.08</f>
         <v>261985946.08000001</v>
       </c>
-      <c r="U45" s="243"/>
-      <c r="W45" s="248">
-        <f t="shared" ref="W45:W52" si="10">ROUNDUP(T45/27000,0)</f>
+      <c r="U45" s="237"/>
+      <c r="W45" s="221">
+        <f t="shared" ref="W45:W52" si="11">ROUNDUP(T45/27000,0)</f>
         <v>9704</v>
       </c>
     </row>
@@ -17675,20 +18333,20 @@
       <c r="R46" s="122" t="s">
         <v>867</v>
       </c>
-      <c r="S46" s="241">
+      <c r="S46" s="217">
         <f>SUM(S32:S34)</f>
         <v>87695875</v>
       </c>
-      <c r="T46" s="243">
+      <c r="T46" s="237">
         <f>SUM(T32:U34)</f>
         <v>701567000</v>
       </c>
-      <c r="U46" s="243"/>
-      <c r="W46" s="248">
-        <f t="shared" si="10"/>
+      <c r="U46" s="237"/>
+      <c r="W46" s="221">
+        <f t="shared" si="11"/>
         <v>25984</v>
       </c>
-      <c r="X46" s="246">
+      <c r="X46" s="219">
         <f>T46/$T$44</f>
         <v>0.21423042281383126</v>
       </c>
@@ -17699,8 +18357,8 @@
       <c r="C47" s="141"/>
       <c r="D47" s="142"/>
       <c r="E47" s="142"/>
-      <c r="S47" s="240"/>
-      <c r="W47" s="248"/>
+      <c r="S47" s="216"/>
+      <c r="W47" s="221"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="127"/>
@@ -17711,17 +18369,17 @@
       <c r="R48" s="122" t="s">
         <v>870</v>
       </c>
-      <c r="S48" s="240"/>
-      <c r="T48" s="243">
+      <c r="S48" s="216"/>
+      <c r="T48" s="237">
         <f>0.1*SUM(T44:U46)</f>
         <v>423837727.208</v>
       </c>
-      <c r="U48" s="243"/>
-      <c r="W48" s="248">
-        <f t="shared" si="10"/>
+      <c r="U48" s="237"/>
+      <c r="W48" s="221">
+        <f t="shared" si="11"/>
         <v>15698</v>
       </c>
-      <c r="X48" s="246">
+      <c r="X48" s="219">
         <f>T48/$T$44</f>
         <v>0.12942304228138313</v>
       </c>
@@ -17735,16 +18393,16 @@
       <c r="R49" s="122" t="s">
         <v>869</v>
       </c>
-      <c r="T49" s="237">
+      <c r="T49" s="230">
         <f>0.02*SUM(T44:U46)</f>
         <v>84767545.441599995</v>
       </c>
-      <c r="U49" s="237"/>
-      <c r="W49" s="248">
-        <f t="shared" si="10"/>
+      <c r="U49" s="230"/>
+      <c r="W49" s="221">
+        <f t="shared" si="11"/>
         <v>3140</v>
       </c>
-      <c r="X49" s="246">
+      <c r="X49" s="219">
         <f>T49/$T$44</f>
         <v>2.5884608456276624E-2</v>
       </c>
@@ -17758,13 +18416,13 @@
       <c r="R50" s="122" t="s">
         <v>873</v>
       </c>
-      <c r="T50" s="237">
+      <c r="T50" s="230">
         <f>SUM(T44:U49)</f>
         <v>4746982544.7296</v>
       </c>
-      <c r="U50" s="237"/>
-      <c r="W50" s="248">
-        <f t="shared" si="10"/>
+      <c r="U50" s="230"/>
+      <c r="W50" s="221">
+        <f t="shared" si="11"/>
         <v>175815</v>
       </c>
     </row>
@@ -17787,24 +18445,24 @@
       <c r="M52" s="122">
         <v>5682</v>
       </c>
-      <c r="N52" s="238">
+      <c r="N52" s="235">
         <f>M52*2700</f>
         <v>15341400</v>
       </c>
-      <c r="O52" s="238"/>
+      <c r="O52" s="235"/>
       <c r="R52" s="122" t="s">
         <v>874</v>
       </c>
-      <c r="T52" s="237">
+      <c r="T52" s="230">
         <f>T50*0.19</f>
         <v>901926683.49862397</v>
       </c>
-      <c r="U52" s="237"/>
-      <c r="W52" s="248">
-        <f t="shared" si="10"/>
+      <c r="U52" s="230"/>
+      <c r="W52" s="221">
+        <f t="shared" si="11"/>
         <v>33405</v>
       </c>
-      <c r="X52" s="246">
+      <c r="X52" s="219">
         <f>T52/$T$44</f>
         <v>0.27541223397478326</v>
       </c>
@@ -17814,15 +18472,15 @@
       <c r="C53" s="141"/>
       <c r="D53" s="142"/>
       <c r="E53" s="142"/>
-      <c r="V53" s="247"/>
+      <c r="V53" s="220"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="125"/>
-      <c r="T54" s="237">
+      <c r="T54" s="230">
         <f>SUM(T50:U52)</f>
         <v>5648909228.2282238</v>
       </c>
-      <c r="U54" s="237"/>
+      <c r="U54" s="230"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="127"/>
@@ -17850,6 +18508,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="T54:U54"/>
     <mergeCell ref="T50:U50"/>
     <mergeCell ref="T52:U52"/>
     <mergeCell ref="B21:E21"/>
@@ -17866,7 +18525,6 @@
     <mergeCell ref="T46:U46"/>
     <mergeCell ref="T49:U49"/>
     <mergeCell ref="T45:U45"/>
-    <mergeCell ref="T54:U54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17878,11 +18536,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177AA903-641F-4476-B876-AFE68A75CB77}">
   <dimension ref="B3:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="146"/>
@@ -18205,4 +18863,583 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3061437A-C47F-4BDF-9E4C-71A33370AA75}">
+  <dimension ref="B2:Z25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="18.88671875" style="240" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="240" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="240" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="11.5546875" style="240"/>
+    <col min="11" max="11" width="30.5546875" style="240" customWidth="1"/>
+    <col min="12" max="16" width="11.5546875" style="240"/>
+    <col min="17" max="17" width="25.109375" style="240" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" style="240" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.21875" style="240" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.5546875" style="240"/>
+    <col min="22" max="22" width="16.5546875" style="240" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.21875" style="240" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.77734375" style="240" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.5546875" style="240"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="252" t="s">
+        <v>887</v>
+      </c>
+      <c r="R3" s="252" t="s">
+        <v>891</v>
+      </c>
+      <c r="S3" s="252" t="s">
+        <v>877</v>
+      </c>
+      <c r="T3" s="252" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="252" t="s">
+        <v>876</v>
+      </c>
+      <c r="C4" s="253" t="s">
+        <v>877</v>
+      </c>
+      <c r="D4" s="254" t="s">
+        <v>878</v>
+      </c>
+      <c r="K4" s="258" t="s">
+        <v>805</v>
+      </c>
+      <c r="L4" s="277" t="s">
+        <v>806</v>
+      </c>
+      <c r="M4" s="278" t="s">
+        <v>807</v>
+      </c>
+      <c r="N4" s="279"/>
+      <c r="P4" s="300"/>
+      <c r="Q4" s="301" t="s">
+        <v>888</v>
+      </c>
+      <c r="R4" s="304">
+        <v>87145875</v>
+      </c>
+      <c r="S4" s="304">
+        <v>697167000</v>
+      </c>
+      <c r="T4" s="307">
+        <v>25821</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="243" t="s">
+        <v>875</v>
+      </c>
+      <c r="C5" s="246">
+        <f t="shared" ref="C5:C9" si="0">D5*27000</f>
+        <v>67601790</v>
+      </c>
+      <c r="D5" s="241">
+        <v>2503.77</v>
+      </c>
+      <c r="K5" s="290"/>
+      <c r="L5" s="280" t="s">
+        <v>885</v>
+      </c>
+      <c r="M5" s="281" t="s">
+        <v>885</v>
+      </c>
+      <c r="N5" s="282" t="s">
+        <v>809</v>
+      </c>
+      <c r="P5" s="300"/>
+      <c r="Q5" s="302" t="s">
+        <v>889</v>
+      </c>
+      <c r="R5" s="305">
+        <v>450000</v>
+      </c>
+      <c r="S5" s="305">
+        <v>3600000</v>
+      </c>
+      <c r="T5" s="308">
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="244" t="s">
+        <v>879</v>
+      </c>
+      <c r="C6" s="247">
+        <f t="shared" si="0"/>
+        <v>2005959060</v>
+      </c>
+      <c r="D6" s="242">
+        <v>74294.78</v>
+      </c>
+      <c r="K6" s="289" t="s">
+        <v>810</v>
+      </c>
+      <c r="L6" s="268">
+        <v>5000000</v>
+      </c>
+      <c r="M6" s="283">
+        <v>10000000</v>
+      </c>
+      <c r="N6" s="284">
+        <v>370</v>
+      </c>
+      <c r="P6" s="300"/>
+      <c r="Q6" s="303" t="s">
+        <v>890</v>
+      </c>
+      <c r="R6" s="306">
+        <v>100000</v>
+      </c>
+      <c r="S6" s="306">
+        <v>800000</v>
+      </c>
+      <c r="T6" s="309">
+        <v>29.62962962962963</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="244" t="s">
+        <v>880</v>
+      </c>
+      <c r="C7" s="247">
+        <f t="shared" si="0"/>
+        <v>734277420</v>
+      </c>
+      <c r="D7" s="242">
+        <v>27195.46</v>
+      </c>
+      <c r="K7" s="259" t="s">
+        <v>811</v>
+      </c>
+      <c r="L7" s="271">
+        <v>3500000</v>
+      </c>
+      <c r="M7" s="256">
+        <v>7000000</v>
+      </c>
+      <c r="N7" s="285">
+        <v>259</v>
+      </c>
+      <c r="Q7" s="310" t="s">
+        <v>892</v>
+      </c>
+      <c r="R7" s="311">
+        <f>SUM(R4:R6)</f>
+        <v>87695875</v>
+      </c>
+      <c r="S7" s="311">
+        <f t="shared" ref="S7:T7" si="1">SUM(S4:S6)</f>
+        <v>701567000</v>
+      </c>
+      <c r="T7" s="312">
+        <f t="shared" si="1"/>
+        <v>25983.962962962964</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="244" t="s">
+        <v>881</v>
+      </c>
+      <c r="C8" s="247">
+        <f t="shared" si="0"/>
+        <v>6223770</v>
+      </c>
+      <c r="D8" s="242">
+        <v>230.51</v>
+      </c>
+      <c r="K8" s="259" t="s">
+        <v>812</v>
+      </c>
+      <c r="L8" s="271">
+        <v>2500000</v>
+      </c>
+      <c r="M8" s="256">
+        <v>5000000</v>
+      </c>
+      <c r="N8" s="285">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="244" t="s">
+        <v>882</v>
+      </c>
+      <c r="C9" s="247">
+        <f t="shared" si="0"/>
+        <v>460762290</v>
+      </c>
+      <c r="D9" s="242">
+        <v>17065.27</v>
+      </c>
+      <c r="K9" s="259" t="s">
+        <v>813</v>
+      </c>
+      <c r="L9" s="271">
+        <v>2500000</v>
+      </c>
+      <c r="M9" s="256">
+        <v>5000000</v>
+      </c>
+      <c r="N9" s="285">
+        <v>185</v>
+      </c>
+      <c r="W9" s="335" t="s">
+        <v>865</v>
+      </c>
+      <c r="X9" s="336" t="s">
+        <v>877</v>
+      </c>
+      <c r="Y9" s="336" t="s">
+        <v>878</v>
+      </c>
+      <c r="Z9" s="337" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="249" t="s">
+        <v>883</v>
+      </c>
+      <c r="C10" s="250">
+        <f>D10*27000</f>
+        <v>3274824330</v>
+      </c>
+      <c r="D10" s="251">
+        <f>SUM(D5:D9)</f>
+        <v>121289.79000000001</v>
+      </c>
+      <c r="K10" s="260" t="s">
+        <v>814</v>
+      </c>
+      <c r="L10" s="271">
+        <v>2500000</v>
+      </c>
+      <c r="M10" s="256">
+        <v>5000000</v>
+      </c>
+      <c r="N10" s="285">
+        <v>185</v>
+      </c>
+      <c r="V10" s="243" t="s">
+        <v>897</v>
+      </c>
+      <c r="W10" s="313"/>
+      <c r="X10" s="314">
+        <v>3274824326</v>
+      </c>
+      <c r="Y10" s="315">
+        <v>121290</v>
+      </c>
+      <c r="Z10" s="316"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="K11" s="260" t="s">
+        <v>815</v>
+      </c>
+      <c r="L11" s="271">
+        <v>3500000</v>
+      </c>
+      <c r="M11" s="256">
+        <v>7000000</v>
+      </c>
+      <c r="N11" s="285">
+        <v>259</v>
+      </c>
+      <c r="V11" s="244" t="s">
+        <v>893</v>
+      </c>
+      <c r="W11" s="317"/>
+      <c r="X11" s="318">
+        <v>261985946.08000001</v>
+      </c>
+      <c r="Y11" s="319">
+        <v>9704</v>
+      </c>
+      <c r="Z11" s="320"/>
+    </row>
+    <row r="12" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="260" t="s">
+        <v>816</v>
+      </c>
+      <c r="L12" s="271">
+        <v>2500000</v>
+      </c>
+      <c r="M12" s="256">
+        <v>5000000</v>
+      </c>
+      <c r="N12" s="285">
+        <v>185</v>
+      </c>
+      <c r="V12" s="245" t="s">
+        <v>887</v>
+      </c>
+      <c r="W12" s="322">
+        <v>87695875</v>
+      </c>
+      <c r="X12" s="323">
+        <v>701567000</v>
+      </c>
+      <c r="Y12" s="324">
+        <v>25984</v>
+      </c>
+      <c r="Z12" s="333">
+        <v>0.21423042281383101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="K13" s="260" t="s">
+        <v>817</v>
+      </c>
+      <c r="L13" s="271">
+        <v>1500000</v>
+      </c>
+      <c r="M13" s="256">
+        <v>3000000</v>
+      </c>
+      <c r="N13" s="285">
+        <v>111</v>
+      </c>
+      <c r="V13" s="243" t="s">
+        <v>894</v>
+      </c>
+      <c r="W13" s="313"/>
+      <c r="X13" s="314">
+        <v>423837727.208</v>
+      </c>
+      <c r="Y13" s="315">
+        <v>15698</v>
+      </c>
+      <c r="Z13" s="332">
+        <v>0.12942304228138313</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="K14" s="260" t="s">
+        <v>818</v>
+      </c>
+      <c r="L14" s="271">
+        <v>700000</v>
+      </c>
+      <c r="M14" s="256">
+        <v>1400000</v>
+      </c>
+      <c r="N14" s="285">
+        <v>52</v>
+      </c>
+      <c r="V14" s="244" t="s">
+        <v>895</v>
+      </c>
+      <c r="W14" s="317"/>
+      <c r="X14" s="318">
+        <v>84767545.441599995</v>
+      </c>
+      <c r="Y14" s="319">
+        <v>3140</v>
+      </c>
+      <c r="Z14" s="321">
+        <v>2.5884608456276624E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="260" t="s">
+        <v>819</v>
+      </c>
+      <c r="L15" s="271">
+        <v>600000</v>
+      </c>
+      <c r="M15" s="255">
+        <f>L15*2</f>
+        <v>1200000</v>
+      </c>
+      <c r="N15" s="285">
+        <f>ROUNDUP(L15/27000,0)</f>
+        <v>23</v>
+      </c>
+      <c r="V15" s="245" t="s">
+        <v>873</v>
+      </c>
+      <c r="W15" s="322"/>
+      <c r="X15" s="323">
+        <v>4746982544.7296</v>
+      </c>
+      <c r="Y15" s="324">
+        <v>175815</v>
+      </c>
+      <c r="Z15" s="333"/>
+    </row>
+    <row r="16" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="260" t="s">
+        <v>820</v>
+      </c>
+      <c r="L16" s="271">
+        <v>800000</v>
+      </c>
+      <c r="M16" s="256">
+        <v>1600000</v>
+      </c>
+      <c r="N16" s="285">
+        <v>59</v>
+      </c>
+      <c r="V16" s="248" t="s">
+        <v>898</v>
+      </c>
+      <c r="W16" s="325"/>
+      <c r="X16" s="326">
+        <v>901926683.49862397</v>
+      </c>
+      <c r="Y16" s="327">
+        <v>33405</v>
+      </c>
+      <c r="Z16" s="334">
+        <v>0.27541223397478326</v>
+      </c>
+    </row>
+    <row r="17" spans="11:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="261" t="s">
+        <v>821</v>
+      </c>
+      <c r="L17" s="271">
+        <v>2000000</v>
+      </c>
+      <c r="M17" s="256">
+        <v>4000000</v>
+      </c>
+      <c r="N17" s="285">
+        <v>148</v>
+      </c>
+      <c r="V17" s="249" t="s">
+        <v>896</v>
+      </c>
+      <c r="W17" s="328"/>
+      <c r="X17" s="329">
+        <v>5648909228.2282238</v>
+      </c>
+      <c r="Y17" s="330">
+        <f>X17/27000</f>
+        <v>209218.86030474902</v>
+      </c>
+      <c r="Z17" s="331"/>
+    </row>
+    <row r="18" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K18" s="261" t="s">
+        <v>822</v>
+      </c>
+      <c r="L18" s="271">
+        <v>1500000</v>
+      </c>
+      <c r="M18" s="256">
+        <v>3000000</v>
+      </c>
+      <c r="N18" s="285">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="11:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="263" t="s">
+        <v>823</v>
+      </c>
+      <c r="L19" s="286">
+        <v>1500000</v>
+      </c>
+      <c r="M19" s="287">
+        <v>3000000</v>
+      </c>
+      <c r="N19" s="288">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="11:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="265" t="s">
+        <v>824</v>
+      </c>
+      <c r="L20" s="266"/>
+      <c r="M20" s="266"/>
+      <c r="N20" s="267"/>
+    </row>
+    <row r="21" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K21" s="264" t="s">
+        <v>825</v>
+      </c>
+      <c r="L21" s="268">
+        <v>2000000</v>
+      </c>
+      <c r="M21" s="269" t="s">
+        <v>884</v>
+      </c>
+      <c r="N21" s="270">
+        <f>ROUNDUP(L21/27000,0)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K22" s="261" t="s">
+        <v>826</v>
+      </c>
+      <c r="L22" s="271">
+        <v>8000000</v>
+      </c>
+      <c r="M22" s="272" t="s">
+        <v>884</v>
+      </c>
+      <c r="N22" s="273">
+        <f>ROUNDUP(L22/27000,0)</f>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K23" s="261" t="s">
+        <v>886</v>
+      </c>
+      <c r="L23" s="271">
+        <v>150000</v>
+      </c>
+      <c r="M23" s="257" t="s">
+        <v>884</v>
+      </c>
+      <c r="N23" s="273">
+        <f>ROUNDUP(L23/27000,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="11:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="262" t="s">
+        <v>828</v>
+      </c>
+      <c r="L24" s="274">
+        <v>200000</v>
+      </c>
+      <c r="M24" s="275" t="s">
+        <v>884</v>
+      </c>
+      <c r="N24" s="276">
+        <f>ROUNDUP(L24/27000,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="M25" s="209"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="P4:P6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/presupuesto/PRESUPUESTO_CURSO_EDIF_PRIM_2018.xlsx
+++ b/presupuesto/PRESUPUESTO_CURSO_EDIF_PRIM_2018.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\proyecto edificios\proyecto-CI6501\presupuesto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mleal\Desktop\proyecto-CI6501\presupuesto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8796426-BD37-4782-B87A-BE8ADECF721F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4538D4B7-8D31-4220-9757-890CA597210E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Presupuesto Original" sheetId="1" r:id="rId1"/>
     <sheet name="GG" sheetId="2" r:id="rId2"/>
     <sheet name="Personal CD" sheetId="7" r:id="rId3"/>
-    <sheet name="Tablas informe " sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId4"/>
+    <sheet name="Tablas informe " sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="900">
   <si>
     <t>ITEMIZACION DEL PRESUPUESTO</t>
   </si>
@@ -2694,9 +2689,6 @@
     <t>\$/MES</t>
   </si>
   <si>
-    <t>GASTOS agua mes ( \$ PROMEDIO)</t>
-  </si>
-  <si>
     <t>Gastos Generales</t>
   </si>
   <si>
@@ -2731,6 +2723,12 @@
   </si>
   <si>
     <t>IVA (19\%)</t>
+  </si>
+  <si>
+    <t>GASTOS AGUA MES ( \$ PROMEDIO)</t>
+  </si>
+  <si>
+    <t>GASTOS ELECTRICIDAD MES ( \$ PROMEDIO)</t>
   </si>
 </sst>
 </file>
@@ -2738,15 +2736,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000%"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2965,8 +2963,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3013,18 +3018,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -3787,17 +3780,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -3827,30 +3809,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -3982,21 +3942,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -4109,14 +4054,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="338">
+  <cellXfs count="335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4211,7 +4208,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4232,7 +4229,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4250,7 +4247,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4268,7 +4265,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4292,7 +4289,7 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4307,7 +4304,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4328,7 +4325,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4343,7 +4340,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4352,7 +4349,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4364,13 +4361,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4391,7 +4388,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4403,10 +4400,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4430,7 +4427,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4442,16 +4439,16 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4536,13 +4533,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4551,24 +4548,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4675,30 +4654,30 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4729,18 +4708,242 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="65" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
     </xf>
@@ -4765,9 +4968,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="11"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4780,13 +4980,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4795,256 +4998,49 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="26" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="69" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="68" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="24" fillId="0" borderId="62" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="26" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="26" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="24" fillId="0" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="24" fillId="0" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="24" fillId="0" borderId="69" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="63" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
-    <cellStyle name="Moneda [0]" xfId="3" builtinId="7"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="3" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5130,7 +5126,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5141,67 +5137,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CL"/>
-              <a:t>Curva</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CL" baseline="0"/>
-              <a:t> de Recursos Humanos</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CL"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -5391,7 +5327,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5428,7 +5364,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="746759488"/>
@@ -5507,7 +5443,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5545,7 +5481,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="279484656"/>
@@ -5593,13 +5529,430 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Personal CD'!$C$6:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>MES 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MES 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MES 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MES 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MES 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MES 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MES 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MES 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Personal CD'!$C$15:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFEF-4FFA-9C8C-8BBCBF3A4A49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="279484656"/>
+        <c:axId val="746759488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="279484656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Mes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="746759488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="746759488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Personal de Costo Directo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279484656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -5644,7 +5997,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6214,15 +7123,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>817684</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>145366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50996</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6250,8 +7159,51 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>473612</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>167054</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7BAD53-BC66-4102-8585-4E00FE8EBF6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6552,10 +7504,10 @@
     <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="E488" sqref="E488"/>
+      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" style="2" customWidth="1"/>
@@ -6572,15 +7524,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
     </row>
     <row r="2" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
@@ -6612,10 +7564,10 @@
       <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="223" t="s">
+      <c r="D4" s="305" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="224" t="s">
+      <c r="E4" s="306" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="20" t="s">
@@ -6629,8 +7581,8 @@
       <c r="A5" s="17"/>
       <c r="B5" s="21"/>
       <c r="C5" s="22"/>
-      <c r="D5" s="223"/>
-      <c r="E5" s="224"/>
+      <c r="D5" s="305"/>
+      <c r="E5" s="306"/>
       <c r="F5" s="23" t="s">
         <v>9</v>
       </c>
@@ -6994,10 +7946,10 @@
     </row>
     <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
-      <c r="B28" s="225" t="s">
+      <c r="B28" s="307" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="225"/>
+      <c r="C28" s="307"/>
       <c r="D28" s="26"/>
       <c r="E28" s="27"/>
       <c r="F28" s="26"/>
@@ -8530,10 +9482,10 @@
       <c r="I130" s="83"/>
     </row>
     <row r="131" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="226" t="s">
+      <c r="B131" s="308" t="s">
         <v>170</v>
       </c>
-      <c r="C131" s="226"/>
+      <c r="C131" s="308"/>
       <c r="D131" s="82" t="s">
         <v>109</v>
       </c>
@@ -8544,10 +9496,10 @@
       <c r="G131" s="69"/>
     </row>
     <row r="132" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="226" t="s">
+      <c r="B132" s="308" t="s">
         <v>171</v>
       </c>
-      <c r="C132" s="226"/>
+      <c r="C132" s="308"/>
       <c r="D132" s="82" t="s">
         <v>109</v>
       </c>
@@ -8853,7 +9805,7 @@
       </c>
       <c r="F154" s="67"/>
       <c r="G154" s="69"/>
-      <c r="I154" s="227" t="s">
+      <c r="I154" s="309" t="s">
         <v>190</v>
       </c>
     </row>
@@ -8870,7 +9822,7 @@
       </c>
       <c r="F155" s="67"/>
       <c r="G155" s="69"/>
-      <c r="I155" s="227"/>
+      <c r="I155" s="309"/>
     </row>
     <row r="156" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="78"/>
@@ -8885,7 +9837,7 @@
       </c>
       <c r="F156" s="67"/>
       <c r="G156" s="69"/>
-      <c r="I156" s="227"/>
+      <c r="I156" s="309"/>
     </row>
     <row r="157" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="78"/>
@@ -8900,7 +9852,7 @@
       </c>
       <c r="F157" s="67"/>
       <c r="G157" s="69"/>
-      <c r="I157" s="227"/>
+      <c r="I157" s="309"/>
     </row>
     <row r="158" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="78"/>
@@ -8915,7 +9867,7 @@
       </c>
       <c r="F158" s="67"/>
       <c r="G158" s="69"/>
-      <c r="I158" s="227"/>
+      <c r="I158" s="309"/>
     </row>
     <row r="159" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="29" t="s">
@@ -11083,7 +12035,7 @@
       </c>
       <c r="F323" s="61"/>
       <c r="G323" s="61"/>
-      <c r="I323" s="227" t="s">
+      <c r="I323" s="309" t="s">
         <v>324</v>
       </c>
     </row>
@@ -11102,7 +12054,7 @@
       </c>
       <c r="F324" s="61"/>
       <c r="G324" s="61"/>
-      <c r="I324" s="227"/>
+      <c r="I324" s="309"/>
     </row>
     <row r="325" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="58" t="s">
@@ -11119,7 +12071,7 @@
       </c>
       <c r="F325" s="61"/>
       <c r="G325" s="61"/>
-      <c r="I325" s="227"/>
+      <c r="I325" s="309"/>
     </row>
     <row r="326" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="58" t="s">
@@ -11136,7 +12088,7 @@
       </c>
       <c r="F326" s="61"/>
       <c r="G326" s="61"/>
-      <c r="I326" s="227"/>
+      <c r="I326" s="309"/>
     </row>
     <row r="327" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="94" t="s">
@@ -11772,7 +12724,7 @@
       <c r="E370" s="27"/>
       <c r="F370" s="26"/>
       <c r="G370" s="28"/>
-      <c r="I370" s="227" t="s">
+      <c r="I370" s="309" t="s">
         <v>396</v>
       </c>
     </row>
@@ -11789,7 +12741,7 @@
       <c r="E371" s="96"/>
       <c r="F371" s="55"/>
       <c r="G371" s="57"/>
-      <c r="I371" s="227"/>
+      <c r="I371" s="309"/>
     </row>
     <row r="372" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="58" t="s">
@@ -11807,7 +12759,7 @@
       </c>
       <c r="F372" s="61"/>
       <c r="G372" s="61"/>
-      <c r="I372" s="227"/>
+      <c r="I372" s="309"/>
     </row>
     <row r="373" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="78"/>
@@ -11822,7 +12774,7 @@
       </c>
       <c r="F373" s="67"/>
       <c r="G373" s="69"/>
-      <c r="I373" s="227"/>
+      <c r="I373" s="309"/>
     </row>
     <row r="374" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="78"/>
@@ -11837,7 +12789,7 @@
       </c>
       <c r="F374" s="67"/>
       <c r="G374" s="69"/>
-      <c r="I374" s="227"/>
+      <c r="I374" s="309"/>
     </row>
     <row r="375" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="78"/>
@@ -11852,7 +12804,7 @@
       </c>
       <c r="F375" s="67"/>
       <c r="G375" s="69"/>
-      <c r="I375" s="227"/>
+      <c r="I375" s="309"/>
     </row>
     <row r="376" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="78"/>
@@ -11867,7 +12819,7 @@
       </c>
       <c r="F376" s="67"/>
       <c r="G376" s="69"/>
-      <c r="I376" s="227"/>
+      <c r="I376" s="309"/>
     </row>
     <row r="377" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="78"/>
@@ -13433,7 +14385,7 @@
       <c r="E488" s="35"/>
       <c r="F488" s="33"/>
       <c r="G488" s="34"/>
-      <c r="I488" s="227" t="s">
+      <c r="I488" s="309" t="s">
         <v>553</v>
       </c>
     </row>
@@ -13455,7 +14407,7 @@
         <v>556</v>
       </c>
       <c r="H489" s="83"/>
-      <c r="I489" s="227"/>
+      <c r="I489" s="309"/>
     </row>
     <row r="490" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B490" s="78"/>
@@ -16354,10 +17306,10 @@
       <c r="G704" s="34"/>
     </row>
     <row r="705" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B705" s="225" t="s">
+      <c r="B705" s="307" t="s">
         <v>770</v>
       </c>
-      <c r="C705" s="225"/>
+      <c r="C705" s="307"/>
       <c r="D705" s="26"/>
       <c r="E705" s="27"/>
       <c r="F705" s="26"/>
@@ -16448,28 +17400,28 @@
       <c r="G711" s="61"/>
     </row>
     <row r="712" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B712" s="225" t="s">
+      <c r="B712" s="307" t="s">
         <v>780</v>
       </c>
-      <c r="C712" s="225"/>
+      <c r="C712" s="307"/>
       <c r="D712" s="26"/>
       <c r="E712" s="27"/>
       <c r="F712" s="26"/>
       <c r="G712" s="28"/>
     </row>
     <row r="713" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B713" s="228"/>
-      <c r="C713" s="228"/>
+      <c r="B713" s="310"/>
+      <c r="C713" s="310"/>
       <c r="D713" s="52"/>
       <c r="E713" s="103"/>
       <c r="F713" s="52"/>
       <c r="G713" s="53"/>
     </row>
     <row r="714" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B714" s="225" t="s">
+      <c r="B714" s="307" t="s">
         <v>781</v>
       </c>
-      <c r="C714" s="225"/>
+      <c r="C714" s="307"/>
       <c r="D714" s="26"/>
       <c r="E714" s="27"/>
       <c r="F714" s="26"/>
@@ -16636,32 +17588,32 @@
       <c r="G724" s="61"/>
     </row>
     <row r="725" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B725" s="225" t="s">
+      <c r="B725" s="307" t="s">
         <v>802</v>
       </c>
-      <c r="C725" s="225"/>
+      <c r="C725" s="307"/>
       <c r="D725" s="26"/>
       <c r="E725" s="27"/>
       <c r="F725" s="26"/>
       <c r="G725" s="28"/>
     </row>
     <row r="726" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B726" s="228"/>
-      <c r="C726" s="228"/>
-      <c r="D726" s="228"/>
-      <c r="E726" s="228"/>
-      <c r="F726" s="228"/>
-      <c r="G726" s="228"/>
+      <c r="B726" s="310"/>
+      <c r="C726" s="310"/>
+      <c r="D726" s="310"/>
+      <c r="E726" s="310"/>
+      <c r="F726" s="310"/>
+      <c r="G726" s="310"/>
     </row>
     <row r="727" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B727" s="229" t="s">
+      <c r="B727" s="311" t="s">
         <v>803</v>
       </c>
-      <c r="C727" s="229"/>
-      <c r="D727" s="229"/>
-      <c r="E727" s="229"/>
-      <c r="F727" s="229"/>
-      <c r="G727" s="229"/>
+      <c r="C727" s="311"/>
+      <c r="D727" s="311"/>
+      <c r="E727" s="311"/>
+      <c r="F727" s="311"/>
+      <c r="G727" s="311"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -16692,11 +17644,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView topLeftCell="K31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X46" sqref="X46"/>
+    <sheetView topLeftCell="K4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19:AC28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="128" customWidth="1"/>
     <col min="2" max="2" width="44.33203125" style="145" customWidth="1"/>
@@ -16704,10 +17656,10 @@
     <col min="4" max="4" width="17" style="145" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="145" customWidth="1"/>
     <col min="6" max="6" width="8.77734375" style="122" customWidth="1"/>
-    <col min="7" max="7" width="47.6640625" style="153" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="157" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.6640625" style="147" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="151" bestFit="1" customWidth="1"/>
     <col min="9" max="16" width="8.77734375" style="122" customWidth="1"/>
-    <col min="17" max="17" width="11.77734375" style="159" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" style="153" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.109375" style="122" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="34.33203125" style="122" bestFit="1" customWidth="1"/>
     <col min="20" max="28" width="8.77734375" style="122" customWidth="1"/>
@@ -16800,7 +17752,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="123"/>
-      <c r="B7" s="155" t="s">
+      <c r="B7" s="149" t="s">
         <v>810</v>
       </c>
       <c r="C7" s="135">
@@ -16813,12 +17765,12 @@
         <v>370</v>
       </c>
       <c r="F7" s="126"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="158"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="152"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="127"/>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="149" t="s">
         <v>811</v>
       </c>
       <c r="C8" s="135">
@@ -16834,7 +17786,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="127"/>
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="149" t="s">
         <v>812</v>
       </c>
       <c r="C9" s="135">
@@ -16850,7 +17802,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="125"/>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="149" t="s">
         <v>813</v>
       </c>
       <c r="C10" s="135">
@@ -17009,34 +17961,34 @@
         <v>111</v>
       </c>
       <c r="F19" s="126"/>
-      <c r="T19" s="291" t="s">
+      <c r="T19" s="231" t="s">
         <v>809</v>
       </c>
-      <c r="U19" s="292" t="s">
+      <c r="U19" s="232" t="s">
         <v>833</v>
       </c>
-      <c r="V19" s="293" t="s">
+      <c r="V19" s="233" t="s">
         <v>834</v>
       </c>
-      <c r="W19" s="293" t="s">
+      <c r="W19" s="233" t="s">
         <v>835</v>
       </c>
-      <c r="X19" s="293" t="s">
+      <c r="X19" s="233" t="s">
         <v>836</v>
       </c>
-      <c r="Y19" s="293" t="s">
+      <c r="Y19" s="233" t="s">
         <v>837</v>
       </c>
-      <c r="Z19" s="293" t="s">
+      <c r="Z19" s="233" t="s">
         <v>838</v>
       </c>
-      <c r="AA19" s="293" t="s">
+      <c r="AA19" s="233" t="s">
         <v>839</v>
       </c>
-      <c r="AB19" s="294" t="s">
+      <c r="AB19" s="234" t="s">
         <v>840</v>
       </c>
-      <c r="AC19" s="295" t="s">
+      <c r="AC19" s="235" t="s">
         <v>857</v>
       </c>
     </row>
@@ -17055,101 +18007,101 @@
         <v>111</v>
       </c>
       <c r="F20" s="126"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="185" t="s">
+      <c r="G20" s="150"/>
+      <c r="H20" s="179" t="s">
         <v>809</v>
       </c>
-      <c r="I20" s="297" t="s">
+      <c r="I20" s="237" t="s">
         <v>833</v>
       </c>
-      <c r="J20" s="298" t="s">
+      <c r="J20" s="238" t="s">
         <v>834</v>
       </c>
-      <c r="K20" s="298" t="s">
+      <c r="K20" s="238" t="s">
         <v>835</v>
       </c>
-      <c r="L20" s="298" t="s">
+      <c r="L20" s="238" t="s">
         <v>836</v>
       </c>
-      <c r="M20" s="298" t="s">
+      <c r="M20" s="238" t="s">
         <v>837</v>
       </c>
-      <c r="N20" s="298" t="s">
+      <c r="N20" s="238" t="s">
         <v>838</v>
       </c>
-      <c r="O20" s="298" t="s">
+      <c r="O20" s="238" t="s">
         <v>839</v>
       </c>
-      <c r="P20" s="299" t="s">
+      <c r="P20" s="239" t="s">
         <v>840</v>
       </c>
-      <c r="Q20" s="194" t="s">
+      <c r="Q20" s="188" t="s">
         <v>857</v>
       </c>
-      <c r="S20" s="163" t="s">
+      <c r="S20" s="157" t="s">
         <v>849</v>
       </c>
-      <c r="T20" s="169">
+      <c r="T20" s="163">
         <f>$E$8</f>
         <v>259</v>
       </c>
-      <c r="U20" s="166">
+      <c r="U20" s="160">
         <v>1</v>
       </c>
-      <c r="V20" s="160">
+      <c r="V20" s="154">
         <v>1</v>
       </c>
-      <c r="W20" s="160"/>
-      <c r="X20" s="160"/>
-      <c r="Y20" s="160"/>
-      <c r="Z20" s="160"/>
-      <c r="AA20" s="160"/>
-      <c r="AB20" s="172"/>
-      <c r="AC20" s="175">
+      <c r="W20" s="154"/>
+      <c r="X20" s="154"/>
+      <c r="Y20" s="154"/>
+      <c r="Z20" s="154"/>
+      <c r="AA20" s="154"/>
+      <c r="AB20" s="166"/>
+      <c r="AC20" s="169">
         <f t="shared" ref="AC20:AC27" si="1">SUM(U20:AB20)*T20</f>
         <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="127"/>
-      <c r="B21" s="231" t="s">
+      <c r="B21" s="312" t="s">
         <v>824</v>
       </c>
-      <c r="C21" s="232"/>
-      <c r="D21" s="232"/>
-      <c r="E21" s="233"/>
+      <c r="C21" s="313"/>
+      <c r="D21" s="313"/>
+      <c r="E21" s="314"/>
       <c r="F21" s="126"/>
-      <c r="G21" s="182" t="s">
+      <c r="G21" s="176" t="s">
         <v>832</v>
       </c>
-      <c r="H21" s="186"/>
-      <c r="I21" s="187"/>
-      <c r="J21" s="187"/>
-      <c r="K21" s="187"/>
-      <c r="L21" s="187"/>
-      <c r="M21" s="187"/>
-      <c r="N21" s="187"/>
-      <c r="O21" s="187"/>
-      <c r="P21" s="187"/>
-      <c r="Q21" s="195"/>
-      <c r="S21" s="164" t="s">
+      <c r="H21" s="180"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="181"/>
+      <c r="K21" s="181"/>
+      <c r="L21" s="181"/>
+      <c r="M21" s="181"/>
+      <c r="N21" s="181"/>
+      <c r="O21" s="181"/>
+      <c r="P21" s="181"/>
+      <c r="Q21" s="189"/>
+      <c r="S21" s="158" t="s">
         <v>856</v>
       </c>
-      <c r="T21" s="170">
+      <c r="T21" s="164">
         <f>$E$8</f>
         <v>259</v>
       </c>
-      <c r="U21" s="167"/>
-      <c r="V21" s="161"/>
-      <c r="W21" s="161">
+      <c r="U21" s="161"/>
+      <c r="V21" s="155"/>
+      <c r="W21" s="155">
         <v>1</v>
       </c>
-      <c r="X21" s="161"/>
-      <c r="Y21" s="161"/>
-      <c r="Z21" s="161"/>
-      <c r="AA21" s="161"/>
-      <c r="AB21" s="173"/>
-      <c r="AC21" s="176">
+      <c r="X21" s="155"/>
+      <c r="Y21" s="155"/>
+      <c r="Z21" s="155"/>
+      <c r="AA21" s="155"/>
+      <c r="AB21" s="167"/>
+      <c r="AC21" s="170">
         <f t="shared" si="1"/>
         <v>259</v>
       </c>
@@ -17168,64 +18120,64 @@
         <v>75</v>
       </c>
       <c r="F22" s="126"/>
-      <c r="G22" s="183" t="str">
+      <c r="G22" s="177" t="str">
         <f>B7</f>
         <v>ADMINSITRADOR CONTRATO</v>
       </c>
-      <c r="H22" s="204">
+      <c r="H22" s="198">
         <f>E7</f>
         <v>370</v>
       </c>
-      <c r="I22" s="180">
+      <c r="I22" s="174">
         <v>1</v>
       </c>
-      <c r="J22" s="178">
+      <c r="J22" s="172">
         <v>1</v>
       </c>
-      <c r="K22" s="178">
+      <c r="K22" s="172">
         <v>1</v>
       </c>
-      <c r="L22" s="178">
+      <c r="L22" s="172">
         <v>1</v>
       </c>
-      <c r="M22" s="178">
+      <c r="M22" s="172">
         <v>1</v>
       </c>
-      <c r="N22" s="178">
+      <c r="N22" s="172">
         <v>1</v>
       </c>
-      <c r="O22" s="188">
+      <c r="O22" s="182">
         <v>1</v>
       </c>
-      <c r="P22" s="188">
+      <c r="P22" s="182">
         <v>1</v>
       </c>
-      <c r="Q22" s="200">
+      <c r="Q22" s="194">
         <f t="shared" ref="Q22:Q35" si="2">SUM(I22:P22)*H22</f>
         <v>2960</v>
       </c>
-      <c r="S22" s="164" t="s">
+      <c r="S22" s="158" t="s">
         <v>850</v>
       </c>
-      <c r="T22" s="170">
+      <c r="T22" s="164">
         <f t="shared" ref="T22:T27" si="3">$E$8</f>
         <v>259</v>
       </c>
-      <c r="U22" s="167"/>
-      <c r="V22" s="161"/>
-      <c r="W22" s="161"/>
-      <c r="X22" s="161">
+      <c r="U22" s="161"/>
+      <c r="V22" s="155"/>
+      <c r="W22" s="155"/>
+      <c r="X22" s="155">
         <v>1</v>
       </c>
-      <c r="Y22" s="161">
+      <c r="Y22" s="155">
         <v>1</v>
       </c>
-      <c r="Z22" s="161">
+      <c r="Z22" s="155">
         <v>0.5</v>
       </c>
-      <c r="AA22" s="161"/>
-      <c r="AB22" s="173"/>
-      <c r="AC22" s="176">
+      <c r="AA22" s="155"/>
+      <c r="AB22" s="167"/>
+      <c r="AC22" s="170">
         <f t="shared" si="1"/>
         <v>647.5</v>
       </c>
@@ -17244,74 +18196,74 @@
         <v>297</v>
       </c>
       <c r="F23" s="126"/>
-      <c r="G23" s="183" t="str">
+      <c r="G23" s="177" t="str">
         <f>B8</f>
         <v>SUPERVISORES DE TERRENO</v>
       </c>
-      <c r="H23" s="204">
-        <f t="shared" ref="H22:H27" si="5">E8</f>
+      <c r="H23" s="198">
+        <f t="shared" ref="H23:H27" si="5">E8</f>
         <v>259</v>
       </c>
-      <c r="I23" s="180">
+      <c r="I23" s="174">
         <f t="shared" ref="I23:P23" si="6">SUM(U20:U27)</f>
         <v>1</v>
       </c>
-      <c r="J23" s="178">
+      <c r="J23" s="172">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K23" s="178">
+      <c r="K23" s="172">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L23" s="178">
+      <c r="L23" s="172">
         <f t="shared" si="6"/>
         <v>1.25</v>
       </c>
-      <c r="M23" s="178">
+      <c r="M23" s="172">
         <f t="shared" si="6"/>
         <v>3.25</v>
       </c>
-      <c r="N23" s="178">
+      <c r="N23" s="172">
         <f>SUM(Z20:Z27)</f>
         <v>5.25</v>
       </c>
-      <c r="O23" s="188">
+      <c r="O23" s="182">
         <f t="shared" si="6"/>
         <v>3.75</v>
       </c>
-      <c r="P23" s="188">
+      <c r="P23" s="182">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="Q23" s="200">
+      <c r="Q23" s="194">
         <f t="shared" si="2"/>
         <v>4662</v>
       </c>
-      <c r="S23" s="164" t="s">
+      <c r="S23" s="158" t="s">
         <v>851</v>
       </c>
-      <c r="T23" s="170">
+      <c r="T23" s="164">
         <f t="shared" si="3"/>
         <v>259</v>
       </c>
-      <c r="U23" s="167"/>
-      <c r="V23" s="161"/>
-      <c r="W23" s="161"/>
-      <c r="X23" s="161">
+      <c r="U23" s="161"/>
+      <c r="V23" s="155"/>
+      <c r="W23" s="155"/>
+      <c r="X23" s="155">
         <v>0.25</v>
       </c>
-      <c r="Y23" s="161">
+      <c r="Y23" s="155">
         <v>1</v>
       </c>
-      <c r="Z23" s="161">
+      <c r="Z23" s="155">
         <v>1</v>
       </c>
-      <c r="AA23" s="161">
+      <c r="AA23" s="155">
         <v>0.25</v>
       </c>
-      <c r="AB23" s="173"/>
-      <c r="AC23" s="176">
+      <c r="AB23" s="167"/>
+      <c r="AC23" s="170">
         <f t="shared" si="1"/>
         <v>647.5</v>
       </c>
@@ -17330,49 +18282,49 @@
         <v>6</v>
       </c>
       <c r="F24" s="126"/>
-      <c r="G24" s="183" t="s">
+      <c r="G24" s="177" t="s">
         <v>812</v>
       </c>
-      <c r="H24" s="204">
+      <c r="H24" s="198">
         <f t="shared" si="5"/>
         <v>185</v>
       </c>
-      <c r="I24" s="180"/>
-      <c r="J24" s="178">
+      <c r="I24" s="174"/>
+      <c r="J24" s="172">
         <v>1</v>
       </c>
-      <c r="K24" s="178"/>
-      <c r="L24" s="178"/>
-      <c r="M24" s="178"/>
-      <c r="N24" s="178"/>
-      <c r="O24" s="188"/>
-      <c r="P24" s="188"/>
-      <c r="Q24" s="200">
+      <c r="K24" s="172"/>
+      <c r="L24" s="172"/>
+      <c r="M24" s="172"/>
+      <c r="N24" s="172"/>
+      <c r="O24" s="182"/>
+      <c r="P24" s="182"/>
+      <c r="Q24" s="194">
         <f t="shared" si="2"/>
         <v>185</v>
       </c>
-      <c r="S24" s="164" t="s">
+      <c r="S24" s="158" t="s">
         <v>852</v>
       </c>
-      <c r="T24" s="170">
+      <c r="T24" s="164">
         <f t="shared" si="3"/>
         <v>259</v>
       </c>
-      <c r="U24" s="167"/>
-      <c r="V24" s="161"/>
-      <c r="W24" s="161"/>
-      <c r="X24" s="161"/>
-      <c r="Y24" s="161">
+      <c r="U24" s="161"/>
+      <c r="V24" s="155"/>
+      <c r="W24" s="155"/>
+      <c r="X24" s="155"/>
+      <c r="Y24" s="155">
         <v>0.5</v>
       </c>
-      <c r="Z24" s="161">
+      <c r="Z24" s="155">
         <v>1</v>
       </c>
-      <c r="AA24" s="161">
+      <c r="AA24" s="155">
         <v>0.5</v>
       </c>
-      <c r="AB24" s="173"/>
-      <c r="AC24" s="176">
+      <c r="AB24" s="167"/>
+      <c r="AC24" s="170">
         <f t="shared" si="1"/>
         <v>518</v>
       </c>
@@ -17391,64 +18343,64 @@
         <v>8</v>
       </c>
       <c r="F25" s="126"/>
-      <c r="G25" s="183" t="str">
+      <c r="G25" s="177" t="str">
         <f t="shared" ref="G25:G38" si="7">B10</f>
         <v>RESPONSABLE MEDIO AMBIENTE</v>
       </c>
-      <c r="H25" s="205">
+      <c r="H25" s="199">
         <f t="shared" si="5"/>
         <v>185</v>
       </c>
-      <c r="I25" s="180">
+      <c r="I25" s="174">
         <v>1</v>
       </c>
-      <c r="J25" s="178">
+      <c r="J25" s="172">
         <v>1</v>
       </c>
-      <c r="K25" s="178">
+      <c r="K25" s="172">
         <v>1</v>
       </c>
-      <c r="L25" s="178">
+      <c r="L25" s="172">
         <v>1</v>
       </c>
-      <c r="M25" s="178">
+      <c r="M25" s="172">
         <v>1</v>
       </c>
-      <c r="N25" s="178">
+      <c r="N25" s="172">
         <v>1</v>
       </c>
-      <c r="O25" s="188">
+      <c r="O25" s="182">
         <v>1</v>
       </c>
-      <c r="P25" s="188">
+      <c r="P25" s="182">
         <v>1</v>
       </c>
-      <c r="Q25" s="200">
+      <c r="Q25" s="194">
         <f t="shared" si="2"/>
         <v>1480</v>
       </c>
-      <c r="S25" s="164" t="s">
+      <c r="S25" s="158" t="s">
         <v>853</v>
       </c>
-      <c r="T25" s="170">
+      <c r="T25" s="164">
         <f t="shared" si="3"/>
         <v>259</v>
       </c>
-      <c r="U25" s="167"/>
-      <c r="V25" s="161"/>
-      <c r="W25" s="161"/>
-      <c r="X25" s="161"/>
-      <c r="Y25" s="161"/>
-      <c r="Z25" s="161">
+      <c r="U25" s="161"/>
+      <c r="V25" s="155"/>
+      <c r="W25" s="155"/>
+      <c r="X25" s="155"/>
+      <c r="Y25" s="155"/>
+      <c r="Z25" s="155">
         <v>0.75</v>
       </c>
-      <c r="AA25" s="161">
+      <c r="AA25" s="155">
         <v>1</v>
       </c>
-      <c r="AB25" s="173">
+      <c r="AB25" s="167">
         <v>0.25</v>
       </c>
-      <c r="AC25" s="176">
+      <c r="AC25" s="170">
         <f t="shared" si="1"/>
         <v>518</v>
       </c>
@@ -17460,68 +18412,68 @@
       </c>
       <c r="C26" s="137"/>
       <c r="D26" s="137"/>
-      <c r="E26" s="209"/>
-      <c r="F26" s="210"/>
-      <c r="G26" s="183" t="str">
+      <c r="E26" s="203"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="177" t="str">
         <f t="shared" si="7"/>
         <v>RESPONSABLE SEGURIDAD</v>
       </c>
-      <c r="H26" s="205">
+      <c r="H26" s="199">
         <f t="shared" si="5"/>
         <v>185</v>
       </c>
-      <c r="I26" s="180">
+      <c r="I26" s="174">
         <v>1</v>
       </c>
-      <c r="J26" s="178">
+      <c r="J26" s="172">
         <v>1</v>
       </c>
-      <c r="K26" s="178">
+      <c r="K26" s="172">
         <v>1</v>
       </c>
-      <c r="L26" s="178">
+      <c r="L26" s="172">
         <v>1</v>
       </c>
-      <c r="M26" s="178">
+      <c r="M26" s="172">
         <v>1</v>
       </c>
-      <c r="N26" s="178">
+      <c r="N26" s="172">
         <v>1</v>
       </c>
-      <c r="O26" s="188">
+      <c r="O26" s="182">
         <v>1</v>
       </c>
-      <c r="P26" s="188">
+      <c r="P26" s="182">
         <v>1</v>
       </c>
-      <c r="Q26" s="200">
+      <c r="Q26" s="194">
         <f t="shared" si="2"/>
         <v>1480</v>
       </c>
-      <c r="S26" s="164" t="s">
+      <c r="S26" s="158" t="s">
         <v>854</v>
       </c>
-      <c r="T26" s="170">
+      <c r="T26" s="164">
         <f t="shared" si="3"/>
         <v>259</v>
       </c>
-      <c r="U26" s="167"/>
-      <c r="V26" s="161"/>
-      <c r="W26" s="161"/>
-      <c r="X26" s="161"/>
-      <c r="Y26" s="161">
+      <c r="U26" s="161"/>
+      <c r="V26" s="155"/>
+      <c r="W26" s="155"/>
+      <c r="X26" s="155"/>
+      <c r="Y26" s="155">
         <v>0.5</v>
       </c>
-      <c r="Z26" s="161">
+      <c r="Z26" s="155">
         <v>1</v>
       </c>
-      <c r="AA26" s="161">
+      <c r="AA26" s="155">
         <v>1</v>
       </c>
-      <c r="AB26" s="173">
+      <c r="AB26" s="167">
         <v>0.5</v>
       </c>
-      <c r="AC26" s="176">
+      <c r="AC26" s="170">
         <f t="shared" si="1"/>
         <v>777</v>
       </c>
@@ -17533,68 +18485,68 @@
       </c>
       <c r="C27" s="138"/>
       <c r="D27" s="138"/>
-      <c r="E27" s="209"/>
-      <c r="F27" s="210"/>
-      <c r="G27" s="183" t="str">
+      <c r="E27" s="203"/>
+      <c r="F27" s="204"/>
+      <c r="G27" s="177" t="str">
         <f t="shared" si="7"/>
         <v>RESPONSABLE GESTION DE CALIDAD</v>
       </c>
-      <c r="H27" s="205">
+      <c r="H27" s="199">
         <f t="shared" si="5"/>
         <v>259</v>
       </c>
-      <c r="I27" s="180">
+      <c r="I27" s="174">
         <v>1</v>
       </c>
-      <c r="J27" s="178">
+      <c r="J27" s="172">
         <v>1</v>
       </c>
-      <c r="K27" s="178">
+      <c r="K27" s="172">
         <v>1</v>
       </c>
-      <c r="L27" s="178">
+      <c r="L27" s="172">
         <v>1</v>
       </c>
-      <c r="M27" s="178">
+      <c r="M27" s="172">
         <v>1</v>
       </c>
-      <c r="N27" s="178">
+      <c r="N27" s="172">
         <v>1</v>
       </c>
-      <c r="O27" s="188">
+      <c r="O27" s="182">
         <v>1</v>
       </c>
-      <c r="P27" s="188">
+      <c r="P27" s="182">
         <v>1</v>
       </c>
-      <c r="Q27" s="200">
+      <c r="Q27" s="194">
         <f t="shared" si="2"/>
         <v>2072</v>
       </c>
-      <c r="S27" s="165" t="s">
+      <c r="S27" s="159" t="s">
         <v>855</v>
       </c>
-      <c r="T27" s="171">
+      <c r="T27" s="165">
         <f t="shared" si="3"/>
         <v>259</v>
       </c>
-      <c r="U27" s="168"/>
-      <c r="V27" s="162"/>
-      <c r="W27" s="162"/>
-      <c r="X27" s="162"/>
-      <c r="Y27" s="162">
+      <c r="U27" s="162"/>
+      <c r="V27" s="156"/>
+      <c r="W27" s="156"/>
+      <c r="X27" s="156"/>
+      <c r="Y27" s="156">
         <v>0.25</v>
       </c>
-      <c r="Z27" s="162">
+      <c r="Z27" s="156">
         <v>1</v>
       </c>
-      <c r="AA27" s="162">
+      <c r="AA27" s="156">
         <v>1</v>
       </c>
-      <c r="AB27" s="174">
+      <c r="AB27" s="168">
         <v>0.75</v>
       </c>
-      <c r="AC27" s="177">
+      <c r="AC27" s="171">
         <f t="shared" si="1"/>
         <v>777</v>
       </c>
@@ -17604,53 +18556,53 @@
       <c r="B28" s="139"/>
       <c r="C28" s="129"/>
       <c r="D28" s="129"/>
-      <c r="E28" s="209"/>
-      <c r="F28" s="210"/>
-      <c r="G28" s="183" t="str">
+      <c r="E28" s="203"/>
+      <c r="F28" s="204"/>
+      <c r="G28" s="177" t="str">
         <f t="shared" si="7"/>
         <v>JEFE OF. ADMINISTRATIVA</v>
       </c>
-      <c r="H28" s="205">
+      <c r="H28" s="199">
         <f t="shared" ref="H28:H35" si="8">E13</f>
         <v>185</v>
       </c>
-      <c r="I28" s="180">
+      <c r="I28" s="174">
         <v>1</v>
       </c>
-      <c r="J28" s="178">
+      <c r="J28" s="172">
         <v>1</v>
       </c>
-      <c r="K28" s="178">
+      <c r="K28" s="172">
         <v>1</v>
       </c>
-      <c r="L28" s="178">
+      <c r="L28" s="172">
         <v>1</v>
       </c>
-      <c r="M28" s="178">
+      <c r="M28" s="172">
         <v>1</v>
       </c>
-      <c r="N28" s="211">
+      <c r="N28" s="205">
         <v>1</v>
       </c>
-      <c r="O28" s="212">
+      <c r="O28" s="206">
         <v>1</v>
       </c>
-      <c r="P28" s="188">
+      <c r="P28" s="182">
         <v>1</v>
       </c>
-      <c r="Q28" s="200">
+      <c r="Q28" s="194">
         <f t="shared" si="2"/>
         <v>1480</v>
       </c>
-      <c r="U28" s="159"/>
-      <c r="V28" s="159"/>
-      <c r="W28" s="159"/>
-      <c r="X28" s="159"/>
-      <c r="Y28" s="159"/>
-      <c r="Z28" s="159"/>
-      <c r="AA28" s="159"/>
-      <c r="AB28" s="159"/>
-      <c r="AC28" s="296">
+      <c r="U28" s="153"/>
+      <c r="V28" s="153"/>
+      <c r="W28" s="153"/>
+      <c r="X28" s="153"/>
+      <c r="Y28" s="153"/>
+      <c r="Z28" s="153"/>
+      <c r="AA28" s="153"/>
+      <c r="AB28" s="153"/>
+      <c r="AC28" s="236">
         <f>SUM(AC20:AC27)</f>
         <v>4662</v>
       </c>
@@ -17661,40 +18613,40 @@
       <c r="C29" s="141"/>
       <c r="D29" s="142"/>
       <c r="E29" s="142"/>
-      <c r="F29" s="210"/>
-      <c r="G29" s="183" t="str">
+      <c r="F29" s="204"/>
+      <c r="G29" s="177" t="str">
         <f t="shared" si="7"/>
         <v>ASISTENTE OF.ADMINIS.</v>
       </c>
-      <c r="H29" s="205">
+      <c r="H29" s="199">
         <f t="shared" si="8"/>
         <v>111</v>
       </c>
-      <c r="I29" s="180">
+      <c r="I29" s="174">
         <v>2</v>
       </c>
-      <c r="J29" s="178">
+      <c r="J29" s="172">
         <v>2</v>
       </c>
-      <c r="K29" s="178">
+      <c r="K29" s="172">
         <v>2</v>
       </c>
-      <c r="L29" s="178">
+      <c r="L29" s="172">
         <v>2</v>
       </c>
-      <c r="M29" s="178">
+      <c r="M29" s="172">
         <v>2</v>
       </c>
-      <c r="N29" s="211">
+      <c r="N29" s="205">
         <v>2</v>
       </c>
-      <c r="O29" s="212">
+      <c r="O29" s="206">
         <v>2</v>
       </c>
-      <c r="P29" s="188">
+      <c r="P29" s="182">
         <v>2</v>
       </c>
-      <c r="Q29" s="200">
+      <c r="Q29" s="194">
         <f t="shared" si="2"/>
         <v>1776</v>
       </c>
@@ -17705,40 +18657,40 @@
       <c r="C30" s="143" t="s">
         <v>861</v>
       </c>
-      <c r="F30" s="210"/>
-      <c r="G30" s="183" t="str">
+      <c r="F30" s="204"/>
+      <c r="G30" s="177" t="str">
         <f t="shared" si="7"/>
         <v>SECRETARIA</v>
       </c>
-      <c r="H30" s="205">
+      <c r="H30" s="199">
         <f t="shared" si="8"/>
         <v>52</v>
       </c>
-      <c r="I30" s="180">
+      <c r="I30" s="174">
         <v>1</v>
       </c>
-      <c r="J30" s="178">
+      <c r="J30" s="172">
         <v>1</v>
       </c>
-      <c r="K30" s="178">
+      <c r="K30" s="172">
         <v>1</v>
       </c>
-      <c r="L30" s="178">
+      <c r="L30" s="172">
         <v>1</v>
       </c>
-      <c r="M30" s="178">
+      <c r="M30" s="172">
         <v>1</v>
       </c>
-      <c r="N30" s="211">
+      <c r="N30" s="205">
         <v>1</v>
       </c>
-      <c r="O30" s="212">
+      <c r="O30" s="206">
         <v>1</v>
       </c>
-      <c r="P30" s="188">
+      <c r="P30" s="182">
         <v>1</v>
       </c>
-      <c r="Q30" s="200">
+      <c r="Q30" s="194">
         <f t="shared" si="2"/>
         <v>416</v>
       </c>
@@ -17748,41 +18700,41 @@
       <c r="B31" s="139"/>
       <c r="C31" s="141"/>
       <c r="D31" s="142"/>
-      <c r="E31" s="209"/>
-      <c r="F31" s="210"/>
-      <c r="G31" s="183" t="str">
+      <c r="E31" s="203"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="177" t="str">
         <f t="shared" si="7"/>
         <v>JUNIOR</v>
       </c>
-      <c r="H31" s="205">
+      <c r="H31" s="199">
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
-      <c r="I31" s="180">
+      <c r="I31" s="174">
         <v>2</v>
       </c>
-      <c r="J31" s="178">
+      <c r="J31" s="172">
         <v>6</v>
       </c>
-      <c r="K31" s="178">
+      <c r="K31" s="172">
         <v>8</v>
       </c>
-      <c r="L31" s="178">
+      <c r="L31" s="172">
         <v>8</v>
       </c>
-      <c r="M31" s="178">
+      <c r="M31" s="172">
         <v>9</v>
       </c>
-      <c r="N31" s="211">
+      <c r="N31" s="205">
         <v>10</v>
       </c>
-      <c r="O31" s="212">
+      <c r="O31" s="206">
         <v>10</v>
       </c>
-      <c r="P31" s="188">
+      <c r="P31" s="182">
         <v>5</v>
       </c>
-      <c r="Q31" s="200">
+      <c r="Q31" s="194">
         <f t="shared" si="2"/>
         <v>1334</v>
       </c>
@@ -17793,56 +18745,56 @@
       <c r="C32" s="141"/>
       <c r="D32" s="142"/>
       <c r="E32" s="142"/>
-      <c r="F32" s="210"/>
-      <c r="G32" s="183" t="str">
+      <c r="F32" s="204"/>
+      <c r="G32" s="177" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">CONDUCTOR  </v>
       </c>
-      <c r="H32" s="205">
+      <c r="H32" s="199">
         <f t="shared" si="8"/>
         <v>59</v>
       </c>
-      <c r="I32" s="180">
+      <c r="I32" s="174">
         <v>1</v>
       </c>
-      <c r="J32" s="178">
+      <c r="J32" s="172">
         <v>1</v>
       </c>
-      <c r="K32" s="178">
+      <c r="K32" s="172">
         <v>1</v>
       </c>
-      <c r="L32" s="178">
+      <c r="L32" s="172">
         <v>1</v>
       </c>
-      <c r="M32" s="178">
+      <c r="M32" s="172">
         <v>1</v>
       </c>
-      <c r="N32" s="211">
+      <c r="N32" s="205">
         <v>2</v>
       </c>
-      <c r="O32" s="212">
+      <c r="O32" s="206">
         <v>2</v>
       </c>
-      <c r="P32" s="188">
+      <c r="P32" s="182">
         <v>1</v>
       </c>
-      <c r="Q32" s="200">
+      <c r="Q32" s="194">
         <f t="shared" si="2"/>
         <v>590</v>
       </c>
-      <c r="R32" s="238" t="s">
+      <c r="R32" s="320" t="s">
         <v>867</v>
       </c>
-      <c r="S32" s="217">
+      <c r="S32" s="211">
         <f>T32/8</f>
         <v>87145875</v>
       </c>
-      <c r="T32" s="235">
+      <c r="T32" s="317">
         <f>Q41*27000</f>
         <v>697167000</v>
       </c>
-      <c r="U32" s="235"/>
-      <c r="W32" s="218">
+      <c r="U32" s="317"/>
+      <c r="W32" s="212">
         <f>Q41</f>
         <v>25821</v>
       </c>
@@ -17853,53 +18805,53 @@
       <c r="C33" s="143"/>
       <c r="D33" s="142"/>
       <c r="E33" s="142"/>
-      <c r="F33" s="210"/>
-      <c r="G33" s="183" t="str">
+      <c r="F33" s="204"/>
+      <c r="G33" s="177" t="str">
         <f t="shared" si="7"/>
         <v>JEFE TALLER MANTENCION</v>
       </c>
-      <c r="H33" s="205">
+      <c r="H33" s="199">
         <f t="shared" si="8"/>
         <v>148</v>
       </c>
-      <c r="I33" s="180">
+      <c r="I33" s="174">
         <v>1</v>
       </c>
-      <c r="J33" s="178">
+      <c r="J33" s="172">
         <v>1</v>
       </c>
-      <c r="K33" s="178">
+      <c r="K33" s="172">
         <v>1</v>
       </c>
-      <c r="L33" s="178">
+      <c r="L33" s="172">
         <v>1</v>
       </c>
-      <c r="M33" s="178">
+      <c r="M33" s="172">
         <v>1</v>
       </c>
-      <c r="N33" s="211">
+      <c r="N33" s="205">
         <v>1</v>
       </c>
-      <c r="O33" s="212">
+      <c r="O33" s="206">
         <v>1</v>
       </c>
-      <c r="P33" s="188">
+      <c r="P33" s="182">
         <v>1</v>
       </c>
-      <c r="Q33" s="200">
+      <c r="Q33" s="194">
         <f t="shared" si="2"/>
         <v>1184</v>
       </c>
-      <c r="R33" s="238"/>
-      <c r="S33" s="216">
+      <c r="R33" s="320"/>
+      <c r="S33" s="210">
         <v>450000</v>
       </c>
-      <c r="T33" s="237">
+      <c r="T33" s="319">
         <f>S33*8</f>
         <v>3600000</v>
       </c>
-      <c r="U33" s="236"/>
-      <c r="W33" s="218">
+      <c r="U33" s="318"/>
+      <c r="W33" s="212">
         <f>T33/27000</f>
         <v>133.33333333333334</v>
       </c>
@@ -17909,53 +18861,53 @@
       <c r="B34" s="139"/>
       <c r="C34" s="141"/>
       <c r="E34" s="142"/>
-      <c r="F34" s="210"/>
-      <c r="G34" s="183" t="str">
+      <c r="F34" s="204"/>
+      <c r="G34" s="177" t="str">
         <f t="shared" si="7"/>
         <v>ELECTRICO</v>
       </c>
-      <c r="H34" s="205">
+      <c r="H34" s="199">
         <f t="shared" si="8"/>
         <v>111</v>
       </c>
-      <c r="I34" s="180">
+      <c r="I34" s="174">
         <v>1</v>
       </c>
-      <c r="J34" s="178">
+      <c r="J34" s="172">
         <v>1</v>
       </c>
-      <c r="K34" s="178">
+      <c r="K34" s="172">
         <v>1</v>
       </c>
-      <c r="L34" s="178">
+      <c r="L34" s="172">
         <v>1</v>
       </c>
-      <c r="M34" s="178">
+      <c r="M34" s="172">
         <v>1</v>
       </c>
-      <c r="N34" s="211">
+      <c r="N34" s="205">
         <v>1</v>
       </c>
-      <c r="O34" s="212">
+      <c r="O34" s="206">
         <v>1</v>
       </c>
-      <c r="P34" s="188">
+      <c r="P34" s="182">
         <v>1</v>
       </c>
-      <c r="Q34" s="200">
+      <c r="Q34" s="194">
         <f t="shared" si="2"/>
         <v>888</v>
       </c>
-      <c r="R34" s="238"/>
-      <c r="S34" s="216">
+      <c r="R34" s="320"/>
+      <c r="S34" s="210">
         <v>100000</v>
       </c>
-      <c r="T34" s="237">
+      <c r="T34" s="319">
         <f>S34*8</f>
         <v>800000</v>
       </c>
-      <c r="U34" s="236"/>
-      <c r="W34" s="218">
+      <c r="U34" s="318"/>
+      <c r="W34" s="212">
         <f>T34/27000</f>
         <v>29.62962962962963</v>
       </c>
@@ -17967,39 +18919,39 @@
       <c r="D35" s="142"/>
       <c r="E35" s="142"/>
       <c r="F35" s="121"/>
-      <c r="G35" s="184" t="str">
+      <c r="G35" s="178" t="str">
         <f t="shared" si="7"/>
         <v>MECANICO</v>
       </c>
-      <c r="H35" s="206">
+      <c r="H35" s="200">
         <f t="shared" si="8"/>
         <v>111</v>
       </c>
-      <c r="I35" s="181">
+      <c r="I35" s="175">
         <v>1</v>
       </c>
-      <c r="J35" s="179">
+      <c r="J35" s="173">
         <v>1</v>
       </c>
-      <c r="K35" s="179">
+      <c r="K35" s="173">
         <v>1</v>
       </c>
-      <c r="L35" s="179">
+      <c r="L35" s="173">
         <v>1</v>
       </c>
-      <c r="M35" s="179">
+      <c r="M35" s="173">
         <v>1</v>
       </c>
-      <c r="N35" s="213">
+      <c r="N35" s="207">
         <v>1</v>
       </c>
-      <c r="O35" s="214">
+      <c r="O35" s="208">
         <v>1</v>
       </c>
-      <c r="P35" s="189">
+      <c r="P35" s="183">
         <v>1</v>
       </c>
-      <c r="Q35" s="201">
+      <c r="Q35" s="195">
         <f t="shared" si="2"/>
         <v>888</v>
       </c>
@@ -18011,20 +18963,20 @@
       <c r="D36" s="142"/>
       <c r="E36" s="142"/>
       <c r="F36" s="121"/>
-      <c r="G36" s="182" t="str">
+      <c r="G36" s="176" t="str">
         <f t="shared" si="7"/>
         <v>OTROS GASTOS</v>
       </c>
-      <c r="H36" s="207"/>
-      <c r="I36" s="187"/>
-      <c r="J36" s="187"/>
-      <c r="K36" s="187"/>
-      <c r="L36" s="187"/>
-      <c r="M36" s="187"/>
-      <c r="N36" s="187"/>
-      <c r="O36" s="187"/>
-      <c r="P36" s="187"/>
-      <c r="Q36" s="202"/>
+      <c r="H36" s="201"/>
+      <c r="I36" s="181"/>
+      <c r="J36" s="181"/>
+      <c r="K36" s="181"/>
+      <c r="L36" s="181"/>
+      <c r="M36" s="181"/>
+      <c r="N36" s="181"/>
+      <c r="O36" s="181"/>
+      <c r="P36" s="181"/>
+      <c r="Q36" s="196"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="127"/>
@@ -18033,39 +18985,39 @@
       <c r="D37" s="142"/>
       <c r="E37" s="142"/>
       <c r="F37" s="121"/>
-      <c r="G37" s="183" t="str">
+      <c r="G37" s="177" t="str">
         <f t="shared" si="7"/>
         <v>ARRIENDO CAMIONETA (MES)</v>
       </c>
-      <c r="H37" s="205">
+      <c r="H37" s="199">
         <f>E22</f>
         <v>75</v>
       </c>
-      <c r="I37" s="180">
+      <c r="I37" s="174">
         <v>1</v>
       </c>
-      <c r="J37" s="178">
+      <c r="J37" s="172">
         <v>1</v>
       </c>
-      <c r="K37" s="178">
+      <c r="K37" s="172">
         <v>1</v>
       </c>
-      <c r="L37" s="178">
+      <c r="L37" s="172">
         <v>1</v>
       </c>
-      <c r="M37" s="178">
+      <c r="M37" s="172">
         <v>1</v>
       </c>
-      <c r="N37" s="211">
+      <c r="N37" s="205">
         <v>2</v>
       </c>
-      <c r="O37" s="212">
+      <c r="O37" s="206">
         <v>2</v>
       </c>
-      <c r="P37" s="188">
+      <c r="P37" s="182">
         <v>1</v>
       </c>
-      <c r="Q37" s="200">
+      <c r="Q37" s="194">
         <f>SUM(I37:P37)*H37</f>
         <v>750</v>
       </c>
@@ -18076,47 +19028,47 @@
       <c r="C38" s="141"/>
       <c r="D38" s="142"/>
       <c r="E38" s="142"/>
-      <c r="G38" s="183" t="str">
+      <c r="G38" s="177" t="str">
         <f t="shared" si="7"/>
         <v>ARRIENDO GRUA</v>
       </c>
-      <c r="H38" s="205">
+      <c r="H38" s="199">
         <f t="shared" ref="H38:H40" si="9">E23</f>
         <v>297</v>
       </c>
-      <c r="I38" s="180">
+      <c r="I38" s="174">
         <v>0</v>
       </c>
-      <c r="J38" s="178">
+      <c r="J38" s="172">
         <v>0</v>
       </c>
-      <c r="K38" s="178">
+      <c r="K38" s="172">
         <v>2</v>
       </c>
-      <c r="L38" s="178">
+      <c r="L38" s="172">
         <v>2</v>
       </c>
-      <c r="M38" s="178">
+      <c r="M38" s="172">
         <v>2</v>
       </c>
-      <c r="N38" s="178">
+      <c r="N38" s="172">
         <v>2</v>
       </c>
-      <c r="O38" s="188">
+      <c r="O38" s="182">
         <v>2</v>
       </c>
-      <c r="P38" s="188">
+      <c r="P38" s="182">
         <v>2</v>
       </c>
-      <c r="Q38" s="200">
+      <c r="Q38" s="194">
         <f>SUM(I38:P38)*H38</f>
         <v>3564</v>
       </c>
-      <c r="S38" s="234" t="s">
+      <c r="S38" s="315" t="s">
         <v>859</v>
       </c>
-      <c r="T38" s="234"/>
-      <c r="U38" s="234"/>
+      <c r="T38" s="315"/>
+      <c r="U38" s="315"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="125"/>
@@ -18124,38 +19076,38 @@
       <c r="C39" s="142"/>
       <c r="D39" s="142"/>
       <c r="E39" s="142"/>
-      <c r="G39" s="183" t="s">
+      <c r="G39" s="177" t="s">
         <v>863</v>
       </c>
-      <c r="H39" s="205">
+      <c r="H39" s="199">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="I39" s="180">
+      <c r="I39" s="174">
         <v>1</v>
       </c>
-      <c r="J39" s="178">
+      <c r="J39" s="172">
         <v>1</v>
       </c>
-      <c r="K39" s="178">
+      <c r="K39" s="172">
         <v>1</v>
       </c>
-      <c r="L39" s="178">
+      <c r="L39" s="172">
         <v>1</v>
       </c>
-      <c r="M39" s="178">
+      <c r="M39" s="172">
         <v>1</v>
       </c>
-      <c r="N39" s="178">
+      <c r="N39" s="172">
         <v>1</v>
       </c>
-      <c r="O39" s="188">
+      <c r="O39" s="182">
         <v>1</v>
       </c>
-      <c r="P39" s="188">
+      <c r="P39" s="182">
         <v>1</v>
       </c>
-      <c r="Q39" s="200">
+      <c r="Q39" s="194">
         <f>SUM(I39:P39)*H39</f>
         <v>48</v>
       </c>
@@ -18166,38 +19118,38 @@
       <c r="C40" s="143"/>
       <c r="D40" s="142"/>
       <c r="E40" s="142"/>
-      <c r="G40" s="190" t="s">
+      <c r="G40" s="184" t="s">
         <v>864</v>
       </c>
-      <c r="H40" s="208">
+      <c r="H40" s="202">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="I40" s="191">
+      <c r="I40" s="185">
         <v>1</v>
       </c>
-      <c r="J40" s="192">
+      <c r="J40" s="186">
         <v>1</v>
       </c>
-      <c r="K40" s="192">
+      <c r="K40" s="186">
         <v>1</v>
       </c>
-      <c r="L40" s="192">
+      <c r="L40" s="186">
         <v>1</v>
       </c>
-      <c r="M40" s="192">
+      <c r="M40" s="186">
         <v>1</v>
       </c>
-      <c r="N40" s="192">
+      <c r="N40" s="186">
         <v>1</v>
       </c>
-      <c r="O40" s="193">
+      <c r="O40" s="187">
         <v>1</v>
       </c>
-      <c r="P40" s="193">
+      <c r="P40" s="187">
         <v>1</v>
       </c>
-      <c r="Q40" s="203">
+      <c r="Q40" s="197">
         <f>SUM(I40:P40)*H40</f>
         <v>64</v>
       </c>
@@ -18208,43 +19160,43 @@
       <c r="C41" s="143"/>
       <c r="D41" s="142"/>
       <c r="E41" s="142"/>
-      <c r="G41" s="196" t="s">
+      <c r="G41" s="190" t="s">
         <v>858</v>
       </c>
-      <c r="H41" s="197"/>
-      <c r="I41" s="198">
+      <c r="H41" s="191"/>
+      <c r="I41" s="192">
         <f t="shared" ref="I41:P41" si="10">SUMPRODUCT(I22:I40,$H$22:$H$40)</f>
         <v>2281</v>
       </c>
-      <c r="J41" s="198">
+      <c r="J41" s="192">
         <f t="shared" si="10"/>
         <v>2558</v>
       </c>
-      <c r="K41" s="198">
+      <c r="K41" s="192">
         <f t="shared" si="10"/>
         <v>3013</v>
       </c>
-      <c r="L41" s="198">
+      <c r="L41" s="192">
         <f t="shared" si="10"/>
         <v>3077.75</v>
       </c>
-      <c r="M41" s="198">
+      <c r="M41" s="192">
         <f t="shared" si="10"/>
         <v>3618.75</v>
       </c>
-      <c r="N41" s="198">
+      <c r="N41" s="192">
         <f t="shared" si="10"/>
         <v>4293.75</v>
       </c>
-      <c r="O41" s="198">
+      <c r="O41" s="192">
         <f t="shared" si="10"/>
         <v>3905.25</v>
       </c>
-      <c r="P41" s="198">
+      <c r="P41" s="192">
         <f t="shared" si="10"/>
         <v>3073.5</v>
       </c>
-      <c r="Q41" s="199">
+      <c r="Q41" s="193">
         <f>SUM(Q21:Q40)</f>
         <v>25821</v>
       </c>
@@ -18265,10 +19217,10 @@
       <c r="S43" s="122" t="s">
         <v>865</v>
       </c>
-      <c r="T43" s="236" t="s">
+      <c r="T43" s="318" t="s">
         <v>866</v>
       </c>
-      <c r="U43" s="236"/>
+      <c r="U43" s="318"/>
       <c r="W43" s="122" t="s">
         <v>868</v>
       </c>
@@ -18285,12 +19237,12 @@
       <c r="R44" s="122" t="s">
         <v>861</v>
       </c>
-      <c r="S44" s="217"/>
-      <c r="T44" s="237">
+      <c r="S44" s="211"/>
+      <c r="T44" s="319">
         <v>3274824326</v>
       </c>
-      <c r="U44" s="237"/>
-      <c r="W44" s="221">
+      <c r="U44" s="319"/>
+      <c r="W44" s="215">
         <f>ROUNDUP(T44/27000,0)</f>
         <v>121290</v>
       </c>
@@ -18301,25 +19253,25 @@
       <c r="C45" s="143"/>
       <c r="D45" s="142"/>
       <c r="E45" s="142"/>
-      <c r="G45" s="215" t="s">
+      <c r="G45" s="209" t="s">
         <v>860</v>
       </c>
-      <c r="H45" s="230">
+      <c r="H45" s="316">
         <f>0.02*T44</f>
         <v>65496486.520000003</v>
       </c>
-      <c r="I45" s="230"/>
-      <c r="J45" s="230"/>
+      <c r="I45" s="316"/>
+      <c r="J45" s="316"/>
       <c r="R45" s="122" t="s">
         <v>871</v>
       </c>
-      <c r="S45" s="217"/>
-      <c r="T45" s="237">
+      <c r="S45" s="211"/>
+      <c r="T45" s="319">
         <f>T44*0.08</f>
         <v>261985946.08000001</v>
       </c>
-      <c r="U45" s="237"/>
-      <c r="W45" s="221">
+      <c r="U45" s="319"/>
+      <c r="W45" s="215">
         <f t="shared" ref="W45:W52" si="11">ROUNDUP(T45/27000,0)</f>
         <v>9704</v>
       </c>
@@ -18333,20 +19285,20 @@
       <c r="R46" s="122" t="s">
         <v>867</v>
       </c>
-      <c r="S46" s="217">
+      <c r="S46" s="211">
         <f>SUM(S32:S34)</f>
         <v>87695875</v>
       </c>
-      <c r="T46" s="237">
+      <c r="T46" s="319">
         <f>SUM(T32:U34)</f>
         <v>701567000</v>
       </c>
-      <c r="U46" s="237"/>
-      <c r="W46" s="221">
+      <c r="U46" s="319"/>
+      <c r="W46" s="215">
         <f t="shared" si="11"/>
         <v>25984</v>
       </c>
-      <c r="X46" s="219">
+      <c r="X46" s="213">
         <f>T46/$T$44</f>
         <v>0.21423042281383126</v>
       </c>
@@ -18357,8 +19309,8 @@
       <c r="C47" s="141"/>
       <c r="D47" s="142"/>
       <c r="E47" s="142"/>
-      <c r="S47" s="216"/>
-      <c r="W47" s="221"/>
+      <c r="S47" s="210"/>
+      <c r="W47" s="215"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="127"/>
@@ -18369,17 +19321,17 @@
       <c r="R48" s="122" t="s">
         <v>870</v>
       </c>
-      <c r="S48" s="216"/>
-      <c r="T48" s="237">
+      <c r="S48" s="210"/>
+      <c r="T48" s="319">
         <f>0.1*SUM(T44:U46)</f>
         <v>423837727.208</v>
       </c>
-      <c r="U48" s="237"/>
-      <c r="W48" s="221">
+      <c r="U48" s="319"/>
+      <c r="W48" s="215">
         <f t="shared" si="11"/>
         <v>15698</v>
       </c>
-      <c r="X48" s="219">
+      <c r="X48" s="213">
         <f>T48/$T$44</f>
         <v>0.12942304228138313</v>
       </c>
@@ -18393,16 +19345,16 @@
       <c r="R49" s="122" t="s">
         <v>869</v>
       </c>
-      <c r="T49" s="230">
+      <c r="T49" s="316">
         <f>0.02*SUM(T44:U46)</f>
         <v>84767545.441599995</v>
       </c>
-      <c r="U49" s="230"/>
-      <c r="W49" s="221">
+      <c r="U49" s="316"/>
+      <c r="W49" s="215">
         <f t="shared" si="11"/>
         <v>3140</v>
       </c>
-      <c r="X49" s="219">
+      <c r="X49" s="213">
         <f>T49/$T$44</f>
         <v>2.5884608456276624E-2</v>
       </c>
@@ -18416,12 +19368,12 @@
       <c r="R50" s="122" t="s">
         <v>873</v>
       </c>
-      <c r="T50" s="230">
+      <c r="T50" s="316">
         <f>SUM(T44:U49)</f>
         <v>4746982544.7296</v>
       </c>
-      <c r="U50" s="230"/>
-      <c r="W50" s="221">
+      <c r="U50" s="316"/>
+      <c r="W50" s="215">
         <f t="shared" si="11"/>
         <v>175815</v>
       </c>
@@ -18445,24 +19397,24 @@
       <c r="M52" s="122">
         <v>5682</v>
       </c>
-      <c r="N52" s="235">
+      <c r="N52" s="317">
         <f>M52*2700</f>
         <v>15341400</v>
       </c>
-      <c r="O52" s="235"/>
+      <c r="O52" s="317"/>
       <c r="R52" s="122" t="s">
         <v>874</v>
       </c>
-      <c r="T52" s="230">
+      <c r="T52" s="316">
         <f>T50*0.19</f>
         <v>901926683.49862397</v>
       </c>
-      <c r="U52" s="230"/>
-      <c r="W52" s="221">
+      <c r="U52" s="316"/>
+      <c r="W52" s="215">
         <f t="shared" si="11"/>
         <v>33405</v>
       </c>
-      <c r="X52" s="219">
+      <c r="X52" s="213">
         <f>T52/$T$44</f>
         <v>0.27541223397478326</v>
       </c>
@@ -18472,15 +19424,15 @@
       <c r="C53" s="141"/>
       <c r="D53" s="142"/>
       <c r="E53" s="142"/>
-      <c r="V53" s="220"/>
+      <c r="V53" s="214"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="125"/>
-      <c r="T54" s="230">
+      <c r="T54" s="316">
         <f>SUM(T50:U52)</f>
         <v>5648909228.2282238</v>
       </c>
-      <c r="U54" s="230"/>
+      <c r="U54" s="316"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="127"/>
@@ -18534,15 +19486,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177AA903-641F-4476-B876-AFE68A75CB77}">
-  <dimension ref="B3:K16"/>
+  <dimension ref="A3:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="146"/>
       <c r="C3" s="146"/>
       <c r="D3" s="146"/>
@@ -18554,307 +19509,319 @@
       <c r="J3" s="146"/>
       <c r="K3" s="146"/>
     </row>
-    <row r="4" spans="2:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="239" t="s">
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="321" t="s">
         <v>831</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
+      <c r="C4" s="321"/>
+      <c r="D4" s="321"/>
+      <c r="E4" s="321"/>
+      <c r="F4" s="321"/>
+      <c r="G4" s="321"/>
+      <c r="H4" s="321"/>
       <c r="I4" s="146"/>
       <c r="J4" s="146"/>
       <c r="K4" s="146"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
-      <c r="K5" s="146"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="148" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="293"/>
+      <c r="B5" s="294"/>
+      <c r="C5" s="294"/>
+      <c r="D5" s="294"/>
+      <c r="E5" s="294"/>
+      <c r="F5" s="294"/>
+      <c r="G5" s="294"/>
+      <c r="H5" s="294"/>
+      <c r="I5" s="294"/>
+      <c r="J5" s="294"/>
+      <c r="K5" s="294"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="293"/>
+      <c r="B6" s="298" t="s">
         <v>832</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="299" t="s">
         <v>833</v>
       </c>
-      <c r="D6" s="148" t="s">
+      <c r="D6" s="299" t="s">
         <v>834</v>
       </c>
-      <c r="E6" s="148" t="s">
+      <c r="E6" s="299" t="s">
         <v>835</v>
       </c>
-      <c r="F6" s="148" t="s">
+      <c r="F6" s="299" t="s">
         <v>836</v>
       </c>
-      <c r="G6" s="148" t="s">
+      <c r="G6" s="299" t="s">
         <v>837</v>
       </c>
-      <c r="H6" s="148" t="s">
+      <c r="H6" s="299" t="s">
         <v>838</v>
       </c>
-      <c r="I6" s="148" t="s">
+      <c r="I6" s="299" t="s">
         <v>839</v>
       </c>
-      <c r="J6" s="148" t="s">
+      <c r="J6" s="299" t="s">
         <v>840</v>
       </c>
-      <c r="K6" s="149"/>
-    </row>
-    <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B7" s="150" t="s">
+      <c r="K6" s="294"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="293"/>
+      <c r="B7" s="300" t="s">
         <v>841</v>
       </c>
-      <c r="C7" s="150">
+      <c r="C7" s="296">
         <v>10</v>
       </c>
-      <c r="D7" s="150">
+      <c r="D7" s="296">
         <v>20</v>
       </c>
-      <c r="E7" s="150">
+      <c r="E7" s="296">
         <v>30</v>
       </c>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="149"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="150" t="s">
+      <c r="F7" s="296"/>
+      <c r="G7" s="296"/>
+      <c r="H7" s="296"/>
+      <c r="I7" s="296"/>
+      <c r="J7" s="296"/>
+      <c r="K7" s="294"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="293"/>
+      <c r="B8" s="298" t="s">
         <v>842</v>
       </c>
-      <c r="C8" s="150">
+      <c r="C8" s="292">
         <v>0</v>
       </c>
-      <c r="D8" s="150">
+      <c r="D8" s="292">
         <v>20</v>
       </c>
-      <c r="E8" s="150">
+      <c r="E8" s="292">
         <v>30</v>
       </c>
-      <c r="F8" s="150"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="149"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="150" t="s">
+      <c r="F8" s="292"/>
+      <c r="G8" s="292"/>
+      <c r="H8" s="292"/>
+      <c r="I8" s="292"/>
+      <c r="J8" s="292"/>
+      <c r="K8" s="294"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="293"/>
+      <c r="B9" s="298" t="s">
         <v>843</v>
       </c>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150">
+      <c r="C9" s="292"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292">
         <v>10</v>
       </c>
-      <c r="G9" s="150">
+      <c r="G9" s="292">
         <v>20</v>
       </c>
-      <c r="H9" s="150">
+      <c r="H9" s="292">
         <v>20</v>
       </c>
-      <c r="I9" s="150">
+      <c r="I9" s="292">
         <v>10</v>
       </c>
-      <c r="J9" s="150"/>
-      <c r="K9" s="149"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="150" t="s">
+      <c r="J9" s="292"/>
+      <c r="K9" s="294"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="293"/>
+      <c r="B10" s="298" t="s">
         <v>844</v>
       </c>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150">
+      <c r="C10" s="292"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292">
         <v>15</v>
       </c>
-      <c r="G10" s="150">
+      <c r="G10" s="292">
         <v>30</v>
       </c>
-      <c r="H10" s="150">
+      <c r="H10" s="292">
         <v>35</v>
       </c>
-      <c r="I10" s="150">
+      <c r="I10" s="292">
         <v>20</v>
       </c>
-      <c r="J10" s="150"/>
-      <c r="K10" s="149"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="150" t="s">
+      <c r="J10" s="292"/>
+      <c r="K10" s="294"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="293"/>
+      <c r="B11" s="298" t="s">
         <v>845</v>
       </c>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150">
+      <c r="C11" s="292"/>
+      <c r="D11" s="292"/>
+      <c r="E11" s="292"/>
+      <c r="F11" s="292">
         <v>20</v>
       </c>
-      <c r="G11" s="150">
+      <c r="G11" s="292">
         <v>30</v>
       </c>
-      <c r="H11" s="150">
+      <c r="H11" s="292">
         <v>25</v>
       </c>
-      <c r="I11" s="150">
+      <c r="I11" s="292">
         <v>20</v>
       </c>
-      <c r="J11" s="150"/>
-      <c r="K11" s="149"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="150" t="s">
+      <c r="J11" s="292"/>
+      <c r="K11" s="294"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="293"/>
+      <c r="B12" s="298" t="s">
         <v>846</v>
       </c>
-      <c r="C12" s="150">
+      <c r="C12" s="292">
         <v>10</v>
       </c>
-      <c r="D12" s="150">
+      <c r="D12" s="292">
         <v>20</v>
       </c>
-      <c r="E12" s="150">
+      <c r="E12" s="292">
         <v>20</v>
       </c>
-      <c r="F12" s="150">
+      <c r="F12" s="292">
         <v>30</v>
       </c>
-      <c r="G12" s="150">
+      <c r="G12" s="292">
         <v>30</v>
       </c>
-      <c r="H12" s="150">
+      <c r="H12" s="292">
         <v>25</v>
       </c>
-      <c r="I12" s="150">
+      <c r="I12" s="292">
         <v>20</v>
       </c>
-      <c r="J12" s="150">
+      <c r="J12" s="292">
         <v>10</v>
       </c>
-      <c r="K12" s="149"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="150" t="s">
+      <c r="K12" s="294"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="293"/>
+      <c r="B13" s="298" t="s">
         <v>395</v>
       </c>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150">
+      <c r="C13" s="292"/>
+      <c r="D13" s="292"/>
+      <c r="E13" s="292"/>
+      <c r="F13" s="292"/>
+      <c r="G13" s="292">
         <v>25</v>
       </c>
-      <c r="H13" s="150">
+      <c r="H13" s="292">
         <v>25</v>
       </c>
-      <c r="I13" s="150">
+      <c r="I13" s="292">
         <v>50</v>
       </c>
-      <c r="J13" s="150">
+      <c r="J13" s="292">
         <v>30</v>
       </c>
-      <c r="K13" s="149"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="150" t="s">
+      <c r="K13" s="294"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="293"/>
+      <c r="B14" s="301" t="s">
         <v>847</v>
       </c>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150">
+      <c r="C14" s="297"/>
+      <c r="D14" s="297"/>
+      <c r="E14" s="297"/>
+      <c r="F14" s="297"/>
+      <c r="G14" s="297">
         <v>10</v>
       </c>
-      <c r="H14" s="150">
+      <c r="H14" s="297">
         <v>25</v>
       </c>
-      <c r="I14" s="150">
+      <c r="I14" s="297">
         <v>30</v>
       </c>
-      <c r="J14" s="150">
+      <c r="J14" s="297">
         <v>10</v>
       </c>
-      <c r="K14" s="149"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="151" t="s">
+      <c r="K14" s="294"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="293"/>
+      <c r="B15" s="298" t="s">
         <v>848</v>
       </c>
-      <c r="C15" s="151">
+      <c r="C15" s="299">
         <v>20</v>
       </c>
-      <c r="D15" s="151">
+      <c r="D15" s="299">
         <v>60</v>
       </c>
-      <c r="E15" s="151">
+      <c r="E15" s="299">
         <v>80</v>
       </c>
-      <c r="F15" s="151">
+      <c r="F15" s="299">
         <v>75</v>
       </c>
-      <c r="G15" s="151">
+      <c r="G15" s="299">
         <v>145</v>
       </c>
-      <c r="H15" s="151">
+      <c r="H15" s="299">
         <v>155</v>
       </c>
-      <c r="I15" s="151">
+      <c r="I15" s="299">
         <v>150</v>
       </c>
-      <c r="J15" s="151">
+      <c r="J15" s="299">
         <v>50</v>
       </c>
-      <c r="K15" s="149"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="152"/>
-      <c r="C16" s="152">
+      <c r="K15" s="294"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="293"/>
+      <c r="B16" s="295"/>
+      <c r="C16" s="295">
         <f>C15/10</f>
         <v>2</v>
       </c>
-      <c r="D16" s="152">
+      <c r="D16" s="295">
         <f t="shared" ref="D16:J16" si="0">D15/10</f>
         <v>6</v>
       </c>
-      <c r="E16" s="152">
+      <c r="E16" s="295">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F16" s="152">
+      <c r="F16" s="295">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="G16" s="152">
+      <c r="G16" s="295">
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
-      <c r="H16" s="152">
+      <c r="H16" s="295">
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
-      <c r="I16" s="152">
+      <c r="I16" s="295">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J16" s="152">
+      <c r="J16" s="295">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K16" s="146"/>
+      <c r="K16" s="294"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -18866,578 +19833,633 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3061437A-C47F-4BDF-9E4C-71A33370AA75}">
-  <dimension ref="B2:Z25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EFD5F5-5A94-4A67-8C87-B064F7A32974}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3061437A-C47F-4BDF-9E4C-71A33370AA75}">
+  <dimension ref="B2:M33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.88671875" style="240" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="240" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="240" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="11.5546875" style="240"/>
-    <col min="11" max="11" width="30.5546875" style="240" customWidth="1"/>
-    <col min="12" max="16" width="11.5546875" style="240"/>
-    <col min="17" max="17" width="25.109375" style="240" customWidth="1"/>
-    <col min="18" max="18" width="17.33203125" style="240" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.21875" style="240" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.5546875" style="240"/>
-    <col min="22" max="22" width="16.5546875" style="240" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.21875" style="240" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.77734375" style="240" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.5546875" style="240"/>
+    <col min="1" max="1" width="5.33203125" style="216" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="216" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="216" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="216" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="216" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" style="216" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="216" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" style="216" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" style="216" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" style="216" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5546875" style="216"/>
+    <col min="16" max="16" width="16.5546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.21875" style="216" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.77734375" style="216" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.5546875" style="216"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q3" s="252" t="s">
+    <row r="2" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="228" t="s">
+        <v>886</v>
+      </c>
+      <c r="H3" s="228" t="s">
+        <v>890</v>
+      </c>
+      <c r="I3" s="228" t="s">
+        <v>877</v>
+      </c>
+      <c r="J3" s="228" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="228" t="s">
+        <v>876</v>
+      </c>
+      <c r="C4" s="229" t="s">
+        <v>877</v>
+      </c>
+      <c r="D4" s="230" t="s">
+        <v>878</v>
+      </c>
+      <c r="G4" s="240" t="s">
         <v>887</v>
       </c>
-      <c r="R3" s="252" t="s">
-        <v>891</v>
-      </c>
-      <c r="S3" s="252" t="s">
-        <v>877</v>
-      </c>
-      <c r="T3" s="252" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="4" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="252" t="s">
-        <v>876</v>
-      </c>
-      <c r="C4" s="253" t="s">
-        <v>877</v>
-      </c>
-      <c r="D4" s="254" t="s">
-        <v>878</v>
-      </c>
-      <c r="K4" s="258" t="s">
-        <v>805</v>
-      </c>
-      <c r="L4" s="277" t="s">
-        <v>806</v>
-      </c>
-      <c r="M4" s="278" t="s">
-        <v>807</v>
-      </c>
-      <c r="N4" s="279"/>
-      <c r="P4" s="300"/>
-      <c r="Q4" s="301" t="s">
-        <v>888</v>
-      </c>
-      <c r="R4" s="304">
+      <c r="H4" s="243">
         <v>87145875</v>
       </c>
-      <c r="S4" s="304">
+      <c r="I4" s="243">
         <v>697167000</v>
       </c>
-      <c r="T4" s="307">
+      <c r="J4" s="246">
         <v>25821</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="243" t="s">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="219" t="s">
         <v>875</v>
       </c>
-      <c r="C5" s="246">
+      <c r="C5" s="222">
         <f t="shared" ref="C5:C9" si="0">D5*27000</f>
         <v>67601790</v>
       </c>
-      <c r="D5" s="241">
+      <c r="D5" s="217">
         <v>2503.77</v>
       </c>
-      <c r="K5" s="290"/>
-      <c r="L5" s="280" t="s">
-        <v>885</v>
-      </c>
-      <c r="M5" s="281" t="s">
-        <v>885</v>
-      </c>
-      <c r="N5" s="282" t="s">
-        <v>809</v>
-      </c>
-      <c r="P5" s="300"/>
-      <c r="Q5" s="302" t="s">
-        <v>889</v>
-      </c>
-      <c r="R5" s="305">
+      <c r="G5" s="241" t="s">
+        <v>888</v>
+      </c>
+      <c r="H5" s="244">
         <v>450000</v>
       </c>
-      <c r="S5" s="305">
+      <c r="I5" s="244">
         <v>3600000</v>
       </c>
-      <c r="T5" s="308">
+      <c r="J5" s="247">
         <v>133.33333333333334</v>
       </c>
     </row>
-    <row r="6" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="244" t="s">
+    <row r="6" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="220" t="s">
         <v>879</v>
       </c>
-      <c r="C6" s="247">
+      <c r="C6" s="223">
         <f t="shared" si="0"/>
         <v>2005959060</v>
       </c>
-      <c r="D6" s="242">
+      <c r="D6" s="218">
         <v>74294.78</v>
       </c>
-      <c r="K6" s="289" t="s">
-        <v>810</v>
-      </c>
-      <c r="L6" s="268">
-        <v>5000000</v>
-      </c>
-      <c r="M6" s="283">
-        <v>10000000</v>
-      </c>
-      <c r="N6" s="284">
-        <v>370</v>
-      </c>
-      <c r="P6" s="300"/>
-      <c r="Q6" s="303" t="s">
-        <v>890</v>
-      </c>
-      <c r="R6" s="306">
+      <c r="G6" s="242" t="s">
+        <v>889</v>
+      </c>
+      <c r="H6" s="245">
         <v>100000</v>
       </c>
-      <c r="S6" s="306">
+      <c r="I6" s="245">
         <v>800000</v>
       </c>
-      <c r="T6" s="309">
+      <c r="J6" s="248">
         <v>29.62962962962963</v>
       </c>
     </row>
-    <row r="7" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="244" t="s">
+    <row r="7" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="220" t="s">
         <v>880</v>
       </c>
-      <c r="C7" s="247">
+      <c r="C7" s="223">
         <f t="shared" si="0"/>
         <v>734277420</v>
       </c>
-      <c r="D7" s="242">
+      <c r="D7" s="218">
         <v>27195.46</v>
       </c>
-      <c r="K7" s="259" t="s">
-        <v>811</v>
-      </c>
-      <c r="L7" s="271">
-        <v>3500000</v>
-      </c>
-      <c r="M7" s="256">
-        <v>7000000</v>
-      </c>
-      <c r="N7" s="285">
-        <v>259</v>
-      </c>
-      <c r="Q7" s="310" t="s">
-        <v>892</v>
-      </c>
-      <c r="R7" s="311">
-        <f>SUM(R4:R6)</f>
+      <c r="G7" s="249" t="s">
+        <v>891</v>
+      </c>
+      <c r="H7" s="250">
+        <f>SUM(H4:H6)</f>
         <v>87695875</v>
       </c>
-      <c r="S7" s="311">
-        <f t="shared" ref="S7:T7" si="1">SUM(S4:S6)</f>
+      <c r="I7" s="250">
+        <f t="shared" ref="I7:J7" si="1">SUM(I4:I6)</f>
         <v>701567000</v>
       </c>
-      <c r="T7" s="312">
+      <c r="J7" s="251">
         <f t="shared" si="1"/>
         <v>25983.962962962964</v>
       </c>
     </row>
-    <row r="8" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="244" t="s">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="220" t="s">
         <v>881</v>
       </c>
-      <c r="C8" s="247">
+      <c r="C8" s="223">
         <f t="shared" si="0"/>
         <v>6223770</v>
       </c>
-      <c r="D8" s="242">
+      <c r="D8" s="218">
         <v>230.51</v>
       </c>
-      <c r="K8" s="259" t="s">
-        <v>812</v>
-      </c>
-      <c r="L8" s="271">
-        <v>2500000</v>
-      </c>
-      <c r="M8" s="256">
-        <v>5000000</v>
-      </c>
-      <c r="N8" s="285">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="244" t="s">
+    </row>
+    <row r="9" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="220" t="s">
         <v>882</v>
       </c>
-      <c r="C9" s="247">
+      <c r="C9" s="223">
         <f t="shared" si="0"/>
         <v>460762290</v>
       </c>
-      <c r="D9" s="242">
+      <c r="D9" s="218">
         <v>17065.27</v>
       </c>
-      <c r="K9" s="259" t="s">
-        <v>813</v>
-      </c>
-      <c r="L9" s="271">
-        <v>2500000</v>
-      </c>
-      <c r="M9" s="256">
-        <v>5000000</v>
-      </c>
-      <c r="N9" s="285">
-        <v>185</v>
-      </c>
-      <c r="W9" s="335" t="s">
-        <v>865</v>
-      </c>
-      <c r="X9" s="336" t="s">
-        <v>877</v>
-      </c>
-      <c r="Y9" s="336" t="s">
-        <v>878</v>
-      </c>
-      <c r="Z9" s="337" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="249" t="s">
+    </row>
+    <row r="10" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="225" t="s">
         <v>883</v>
       </c>
-      <c r="C10" s="250">
+      <c r="C10" s="226">
         <f>D10*27000</f>
         <v>3274824330</v>
       </c>
-      <c r="D10" s="251">
+      <c r="D10" s="227">
         <f>SUM(D5:D9)</f>
         <v>121289.79000000001</v>
       </c>
-      <c r="K10" s="260" t="s">
+      <c r="H10" s="262" t="s">
+        <v>877</v>
+      </c>
+      <c r="I10" s="263" t="s">
+        <v>878</v>
+      </c>
+      <c r="J10" s="229" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="219" t="s">
+        <v>896</v>
+      </c>
+      <c r="H11" s="252">
+        <v>3274824326</v>
+      </c>
+      <c r="I11" s="253">
+        <v>121290</v>
+      </c>
+      <c r="J11" s="327"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="269" t="s">
+        <v>806</v>
+      </c>
+      <c r="D12" s="325" t="s">
+        <v>807</v>
+      </c>
+      <c r="E12" s="326"/>
+      <c r="G12" s="220" t="s">
+        <v>892</v>
+      </c>
+      <c r="H12" s="254">
+        <v>261985946.08000001</v>
+      </c>
+      <c r="I12" s="255">
+        <v>9704</v>
+      </c>
+      <c r="J12" s="328"/>
+      <c r="K12" s="333"/>
+      <c r="L12" s="333"/>
+      <c r="M12" s="333"/>
+    </row>
+    <row r="13" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="287"/>
+      <c r="C13" s="270" t="s">
+        <v>885</v>
+      </c>
+      <c r="D13" s="271" t="s">
+        <v>885</v>
+      </c>
+      <c r="E13" s="272" t="s">
+        <v>809</v>
+      </c>
+      <c r="G13" s="221" t="s">
+        <v>886</v>
+      </c>
+      <c r="H13" s="256">
+        <v>701567000</v>
+      </c>
+      <c r="I13" s="257">
+        <v>25984</v>
+      </c>
+      <c r="J13" s="329">
+        <v>0.21423042281383101</v>
+      </c>
+      <c r="K13" s="333"/>
+      <c r="L13" s="334"/>
+      <c r="M13" s="333"/>
+    </row>
+    <row r="14" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="291" t="s">
+        <v>805</v>
+      </c>
+      <c r="C14" s="302"/>
+      <c r="D14" s="302"/>
+      <c r="E14" s="303"/>
+      <c r="G14" s="219" t="s">
+        <v>893</v>
+      </c>
+      <c r="H14" s="252">
+        <v>423837727.208</v>
+      </c>
+      <c r="I14" s="253">
+        <v>15698</v>
+      </c>
+      <c r="J14" s="330">
+        <v>0.12942304228138313</v>
+      </c>
+      <c r="K14" s="333"/>
+      <c r="L14" s="334"/>
+      <c r="M14" s="333"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="281" t="s">
+        <v>810</v>
+      </c>
+      <c r="C15" s="288">
+        <v>5000000</v>
+      </c>
+      <c r="D15" s="289">
+        <v>10000000</v>
+      </c>
+      <c r="E15" s="290">
+        <v>370</v>
+      </c>
+      <c r="G15" s="220" t="s">
+        <v>894</v>
+      </c>
+      <c r="H15" s="254">
+        <v>84767545.441599995</v>
+      </c>
+      <c r="I15" s="255">
+        <v>3140</v>
+      </c>
+      <c r="J15" s="331">
+        <v>2.5884608456276624E-2</v>
+      </c>
+      <c r="K15" s="333"/>
+      <c r="L15" s="334"/>
+      <c r="M15" s="333"/>
+    </row>
+    <row r="16" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="282" t="s">
+        <v>811</v>
+      </c>
+      <c r="C16" s="274">
+        <v>3500000</v>
+      </c>
+      <c r="D16" s="275">
+        <v>7000000</v>
+      </c>
+      <c r="E16" s="265">
+        <v>259</v>
+      </c>
+      <c r="G16" s="221" t="s">
+        <v>873</v>
+      </c>
+      <c r="H16" s="256">
+        <v>4746982544.7296</v>
+      </c>
+      <c r="I16" s="257">
+        <v>175815</v>
+      </c>
+      <c r="J16" s="329"/>
+      <c r="K16" s="333"/>
+      <c r="L16" s="334"/>
+      <c r="M16" s="333"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="282" t="s">
+        <v>812</v>
+      </c>
+      <c r="C17" s="274">
+        <v>2500000</v>
+      </c>
+      <c r="D17" s="275">
+        <v>5000000</v>
+      </c>
+      <c r="E17" s="265">
+        <v>185</v>
+      </c>
+      <c r="G17" s="224" t="s">
+        <v>897</v>
+      </c>
+      <c r="H17" s="258">
+        <v>901926683.49862397</v>
+      </c>
+      <c r="I17" s="259">
+        <v>33405</v>
+      </c>
+      <c r="J17" s="332">
+        <v>0.27541223397478326</v>
+      </c>
+      <c r="K17" s="333"/>
+      <c r="L17" s="334"/>
+      <c r="M17" s="333"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="282" t="s">
+        <v>813</v>
+      </c>
+      <c r="C18" s="274">
+        <v>2500000</v>
+      </c>
+      <c r="D18" s="275">
+        <v>5000000</v>
+      </c>
+      <c r="E18" s="265">
+        <v>185</v>
+      </c>
+      <c r="G18" s="225" t="s">
+        <v>895</v>
+      </c>
+      <c r="H18" s="260">
+        <v>5648909228.2282238</v>
+      </c>
+      <c r="I18" s="261">
+        <f>H18/27000</f>
+        <v>209218.86030474902</v>
+      </c>
+      <c r="J18" s="225"/>
+      <c r="K18" s="333"/>
+      <c r="L18" s="333"/>
+      <c r="M18" s="333"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="283" t="s">
         <v>814</v>
       </c>
-      <c r="L10" s="271">
+      <c r="C19" s="274">
         <v>2500000</v>
       </c>
-      <c r="M10" s="256">
+      <c r="D19" s="275">
         <v>5000000</v>
       </c>
-      <c r="N10" s="285">
+      <c r="E19" s="265">
         <v>185</v>
       </c>
-      <c r="V10" s="243" t="s">
-        <v>897</v>
-      </c>
-      <c r="W10" s="313"/>
-      <c r="X10" s="314">
-        <v>3274824326</v>
-      </c>
-      <c r="Y10" s="315">
-        <v>121290</v>
-      </c>
-      <c r="Z10" s="316"/>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="K11" s="260" t="s">
+      <c r="K19" s="333"/>
+      <c r="L19" s="333"/>
+      <c r="M19" s="333"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="283" t="s">
         <v>815</v>
       </c>
-      <c r="L11" s="271">
+      <c r="C20" s="274">
         <v>3500000</v>
       </c>
-      <c r="M11" s="256">
+      <c r="D20" s="275">
         <v>7000000</v>
       </c>
-      <c r="N11" s="285">
+      <c r="E20" s="265">
         <v>259</v>
       </c>
-      <c r="V11" s="244" t="s">
-        <v>893</v>
-      </c>
-      <c r="W11" s="317"/>
-      <c r="X11" s="318">
-        <v>261985946.08000001</v>
-      </c>
-      <c r="Y11" s="319">
-        <v>9704</v>
-      </c>
-      <c r="Z11" s="320"/>
-    </row>
-    <row r="12" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K12" s="260" t="s">
+      <c r="K20" s="333"/>
+      <c r="L20" s="333"/>
+      <c r="M20" s="333"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="283" t="s">
         <v>816</v>
       </c>
-      <c r="L12" s="271">
+      <c r="C21" s="274">
         <v>2500000</v>
       </c>
-      <c r="M12" s="256">
+      <c r="D21" s="275">
         <v>5000000</v>
       </c>
-      <c r="N12" s="285">
+      <c r="E21" s="265">
         <v>185</v>
       </c>
-      <c r="V12" s="245" t="s">
-        <v>887</v>
-      </c>
-      <c r="W12" s="322">
-        <v>87695875</v>
-      </c>
-      <c r="X12" s="323">
-        <v>701567000</v>
-      </c>
-      <c r="Y12" s="324">
-        <v>25984</v>
-      </c>
-      <c r="Z12" s="333">
-        <v>0.21423042281383101</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="K13" s="260" t="s">
+      <c r="K21" s="333"/>
+      <c r="L21" s="333"/>
+      <c r="M21" s="333"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="283" t="s">
         <v>817</v>
       </c>
-      <c r="L13" s="271">
+      <c r="C22" s="274">
         <v>1500000</v>
       </c>
-      <c r="M13" s="256">
+      <c r="D22" s="275">
         <v>3000000</v>
       </c>
-      <c r="N13" s="285">
+      <c r="E22" s="265">
         <v>111</v>
       </c>
-      <c r="V13" s="243" t="s">
-        <v>894</v>
-      </c>
-      <c r="W13" s="313"/>
-      <c r="X13" s="314">
-        <v>423837727.208</v>
-      </c>
-      <c r="Y13" s="315">
-        <v>15698</v>
-      </c>
-      <c r="Z13" s="332">
-        <v>0.12942304228138313</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="K14" s="260" t="s">
+      <c r="K22" s="333"/>
+      <c r="L22" s="333"/>
+      <c r="M22" s="333"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="283" t="s">
         <v>818</v>
       </c>
-      <c r="L14" s="271">
+      <c r="C23" s="274">
         <v>700000</v>
       </c>
-      <c r="M14" s="256">
+      <c r="D23" s="275">
         <v>1400000</v>
       </c>
-      <c r="N14" s="285">
+      <c r="E23" s="265">
         <v>52</v>
       </c>
-      <c r="V14" s="244" t="s">
-        <v>895</v>
-      </c>
-      <c r="W14" s="317"/>
-      <c r="X14" s="318">
-        <v>84767545.441599995</v>
-      </c>
-      <c r="Y14" s="319">
-        <v>3140</v>
-      </c>
-      <c r="Z14" s="321">
-        <v>2.5884608456276624E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K15" s="260" t="s">
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="283" t="s">
         <v>819</v>
       </c>
-      <c r="L15" s="271">
+      <c r="C24" s="274">
         <v>600000</v>
       </c>
-      <c r="M15" s="255">
-        <f>L15*2</f>
+      <c r="D24" s="276">
+        <f>C24*2</f>
         <v>1200000</v>
       </c>
-      <c r="N15" s="285">
-        <f>ROUNDUP(L15/27000,0)</f>
+      <c r="E24" s="265">
+        <f>ROUNDUP(C24/27000,0)</f>
         <v>23</v>
       </c>
-      <c r="V15" s="245" t="s">
-        <v>873</v>
-      </c>
-      <c r="W15" s="322"/>
-      <c r="X15" s="323">
-        <v>4746982544.7296</v>
-      </c>
-      <c r="Y15" s="324">
-        <v>175815</v>
-      </c>
-      <c r="Z15" s="333"/>
-    </row>
-    <row r="16" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K16" s="260" t="s">
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="283" t="s">
         <v>820</v>
       </c>
-      <c r="L16" s="271">
+      <c r="C25" s="274">
         <v>800000</v>
       </c>
-      <c r="M16" s="256">
+      <c r="D25" s="275">
         <v>1600000</v>
       </c>
-      <c r="N16" s="285">
+      <c r="E25" s="265">
         <v>59</v>
       </c>
-      <c r="V16" s="248" t="s">
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="283" t="s">
+        <v>821</v>
+      </c>
+      <c r="C26" s="274">
+        <v>2000000</v>
+      </c>
+      <c r="D26" s="275">
+        <v>4000000</v>
+      </c>
+      <c r="E26" s="265">
+        <v>148</v>
+      </c>
+      <c r="H26" s="203"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="283" t="s">
+        <v>822</v>
+      </c>
+      <c r="C27" s="274">
+        <v>1500000</v>
+      </c>
+      <c r="D27" s="275">
+        <v>3000000</v>
+      </c>
+      <c r="E27" s="265">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="284" t="s">
+        <v>823</v>
+      </c>
+      <c r="C28" s="277">
+        <v>1500000</v>
+      </c>
+      <c r="D28" s="278">
+        <v>3000000</v>
+      </c>
+      <c r="E28" s="266">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="322" t="s">
+        <v>824</v>
+      </c>
+      <c r="C29" s="323"/>
+      <c r="D29" s="323"/>
+      <c r="E29" s="324"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="285" t="s">
+        <v>825</v>
+      </c>
+      <c r="C30" s="273">
+        <v>2000000</v>
+      </c>
+      <c r="D30" s="267" t="s">
+        <v>884</v>
+      </c>
+      <c r="E30" s="264">
+        <f>ROUNDUP(C30/27000,0)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="283" t="s">
+        <v>826</v>
+      </c>
+      <c r="C31" s="274">
+        <v>8000000</v>
+      </c>
+      <c r="D31" s="267" t="s">
+        <v>884</v>
+      </c>
+      <c r="E31" s="265">
+        <f>ROUNDUP(C31/27000,0)</f>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="283" t="s">
         <v>898</v>
       </c>
-      <c r="W16" s="325"/>
-      <c r="X16" s="326">
-        <v>901926683.49862397</v>
-      </c>
-      <c r="Y16" s="327">
-        <v>33405</v>
-      </c>
-      <c r="Z16" s="334">
-        <v>0.27541223397478326</v>
-      </c>
-    </row>
-    <row r="17" spans="11:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K17" s="261" t="s">
-        <v>821</v>
-      </c>
-      <c r="L17" s="271">
-        <v>2000000</v>
-      </c>
-      <c r="M17" s="256">
-        <v>4000000</v>
-      </c>
-      <c r="N17" s="285">
-        <v>148</v>
-      </c>
-      <c r="V17" s="249" t="s">
-        <v>896</v>
-      </c>
-      <c r="W17" s="328"/>
-      <c r="X17" s="329">
-        <v>5648909228.2282238</v>
-      </c>
-      <c r="Y17" s="330">
-        <f>X17/27000</f>
-        <v>209218.86030474902</v>
-      </c>
-      <c r="Z17" s="331"/>
-    </row>
-    <row r="18" spans="11:26" x14ac:dyDescent="0.25">
-      <c r="K18" s="261" t="s">
-        <v>822</v>
-      </c>
-      <c r="L18" s="271">
-        <v>1500000</v>
-      </c>
-      <c r="M18" s="256">
-        <v>3000000</v>
-      </c>
-      <c r="N18" s="285">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="11:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K19" s="263" t="s">
-        <v>823</v>
-      </c>
-      <c r="L19" s="286">
-        <v>1500000</v>
-      </c>
-      <c r="M19" s="287">
-        <v>3000000</v>
-      </c>
-      <c r="N19" s="288">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="11:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K20" s="265" t="s">
-        <v>824</v>
-      </c>
-      <c r="L20" s="266"/>
-      <c r="M20" s="266"/>
-      <c r="N20" s="267"/>
-    </row>
-    <row r="21" spans="11:26" x14ac:dyDescent="0.25">
-      <c r="K21" s="264" t="s">
-        <v>825</v>
-      </c>
-      <c r="L21" s="268">
-        <v>2000000</v>
-      </c>
-      <c r="M21" s="269" t="s">
+      <c r="C32" s="274">
+        <v>150000</v>
+      </c>
+      <c r="D32" s="267" t="s">
         <v>884</v>
       </c>
-      <c r="N21" s="270">
-        <f>ROUNDUP(L21/27000,0)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="11:26" x14ac:dyDescent="0.25">
-      <c r="K22" s="261" t="s">
-        <v>826</v>
-      </c>
-      <c r="L22" s="271">
-        <v>8000000</v>
-      </c>
-      <c r="M22" s="272" t="s">
+      <c r="E32" s="265">
+        <f>ROUNDUP(C32/27000,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="286" t="s">
+        <v>899</v>
+      </c>
+      <c r="C33" s="279">
+        <v>200000</v>
+      </c>
+      <c r="D33" s="268" t="s">
         <v>884</v>
       </c>
-      <c r="N22" s="273">
-        <f>ROUNDUP(L22/27000,0)</f>
-        <v>297</v>
-      </c>
-    </row>
-    <row r="23" spans="11:26" x14ac:dyDescent="0.25">
-      <c r="K23" s="261" t="s">
-        <v>886</v>
-      </c>
-      <c r="L23" s="271">
-        <v>150000</v>
-      </c>
-      <c r="M23" s="257" t="s">
-        <v>884</v>
-      </c>
-      <c r="N23" s="273">
-        <f>ROUNDUP(L23/27000,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="11:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K24" s="262" t="s">
-        <v>828</v>
-      </c>
-      <c r="L24" s="274">
-        <v>200000</v>
-      </c>
-      <c r="M24" s="275" t="s">
-        <v>884</v>
-      </c>
-      <c r="N24" s="276">
-        <f>ROUNDUP(L24/27000,0)</f>
+      <c r="E33" s="280">
+        <f>ROUNDUP(C33/27000,0)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="11:26" x14ac:dyDescent="0.25">
-      <c r="M25" s="209"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
